--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="85">
   <si>
     <t xml:space="preserve">RESULTADOS</t>
   </si>
@@ -507,7 +507,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="73">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -652,6 +652,34 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
@@ -704,69 +732,21 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -804,6 +784,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
@@ -811,14 +799,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -899,15 +879,15 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H45" activeCellId="0" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.1983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.09716599190283"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.1983805668016"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1266,52 +1246,56 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="n">
+      <c r="A20" s="10" t="n">
         <v>43267</v>
       </c>
-      <c r="B20" s="16" t="n">
+      <c r="B20" s="11" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="17" t="s">
+      <c r="D20" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="n">
+      <c r="A21" s="5" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="6" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="26" t="n">
+      <c r="D21" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="17" t="s">
+      <c r="E21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="n">
@@ -1420,52 +1404,56 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="n">
+      <c r="A28" s="5" t="n">
         <v>43267</v>
       </c>
-      <c r="B28" s="16" t="n">
+      <c r="B28" s="6" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="17" t="s">
+      <c r="D28" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="H28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="n">
+      <c r="A29" s="10" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="16" t="n">
+      <c r="B29" s="11" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="17" t="s">
+      <c r="D29" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="27"/>
+      <c r="H29" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="n">
@@ -1576,52 +1564,56 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="n">
+      <c r="A36" s="10" t="n">
         <v>43268</v>
       </c>
-      <c r="B36" s="16" t="n">
+      <c r="B36" s="11" t="n">
         <v>0.375</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="26" t="n">
+      <c r="D36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="27"/>
+      <c r="H36" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="n">
+      <c r="A37" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B37" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="17" t="s">
+      <c r="B37" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="26" t="n">
+      <c r="D37" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="17" t="s">
+      <c r="E37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="27"/>
+      <c r="H37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="n">
@@ -1730,52 +1722,56 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="n">
+      <c r="A44" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B44" s="16" t="n">
+      <c r="B44" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="17" t="s">
+      <c r="D44" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="27"/>
+      <c r="H44" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="n">
+      <c r="A45" s="10" t="n">
         <v>43269</v>
       </c>
-      <c r="B45" s="16" t="n">
+      <c r="B45" s="11" t="n">
         <v>0.375</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="26" t="n">
+      <c r="D45" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="17" t="s">
+      <c r="E45" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="27"/>
+      <c r="H45" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="n">
@@ -2698,15 +2694,15 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H45" activeCellId="0" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="16.1983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.09716599190283"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="16.1983805668016"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3055,52 +3051,56 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="n">
+      <c r="A20" s="10" t="n">
         <v>43267</v>
       </c>
-      <c r="B20" s="16" t="n">
+      <c r="B20" s="11" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="17" t="s">
+      <c r="D20" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="n">
+      <c r="A21" s="5" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="6" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="17" t="s">
+      <c r="D21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="n">
@@ -3209,52 +3209,56 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="n">
+      <c r="A28" s="5" t="n">
         <v>43267</v>
       </c>
-      <c r="B28" s="16" t="n">
+      <c r="B28" s="6" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="17" t="s">
+      <c r="D28" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="H28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="n">
+      <c r="A29" s="10" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="16" t="n">
+      <c r="B29" s="11" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="17" t="s">
+      <c r="D29" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="27"/>
+      <c r="H29" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="n">
@@ -3365,52 +3369,56 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="n">
+      <c r="A36" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B36" s="16" t="n">
+      <c r="B36" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="17" t="s">
+      <c r="D36" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="27"/>
+      <c r="H36" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="n">
+      <c r="A37" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B37" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="17" t="s">
+      <c r="B37" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="26" t="n">
+      <c r="D37" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="17" t="s">
+      <c r="E37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="27"/>
+      <c r="H37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="n">
@@ -3519,52 +3527,56 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="n">
+      <c r="A44" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B44" s="16" t="n">
+      <c r="B44" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="17" t="s">
+      <c r="D44" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="27"/>
+      <c r="H44" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="n">
+      <c r="A45" s="10" t="n">
         <v>43269</v>
       </c>
-      <c r="B45" s="16" t="n">
+      <c r="B45" s="11" t="n">
         <v>0.375</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="26" t="n">
+      <c r="D45" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="17" t="s">
+      <c r="E45" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="27"/>
+      <c r="H45" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="n">
@@ -4485,15 +4497,15 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.1983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.09716599190283"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.1983805668016"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4852,52 +4864,56 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="n">
+      <c r="A20" s="10" t="n">
         <v>43267</v>
       </c>
-      <c r="B20" s="16" t="n">
+      <c r="B20" s="11" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="17" t="s">
+      <c r="D20" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="n">
+      <c r="A21" s="5" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="6" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="17" t="s">
+      <c r="D21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="n">
@@ -5006,52 +5022,56 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="n">
+      <c r="A28" s="5" t="n">
         <v>43267</v>
       </c>
-      <c r="B28" s="16" t="n">
+      <c r="B28" s="6" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="26" t="n">
+      <c r="D28" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="17" t="s">
+      <c r="E28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="H28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="n">
+      <c r="A29" s="10" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="16" t="n">
+      <c r="B29" s="11" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="26" t="n">
+      <c r="D29" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="17" t="s">
+      <c r="E29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="27"/>
+      <c r="H29" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="n">
@@ -5157,57 +5177,59 @@
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="n">
+      <c r="A36" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B36" s="16" t="n">
+      <c r="B36" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="17" t="s">
+      <c r="D36" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="27"/>
+      <c r="H36" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="n">
+      <c r="A37" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B37" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="17" t="s">
+      <c r="B37" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="17" t="s">
+      <c r="D37" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="27"/>
+      <c r="H37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="n">
@@ -5316,52 +5338,56 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="n">
+      <c r="A44" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B44" s="16" t="n">
+      <c r="B44" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="17" t="s">
+      <c r="D44" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="27"/>
+      <c r="H44" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="n">
+      <c r="A45" s="10" t="n">
         <v>43269</v>
       </c>
-      <c r="B45" s="16" t="n">
+      <c r="B45" s="11" t="n">
         <v>0.375</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="17" t="s">
+      <c r="D45" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="27"/>
+      <c r="H45" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="n">
@@ -6284,15 +6310,15 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J53" activeCellId="0" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.1983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.09716599190283"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.1983805668016"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6683,52 +6709,56 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="n">
+      <c r="A20" s="10" t="n">
         <v>43267</v>
       </c>
-      <c r="B20" s="16" t="n">
+      <c r="B20" s="11" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="17" t="s">
+      <c r="D20" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="37" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="n">
+      <c r="A21" s="38" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="39" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="17" t="s">
+      <c r="D21" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="n">
@@ -6853,52 +6883,56 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="n">
+      <c r="A28" s="5" t="n">
         <v>43267</v>
       </c>
-      <c r="B28" s="16" t="n">
+      <c r="B28" s="6" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="17" t="s">
+      <c r="D28" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="H28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="n">
+      <c r="A29" s="5" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="16" t="n">
+      <c r="B29" s="6" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="17" t="s">
+      <c r="D29" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="27"/>
+      <c r="H29" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="n">
@@ -7025,52 +7059,56 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="n">
+      <c r="A36" s="10" t="n">
         <v>43268</v>
       </c>
-      <c r="B36" s="16" t="n">
+      <c r="B36" s="11" t="n">
         <v>0.375</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="26" t="n">
+      <c r="D36" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="27"/>
+      <c r="H36" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="n">
+      <c r="A37" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B37" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="17" t="s">
+      <c r="B37" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="26" t="n">
+      <c r="D37" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="27"/>
+      <c r="H37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="n">
@@ -7195,52 +7233,56 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="n">
+      <c r="A44" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B44" s="16" t="n">
+      <c r="B44" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="26" t="n">
+      <c r="D44" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="17" t="s">
+      <c r="E44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="27"/>
+      <c r="H44" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="n">
+      <c r="A45" s="10" t="n">
         <v>43269</v>
       </c>
-      <c r="B45" s="16" t="n">
+      <c r="B45" s="11" t="n">
         <v>0.375</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="17" t="s">
+      <c r="D45" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="27"/>
+      <c r="H45" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="n">
@@ -8210,15 +8252,15 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.1983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.09716599190283"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.1983805668016"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8245,152 +8287,152 @@
       <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36" t="s">
+      <c r="A3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="n">
+      <c r="A4" s="44" t="n">
         <v>43265</v>
       </c>
-      <c r="B4" s="38" t="n">
+      <c r="B4" s="45" t="n">
         <v>0.5</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="40" t="n">
+      <c r="D4" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="39" t="s">
+      <c r="E4" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="40" t="n">
+      <c r="H4" s="47" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="n">
+      <c r="A5" s="44" t="n">
         <v>43266</v>
       </c>
-      <c r="B5" s="38" t="n">
+      <c r="B5" s="45" t="n">
         <v>0.375</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="40" t="n">
+      <c r="D5" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="40" t="n">
+      <c r="H5" s="47" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="n">
+      <c r="A6" s="48" t="n">
         <v>43270</v>
       </c>
-      <c r="B6" s="42" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="43" t="s">
+      <c r="B6" s="49" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="43" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="44"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="n">
+      <c r="A7" s="48" t="n">
         <v>43271</v>
       </c>
-      <c r="B7" s="42" t="n">
+      <c r="B7" s="49" t="n">
         <v>0.5</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="43" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="44"/>
+      <c r="H7" s="51"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="n">
+      <c r="A8" s="48" t="n">
         <v>43276</v>
       </c>
-      <c r="B8" s="42" t="n">
+      <c r="B8" s="49" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="43" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="44"/>
+      <c r="H8" s="51"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="n">
+      <c r="A9" s="48" t="n">
         <v>43276</v>
       </c>
-      <c r="B9" s="42" t="n">
+      <c r="B9" s="49" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="43" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="44"/>
+      <c r="H9" s="51"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20"/>
@@ -8419,136 +8461,136 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="45" t="n">
+      <c r="A12" s="52" t="n">
         <v>43266</v>
       </c>
-      <c r="B12" s="46" t="n">
+      <c r="B12" s="53" t="n">
         <v>0.5</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="47" t="s">
+      <c r="D12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="48" t="n">
+      <c r="H12" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="45" t="n">
+      <c r="A13" s="52" t="n">
         <v>43266</v>
       </c>
-      <c r="B13" s="46" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C13" s="47" t="s">
+      <c r="B13" s="53" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C13" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="48" t="n">
+      <c r="D13" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="E13" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="47" t="s">
+      <c r="E13" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="48" t="n">
+      <c r="H13" s="55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="41" t="n">
+      <c r="A14" s="48" t="n">
         <v>43271</v>
       </c>
-      <c r="B14" s="42" t="n">
+      <c r="B14" s="49" t="n">
         <v>0.375</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="43" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="51"/>
+      <c r="G14" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="44"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="41" t="n">
+      <c r="A15" s="48" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="42" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="43" t="s">
+      <c r="B15" s="49" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="43" t="s">
+      <c r="D15" s="51"/>
+      <c r="E15" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="51"/>
+      <c r="G15" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="44"/>
+      <c r="H15" s="51"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="41" t="n">
+      <c r="A16" s="48" t="n">
         <v>43276</v>
       </c>
-      <c r="B16" s="42" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="49" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="43" t="s">
+      <c r="D16" s="51"/>
+      <c r="E16" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="51"/>
+      <c r="G16" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="44"/>
+      <c r="H16" s="51"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="41" t="n">
+      <c r="A17" s="48" t="n">
         <v>43276</v>
       </c>
-      <c r="B17" s="42" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C17" s="43" t="s">
+      <c r="B17" s="49" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C17" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="43" t="s">
+      <c r="D17" s="51"/>
+      <c r="E17" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="51"/>
+      <c r="G17" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="44"/>
+      <c r="H17" s="51"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21"/>
@@ -8577,132 +8619,136 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41" t="n">
+      <c r="A20" s="44" t="n">
         <v>43267</v>
       </c>
-      <c r="B20" s="42" t="n">
+      <c r="B20" s="45" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="44" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="43" t="s">
+      <c r="D20" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="44"/>
+      <c r="H20" s="47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="41" t="n">
+      <c r="A21" s="52" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="42" t="n">
+      <c r="B21" s="53" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="43" t="s">
+      <c r="D21" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="44"/>
+      <c r="H21" s="55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="41" t="n">
+      <c r="A22" s="48" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="42" t="n">
+      <c r="B22" s="49" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="43" t="s">
+      <c r="D22" s="51"/>
+      <c r="E22" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="51"/>
+      <c r="G22" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="44"/>
+      <c r="H22" s="51"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41" t="n">
+      <c r="A23" s="48" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="42" t="n">
+      <c r="B23" s="49" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="43" t="s">
+      <c r="D23" s="51"/>
+      <c r="E23" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="51"/>
+      <c r="G23" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="44"/>
+      <c r="H23" s="51"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="41" t="n">
+      <c r="A24" s="48" t="n">
         <v>43277</v>
       </c>
-      <c r="B24" s="42" t="n">
+      <c r="B24" s="49" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="43" t="s">
+      <c r="D24" s="51"/>
+      <c r="E24" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="51"/>
+      <c r="G24" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="44"/>
+      <c r="H24" s="51"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="41" t="n">
+      <c r="A25" s="48" t="n">
         <v>43277</v>
       </c>
-      <c r="B25" s="42" t="n">
+      <c r="B25" s="49" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="43" t="s">
+      <c r="D25" s="51"/>
+      <c r="E25" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="51"/>
+      <c r="G25" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="44"/>
+      <c r="H25" s="51"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21"/>
@@ -8731,132 +8777,136 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="41" t="n">
+      <c r="A28" s="52" t="n">
         <v>43267</v>
       </c>
-      <c r="B28" s="42" t="n">
+      <c r="B28" s="53" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="44" t="n">
+      <c r="D28" s="55" t="n">
         <v>4</v>
       </c>
-      <c r="E28" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="43" t="s">
+      <c r="E28" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="44"/>
+      <c r="H28" s="55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41" t="n">
+      <c r="A29" s="56" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="42" t="n">
+      <c r="B29" s="57" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="44" t="n">
+      <c r="D29" s="59" t="n">
         <v>2</v>
       </c>
-      <c r="E29" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="43" t="s">
+      <c r="E29" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="44"/>
+      <c r="H29" s="59" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="41" t="n">
+      <c r="A30" s="48" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="42" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="43" t="s">
+      <c r="B30" s="49" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="43" t="s">
+      <c r="D30" s="51"/>
+      <c r="E30" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="51"/>
+      <c r="G30" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="44"/>
+      <c r="H30" s="51"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="41" t="n">
+      <c r="A31" s="48" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="42" t="n">
+      <c r="B31" s="49" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="43" t="s">
+      <c r="D31" s="51"/>
+      <c r="E31" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="51"/>
+      <c r="G31" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="44"/>
+      <c r="H31" s="51"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="41" t="n">
+      <c r="A32" s="48" t="n">
         <v>43277</v>
       </c>
-      <c r="B32" s="42" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C32" s="43" t="s">
+      <c r="B32" s="49" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C32" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="44"/>
-      <c r="G32" s="43" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="51"/>
+      <c r="G32" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="44"/>
+      <c r="H32" s="51"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="41" t="n">
+      <c r="A33" s="48" t="n">
         <v>43277</v>
       </c>
-      <c r="B33" s="42" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C33" s="43" t="s">
+      <c r="B33" s="49" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C33" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="44"/>
-      <c r="G33" s="43" t="s">
+      <c r="D33" s="51"/>
+      <c r="E33" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="51"/>
+      <c r="G33" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="44"/>
+      <c r="H33" s="51"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21"/>
@@ -8887,132 +8937,136 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="41" t="n">
+      <c r="A36" s="52" t="n">
         <v>43268</v>
       </c>
-      <c r="B36" s="42" t="n">
+      <c r="B36" s="53" t="n">
         <v>0.375</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="44" t="n">
+      <c r="D36" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="E36" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="43" t="s">
+      <c r="E36" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="44"/>
+      <c r="H36" s="55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="41" t="n">
+      <c r="A37" s="52" t="n">
         <v>43268</v>
       </c>
-      <c r="B37" s="42" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="43" t="s">
+      <c r="B37" s="53" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="44" t="n">
+      <c r="D37" s="55" t="n">
         <v>4</v>
       </c>
-      <c r="E37" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="43" t="s">
+      <c r="E37" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="44"/>
+      <c r="H37" s="55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="41" t="n">
+      <c r="A38" s="48" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="42" t="n">
+      <c r="B38" s="49" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="44"/>
-      <c r="E38" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="44"/>
-      <c r="G38" s="43" t="s">
+      <c r="D38" s="51"/>
+      <c r="E38" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="51"/>
+      <c r="G38" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="44"/>
+      <c r="H38" s="51"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="41" t="n">
+      <c r="A39" s="48" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="42" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="43" t="s">
+      <c r="B39" s="49" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="44"/>
-      <c r="G39" s="43" t="s">
+      <c r="D39" s="51"/>
+      <c r="E39" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="51"/>
+      <c r="G39" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="44"/>
+      <c r="H39" s="51"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="41" t="n">
+      <c r="A40" s="48" t="n">
         <v>43278</v>
       </c>
-      <c r="B40" s="42" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C40" s="43" t="s">
+      <c r="B40" s="49" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C40" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="44"/>
-      <c r="G40" s="43" t="s">
+      <c r="D40" s="51"/>
+      <c r="E40" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="51"/>
+      <c r="G40" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="44"/>
+      <c r="H40" s="51"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="41" t="n">
+      <c r="A41" s="48" t="n">
         <v>43278</v>
       </c>
-      <c r="B41" s="42" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C41" s="43" t="s">
+      <c r="B41" s="49" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C41" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="44"/>
-      <c r="G41" s="43" t="s">
+      <c r="D41" s="51"/>
+      <c r="E41" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="51"/>
+      <c r="G41" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="44"/>
+      <c r="H41" s="51"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21"/>
@@ -9041,132 +9095,136 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="41" t="n">
+      <c r="A44" s="52" t="n">
         <v>43268</v>
       </c>
-      <c r="B44" s="42" t="n">
+      <c r="B44" s="53" t="n">
         <v>0.5</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="44" t="n">
+      <c r="D44" s="55" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="43" t="s">
+      <c r="E44" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="44"/>
+      <c r="H44" s="55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="41" t="n">
+      <c r="A45" s="56" t="n">
         <v>43269</v>
       </c>
-      <c r="B45" s="42" t="n">
+      <c r="B45" s="57" t="n">
         <v>0.375</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="43" t="s">
+      <c r="D45" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="44"/>
+      <c r="H45" s="59" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="41" t="n">
+      <c r="A46" s="48" t="n">
         <v>43274</v>
       </c>
-      <c r="B46" s="42" t="n">
+      <c r="B46" s="49" t="n">
         <v>0.5</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="44"/>
-      <c r="G46" s="43" t="s">
+      <c r="D46" s="51"/>
+      <c r="E46" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="51"/>
+      <c r="G46" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="44"/>
+      <c r="H46" s="51"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="41" t="n">
+      <c r="A47" s="48" t="n">
         <v>43274</v>
       </c>
-      <c r="B47" s="42" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C47" s="43" t="s">
+      <c r="B47" s="49" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C47" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="44"/>
-      <c r="G47" s="43" t="s">
+      <c r="D47" s="51"/>
+      <c r="E47" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="51"/>
+      <c r="G47" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="44"/>
+      <c r="H47" s="51"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="41" t="n">
+      <c r="A48" s="48" t="n">
         <v>43278</v>
       </c>
-      <c r="B48" s="42" t="n">
+      <c r="B48" s="49" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="44"/>
-      <c r="G48" s="43" t="s">
+      <c r="D48" s="51"/>
+      <c r="E48" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="51"/>
+      <c r="G48" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="44"/>
+      <c r="H48" s="51"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="41" t="n">
+      <c r="A49" s="48" t="n">
         <v>43278</v>
       </c>
-      <c r="B49" s="42" t="n">
+      <c r="B49" s="49" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="44"/>
-      <c r="G49" s="43" t="s">
+      <c r="D49" s="51"/>
+      <c r="E49" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="51"/>
+      <c r="G49" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="44"/>
+      <c r="H49" s="51"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21"/>
@@ -9195,132 +9253,132 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="41" t="n">
+      <c r="A52" s="48" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="42" t="n">
+      <c r="B52" s="49" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="44" t="n">
+      <c r="D52" s="51" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="43" t="s">
+      <c r="E52" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="44"/>
+      <c r="H52" s="51"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="41" t="n">
+      <c r="A53" s="48" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="42" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="43" t="s">
+      <c r="B53" s="49" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="44" t="n">
+      <c r="D53" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="51" t="n">
         <v>2</v>
       </c>
-      <c r="G53" s="43" t="s">
+      <c r="G53" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="44"/>
+      <c r="H53" s="51"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="41" t="n">
+      <c r="A54" s="48" t="n">
         <v>43274</v>
       </c>
-      <c r="B54" s="42" t="n">
+      <c r="B54" s="49" t="n">
         <v>0.375</v>
       </c>
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="44"/>
-      <c r="E54" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="44"/>
-      <c r="G54" s="43" t="s">
+      <c r="D54" s="51"/>
+      <c r="E54" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="51"/>
+      <c r="G54" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="44"/>
+      <c r="H54" s="51"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="41" t="n">
+      <c r="A55" s="48" t="n">
         <v>43275</v>
       </c>
-      <c r="B55" s="42" t="n">
+      <c r="B55" s="49" t="n">
         <v>0.375</v>
       </c>
-      <c r="C55" s="43" t="s">
+      <c r="C55" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="44"/>
-      <c r="E55" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="44"/>
-      <c r="G55" s="43" t="s">
+      <c r="D55" s="51"/>
+      <c r="E55" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="51"/>
+      <c r="G55" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="44"/>
+      <c r="H55" s="51"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="41" t="n">
+      <c r="A56" s="48" t="n">
         <v>43279</v>
       </c>
-      <c r="B56" s="42" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C56" s="43" t="s">
+      <c r="B56" s="49" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C56" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="44"/>
-      <c r="E56" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="44"/>
-      <c r="G56" s="43" t="s">
+      <c r="D56" s="51"/>
+      <c r="E56" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="51"/>
+      <c r="G56" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="44"/>
+      <c r="H56" s="51"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="41" t="n">
+      <c r="A57" s="48" t="n">
         <v>43279</v>
       </c>
-      <c r="B57" s="42" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C57" s="43" t="s">
+      <c r="B57" s="49" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C57" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="44"/>
-      <c r="E57" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="44"/>
-      <c r="G57" s="43" t="s">
+      <c r="D57" s="51"/>
+      <c r="E57" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="51"/>
+      <c r="G57" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="44"/>
+      <c r="H57" s="51"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21"/>
@@ -9349,142 +9407,142 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="41" t="n">
+      <c r="A60" s="48" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="42" t="n">
+      <c r="B60" s="49" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="C60" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="44" t="n">
+      <c r="D60" s="51" t="n">
         <v>2</v>
       </c>
-      <c r="E60" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="43" t="s">
+      <c r="E60" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="44"/>
+      <c r="H60" s="51"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="41" t="n">
+      <c r="A61" s="48" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="42" t="n">
+      <c r="B61" s="49" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="43" t="s">
+      <c r="C61" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="43" t="s">
+      <c r="D61" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="44"/>
+      <c r="H61" s="51"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="41" t="n">
+      <c r="A62" s="48" t="n">
         <v>43275</v>
       </c>
-      <c r="B62" s="42" t="n">
+      <c r="B62" s="49" t="n">
         <v>0.5</v>
       </c>
-      <c r="C62" s="43" t="s">
+      <c r="C62" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="44"/>
-      <c r="E62" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="44"/>
-      <c r="G62" s="43" t="s">
+      <c r="D62" s="51"/>
+      <c r="E62" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="51"/>
+      <c r="G62" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="44"/>
+      <c r="H62" s="51"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="41" t="n">
+      <c r="A63" s="48" t="n">
         <v>43275</v>
       </c>
-      <c r="B63" s="42" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C63" s="43" t="s">
+      <c r="B63" s="49" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C63" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="44"/>
-      <c r="E63" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="44"/>
-      <c r="G63" s="43" t="s">
+      <c r="D63" s="51"/>
+      <c r="E63" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="51"/>
+      <c r="G63" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="44"/>
+      <c r="H63" s="51"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="41" t="n">
+      <c r="A64" s="48" t="n">
         <v>43279</v>
       </c>
-      <c r="B64" s="42" t="n">
+      <c r="B64" s="49" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C64" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="44"/>
-      <c r="E64" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="44"/>
-      <c r="G64" s="43" t="s">
+      <c r="D64" s="51"/>
+      <c r="E64" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="51"/>
+      <c r="G64" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="44"/>
+      <c r="H64" s="51"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="41" t="n">
+      <c r="A65" s="48" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="42" t="n">
+      <c r="B65" s="49" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="44"/>
-      <c r="E65" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="44"/>
-      <c r="G65" s="43" t="s">
+      <c r="D65" s="51"/>
+      <c r="E65" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="51"/>
+      <c r="G65" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="44"/>
+      <c r="H65" s="51"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="49"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="50"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="32"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -9503,174 +9561,174 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="51" t="n">
+      <c r="A68" s="15" t="n">
         <v>43281</v>
       </c>
-      <c r="B68" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C68" s="53" t="s">
+      <c r="B68" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C68" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D68" s="54"/>
-      <c r="E68" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" s="54"/>
-      <c r="G68" s="53" t="s">
+      <c r="D68" s="26"/>
+      <c r="E68" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="26"/>
+      <c r="G68" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H68" s="55"/>
+      <c r="H68" s="27"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="51" t="n">
+      <c r="A69" s="15" t="n">
         <v>43281</v>
       </c>
-      <c r="B69" s="52" t="n">
+      <c r="B69" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="53" t="s">
+      <c r="C69" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D69" s="54"/>
-      <c r="E69" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="54"/>
-      <c r="G69" s="53" t="s">
+      <c r="D69" s="26"/>
+      <c r="E69" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="26"/>
+      <c r="G69" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H69" s="55"/>
+      <c r="H69" s="27"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="51" t="n">
+      <c r="A70" s="15" t="n">
         <v>43282</v>
       </c>
-      <c r="B70" s="52" t="n">
+      <c r="B70" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="53" t="s">
+      <c r="C70" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="54"/>
-      <c r="E70" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="54"/>
-      <c r="G70" s="53" t="s">
+      <c r="D70" s="26"/>
+      <c r="E70" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="26"/>
+      <c r="G70" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="H70" s="55"/>
+      <c r="H70" s="27"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="51" t="n">
+      <c r="A71" s="15" t="n">
         <v>43282</v>
       </c>
-      <c r="B71" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C71" s="53" t="s">
+      <c r="B71" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C71" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D71" s="54"/>
-      <c r="E71" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="54"/>
-      <c r="G71" s="53" t="s">
+      <c r="D71" s="26"/>
+      <c r="E71" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="26"/>
+      <c r="G71" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H71" s="55"/>
+      <c r="H71" s="27"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="51" t="n">
+      <c r="A72" s="15" t="n">
         <v>43283</v>
       </c>
-      <c r="B72" s="52" t="n">
+      <c r="B72" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="53" t="s">
+      <c r="C72" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D72" s="54"/>
-      <c r="E72" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="54"/>
-      <c r="G72" s="53" t="s">
+      <c r="D72" s="26"/>
+      <c r="E72" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="26"/>
+      <c r="G72" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="H72" s="55"/>
+      <c r="H72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="56" t="n">
+      <c r="A73" s="28" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="57" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="58" t="s">
+      <c r="B73" s="29" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="59"/>
-      <c r="E73" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="59"/>
-      <c r="G73" s="58" t="s">
+      <c r="D73" s="31"/>
+      <c r="E73" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="31"/>
+      <c r="G73" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="H73" s="55"/>
+      <c r="H73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="56" t="n">
+      <c r="A74" s="28" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="57" t="n">
+      <c r="B74" s="29" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="58" t="s">
+      <c r="C74" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="59"/>
-      <c r="E74" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="59"/>
-      <c r="G74" s="58" t="s">
+      <c r="D74" s="31"/>
+      <c r="E74" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="31"/>
+      <c r="G74" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="H74" s="55"/>
+      <c r="H74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="56" t="n">
+      <c r="A75" s="28" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="57" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="58" t="s">
+      <c r="B75" s="29" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="59"/>
-      <c r="E75" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="59"/>
-      <c r="G75" s="58" t="s">
+      <c r="D75" s="31"/>
+      <c r="E75" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="31"/>
+      <c r="G75" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="H75" s="55"/>
+      <c r="H75" s="27"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="49"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="50"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="32"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -9689,94 +9747,94 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="51" t="n">
+      <c r="A78" s="15" t="n">
         <v>43287</v>
       </c>
-      <c r="B78" s="52" t="n">
+      <c r="B78" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D78" s="54"/>
-      <c r="E78" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" s="54"/>
-      <c r="G78" s="53" t="s">
+      <c r="D78" s="26"/>
+      <c r="E78" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="26"/>
+      <c r="G78" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H78" s="55"/>
+      <c r="H78" s="27"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="51" t="n">
+      <c r="A79" s="15" t="n">
         <v>43287</v>
       </c>
-      <c r="B79" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C79" s="53" t="s">
+      <c r="B79" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C79" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D79" s="54"/>
-      <c r="E79" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" s="54"/>
-      <c r="G79" s="53" t="s">
+      <c r="D79" s="26"/>
+      <c r="E79" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="26"/>
+      <c r="G79" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H79" s="55"/>
+      <c r="H79" s="27"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="51" t="n">
+      <c r="A80" s="15" t="n">
         <v>43288</v>
       </c>
-      <c r="B80" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C80" s="53" t="s">
+      <c r="B80" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C80" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D80" s="54"/>
-      <c r="E80" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" s="54"/>
-      <c r="G80" s="53" t="s">
+      <c r="D80" s="26"/>
+      <c r="E80" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="26"/>
+      <c r="G80" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="H80" s="55"/>
+      <c r="H80" s="27"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="51" t="n">
+      <c r="A81" s="15" t="n">
         <v>43288</v>
       </c>
-      <c r="B81" s="52" t="n">
+      <c r="B81" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="53" t="s">
+      <c r="C81" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D81" s="54"/>
-      <c r="E81" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="54"/>
-      <c r="G81" s="53" t="s">
+      <c r="D81" s="26"/>
+      <c r="E81" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="26"/>
+      <c r="G81" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="H81" s="55"/>
+      <c r="H81" s="27"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="49"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="50"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="32"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -9795,54 +9853,54 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="51" t="n">
+      <c r="A84" s="15" t="n">
         <v>43291</v>
       </c>
-      <c r="B84" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C84" s="53" t="s">
+      <c r="B84" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C84" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D84" s="54"/>
-      <c r="E84" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" s="54"/>
-      <c r="G84" s="53" t="s">
+      <c r="D84" s="26"/>
+      <c r="E84" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="26"/>
+      <c r="G84" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="H84" s="55"/>
+      <c r="H84" s="27"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="51" t="n">
+      <c r="A85" s="15" t="n">
         <v>43292</v>
       </c>
-      <c r="B85" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C85" s="53" t="s">
+      <c r="B85" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C85" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D85" s="54"/>
-      <c r="E85" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" s="54"/>
-      <c r="G85" s="53" t="s">
+      <c r="D85" s="26"/>
+      <c r="E85" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="26"/>
+      <c r="G85" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H85" s="55"/>
+      <c r="H85" s="27"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="49"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="50"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="32"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -9861,34 +9919,34 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="51" t="n">
+      <c r="A88" s="15" t="n">
         <v>43295</v>
       </c>
-      <c r="B88" s="52" t="n">
+      <c r="B88" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="53" t="s">
+      <c r="C88" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="54"/>
-      <c r="E88" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" s="54"/>
-      <c r="G88" s="53" t="s">
+      <c r="D88" s="26"/>
+      <c r="E88" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="26"/>
+      <c r="G88" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="H88" s="55"/>
+      <c r="H88" s="27"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="49"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="50"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="32"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -9907,34 +9965,34 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="51" t="n">
+      <c r="A91" s="15" t="n">
         <v>43296</v>
       </c>
-      <c r="B91" s="52" t="n">
+      <c r="B91" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="53" t="s">
+      <c r="C91" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="54"/>
-      <c r="E91" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="54"/>
-      <c r="G91" s="53" t="s">
+      <c r="D91" s="26"/>
+      <c r="E91" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="26"/>
+      <c r="G91" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="H91" s="55"/>
+      <c r="H91" s="27"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="49"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
@@ -9953,24 +10011,24 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="51" t="n">
+      <c r="A94" s="15" t="n">
         <v>43296</v>
       </c>
-      <c r="B94" s="52" t="n">
+      <c r="B94" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="60" t="s">
+      <c r="C94" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="61"/>
-      <c r="E94" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="61"/>
-      <c r="G94" s="60" t="s">
+      <c r="D94" s="35"/>
+      <c r="E94" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="35"/>
+      <c r="G94" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="H94" s="55"/>
+      <c r="H94" s="27"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -10008,15 +10066,15 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.1983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.09716599190283"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.1983805668016"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10111,84 +10169,84 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="n">
+      <c r="A6" s="15" t="n">
         <v>43270</v>
       </c>
-      <c r="B6" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="49" t="s">
+      <c r="B6" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="49" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="55"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51" t="n">
+      <c r="A7" s="15" t="n">
         <v>43271</v>
       </c>
-      <c r="B7" s="52" t="n">
+      <c r="B7" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="55"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51" t="n">
+      <c r="A8" s="15" t="n">
         <v>43276</v>
       </c>
-      <c r="B8" s="52" t="n">
+      <c r="B8" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="49" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="55"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="51" t="n">
+      <c r="A9" s="15" t="n">
         <v>43276</v>
       </c>
-      <c r="B9" s="52" t="n">
+      <c r="B9" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="49" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="55"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20"/>
@@ -10269,84 +10327,84 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="51" t="n">
+      <c r="A14" s="15" t="n">
         <v>43271</v>
       </c>
-      <c r="B14" s="52" t="n">
+      <c r="B14" s="16" t="n">
         <v>0.375</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="49" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="55"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="51" t="n">
+      <c r="A15" s="15" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="49" t="s">
+      <c r="B15" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="49" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="55"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="51" t="n">
+      <c r="A16" s="15" t="n">
         <v>43276</v>
       </c>
-      <c r="B16" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C16" s="49" t="s">
+      <c r="B16" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="54"/>
-      <c r="G16" s="49" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="55"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="51" t="n">
+      <c r="A17" s="15" t="n">
         <v>43276</v>
       </c>
-      <c r="B17" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C17" s="49" t="s">
+      <c r="B17" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="49" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="55"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21"/>
@@ -10375,132 +10433,136 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="51" t="n">
+      <c r="A20" s="10" t="n">
         <v>43267</v>
       </c>
-      <c r="B20" s="52" t="n">
+      <c r="B20" s="11" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="54" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="49" t="s">
+      <c r="D20" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="55"/>
+      <c r="H20" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="51" t="n">
+      <c r="A21" s="5" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="52" t="n">
+      <c r="B21" s="6" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="54" t="n">
+      <c r="D21" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E21" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="49" t="s">
+      <c r="E21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="55"/>
+      <c r="H21" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="51" t="n">
+      <c r="A22" s="15" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="52" t="n">
+      <c r="B22" s="16" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="49" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="55"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="51" t="n">
+      <c r="A23" s="15" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="52" t="n">
+      <c r="B23" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="49" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="55"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="51" t="n">
+      <c r="A24" s="15" t="n">
         <v>43277</v>
       </c>
-      <c r="B24" s="52" t="n">
+      <c r="B24" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="54"/>
-      <c r="G24" s="49" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="55"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="51" t="n">
+      <c r="A25" s="15" t="n">
         <v>43277</v>
       </c>
-      <c r="B25" s="52" t="n">
+      <c r="B25" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="49" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="55"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21"/>
@@ -10529,132 +10591,136 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="51" t="n">
+      <c r="A28" s="5" t="n">
         <v>43267</v>
       </c>
-      <c r="B28" s="52" t="n">
+      <c r="B28" s="6" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="54" t="n">
+      <c r="D28" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E28" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="49" t="s">
+      <c r="E28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="55"/>
+      <c r="H28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="51" t="n">
+      <c r="A29" s="10" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="52" t="n">
+      <c r="B29" s="11" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="54" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="49" t="s">
+      <c r="D29" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="55"/>
+      <c r="H29" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="51" t="n">
+      <c r="A30" s="15" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="49" t="s">
+      <c r="B30" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="54"/>
-      <c r="G30" s="49" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="55"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="51" t="n">
+      <c r="A31" s="15" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="52" t="n">
+      <c r="B31" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="54"/>
-      <c r="G31" s="49" t="s">
+      <c r="D31" s="26"/>
+      <c r="E31" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="55"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="51" t="n">
+      <c r="A32" s="15" t="n">
         <v>43277</v>
       </c>
-      <c r="B32" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C32" s="49" t="s">
+      <c r="B32" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="54"/>
-      <c r="G32" s="49" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="55"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="51" t="n">
+      <c r="A33" s="15" t="n">
         <v>43277</v>
       </c>
-      <c r="B33" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C33" s="49" t="s">
+      <c r="B33" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="54"/>
-      <c r="G33" s="49" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="26"/>
+      <c r="G33" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="55"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21"/>
@@ -10685,132 +10751,136 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="51" t="n">
+      <c r="A36" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B36" s="52" t="n">
+      <c r="B36" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="54" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="49" t="s">
+      <c r="D36" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="55"/>
+      <c r="H36" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="51" t="n">
+      <c r="A37" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B37" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="49" t="s">
+      <c r="B37" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="54" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="49" t="s">
+      <c r="D37" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="55"/>
+      <c r="H37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="51" t="n">
+      <c r="A38" s="15" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="52" t="n">
+      <c r="B38" s="16" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="54"/>
-      <c r="G38" s="49" t="s">
+      <c r="D38" s="26"/>
+      <c r="E38" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="26"/>
+      <c r="G38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="55"/>
+      <c r="H38" s="27"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="51" t="n">
+      <c r="A39" s="15" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="49" t="s">
+      <c r="B39" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="54"/>
-      <c r="E39" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="54"/>
-      <c r="G39" s="49" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="26"/>
+      <c r="G39" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="55"/>
+      <c r="H39" s="27"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="51" t="n">
+      <c r="A40" s="15" t="n">
         <v>43278</v>
       </c>
-      <c r="B40" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C40" s="49" t="s">
+      <c r="B40" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="54"/>
-      <c r="E40" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="54"/>
-      <c r="G40" s="49" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="26"/>
+      <c r="G40" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="55"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="51" t="n">
+      <c r="A41" s="15" t="n">
         <v>43278</v>
       </c>
-      <c r="B41" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C41" s="49" t="s">
+      <c r="B41" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="54"/>
-      <c r="E41" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="54"/>
-      <c r="G41" s="49" t="s">
+      <c r="D41" s="26"/>
+      <c r="E41" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="26"/>
+      <c r="G41" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="55"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21"/>
@@ -10839,132 +10909,136 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="51" t="n">
+      <c r="A44" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B44" s="52" t="n">
+      <c r="B44" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="54" t="n">
-        <v>3</v>
-      </c>
-      <c r="E44" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="49" t="s">
+      <c r="D44" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="55"/>
+      <c r="H44" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="51" t="n">
+      <c r="A45" s="10" t="n">
         <v>43269</v>
       </c>
-      <c r="B45" s="52" t="n">
+      <c r="B45" s="11" t="n">
         <v>0.375</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="54" t="n">
+      <c r="D45" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="E45" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="49" t="s">
+      <c r="E45" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="55"/>
+      <c r="H45" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="51" t="n">
+      <c r="A46" s="15" t="n">
         <v>43274</v>
       </c>
-      <c r="B46" s="52" t="n">
+      <c r="B46" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="54"/>
-      <c r="E46" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="54"/>
-      <c r="G46" s="49" t="s">
+      <c r="D46" s="26"/>
+      <c r="E46" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="26"/>
+      <c r="G46" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="55"/>
+      <c r="H46" s="27"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="51" t="n">
+      <c r="A47" s="15" t="n">
         <v>43274</v>
       </c>
-      <c r="B47" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C47" s="49" t="s">
+      <c r="B47" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="54"/>
-      <c r="E47" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="54"/>
-      <c r="G47" s="49" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="G47" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="55"/>
+      <c r="H47" s="27"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="51" t="n">
+      <c r="A48" s="15" t="n">
         <v>43278</v>
       </c>
-      <c r="B48" s="52" t="n">
+      <c r="B48" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="54"/>
-      <c r="G48" s="49" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="26"/>
+      <c r="G48" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="55"/>
+      <c r="H48" s="27"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="51" t="n">
+      <c r="A49" s="15" t="n">
         <v>43278</v>
       </c>
-      <c r="B49" s="52" t="n">
+      <c r="B49" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="54"/>
-      <c r="G49" s="49" t="s">
+      <c r="D49" s="26"/>
+      <c r="E49" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="26"/>
+      <c r="G49" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="55"/>
+      <c r="H49" s="27"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21"/>
@@ -10993,132 +11067,132 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="51" t="n">
+      <c r="A52" s="15" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="52" t="n">
+      <c r="B52" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="54" t="n">
+      <c r="D52" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="49" t="s">
+      <c r="E52" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="55"/>
+      <c r="H52" s="27"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="51" t="n">
+      <c r="A53" s="15" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="49" t="s">
+      <c r="B53" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="54" t="n">
+      <c r="D53" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="G53" s="49" t="s">
+      <c r="G53" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="55"/>
+      <c r="H53" s="27"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="51" t="n">
+      <c r="A54" s="15" t="n">
         <v>43274</v>
       </c>
-      <c r="B54" s="52" t="n">
+      <c r="B54" s="16" t="n">
         <v>0.375</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="54"/>
-      <c r="E54" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="54"/>
-      <c r="G54" s="49" t="s">
+      <c r="D54" s="26"/>
+      <c r="E54" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="26"/>
+      <c r="G54" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="55"/>
+      <c r="H54" s="27"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="51" t="n">
+      <c r="A55" s="15" t="n">
         <v>43275</v>
       </c>
-      <c r="B55" s="52" t="n">
+      <c r="B55" s="16" t="n">
         <v>0.375</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="54"/>
-      <c r="E55" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="54"/>
-      <c r="G55" s="49" t="s">
+      <c r="D55" s="26"/>
+      <c r="E55" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="26"/>
+      <c r="G55" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="55"/>
+      <c r="H55" s="27"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="51" t="n">
+      <c r="A56" s="15" t="n">
         <v>43279</v>
       </c>
-      <c r="B56" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C56" s="49" t="s">
+      <c r="B56" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="54"/>
-      <c r="E56" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="54"/>
-      <c r="G56" s="49" t="s">
+      <c r="D56" s="26"/>
+      <c r="E56" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="26"/>
+      <c r="G56" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="55"/>
+      <c r="H56" s="27"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="51" t="n">
+      <c r="A57" s="15" t="n">
         <v>43279</v>
       </c>
-      <c r="B57" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C57" s="49" t="s">
+      <c r="B57" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="54"/>
-      <c r="E57" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="54"/>
-      <c r="G57" s="49" t="s">
+      <c r="D57" s="26"/>
+      <c r="E57" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="26"/>
+      <c r="G57" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="55"/>
+      <c r="H57" s="27"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21"/>
@@ -11147,142 +11221,142 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="51" t="n">
+      <c r="A60" s="15" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="52" t="n">
+      <c r="B60" s="16" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="49" t="s">
+      <c r="D60" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="55"/>
+      <c r="H60" s="27"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="51" t="n">
+      <c r="A61" s="15" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="52" t="n">
+      <c r="B61" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="49" t="s">
+      <c r="D61" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="55"/>
+      <c r="H61" s="27"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="51" t="n">
+      <c r="A62" s="15" t="n">
         <v>43275</v>
       </c>
-      <c r="B62" s="52" t="n">
+      <c r="B62" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="54"/>
-      <c r="E62" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="54"/>
-      <c r="G62" s="49" t="s">
+      <c r="D62" s="26"/>
+      <c r="E62" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="26"/>
+      <c r="G62" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="55"/>
+      <c r="H62" s="27"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="51" t="n">
+      <c r="A63" s="15" t="n">
         <v>43275</v>
       </c>
-      <c r="B63" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C63" s="49" t="s">
+      <c r="B63" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="54"/>
-      <c r="E63" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="54"/>
-      <c r="G63" s="49" t="s">
+      <c r="D63" s="26"/>
+      <c r="E63" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="26"/>
+      <c r="G63" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="55"/>
+      <c r="H63" s="27"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="51" t="n">
+      <c r="A64" s="15" t="n">
         <v>43279</v>
       </c>
-      <c r="B64" s="52" t="n">
+      <c r="B64" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="54"/>
-      <c r="E64" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="54"/>
-      <c r="G64" s="49" t="s">
+      <c r="D64" s="26"/>
+      <c r="E64" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="26"/>
+      <c r="G64" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="55"/>
+      <c r="H64" s="27"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="56" t="n">
+      <c r="A65" s="28" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="57" t="n">
+      <c r="B65" s="29" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="59"/>
-      <c r="E65" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="60" t="s">
+      <c r="D65" s="31"/>
+      <c r="E65" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="31"/>
+      <c r="G65" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="55"/>
+      <c r="H65" s="27"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="49"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="50"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="32"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -11301,174 +11375,174 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="51" t="n">
+      <c r="A68" s="15" t="n">
         <v>43281</v>
       </c>
-      <c r="B68" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C68" s="53" t="s">
+      <c r="B68" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C68" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D68" s="54"/>
-      <c r="E68" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" s="54"/>
-      <c r="G68" s="53" t="s">
+      <c r="D68" s="26"/>
+      <c r="E68" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="26"/>
+      <c r="G68" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H68" s="55"/>
+      <c r="H68" s="27"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="51" t="n">
+      <c r="A69" s="15" t="n">
         <v>43281</v>
       </c>
-      <c r="B69" s="52" t="n">
+      <c r="B69" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="53" t="s">
+      <c r="C69" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D69" s="54"/>
-      <c r="E69" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="54"/>
-      <c r="G69" s="53" t="s">
+      <c r="D69" s="26"/>
+      <c r="E69" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="26"/>
+      <c r="G69" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H69" s="55"/>
+      <c r="H69" s="27"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="51" t="n">
+      <c r="A70" s="15" t="n">
         <v>43282</v>
       </c>
-      <c r="B70" s="52" t="n">
+      <c r="B70" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="53" t="s">
+      <c r="C70" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="54"/>
-      <c r="E70" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="54"/>
-      <c r="G70" s="53" t="s">
+      <c r="D70" s="26"/>
+      <c r="E70" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="26"/>
+      <c r="G70" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="H70" s="55"/>
+      <c r="H70" s="27"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="51" t="n">
+      <c r="A71" s="15" t="n">
         <v>43282</v>
       </c>
-      <c r="B71" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C71" s="53" t="s">
+      <c r="B71" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C71" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D71" s="54"/>
-      <c r="E71" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="54"/>
-      <c r="G71" s="53" t="s">
+      <c r="D71" s="26"/>
+      <c r="E71" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="26"/>
+      <c r="G71" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H71" s="55"/>
+      <c r="H71" s="27"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="51" t="n">
+      <c r="A72" s="15" t="n">
         <v>43283</v>
       </c>
-      <c r="B72" s="52" t="n">
+      <c r="B72" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="53" t="s">
+      <c r="C72" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D72" s="54"/>
-      <c r="E72" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="54"/>
-      <c r="G72" s="53" t="s">
+      <c r="D72" s="26"/>
+      <c r="E72" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="26"/>
+      <c r="G72" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="H72" s="55"/>
+      <c r="H72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="56" t="n">
+      <c r="A73" s="28" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="57" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="58" t="s">
+      <c r="B73" s="29" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="59"/>
-      <c r="E73" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="59"/>
-      <c r="G73" s="58" t="s">
+      <c r="D73" s="31"/>
+      <c r="E73" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="31"/>
+      <c r="G73" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="H73" s="55"/>
+      <c r="H73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="56" t="n">
+      <c r="A74" s="28" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="57" t="n">
+      <c r="B74" s="29" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="58" t="s">
+      <c r="C74" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="59"/>
-      <c r="E74" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="59"/>
-      <c r="G74" s="58" t="s">
+      <c r="D74" s="31"/>
+      <c r="E74" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="31"/>
+      <c r="G74" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="H74" s="55"/>
+      <c r="H74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="56" t="n">
+      <c r="A75" s="28" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="57" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="58" t="s">
+      <c r="B75" s="29" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="59"/>
-      <c r="E75" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="59"/>
-      <c r="G75" s="58" t="s">
+      <c r="D75" s="31"/>
+      <c r="E75" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="31"/>
+      <c r="G75" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="H75" s="55"/>
+      <c r="H75" s="27"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="49"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="50"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="32"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -11487,94 +11561,94 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="51" t="n">
+      <c r="A78" s="15" t="n">
         <v>43287</v>
       </c>
-      <c r="B78" s="52" t="n">
+      <c r="B78" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D78" s="54"/>
-      <c r="E78" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" s="54"/>
-      <c r="G78" s="53" t="s">
+      <c r="D78" s="26"/>
+      <c r="E78" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="26"/>
+      <c r="G78" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H78" s="55"/>
+      <c r="H78" s="27"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="51" t="n">
+      <c r="A79" s="15" t="n">
         <v>43287</v>
       </c>
-      <c r="B79" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C79" s="53" t="s">
+      <c r="B79" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C79" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D79" s="54"/>
-      <c r="E79" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" s="54"/>
-      <c r="G79" s="53" t="s">
+      <c r="D79" s="26"/>
+      <c r="E79" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="26"/>
+      <c r="G79" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H79" s="55"/>
+      <c r="H79" s="27"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="51" t="n">
+      <c r="A80" s="15" t="n">
         <v>43288</v>
       </c>
-      <c r="B80" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C80" s="53" t="s">
+      <c r="B80" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C80" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D80" s="54"/>
-      <c r="E80" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" s="54"/>
-      <c r="G80" s="53" t="s">
+      <c r="D80" s="26"/>
+      <c r="E80" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="26"/>
+      <c r="G80" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="H80" s="55"/>
+      <c r="H80" s="27"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="51" t="n">
+      <c r="A81" s="15" t="n">
         <v>43288</v>
       </c>
-      <c r="B81" s="52" t="n">
+      <c r="B81" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="53" t="s">
+      <c r="C81" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D81" s="54"/>
-      <c r="E81" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="54"/>
-      <c r="G81" s="53" t="s">
+      <c r="D81" s="26"/>
+      <c r="E81" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="26"/>
+      <c r="G81" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="H81" s="55"/>
+      <c r="H81" s="27"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="49"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="50"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="32"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -11593,54 +11667,54 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="51" t="n">
+      <c r="A84" s="15" t="n">
         <v>43291</v>
       </c>
-      <c r="B84" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C84" s="53" t="s">
+      <c r="B84" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C84" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D84" s="54"/>
-      <c r="E84" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" s="54"/>
-      <c r="G84" s="53" t="s">
+      <c r="D84" s="26"/>
+      <c r="E84" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="26"/>
+      <c r="G84" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="H84" s="55"/>
+      <c r="H84" s="27"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="51" t="n">
+      <c r="A85" s="15" t="n">
         <v>43292</v>
       </c>
-      <c r="B85" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C85" s="53" t="s">
+      <c r="B85" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C85" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D85" s="54"/>
-      <c r="E85" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" s="54"/>
-      <c r="G85" s="53" t="s">
+      <c r="D85" s="26"/>
+      <c r="E85" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="26"/>
+      <c r="G85" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H85" s="55"/>
+      <c r="H85" s="27"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="49"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="50"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="32"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -11659,34 +11733,34 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="51" t="n">
+      <c r="A88" s="15" t="n">
         <v>43295</v>
       </c>
-      <c r="B88" s="52" t="n">
+      <c r="B88" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="53" t="s">
+      <c r="C88" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="54"/>
-      <c r="E88" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" s="54"/>
-      <c r="G88" s="53" t="s">
+      <c r="D88" s="26"/>
+      <c r="E88" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="26"/>
+      <c r="G88" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="H88" s="55"/>
+      <c r="H88" s="27"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="49"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="50"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="32"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -11705,34 +11779,34 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="51" t="n">
+      <c r="A91" s="15" t="n">
         <v>43296</v>
       </c>
-      <c r="B91" s="52" t="n">
+      <c r="B91" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="53" t="s">
+      <c r="C91" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="54"/>
-      <c r="E91" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="54"/>
-      <c r="G91" s="53" t="s">
+      <c r="D91" s="26"/>
+      <c r="E91" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="26"/>
+      <c r="G91" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="H91" s="55"/>
+      <c r="H91" s="27"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="49"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
@@ -11751,24 +11825,24 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="51" t="n">
+      <c r="A94" s="15" t="n">
         <v>43296</v>
       </c>
-      <c r="B94" s="52" t="n">
+      <c r="B94" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="60" t="s">
+      <c r="C94" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="61"/>
-      <c r="E94" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="61"/>
-      <c r="G94" s="60" t="s">
+      <c r="D94" s="35"/>
+      <c r="E94" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="35"/>
+      <c r="G94" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="H94" s="55"/>
+      <c r="H94" s="27"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -11806,15 +11880,15 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L44" activeCellId="0" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.1983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.09716599190283"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.1983805668016"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11883,28 +11957,28 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="62" t="n">
+      <c r="A5" s="38" t="n">
         <v>43266</v>
       </c>
-      <c r="B5" s="63" t="n">
+      <c r="B5" s="39" t="n">
         <v>0.375</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="64" t="s">
+      <c r="D5" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="66" t="n">
+      <c r="H5" s="61" t="n">
         <v>5</v>
       </c>
     </row>
@@ -12205,52 +12279,56 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="n">
+      <c r="A20" s="10" t="n">
         <v>43267</v>
       </c>
-      <c r="B20" s="16" t="n">
+      <c r="B20" s="11" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="17" t="s">
+      <c r="D20" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="n">
+      <c r="A21" s="10" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="11" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="26" t="n">
+      <c r="D21" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="n">
@@ -12375,52 +12453,56 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="n">
+      <c r="A28" s="5" t="n">
         <v>43267</v>
       </c>
-      <c r="B28" s="16" t="n">
+      <c r="B28" s="6" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="17" t="s">
+      <c r="D28" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="H28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="n">
+      <c r="A29" s="38" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="16" t="n">
+      <c r="B29" s="39" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="26" t="n">
+      <c r="D29" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="17" t="s">
+      <c r="E29" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="27"/>
+      <c r="H29" s="61" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="n">
@@ -12547,52 +12629,56 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="n">
+      <c r="A36" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B36" s="16" t="n">
+      <c r="B36" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="26" t="n">
+      <c r="D36" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="17" t="s">
+      <c r="E36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="27"/>
+      <c r="H36" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="n">
+      <c r="A37" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B37" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="17" t="s">
+      <c r="B37" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="26" t="n">
+      <c r="D37" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="17" t="s">
+      <c r="E37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="27"/>
+      <c r="H37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="n">
@@ -12717,52 +12803,56 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="n">
+      <c r="A44" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B44" s="16" t="n">
+      <c r="B44" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="26" t="n">
+      <c r="D44" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="17" t="s">
+      <c r="E44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="27"/>
+      <c r="H44" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="n">
+      <c r="A45" s="10" t="n">
         <v>43269</v>
       </c>
-      <c r="B45" s="16" t="n">
+      <c r="B45" s="11" t="n">
         <v>0.375</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="26" t="n">
+      <c r="D45" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="17" t="s">
+      <c r="E45" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="27"/>
+      <c r="H45" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="n">
@@ -13732,14 +13822,14 @@
   <dimension ref="A1:I65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.1983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.09716599190283"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="16.1983805668016"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13787,7 +13877,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="67" t="n">
+      <c r="A4" s="62" t="n">
         <v>43265</v>
       </c>
       <c r="B4" s="11" t="n">
@@ -13808,13 +13898,13 @@
       <c r="G4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="68"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="67" t="n">
+      <c r="A5" s="62" t="n">
         <v>43266</v>
       </c>
       <c r="B5" s="11" t="n">
@@ -13835,13 +13925,13 @@
       <c r="G5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="68"/>
+      <c r="H5" s="63"/>
       <c r="I5" s="14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="69" t="n">
+      <c r="A6" s="64" t="n">
         <v>43270</v>
       </c>
       <c r="B6" s="16" t="n">
@@ -13858,11 +13948,11 @@
       <c r="G6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="70"/>
+      <c r="H6" s="65"/>
       <c r="I6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69" t="n">
+      <c r="A7" s="64" t="n">
         <v>43271</v>
       </c>
       <c r="B7" s="16" t="n">
@@ -13879,11 +13969,11 @@
       <c r="G7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="70"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="69" t="n">
+      <c r="A8" s="64" t="n">
         <v>43276</v>
       </c>
       <c r="B8" s="16" t="n">
@@ -13900,11 +13990,11 @@
       <c r="G8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="70"/>
+      <c r="H8" s="65"/>
       <c r="I8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="69" t="n">
+      <c r="A9" s="64" t="n">
         <v>43276</v>
       </c>
       <c r="B9" s="16" t="n">
@@ -13921,12 +14011,12 @@
       <c r="G9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="70"/>
+      <c r="H9" s="65"/>
       <c r="I9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -13955,7 +14045,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="72" t="n">
+      <c r="A12" s="67" t="n">
         <v>43266</v>
       </c>
       <c r="B12" s="6" t="n">
@@ -13976,13 +14066,13 @@
       <c r="G12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="73"/>
+      <c r="H12" s="68"/>
       <c r="I12" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="72" t="n">
+      <c r="A13" s="67" t="n">
         <v>43266</v>
       </c>
       <c r="B13" s="6" t="n">
@@ -14003,13 +14093,13 @@
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="73"/>
+      <c r="H13" s="68"/>
       <c r="I13" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="69" t="n">
+      <c r="A14" s="64" t="n">
         <v>43271</v>
       </c>
       <c r="B14" s="16" t="n">
@@ -14026,11 +14116,11 @@
       <c r="G14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="70"/>
+      <c r="H14" s="65"/>
       <c r="I14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="69" t="n">
+      <c r="A15" s="64" t="n">
         <v>43271</v>
       </c>
       <c r="B15" s="16" t="n">
@@ -14047,11 +14137,11 @@
       <c r="G15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="65"/>
       <c r="I15" s="27"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="69" t="n">
+      <c r="A16" s="64" t="n">
         <v>43276</v>
       </c>
       <c r="B16" s="16" t="n">
@@ -14068,11 +14158,11 @@
       <c r="G16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="70"/>
+      <c r="H16" s="65"/>
       <c r="I16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="69" t="n">
+      <c r="A17" s="64" t="n">
         <v>43276</v>
       </c>
       <c r="B17" s="16" t="n">
@@ -14089,7 +14179,7 @@
       <c r="G17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="70"/>
+      <c r="H17" s="65"/>
       <c r="I17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14122,58 +14212,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="69" t="n">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="62" t="n">
         <v>43267</v>
       </c>
-      <c r="B20" s="16" t="n">
+      <c r="B20" s="11" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="17" t="s">
+      <c r="D20" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="70"/>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="63"/>
+      <c r="I20" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="69" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="39" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="17" t="s">
+      <c r="D21" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="40" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="70"/>
-      <c r="I21" s="27"/>
+      <c r="I21" s="61" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="69" t="n">
+      <c r="A22" s="64" t="n">
         <v>43272</v>
       </c>
       <c r="B22" s="16" t="n">
@@ -14190,11 +14284,11 @@
       <c r="G22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="70"/>
+      <c r="H22" s="65"/>
       <c r="I22" s="27"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="69" t="n">
+      <c r="A23" s="64" t="n">
         <v>43272</v>
       </c>
       <c r="B23" s="16" t="n">
@@ -14211,11 +14305,11 @@
       <c r="G23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="70"/>
+      <c r="H23" s="65"/>
       <c r="I23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="69" t="n">
+      <c r="A24" s="64" t="n">
         <v>43277</v>
       </c>
       <c r="B24" s="16" t="n">
@@ -14232,11 +14326,11 @@
       <c r="G24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="70"/>
+      <c r="H24" s="65"/>
       <c r="I24" s="27"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="69" t="n">
+      <c r="A25" s="64" t="n">
         <v>43277</v>
       </c>
       <c r="B25" s="16" t="n">
@@ -14253,7 +14347,7 @@
       <c r="G25" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="70"/>
+      <c r="H25" s="65"/>
       <c r="I25" s="27"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14286,58 +14380,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="69" t="n">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="67" t="n">
         <v>43267</v>
       </c>
-      <c r="B28" s="16" t="n">
+      <c r="B28" s="6" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="26" t="n">
+      <c r="D28" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="17" t="s">
+      <c r="E28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="70"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="69" t="n">
+      <c r="H28" s="68"/>
+      <c r="I28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="67" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="16" t="n">
+      <c r="B29" s="6" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="17" t="s">
+      <c r="D29" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="70"/>
-      <c r="I29" s="27"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="69" t="n">
+      <c r="A30" s="64" t="n">
         <v>43272</v>
       </c>
       <c r="B30" s="16" t="n">
@@ -14354,11 +14452,11 @@
       <c r="G30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="70"/>
+      <c r="H30" s="65"/>
       <c r="I30" s="27"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="69" t="n">
+      <c r="A31" s="64" t="n">
         <v>43273</v>
       </c>
       <c r="B31" s="16" t="n">
@@ -14375,11 +14473,11 @@
       <c r="G31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="70"/>
+      <c r="H31" s="65"/>
       <c r="I31" s="27"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="69" t="n">
+      <c r="A32" s="64" t="n">
         <v>43277</v>
       </c>
       <c r="B32" s="16" t="n">
@@ -14396,11 +14494,11 @@
       <c r="G32" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="70"/>
+      <c r="H32" s="65"/>
       <c r="I32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="69" t="n">
+      <c r="A33" s="64" t="n">
         <v>43277</v>
       </c>
       <c r="B33" s="16" t="n">
@@ -14417,7 +14515,7 @@
       <c r="G33" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="70"/>
+      <c r="H33" s="65"/>
       <c r="I33" s="27"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14452,58 +14550,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="69" t="n">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="67" t="n">
         <v>43268</v>
       </c>
-      <c r="B36" s="16" t="n">
+      <c r="B36" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="17" t="s">
+      <c r="D36" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="70"/>
-      <c r="I36" s="27"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="69" t="n">
+      <c r="H36" s="68"/>
+      <c r="I36" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="67" t="n">
         <v>43268</v>
       </c>
-      <c r="B37" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="17" t="s">
+      <c r="B37" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="26" t="n">
+      <c r="D37" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="17" t="s">
+      <c r="E37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="70"/>
-      <c r="I37" s="27"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="69" t="n">
+      <c r="A38" s="64" t="n">
         <v>43273</v>
       </c>
       <c r="B38" s="16" t="n">
@@ -14520,11 +14622,11 @@
       <c r="G38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="70"/>
+      <c r="H38" s="65"/>
       <c r="I38" s="27"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="69" t="n">
+      <c r="A39" s="64" t="n">
         <v>43273</v>
       </c>
       <c r="B39" s="16" t="n">
@@ -14541,11 +14643,11 @@
       <c r="G39" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="70"/>
+      <c r="H39" s="65"/>
       <c r="I39" s="27"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="69" t="n">
+      <c r="A40" s="64" t="n">
         <v>43278</v>
       </c>
       <c r="B40" s="16" t="n">
@@ -14562,11 +14664,11 @@
       <c r="G40" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="70"/>
+      <c r="H40" s="65"/>
       <c r="I40" s="27"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="69" t="n">
+      <c r="A41" s="64" t="n">
         <v>43278</v>
       </c>
       <c r="B41" s="16" t="n">
@@ -14583,7 +14685,7 @@
       <c r="G41" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="70"/>
+      <c r="H41" s="65"/>
       <c r="I41" s="27"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14616,58 +14718,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="69" t="n">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="67" t="n">
         <v>43268</v>
       </c>
-      <c r="B44" s="16" t="n">
+      <c r="B44" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="17" t="s">
+      <c r="D44" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="70"/>
-      <c r="I44" s="27"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="69" t="n">
+      <c r="H44" s="68"/>
+      <c r="I44" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="67" t="n">
         <v>43269</v>
       </c>
-      <c r="B45" s="16" t="n">
+      <c r="B45" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="17" t="s">
+      <c r="D45" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="70"/>
-      <c r="I45" s="27"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="69" t="n">
+      <c r="A46" s="64" t="n">
         <v>43274</v>
       </c>
       <c r="B46" s="16" t="n">
@@ -14684,11 +14790,11 @@
       <c r="G46" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="70"/>
+      <c r="H46" s="65"/>
       <c r="I46" s="27"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="69" t="n">
+      <c r="A47" s="64" t="n">
         <v>43274</v>
       </c>
       <c r="B47" s="16" t="n">
@@ -14705,11 +14811,11 @@
       <c r="G47" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="70"/>
+      <c r="H47" s="65"/>
       <c r="I47" s="27"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="69" t="n">
+      <c r="A48" s="64" t="n">
         <v>43278</v>
       </c>
       <c r="B48" s="16" t="n">
@@ -14726,11 +14832,11 @@
       <c r="G48" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="70"/>
+      <c r="H48" s="65"/>
       <c r="I48" s="27"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="69" t="n">
+      <c r="A49" s="64" t="n">
         <v>43278</v>
       </c>
       <c r="B49" s="16" t="n">
@@ -14747,7 +14853,7 @@
       <c r="G49" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="70"/>
+      <c r="H49" s="65"/>
       <c r="I49" s="27"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14781,7 +14887,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="69" t="n">
+      <c r="A52" s="64" t="n">
         <v>43269</v>
       </c>
       <c r="B52" s="16" t="n">
@@ -14802,11 +14908,11 @@
       <c r="G52" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="70"/>
+      <c r="H52" s="65"/>
       <c r="I52" s="27"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="69" t="n">
+      <c r="A53" s="64" t="n">
         <v>43269</v>
       </c>
       <c r="B53" s="16" t="n">
@@ -14827,11 +14933,11 @@
       <c r="G53" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="70"/>
+      <c r="H53" s="65"/>
       <c r="I53" s="27"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="69" t="n">
+      <c r="A54" s="64" t="n">
         <v>43274</v>
       </c>
       <c r="B54" s="16" t="n">
@@ -14848,11 +14954,11 @@
       <c r="G54" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="70"/>
+      <c r="H54" s="65"/>
       <c r="I54" s="27"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="69" t="n">
+      <c r="A55" s="64" t="n">
         <v>43275</v>
       </c>
       <c r="B55" s="16" t="n">
@@ -14869,11 +14975,11 @@
       <c r="G55" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="70"/>
+      <c r="H55" s="65"/>
       <c r="I55" s="27"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="69" t="n">
+      <c r="A56" s="64" t="n">
         <v>43279</v>
       </c>
       <c r="B56" s="16" t="n">
@@ -14890,11 +14996,11 @@
       <c r="G56" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="70"/>
+      <c r="H56" s="65"/>
       <c r="I56" s="27"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="69" t="n">
+      <c r="A57" s="64" t="n">
         <v>43279</v>
       </c>
       <c r="B57" s="16" t="n">
@@ -14911,7 +15017,7 @@
       <c r="G57" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="70"/>
+      <c r="H57" s="65"/>
       <c r="I57" s="27"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14945,7 +15051,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="69" t="n">
+      <c r="A60" s="64" t="n">
         <v>43270</v>
       </c>
       <c r="B60" s="16" t="n">
@@ -14966,11 +15072,11 @@
       <c r="G60" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="70"/>
+      <c r="H60" s="65"/>
       <c r="I60" s="27"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="69" t="n">
+      <c r="A61" s="64" t="n">
         <v>43270</v>
       </c>
       <c r="B61" s="16" t="n">
@@ -14991,11 +15097,11 @@
       <c r="G61" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="70"/>
+      <c r="H61" s="65"/>
       <c r="I61" s="27"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="69" t="n">
+      <c r="A62" s="64" t="n">
         <v>43275</v>
       </c>
       <c r="B62" s="16" t="n">
@@ -15012,11 +15118,11 @@
       <c r="G62" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="70"/>
+      <c r="H62" s="65"/>
       <c r="I62" s="27"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="69" t="n">
+      <c r="A63" s="64" t="n">
         <v>43275</v>
       </c>
       <c r="B63" s="16" t="n">
@@ -15033,11 +15139,11 @@
       <c r="G63" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="70"/>
+      <c r="H63" s="65"/>
       <c r="I63" s="27"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="69" t="n">
+      <c r="A64" s="64" t="n">
         <v>43279</v>
       </c>
       <c r="B64" s="16" t="n">
@@ -15054,11 +15160,11 @@
       <c r="G64" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="70"/>
+      <c r="H64" s="65"/>
       <c r="I64" s="27"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="74" t="n">
+      <c r="A65" s="71" t="n">
         <v>43279</v>
       </c>
       <c r="B65" s="29" t="n">
@@ -15075,7 +15181,7 @@
       <c r="G65" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="75"/>
+      <c r="H65" s="72"/>
       <c r="I65" s="27"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15109,7 +15215,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="69" t="n">
+      <c r="A68" s="64" t="n">
         <v>43281</v>
       </c>
       <c r="B68" s="16" t="n">
@@ -15126,11 +15232,11 @@
       <c r="G68" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H68" s="70"/>
+      <c r="H68" s="65"/>
       <c r="I68" s="27"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="69" t="n">
+      <c r="A69" s="64" t="n">
         <v>43281</v>
       </c>
       <c r="B69" s="16" t="n">
@@ -15147,11 +15253,11 @@
       <c r="G69" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H69" s="70"/>
+      <c r="H69" s="65"/>
       <c r="I69" s="27"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="69" t="n">
+      <c r="A70" s="64" t="n">
         <v>43282</v>
       </c>
       <c r="B70" s="16" t="n">
@@ -15168,11 +15274,11 @@
       <c r="G70" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="H70" s="70"/>
+      <c r="H70" s="65"/>
       <c r="I70" s="27"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="69" t="n">
+      <c r="A71" s="64" t="n">
         <v>43282</v>
       </c>
       <c r="B71" s="16" t="n">
@@ -15189,11 +15295,11 @@
       <c r="G71" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H71" s="70"/>
+      <c r="H71" s="65"/>
       <c r="I71" s="27"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="69" t="n">
+      <c r="A72" s="64" t="n">
         <v>43283</v>
       </c>
       <c r="B72" s="16" t="n">
@@ -15210,11 +15316,11 @@
       <c r="G72" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="H72" s="70"/>
+      <c r="H72" s="65"/>
       <c r="I72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="74" t="n">
+      <c r="A73" s="71" t="n">
         <v>43283</v>
       </c>
       <c r="B73" s="29" t="n">
@@ -15231,11 +15337,11 @@
       <c r="G73" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="H73" s="75"/>
+      <c r="H73" s="72"/>
       <c r="I73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="74" t="n">
+      <c r="A74" s="71" t="n">
         <v>43284</v>
       </c>
       <c r="B74" s="29" t="n">
@@ -15252,11 +15358,11 @@
       <c r="G74" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="H74" s="75"/>
+      <c r="H74" s="72"/>
       <c r="I74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="74" t="n">
+      <c r="A75" s="71" t="n">
         <v>43284</v>
       </c>
       <c r="B75" s="29" t="n">
@@ -15273,7 +15379,7 @@
       <c r="G75" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="H75" s="75"/>
+      <c r="H75" s="72"/>
       <c r="I75" s="27"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15307,7 +15413,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="69" t="n">
+      <c r="A78" s="64" t="n">
         <v>43287</v>
       </c>
       <c r="B78" s="16" t="n">
@@ -15324,11 +15430,11 @@
       <c r="G78" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H78" s="70"/>
+      <c r="H78" s="65"/>
       <c r="I78" s="27"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="69" t="n">
+      <c r="A79" s="64" t="n">
         <v>43287</v>
       </c>
       <c r="B79" s="16" t="n">
@@ -15345,11 +15451,11 @@
       <c r="G79" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H79" s="70"/>
+      <c r="H79" s="65"/>
       <c r="I79" s="27"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="69" t="n">
+      <c r="A80" s="64" t="n">
         <v>43288</v>
       </c>
       <c r="B80" s="16" t="n">
@@ -15366,11 +15472,11 @@
       <c r="G80" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="H80" s="70"/>
+      <c r="H80" s="65"/>
       <c r="I80" s="27"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="69" t="n">
+      <c r="A81" s="64" t="n">
         <v>43288</v>
       </c>
       <c r="B81" s="16" t="n">
@@ -15387,7 +15493,7 @@
       <c r="G81" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="H81" s="70"/>
+      <c r="H81" s="65"/>
       <c r="I81" s="27"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15421,7 +15527,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="69" t="n">
+      <c r="A84" s="64" t="n">
         <v>43291</v>
       </c>
       <c r="B84" s="16" t="n">
@@ -15438,11 +15544,11 @@
       <c r="G84" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="H84" s="70"/>
+      <c r="H84" s="65"/>
       <c r="I84" s="27"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="69" t="n">
+      <c r="A85" s="64" t="n">
         <v>43292</v>
       </c>
       <c r="B85" s="16" t="n">
@@ -15459,7 +15565,7 @@
       <c r="G85" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H85" s="70"/>
+      <c r="H85" s="65"/>
       <c r="I85" s="27"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15493,7 +15599,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="69" t="n">
+      <c r="A88" s="64" t="n">
         <v>43295</v>
       </c>
       <c r="B88" s="16" t="n">
@@ -15510,7 +15616,7 @@
       <c r="G88" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="H88" s="70"/>
+      <c r="H88" s="65"/>
       <c r="I88" s="27"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15544,7 +15650,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="69" t="n">
+      <c r="A91" s="64" t="n">
         <v>43296</v>
       </c>
       <c r="B91" s="16" t="n">
@@ -15561,7 +15667,7 @@
       <c r="G91" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="H91" s="70"/>
+      <c r="H91" s="65"/>
       <c r="I91" s="27"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15595,7 +15701,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="69" t="n">
+      <c r="A94" s="64" t="n">
         <v>43296</v>
       </c>
       <c r="B94" s="16" t="n">
@@ -15612,7 +15718,7 @@
       <c r="G94" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="H94" s="70"/>
+      <c r="H94" s="65"/>
       <c r="I94" s="27"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15652,15 +15758,15 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.1983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.09716599190283"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.1983805668016"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -16051,52 +16157,56 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="n">
+      <c r="A20" s="10" t="n">
         <v>43267</v>
       </c>
-      <c r="B20" s="16" t="n">
+      <c r="B20" s="11" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="26" t="n">
+      <c r="D20" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="17" t="s">
+      <c r="E20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="n">
+      <c r="A21" s="5" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="6" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="17" t="s">
+      <c r="D21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="n">
@@ -16221,52 +16331,56 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="n">
+      <c r="A28" s="5" t="n">
         <v>43267</v>
       </c>
-      <c r="B28" s="16" t="n">
+      <c r="B28" s="6" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="17" t="s">
+      <c r="D28" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="H28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="n">
+      <c r="A29" s="5" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="16" t="n">
+      <c r="B29" s="6" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="17" t="s">
+      <c r="D29" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="27"/>
+      <c r="H29" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="n">
@@ -16393,52 +16507,56 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="n">
+      <c r="A36" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B36" s="16" t="n">
+      <c r="B36" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="17" t="s">
+      <c r="D36" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="27"/>
+      <c r="H36" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="n">
+      <c r="A37" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B37" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="17" t="s">
+      <c r="B37" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="17" t="s">
+      <c r="D37" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="27"/>
+      <c r="H37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="n">
@@ -16563,52 +16681,56 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="n">
+      <c r="A44" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B44" s="16" t="n">
+      <c r="B44" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="17" t="s">
+      <c r="D44" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="27"/>
+      <c r="H44" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="n">
+      <c r="A45" s="10" t="n">
         <v>43269</v>
       </c>
-      <c r="B45" s="16" t="n">
+      <c r="B45" s="11" t="n">
         <v>0.375</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="17" t="s">
+      <c r="D45" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="27"/>
+      <c r="H45" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="n">
@@ -17578,14 +17700,14 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.1983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.09716599190283"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.1983805668016"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -17663,19 +17785,19 @@
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="76" t="n">
+      <c r="D5" s="36" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="76" t="n">
+      <c r="F5" s="36" t="n">
         <v>2</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="77" t="n">
+      <c r="H5" s="37" t="n">
         <v>3</v>
       </c>
     </row>
@@ -17976,52 +18098,56 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="n">
+      <c r="A20" s="10" t="n">
         <v>43267</v>
       </c>
-      <c r="B20" s="16" t="n">
+      <c r="B20" s="11" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="17" t="s">
+      <c r="D20" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="37" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="n">
+      <c r="A21" s="38" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="39" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="17" t="s">
+      <c r="D21" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="61" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="n">
@@ -18146,52 +18272,56 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="n">
+      <c r="A28" s="5" t="n">
         <v>43267</v>
       </c>
-      <c r="B28" s="16" t="n">
+      <c r="B28" s="6" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="17" t="s">
+      <c r="D28" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="H28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="n">
+      <c r="A29" s="38" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="16" t="n">
+      <c r="B29" s="39" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="26" t="n">
+      <c r="D29" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="17" t="s">
+      <c r="E29" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="27"/>
+      <c r="H29" s="61" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="n">
@@ -18318,52 +18448,56 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="n">
+      <c r="A36" s="10" t="n">
         <v>43268</v>
       </c>
-      <c r="B36" s="16" t="n">
+      <c r="B36" s="11" t="n">
         <v>0.375</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="G36" s="17" t="s">
+      <c r="D36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="27"/>
+      <c r="H36" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="n">
+      <c r="A37" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B37" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="17" t="s">
+      <c r="B37" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="17" t="s">
+      <c r="D37" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="27"/>
+      <c r="H37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="n">
@@ -18488,52 +18622,56 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="n">
+      <c r="A44" s="5" t="n">
         <v>43268</v>
       </c>
-      <c r="B44" s="16" t="n">
+      <c r="B44" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="17" t="s">
+      <c r="D44" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="27"/>
+      <c r="H44" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="n">
+      <c r="A45" s="10" t="n">
         <v>43269</v>
       </c>
-      <c r="B45" s="16" t="n">
+      <c r="B45" s="11" t="n">
         <v>0.375</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="26" t="n">
+      <c r="D45" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="17" t="s">
+      <c r="E45" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="27"/>
+      <c r="H45" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="n">

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -373,7 +373,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +407,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -507,7 +513,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -620,6 +626,26 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
@@ -660,23 +686,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -732,27 +766,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -784,11 +810,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -879,15 +905,15 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H45" activeCellId="0" sqref="H45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1880,28 +1906,30 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="n">
+      <c r="A52" s="28" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="16" t="n">
+      <c r="B52" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="26" t="n">
+      <c r="D52" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="17" t="s">
+      <c r="E52" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="27"/>
+      <c r="H52" s="32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="n">
@@ -2142,21 +2170,21 @@
       <c r="H64" s="27"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28" t="n">
+      <c r="A65" s="33" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="29" t="n">
+      <c r="B65" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="31"/>
-      <c r="G65" s="30" t="s">
+      <c r="D65" s="36"/>
+      <c r="E65" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="36"/>
+      <c r="G65" s="35" t="s">
         <v>41</v>
       </c>
       <c r="H65" s="27"/>
@@ -2169,7 +2197,7 @@
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="32"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -2194,7 +2222,7 @@
       <c r="B68" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="26"/>
@@ -2202,7 +2230,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="26"/>
-      <c r="G68" s="33" t="s">
+      <c r="G68" s="38" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="27"/>
@@ -2214,7 +2242,7 @@
       <c r="B69" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="38" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="26"/>
@@ -2222,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="26"/>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="38" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="27"/>
@@ -2234,7 +2262,7 @@
       <c r="B70" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="38" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="26"/>
@@ -2242,7 +2270,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="26"/>
-      <c r="G70" s="33" t="s">
+      <c r="G70" s="38" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="27"/>
@@ -2254,7 +2282,7 @@
       <c r="B71" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="38" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="26"/>
@@ -2262,7 +2290,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="26"/>
-      <c r="G71" s="33" t="s">
+      <c r="G71" s="38" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="27"/>
@@ -2274,7 +2302,7 @@
       <c r="B72" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="38" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="26"/>
@@ -2282,67 +2310,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="26"/>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="38" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="28" t="n">
+      <c r="A73" s="33" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="34" t="s">
+      <c r="B73" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="31"/>
-      <c r="G73" s="34" t="s">
+      <c r="D73" s="36"/>
+      <c r="E73" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="36"/>
+      <c r="G73" s="39" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="28" t="n">
+      <c r="A74" s="33" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="29" t="n">
+      <c r="B74" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="34" t="s">
+      <c r="D74" s="36"/>
+      <c r="E74" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="36"/>
+      <c r="G74" s="39" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="28" t="n">
+      <c r="A75" s="33" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="34" t="s">
+      <c r="B75" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="31"/>
-      <c r="G75" s="34" t="s">
+      <c r="D75" s="36"/>
+      <c r="E75" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="36"/>
+      <c r="G75" s="39" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="27"/>
@@ -2355,7 +2383,7 @@
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
-      <c r="H76" s="32"/>
+      <c r="H76" s="37"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -2380,7 +2408,7 @@
       <c r="B78" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="26"/>
@@ -2388,7 +2416,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="26"/>
-      <c r="G78" s="33" t="s">
+      <c r="G78" s="38" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="27"/>
@@ -2400,7 +2428,7 @@
       <c r="B79" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="38" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="26"/>
@@ -2408,7 +2436,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="26"/>
-      <c r="G79" s="33" t="s">
+      <c r="G79" s="38" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="27"/>
@@ -2420,7 +2448,7 @@
       <c r="B80" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="38" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="26"/>
@@ -2428,7 +2456,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="26"/>
-      <c r="G80" s="33" t="s">
+      <c r="G80" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="27"/>
@@ -2440,7 +2468,7 @@
       <c r="B81" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="26"/>
@@ -2448,7 +2476,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="26"/>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="38" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="27"/>
@@ -2461,7 +2489,7 @@
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="32"/>
+      <c r="H82" s="37"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -2486,7 +2514,7 @@
       <c r="B84" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="26"/>
@@ -2494,7 +2522,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="26"/>
-      <c r="G84" s="33" t="s">
+      <c r="G84" s="38" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="27"/>
@@ -2506,7 +2534,7 @@
       <c r="B85" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="33" t="s">
+      <c r="C85" s="38" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="26"/>
@@ -2514,7 +2542,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="26"/>
-      <c r="G85" s="33" t="s">
+      <c r="G85" s="38" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="27"/>
@@ -2527,7 +2555,7 @@
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
-      <c r="H86" s="32"/>
+      <c r="H86" s="37"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -2552,7 +2580,7 @@
       <c r="B88" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="26"/>
@@ -2560,7 +2588,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="26"/>
-      <c r="G88" s="33" t="s">
+      <c r="G88" s="38" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="27"/>
@@ -2573,7 +2601,7 @@
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="32"/>
+      <c r="H89" s="37"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -2598,7 +2626,7 @@
       <c r="B91" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="38" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="26"/>
@@ -2606,7 +2634,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="26"/>
-      <c r="G91" s="33" t="s">
+      <c r="G91" s="38" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="27"/>
@@ -2644,15 +2672,15 @@
       <c r="B94" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="35"/>
-      <c r="E94" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="30" t="s">
+      <c r="D94" s="40"/>
+      <c r="E94" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="40"/>
+      <c r="G94" s="35" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="27"/>
@@ -2694,15 +2722,15 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H45" activeCellId="0" sqref="H45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K50" activeCellId="0" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3685,28 +3713,30 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="n">
+      <c r="A52" s="10" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="16" t="n">
+      <c r="B52" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="26" t="n">
+      <c r="D52" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="17" t="s">
+      <c r="E52" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="27"/>
+      <c r="H52" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="n">
@@ -3947,21 +3977,21 @@
       <c r="H64" s="27"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28" t="n">
+      <c r="A65" s="33" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="29" t="n">
+      <c r="B65" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="31"/>
-      <c r="G65" s="30" t="s">
+      <c r="D65" s="36"/>
+      <c r="E65" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="36"/>
+      <c r="G65" s="35" t="s">
         <v>41</v>
       </c>
       <c r="H65" s="27"/>
@@ -3974,7 +4004,7 @@
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="32"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -3999,7 +4029,7 @@
       <c r="B68" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="26"/>
@@ -4007,7 +4037,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="26"/>
-      <c r="G68" s="33" t="s">
+      <c r="G68" s="38" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="27"/>
@@ -4019,7 +4049,7 @@
       <c r="B69" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="38" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="26"/>
@@ -4027,7 +4057,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="26"/>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="38" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="27"/>
@@ -4039,7 +4069,7 @@
       <c r="B70" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="38" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="26"/>
@@ -4047,7 +4077,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="26"/>
-      <c r="G70" s="33" t="s">
+      <c r="G70" s="38" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="27"/>
@@ -4059,7 +4089,7 @@
       <c r="B71" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="38" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="26"/>
@@ -4067,7 +4097,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="26"/>
-      <c r="G71" s="33" t="s">
+      <c r="G71" s="38" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="27"/>
@@ -4079,7 +4109,7 @@
       <c r="B72" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="38" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="26"/>
@@ -4087,67 +4117,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="26"/>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="38" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="28" t="n">
+      <c r="A73" s="33" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="34" t="s">
+      <c r="B73" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="31"/>
-      <c r="G73" s="34" t="s">
+      <c r="D73" s="36"/>
+      <c r="E73" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="36"/>
+      <c r="G73" s="39" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="28" t="n">
+      <c r="A74" s="33" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="29" t="n">
+      <c r="B74" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="34" t="s">
+      <c r="D74" s="36"/>
+      <c r="E74" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="36"/>
+      <c r="G74" s="39" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="28" t="n">
+      <c r="A75" s="33" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="34" t="s">
+      <c r="B75" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="31"/>
-      <c r="G75" s="34" t="s">
+      <c r="D75" s="36"/>
+      <c r="E75" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="36"/>
+      <c r="G75" s="39" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="27"/>
@@ -4160,7 +4190,7 @@
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
-      <c r="H76" s="32"/>
+      <c r="H76" s="37"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -4185,7 +4215,7 @@
       <c r="B78" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="26"/>
@@ -4193,7 +4223,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="26"/>
-      <c r="G78" s="33" t="s">
+      <c r="G78" s="38" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="27"/>
@@ -4205,7 +4235,7 @@
       <c r="B79" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="38" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="26"/>
@@ -4213,7 +4243,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="26"/>
-      <c r="G79" s="33" t="s">
+      <c r="G79" s="38" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="27"/>
@@ -4225,7 +4255,7 @@
       <c r="B80" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="38" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="26"/>
@@ -4233,7 +4263,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="26"/>
-      <c r="G80" s="33" t="s">
+      <c r="G80" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="27"/>
@@ -4245,7 +4275,7 @@
       <c r="B81" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="26"/>
@@ -4253,7 +4283,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="26"/>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="38" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="27"/>
@@ -4266,7 +4296,7 @@
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="32"/>
+      <c r="H82" s="37"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -4291,7 +4321,7 @@
       <c r="B84" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="26"/>
@@ -4299,7 +4329,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="26"/>
-      <c r="G84" s="33" t="s">
+      <c r="G84" s="38" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="27"/>
@@ -4311,7 +4341,7 @@
       <c r="B85" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="33" t="s">
+      <c r="C85" s="38" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="26"/>
@@ -4319,7 +4349,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="26"/>
-      <c r="G85" s="33" t="s">
+      <c r="G85" s="38" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="27"/>
@@ -4332,7 +4362,7 @@
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
-      <c r="H86" s="32"/>
+      <c r="H86" s="37"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -4357,7 +4387,7 @@
       <c r="B88" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="26"/>
@@ -4365,7 +4395,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="26"/>
-      <c r="G88" s="33" t="s">
+      <c r="G88" s="38" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="27"/>
@@ -4378,7 +4408,7 @@
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="32"/>
+      <c r="H89" s="37"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -4403,7 +4433,7 @@
       <c r="B91" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="38" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="26"/>
@@ -4411,7 +4441,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="26"/>
-      <c r="G91" s="33" t="s">
+      <c r="G91" s="38" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="27"/>
@@ -4449,15 +4479,15 @@
       <c r="B94" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="35"/>
-      <c r="E94" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="30" t="s">
+      <c r="D94" s="40"/>
+      <c r="E94" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="40"/>
+      <c r="G94" s="35" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="27"/>
@@ -4497,15 +4527,15 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5496,28 +5526,28 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="n">
+      <c r="A52" s="28" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="16" t="n">
+      <c r="B52" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="26" t="n">
+      <c r="D52" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="17" t="s">
+      <c r="E52" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="27"/>
+      <c r="H52" s="32"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="n">
@@ -5758,21 +5788,21 @@
       <c r="H64" s="27"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28" t="n">
+      <c r="A65" s="33" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="29" t="n">
+      <c r="B65" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="31"/>
-      <c r="G65" s="30" t="s">
+      <c r="D65" s="36"/>
+      <c r="E65" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="36"/>
+      <c r="G65" s="35" t="s">
         <v>41</v>
       </c>
       <c r="H65" s="27"/>
@@ -5785,7 +5815,7 @@
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="32"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -5810,7 +5840,7 @@
       <c r="B68" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="26"/>
@@ -5818,7 +5848,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="26"/>
-      <c r="G68" s="33" t="s">
+      <c r="G68" s="38" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="27"/>
@@ -5830,7 +5860,7 @@
       <c r="B69" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="38" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="26"/>
@@ -5838,7 +5868,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="26"/>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="38" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="27"/>
@@ -5850,7 +5880,7 @@
       <c r="B70" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="38" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="26"/>
@@ -5858,7 +5888,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="26"/>
-      <c r="G70" s="33" t="s">
+      <c r="G70" s="38" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="27"/>
@@ -5870,7 +5900,7 @@
       <c r="B71" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="38" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="26"/>
@@ -5878,7 +5908,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="26"/>
-      <c r="G71" s="33" t="s">
+      <c r="G71" s="38" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="27"/>
@@ -5890,7 +5920,7 @@
       <c r="B72" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="38" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="26"/>
@@ -5898,67 +5928,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="26"/>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="38" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="28" t="n">
+      <c r="A73" s="33" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="34" t="s">
+      <c r="B73" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="31"/>
-      <c r="G73" s="34" t="s">
+      <c r="D73" s="36"/>
+      <c r="E73" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="36"/>
+      <c r="G73" s="39" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="28" t="n">
+      <c r="A74" s="33" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="29" t="n">
+      <c r="B74" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="34" t="s">
+      <c r="D74" s="36"/>
+      <c r="E74" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="36"/>
+      <c r="G74" s="39" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="28" t="n">
+      <c r="A75" s="33" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="34" t="s">
+      <c r="B75" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="31"/>
-      <c r="G75" s="34" t="s">
+      <c r="D75" s="36"/>
+      <c r="E75" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="36"/>
+      <c r="G75" s="39" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="27"/>
@@ -5971,7 +6001,7 @@
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
-      <c r="H76" s="32"/>
+      <c r="H76" s="37"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -5996,7 +6026,7 @@
       <c r="B78" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="26"/>
@@ -6004,7 +6034,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="26"/>
-      <c r="G78" s="33" t="s">
+      <c r="G78" s="38" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="27"/>
@@ -6016,7 +6046,7 @@
       <c r="B79" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="38" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="26"/>
@@ -6024,7 +6054,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="26"/>
-      <c r="G79" s="33" t="s">
+      <c r="G79" s="38" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="27"/>
@@ -6036,7 +6066,7 @@
       <c r="B80" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="38" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="26"/>
@@ -6044,7 +6074,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="26"/>
-      <c r="G80" s="33" t="s">
+      <c r="G80" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="27"/>
@@ -6056,7 +6086,7 @@
       <c r="B81" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="26"/>
@@ -6064,7 +6094,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="26"/>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="38" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="27"/>
@@ -6077,7 +6107,7 @@
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="32"/>
+      <c r="H82" s="37"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -6102,7 +6132,7 @@
       <c r="B84" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="26"/>
@@ -6110,7 +6140,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="26"/>
-      <c r="G84" s="33" t="s">
+      <c r="G84" s="38" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="27"/>
@@ -6122,7 +6152,7 @@
       <c r="B85" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="33" t="s">
+      <c r="C85" s="38" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="26"/>
@@ -6130,7 +6160,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="26"/>
-      <c r="G85" s="33" t="s">
+      <c r="G85" s="38" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="27"/>
@@ -6143,7 +6173,7 @@
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
-      <c r="H86" s="32"/>
+      <c r="H86" s="37"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -6168,7 +6198,7 @@
       <c r="B88" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="26"/>
@@ -6176,7 +6206,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="26"/>
-      <c r="G88" s="33" t="s">
+      <c r="G88" s="38" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="27"/>
@@ -6189,7 +6219,7 @@
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="32"/>
+      <c r="H89" s="37"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -6214,7 +6244,7 @@
       <c r="B91" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="38" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="26"/>
@@ -6222,7 +6252,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="26"/>
-      <c r="G91" s="33" t="s">
+      <c r="G91" s="38" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="27"/>
@@ -6260,15 +6290,15 @@
       <c r="B94" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="35"/>
-      <c r="E94" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="30" t="s">
+      <c r="D94" s="40"/>
+      <c r="E94" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="40"/>
+      <c r="G94" s="35" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="27"/>
@@ -6310,15 +6340,15 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J53" activeCellId="0" sqref="J53"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6718,45 +6748,45 @@
       <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="36" t="n">
+      <c r="D20" s="41" t="n">
         <v>3</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="36" t="n">
+      <c r="F20" s="41" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="37" t="n">
+      <c r="H20" s="42" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38" t="n">
+      <c r="A21" s="43" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="39" t="n">
+      <c r="B21" s="44" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="40" t="s">
+      <c r="D21" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="42" t="n">
+      <c r="H21" s="47" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7407,28 +7437,30 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="n">
+      <c r="A52" s="43" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="16" t="n">
+      <c r="B52" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="17" t="s">
+      <c r="D52" s="48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="27"/>
+      <c r="H52" s="49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="n">
@@ -7697,25 +7729,25 @@
       <c r="H64" s="27"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28" t="n">
+      <c r="A65" s="33" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="29" t="n">
+      <c r="B65" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="31" t="n">
+      <c r="D65" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="G65" s="30" t="s">
+      <c r="G65" s="35" t="s">
         <v>41</v>
       </c>
       <c r="H65" s="27"/>
@@ -7728,7 +7760,7 @@
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="32"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -7753,7 +7785,7 @@
       <c r="B68" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="26"/>
@@ -7761,7 +7793,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="26"/>
-      <c r="G68" s="33" t="s">
+      <c r="G68" s="38" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="27"/>
@@ -7773,7 +7805,7 @@
       <c r="B69" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="38" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="26"/>
@@ -7781,7 +7813,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="26"/>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="38" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="27"/>
@@ -7793,7 +7825,7 @@
       <c r="B70" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="38" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="26"/>
@@ -7801,7 +7833,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="26"/>
-      <c r="G70" s="33" t="s">
+      <c r="G70" s="38" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="27"/>
@@ -7813,7 +7845,7 @@
       <c r="B71" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="38" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="26"/>
@@ -7821,7 +7853,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="26"/>
-      <c r="G71" s="33" t="s">
+      <c r="G71" s="38" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="27"/>
@@ -7833,7 +7865,7 @@
       <c r="B72" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="38" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="26"/>
@@ -7841,67 +7873,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="26"/>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="38" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="28" t="n">
+      <c r="A73" s="33" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="34" t="s">
+      <c r="B73" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="31"/>
-      <c r="G73" s="34" t="s">
+      <c r="D73" s="36"/>
+      <c r="E73" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="36"/>
+      <c r="G73" s="39" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="28" t="n">
+      <c r="A74" s="33" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="29" t="n">
+      <c r="B74" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="34" t="s">
+      <c r="D74" s="36"/>
+      <c r="E74" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="36"/>
+      <c r="G74" s="39" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="28" t="n">
+      <c r="A75" s="33" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="34" t="s">
+      <c r="B75" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="31"/>
-      <c r="G75" s="34" t="s">
+      <c r="D75" s="36"/>
+      <c r="E75" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="36"/>
+      <c r="G75" s="39" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="27"/>
@@ -7914,7 +7946,7 @@
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
-      <c r="H76" s="32"/>
+      <c r="H76" s="37"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -7939,7 +7971,7 @@
       <c r="B78" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="26"/>
@@ -7947,7 +7979,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="26"/>
-      <c r="G78" s="33" t="s">
+      <c r="G78" s="38" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="27"/>
@@ -7959,7 +7991,7 @@
       <c r="B79" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="38" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="26"/>
@@ -7967,7 +7999,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="26"/>
-      <c r="G79" s="33" t="s">
+      <c r="G79" s="38" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="27"/>
@@ -7979,7 +8011,7 @@
       <c r="B80" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="38" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="26"/>
@@ -7987,7 +8019,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="26"/>
-      <c r="G80" s="33" t="s">
+      <c r="G80" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="27"/>
@@ -7999,7 +8031,7 @@
       <c r="B81" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="26"/>
@@ -8007,7 +8039,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="26"/>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="38" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="27"/>
@@ -8020,7 +8052,7 @@
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="32"/>
+      <c r="H82" s="37"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -8045,7 +8077,7 @@
       <c r="B84" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="26"/>
@@ -8053,7 +8085,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="26"/>
-      <c r="G84" s="33" t="s">
+      <c r="G84" s="38" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="27"/>
@@ -8065,7 +8097,7 @@
       <c r="B85" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="33" t="s">
+      <c r="C85" s="38" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="26"/>
@@ -8073,7 +8105,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="26"/>
-      <c r="G85" s="33" t="s">
+      <c r="G85" s="38" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="27"/>
@@ -8086,7 +8118,7 @@
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
-      <c r="H86" s="32"/>
+      <c r="H86" s="37"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -8111,7 +8143,7 @@
       <c r="B88" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="26"/>
@@ -8119,7 +8151,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="26"/>
-      <c r="G88" s="33" t="s">
+      <c r="G88" s="38" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="27"/>
@@ -8132,7 +8164,7 @@
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="32"/>
+      <c r="H89" s="37"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -8157,7 +8189,7 @@
       <c r="B91" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="38" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="26"/>
@@ -8165,7 +8197,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="26"/>
-      <c r="G91" s="33" t="s">
+      <c r="G91" s="38" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="27"/>
@@ -8203,15 +8235,15 @@
       <c r="B94" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="35"/>
-      <c r="E94" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="30" t="s">
+      <c r="D94" s="40"/>
+      <c r="E94" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="40"/>
+      <c r="G94" s="35" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="27"/>
@@ -8252,15 +8284,15 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K47" activeCellId="0" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8287,152 +8319,152 @@
       <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43" t="s">
+      <c r="A3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="n">
+      <c r="A4" s="51" t="n">
         <v>43265</v>
       </c>
-      <c r="B4" s="45" t="n">
+      <c r="B4" s="52" t="n">
         <v>0.5</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="47" t="n">
+      <c r="D4" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="46" t="s">
+      <c r="E4" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="47" t="n">
+      <c r="H4" s="54" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="n">
+      <c r="A5" s="51" t="n">
         <v>43266</v>
       </c>
-      <c r="B5" s="45" t="n">
+      <c r="B5" s="52" t="n">
         <v>0.375</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="47" t="n">
+      <c r="D5" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="47" t="n">
+      <c r="H5" s="54" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48" t="n">
+      <c r="A6" s="55" t="n">
         <v>43270</v>
       </c>
-      <c r="B6" s="49" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="50" t="s">
+      <c r="B6" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="50" t="s">
+      <c r="D6" s="58"/>
+      <c r="E6" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="51"/>
+      <c r="H6" s="58"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="n">
+      <c r="A7" s="55" t="n">
         <v>43271</v>
       </c>
-      <c r="B7" s="49" t="n">
+      <c r="B7" s="56" t="n">
         <v>0.5</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="58"/>
+      <c r="G7" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="51"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48" t="n">
+      <c r="A8" s="55" t="n">
         <v>43276</v>
       </c>
-      <c r="B8" s="49" t="n">
+      <c r="B8" s="56" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="50" t="s">
+      <c r="D8" s="58"/>
+      <c r="E8" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="58"/>
+      <c r="G8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="51"/>
+      <c r="H8" s="58"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48" t="n">
+      <c r="A9" s="55" t="n">
         <v>43276</v>
       </c>
-      <c r="B9" s="49" t="n">
+      <c r="B9" s="56" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="50" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="58"/>
+      <c r="G9" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="51"/>
+      <c r="H9" s="58"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20"/>
@@ -8461,136 +8493,136 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="52" t="n">
+      <c r="A12" s="59" t="n">
         <v>43266</v>
       </c>
-      <c r="B12" s="53" t="n">
+      <c r="B12" s="60" t="n">
         <v>0.5</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="54" t="s">
+      <c r="D12" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="55" t="n">
+      <c r="H12" s="62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="52" t="n">
+      <c r="A13" s="59" t="n">
         <v>43266</v>
       </c>
-      <c r="B13" s="53" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C13" s="54" t="s">
+      <c r="B13" s="60" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C13" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="55" t="n">
+      <c r="D13" s="62" t="n">
         <v>2</v>
       </c>
-      <c r="E13" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="54" t="s">
+      <c r="E13" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="55" t="n">
+      <c r="H13" s="62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="48" t="n">
+      <c r="A14" s="55" t="n">
         <v>43271</v>
       </c>
-      <c r="B14" s="49" t="n">
+      <c r="B14" s="56" t="n">
         <v>0.375</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="50" t="s">
+      <c r="D14" s="58"/>
+      <c r="E14" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="58"/>
+      <c r="G14" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="51"/>
+      <c r="H14" s="58"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="48" t="n">
+      <c r="A15" s="55" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="49" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="50" t="s">
+      <c r="B15" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="50" t="s">
+      <c r="D15" s="58"/>
+      <c r="E15" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="51"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="48" t="n">
+      <c r="A16" s="55" t="n">
         <v>43276</v>
       </c>
-      <c r="B16" s="49" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C16" s="50" t="s">
+      <c r="B16" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="50" t="s">
+      <c r="D16" s="58"/>
+      <c r="E16" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="51"/>
+      <c r="H16" s="58"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="48" t="n">
+      <c r="A17" s="55" t="n">
         <v>43276</v>
       </c>
-      <c r="B17" s="49" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C17" s="50" t="s">
+      <c r="B17" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C17" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="50" t="s">
+      <c r="D17" s="58"/>
+      <c r="E17" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="G17" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="51"/>
+      <c r="H17" s="58"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21"/>
@@ -8619,136 +8651,136 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="44" t="n">
+      <c r="A20" s="51" t="n">
         <v>43267</v>
       </c>
-      <c r="B20" s="45" t="n">
+      <c r="B20" s="52" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="47" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="46" t="s">
+      <c r="D20" s="54" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="47" t="n">
+      <c r="H20" s="54" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="52" t="n">
+      <c r="A21" s="59" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="53" t="n">
+      <c r="B21" s="60" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="54" t="s">
+      <c r="D21" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="55" t="n">
+      <c r="H21" s="62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="48" t="n">
+      <c r="A22" s="55" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="49" t="n">
+      <c r="B22" s="56" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="50" t="s">
+      <c r="D22" s="58"/>
+      <c r="E22" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="58"/>
+      <c r="G22" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="51"/>
+      <c r="H22" s="58"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="48" t="n">
+      <c r="A23" s="55" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="49" t="n">
+      <c r="B23" s="56" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="50" t="s">
+      <c r="D23" s="58"/>
+      <c r="E23" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="58"/>
+      <c r="G23" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="51"/>
+      <c r="H23" s="58"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="48" t="n">
+      <c r="A24" s="55" t="n">
         <v>43277</v>
       </c>
-      <c r="B24" s="49" t="n">
+      <c r="B24" s="56" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="50" t="s">
+      <c r="D24" s="58"/>
+      <c r="E24" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="51"/>
+      <c r="H24" s="58"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="48" t="n">
+      <c r="A25" s="55" t="n">
         <v>43277</v>
       </c>
-      <c r="B25" s="49" t="n">
+      <c r="B25" s="56" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="50" t="s">
+      <c r="D25" s="58"/>
+      <c r="E25" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="58"/>
+      <c r="G25" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="51"/>
+      <c r="H25" s="58"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21"/>
@@ -8777,136 +8809,136 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="52" t="n">
+      <c r="A28" s="59" t="n">
         <v>43267</v>
       </c>
-      <c r="B28" s="53" t="n">
+      <c r="B28" s="60" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="55" t="n">
+      <c r="D28" s="62" t="n">
         <v>4</v>
       </c>
-      <c r="E28" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="54" t="s">
+      <c r="E28" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="55" t="n">
+      <c r="H28" s="62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="56" t="n">
+      <c r="A29" s="63" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="57" t="n">
+      <c r="B29" s="64" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="59" t="n">
+      <c r="D29" s="66" t="n">
         <v>2</v>
       </c>
-      <c r="E29" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="58" t="s">
+      <c r="E29" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="59" t="n">
+      <c r="H29" s="66" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="48" t="n">
+      <c r="A30" s="55" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="49" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="50" t="s">
+      <c r="B30" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="51"/>
-      <c r="G30" s="50" t="s">
+      <c r="D30" s="58"/>
+      <c r="E30" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="58"/>
+      <c r="G30" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="51"/>
+      <c r="H30" s="58"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="48" t="n">
+      <c r="A31" s="55" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="49" t="n">
+      <c r="B31" s="56" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="51"/>
-      <c r="G31" s="50" t="s">
+      <c r="D31" s="58"/>
+      <c r="E31" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="58"/>
+      <c r="G31" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="51"/>
+      <c r="H31" s="58"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="48" t="n">
+      <c r="A32" s="55" t="n">
         <v>43277</v>
       </c>
-      <c r="B32" s="49" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C32" s="50" t="s">
+      <c r="B32" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C32" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="51"/>
-      <c r="G32" s="50" t="s">
+      <c r="D32" s="58"/>
+      <c r="E32" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="58"/>
+      <c r="G32" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="51"/>
+      <c r="H32" s="58"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="48" t="n">
+      <c r="A33" s="55" t="n">
         <v>43277</v>
       </c>
-      <c r="B33" s="49" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C33" s="50" t="s">
+      <c r="B33" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C33" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="51"/>
-      <c r="G33" s="50" t="s">
+      <c r="D33" s="58"/>
+      <c r="E33" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="58"/>
+      <c r="G33" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="51"/>
+      <c r="H33" s="58"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21"/>
@@ -8937,136 +8969,136 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="52" t="n">
+      <c r="A36" s="59" t="n">
         <v>43268</v>
       </c>
-      <c r="B36" s="53" t="n">
+      <c r="B36" s="60" t="n">
         <v>0.375</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="55" t="n">
+      <c r="D36" s="62" t="n">
         <v>2</v>
       </c>
-      <c r="E36" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="54" t="s">
+      <c r="E36" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="55" t="n">
+      <c r="H36" s="62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="52" t="n">
+      <c r="A37" s="59" t="n">
         <v>43268</v>
       </c>
-      <c r="B37" s="53" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="54" t="s">
+      <c r="B37" s="60" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="55" t="n">
+      <c r="D37" s="62" t="n">
         <v>4</v>
       </c>
-      <c r="E37" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="54" t="s">
+      <c r="E37" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="55" t="n">
+      <c r="H37" s="62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="48" t="n">
+      <c r="A38" s="55" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="49" t="n">
+      <c r="B38" s="56" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="51"/>
-      <c r="G38" s="50" t="s">
+      <c r="D38" s="58"/>
+      <c r="E38" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="58"/>
+      <c r="G38" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="51"/>
+      <c r="H38" s="58"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="48" t="n">
+      <c r="A39" s="55" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="49" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="50" t="s">
+      <c r="B39" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="51"/>
-      <c r="G39" s="50" t="s">
+      <c r="D39" s="58"/>
+      <c r="E39" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="58"/>
+      <c r="G39" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="51"/>
+      <c r="H39" s="58"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="48" t="n">
+      <c r="A40" s="55" t="n">
         <v>43278</v>
       </c>
-      <c r="B40" s="49" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C40" s="50" t="s">
+      <c r="B40" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C40" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="51"/>
-      <c r="G40" s="50" t="s">
+      <c r="D40" s="58"/>
+      <c r="E40" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="58"/>
+      <c r="G40" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="51"/>
+      <c r="H40" s="58"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="48" t="n">
+      <c r="A41" s="55" t="n">
         <v>43278</v>
       </c>
-      <c r="B41" s="49" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C41" s="50" t="s">
+      <c r="B41" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C41" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="51"/>
-      <c r="G41" s="50" t="s">
+      <c r="D41" s="58"/>
+      <c r="E41" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="58"/>
+      <c r="G41" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="51"/>
+      <c r="H41" s="58"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21"/>
@@ -9095,136 +9127,136 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="52" t="n">
+      <c r="A44" s="59" t="n">
         <v>43268</v>
       </c>
-      <c r="B44" s="53" t="n">
+      <c r="B44" s="60" t="n">
         <v>0.5</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="55" t="n">
+      <c r="D44" s="62" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="54" t="s">
+      <c r="E44" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="55" t="n">
+      <c r="H44" s="62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="56" t="n">
+      <c r="A45" s="63" t="n">
         <v>43269</v>
       </c>
-      <c r="B45" s="57" t="n">
+      <c r="B45" s="64" t="n">
         <v>0.375</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="58" t="s">
+      <c r="D45" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="59" t="n">
+      <c r="H45" s="66" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="48" t="n">
+      <c r="A46" s="55" t="n">
         <v>43274</v>
       </c>
-      <c r="B46" s="49" t="n">
+      <c r="B46" s="56" t="n">
         <v>0.5</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="51"/>
-      <c r="G46" s="50" t="s">
+      <c r="D46" s="58"/>
+      <c r="E46" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="58"/>
+      <c r="G46" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="51"/>
+      <c r="H46" s="58"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="48" t="n">
+      <c r="A47" s="55" t="n">
         <v>43274</v>
       </c>
-      <c r="B47" s="49" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C47" s="50" t="s">
+      <c r="B47" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C47" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="51"/>
-      <c r="G47" s="50" t="s">
+      <c r="D47" s="58"/>
+      <c r="E47" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="58"/>
+      <c r="G47" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="51"/>
+      <c r="H47" s="58"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="48" t="n">
+      <c r="A48" s="55" t="n">
         <v>43278</v>
       </c>
-      <c r="B48" s="49" t="n">
+      <c r="B48" s="56" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="51"/>
-      <c r="G48" s="50" t="s">
+      <c r="D48" s="58"/>
+      <c r="E48" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="58"/>
+      <c r="G48" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="51"/>
+      <c r="H48" s="58"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="48" t="n">
+      <c r="A49" s="55" t="n">
         <v>43278</v>
       </c>
-      <c r="B49" s="49" t="n">
+      <c r="B49" s="56" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="51"/>
-      <c r="E49" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="51"/>
-      <c r="G49" s="50" t="s">
+      <c r="D49" s="58"/>
+      <c r="E49" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="58"/>
+      <c r="G49" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="51"/>
+      <c r="H49" s="58"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21"/>
@@ -9253,132 +9285,134 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="48" t="n">
+      <c r="A52" s="51" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="49" t="n">
+      <c r="B52" s="52" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="51" t="n">
+      <c r="D52" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="50" t="s">
+      <c r="E52" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="51"/>
+      <c r="H52" s="54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="48" t="n">
+      <c r="A53" s="55" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="49" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="50" t="s">
+      <c r="B53" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="51" t="n">
+      <c r="D53" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="58" t="n">
         <v>2</v>
       </c>
-      <c r="G53" s="50" t="s">
+      <c r="G53" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="51"/>
+      <c r="H53" s="58"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="48" t="n">
+      <c r="A54" s="55" t="n">
         <v>43274</v>
       </c>
-      <c r="B54" s="49" t="n">
+      <c r="B54" s="56" t="n">
         <v>0.375</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="51"/>
-      <c r="G54" s="50" t="s">
+      <c r="D54" s="58"/>
+      <c r="E54" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="58"/>
+      <c r="G54" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="51"/>
+      <c r="H54" s="58"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="48" t="n">
+      <c r="A55" s="55" t="n">
         <v>43275</v>
       </c>
-      <c r="B55" s="49" t="n">
+      <c r="B55" s="56" t="n">
         <v>0.375</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="51"/>
-      <c r="G55" s="50" t="s">
+      <c r="D55" s="58"/>
+      <c r="E55" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="58"/>
+      <c r="G55" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="51"/>
+      <c r="H55" s="58"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="48" t="n">
+      <c r="A56" s="55" t="n">
         <v>43279</v>
       </c>
-      <c r="B56" s="49" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C56" s="50" t="s">
+      <c r="B56" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C56" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="51"/>
-      <c r="E56" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="50" t="s">
+      <c r="D56" s="58"/>
+      <c r="E56" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="58"/>
+      <c r="G56" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="51"/>
+      <c r="H56" s="58"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="48" t="n">
+      <c r="A57" s="55" t="n">
         <v>43279</v>
       </c>
-      <c r="B57" s="49" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C57" s="50" t="s">
+      <c r="B57" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C57" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="51"/>
-      <c r="E57" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="51"/>
-      <c r="G57" s="50" t="s">
+      <c r="D57" s="58"/>
+      <c r="E57" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="58"/>
+      <c r="G57" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="51"/>
+      <c r="H57" s="58"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21"/>
@@ -9407,132 +9441,132 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="48" t="n">
+      <c r="A60" s="55" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="49" t="n">
+      <c r="B60" s="56" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="51" t="n">
+      <c r="D60" s="58" t="n">
         <v>2</v>
       </c>
-      <c r="E60" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="50" t="s">
+      <c r="E60" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="51"/>
+      <c r="H60" s="58"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="48" t="n">
+      <c r="A61" s="55" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="49" t="n">
+      <c r="B61" s="56" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="50" t="s">
+      <c r="C61" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="50" t="s">
+      <c r="D61" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="51"/>
+      <c r="H61" s="58"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="48" t="n">
+      <c r="A62" s="55" t="n">
         <v>43275</v>
       </c>
-      <c r="B62" s="49" t="n">
+      <c r="B62" s="56" t="n">
         <v>0.5</v>
       </c>
-      <c r="C62" s="50" t="s">
+      <c r="C62" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="51"/>
-      <c r="G62" s="50" t="s">
+      <c r="D62" s="58"/>
+      <c r="E62" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="58"/>
+      <c r="G62" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="51"/>
+      <c r="H62" s="58"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="48" t="n">
+      <c r="A63" s="55" t="n">
         <v>43275</v>
       </c>
-      <c r="B63" s="49" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C63" s="50" t="s">
+      <c r="B63" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C63" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="51"/>
-      <c r="G63" s="50" t="s">
+      <c r="D63" s="58"/>
+      <c r="E63" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="58"/>
+      <c r="G63" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="51"/>
+      <c r="H63" s="58"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="48" t="n">
+      <c r="A64" s="55" t="n">
         <v>43279</v>
       </c>
-      <c r="B64" s="49" t="n">
+      <c r="B64" s="56" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C64" s="50" t="s">
+      <c r="C64" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="51"/>
-      <c r="E64" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="51"/>
-      <c r="G64" s="50" t="s">
+      <c r="D64" s="58"/>
+      <c r="E64" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="58"/>
+      <c r="G64" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="51"/>
+      <c r="H64" s="58"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="48" t="n">
+      <c r="A65" s="55" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="49" t="n">
+      <c r="B65" s="56" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="C65" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="51"/>
-      <c r="E65" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="51"/>
-      <c r="G65" s="50" t="s">
+      <c r="D65" s="58"/>
+      <c r="E65" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="58"/>
+      <c r="G65" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="51"/>
+      <c r="H65" s="58"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="17"/>
@@ -9542,7 +9576,7 @@
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="32"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -9567,7 +9601,7 @@
       <c r="B68" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="26"/>
@@ -9575,7 +9609,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="26"/>
-      <c r="G68" s="33" t="s">
+      <c r="G68" s="38" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="27"/>
@@ -9587,7 +9621,7 @@
       <c r="B69" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="38" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="26"/>
@@ -9595,7 +9629,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="26"/>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="38" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="27"/>
@@ -9607,7 +9641,7 @@
       <c r="B70" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="38" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="26"/>
@@ -9615,7 +9649,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="26"/>
-      <c r="G70" s="33" t="s">
+      <c r="G70" s="38" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="27"/>
@@ -9627,7 +9661,7 @@
       <c r="B71" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="38" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="26"/>
@@ -9635,7 +9669,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="26"/>
-      <c r="G71" s="33" t="s">
+      <c r="G71" s="38" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="27"/>
@@ -9647,7 +9681,7 @@
       <c r="B72" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="38" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="26"/>
@@ -9655,67 +9689,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="26"/>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="38" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="28" t="n">
+      <c r="A73" s="33" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="34" t="s">
+      <c r="B73" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="31"/>
-      <c r="G73" s="34" t="s">
+      <c r="D73" s="36"/>
+      <c r="E73" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="36"/>
+      <c r="G73" s="39" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="28" t="n">
+      <c r="A74" s="33" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="29" t="n">
+      <c r="B74" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="34" t="s">
+      <c r="D74" s="36"/>
+      <c r="E74" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="36"/>
+      <c r="G74" s="39" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="28" t="n">
+      <c r="A75" s="33" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="34" t="s">
+      <c r="B75" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="31"/>
-      <c r="G75" s="34" t="s">
+      <c r="D75" s="36"/>
+      <c r="E75" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="36"/>
+      <c r="G75" s="39" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="27"/>
@@ -9728,7 +9762,7 @@
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
-      <c r="H76" s="32"/>
+      <c r="H76" s="37"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -9753,7 +9787,7 @@
       <c r="B78" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="26"/>
@@ -9761,7 +9795,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="26"/>
-      <c r="G78" s="33" t="s">
+      <c r="G78" s="38" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="27"/>
@@ -9773,7 +9807,7 @@
       <c r="B79" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="38" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="26"/>
@@ -9781,7 +9815,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="26"/>
-      <c r="G79" s="33" t="s">
+      <c r="G79" s="38" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="27"/>
@@ -9793,7 +9827,7 @@
       <c r="B80" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="38" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="26"/>
@@ -9801,7 +9835,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="26"/>
-      <c r="G80" s="33" t="s">
+      <c r="G80" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="27"/>
@@ -9813,7 +9847,7 @@
       <c r="B81" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="26"/>
@@ -9821,7 +9855,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="26"/>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="38" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="27"/>
@@ -9834,7 +9868,7 @@
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="32"/>
+      <c r="H82" s="37"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -9859,7 +9893,7 @@
       <c r="B84" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="26"/>
@@ -9867,7 +9901,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="26"/>
-      <c r="G84" s="33" t="s">
+      <c r="G84" s="38" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="27"/>
@@ -9879,7 +9913,7 @@
       <c r="B85" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="33" t="s">
+      <c r="C85" s="38" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="26"/>
@@ -9887,7 +9921,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="26"/>
-      <c r="G85" s="33" t="s">
+      <c r="G85" s="38" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="27"/>
@@ -9900,7 +9934,7 @@
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
-      <c r="H86" s="32"/>
+      <c r="H86" s="37"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -9925,7 +9959,7 @@
       <c r="B88" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="26"/>
@@ -9933,7 +9967,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="26"/>
-      <c r="G88" s="33" t="s">
+      <c r="G88" s="38" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="27"/>
@@ -9946,7 +9980,7 @@
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="32"/>
+      <c r="H89" s="37"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -9971,7 +10005,7 @@
       <c r="B91" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="38" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="26"/>
@@ -9979,7 +10013,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="26"/>
-      <c r="G91" s="33" t="s">
+      <c r="G91" s="38" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="27"/>
@@ -10017,15 +10051,15 @@
       <c r="B94" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="35"/>
-      <c r="E94" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="30" t="s">
+      <c r="D94" s="40"/>
+      <c r="E94" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="40"/>
+      <c r="G94" s="35" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="27"/>
@@ -10067,14 +10101,14 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
+      <selection pane="topLeft" activeCell="J51" activeCellId="0" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11067,28 +11101,30 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="n">
+      <c r="A52" s="10" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="16" t="n">
+      <c r="B52" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="26" t="n">
+      <c r="D52" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="17" t="s">
+      <c r="E52" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="27"/>
+      <c r="H52" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="n">
@@ -11329,21 +11365,21 @@
       <c r="H64" s="27"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28" t="n">
+      <c r="A65" s="33" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="29" t="n">
+      <c r="B65" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="31"/>
-      <c r="G65" s="30" t="s">
+      <c r="D65" s="36"/>
+      <c r="E65" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="36"/>
+      <c r="G65" s="35" t="s">
         <v>41</v>
       </c>
       <c r="H65" s="27"/>
@@ -11356,7 +11392,7 @@
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="32"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -11381,7 +11417,7 @@
       <c r="B68" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="26"/>
@@ -11389,7 +11425,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="26"/>
-      <c r="G68" s="33" t="s">
+      <c r="G68" s="38" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="27"/>
@@ -11401,7 +11437,7 @@
       <c r="B69" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="38" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="26"/>
@@ -11409,7 +11445,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="26"/>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="38" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="27"/>
@@ -11421,7 +11457,7 @@
       <c r="B70" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="38" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="26"/>
@@ -11429,7 +11465,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="26"/>
-      <c r="G70" s="33" t="s">
+      <c r="G70" s="38" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="27"/>
@@ -11441,7 +11477,7 @@
       <c r="B71" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="38" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="26"/>
@@ -11449,7 +11485,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="26"/>
-      <c r="G71" s="33" t="s">
+      <c r="G71" s="38" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="27"/>
@@ -11461,7 +11497,7 @@
       <c r="B72" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="38" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="26"/>
@@ -11469,67 +11505,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="26"/>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="38" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="28" t="n">
+      <c r="A73" s="33" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="34" t="s">
+      <c r="B73" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="31"/>
-      <c r="G73" s="34" t="s">
+      <c r="D73" s="36"/>
+      <c r="E73" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="36"/>
+      <c r="G73" s="39" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="28" t="n">
+      <c r="A74" s="33" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="29" t="n">
+      <c r="B74" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="34" t="s">
+      <c r="D74" s="36"/>
+      <c r="E74" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="36"/>
+      <c r="G74" s="39" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="28" t="n">
+      <c r="A75" s="33" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="34" t="s">
+      <c r="B75" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="31"/>
-      <c r="G75" s="34" t="s">
+      <c r="D75" s="36"/>
+      <c r="E75" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="36"/>
+      <c r="G75" s="39" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="27"/>
@@ -11542,7 +11578,7 @@
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
-      <c r="H76" s="32"/>
+      <c r="H76" s="37"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -11567,7 +11603,7 @@
       <c r="B78" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="26"/>
@@ -11575,7 +11611,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="26"/>
-      <c r="G78" s="33" t="s">
+      <c r="G78" s="38" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="27"/>
@@ -11587,7 +11623,7 @@
       <c r="B79" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="38" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="26"/>
@@ -11595,7 +11631,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="26"/>
-      <c r="G79" s="33" t="s">
+      <c r="G79" s="38" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="27"/>
@@ -11607,7 +11643,7 @@
       <c r="B80" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="38" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="26"/>
@@ -11615,7 +11651,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="26"/>
-      <c r="G80" s="33" t="s">
+      <c r="G80" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="27"/>
@@ -11627,7 +11663,7 @@
       <c r="B81" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="26"/>
@@ -11635,7 +11671,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="26"/>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="38" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="27"/>
@@ -11648,7 +11684,7 @@
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="32"/>
+      <c r="H82" s="37"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -11673,7 +11709,7 @@
       <c r="B84" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="26"/>
@@ -11681,7 +11717,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="26"/>
-      <c r="G84" s="33" t="s">
+      <c r="G84" s="38" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="27"/>
@@ -11693,7 +11729,7 @@
       <c r="B85" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="33" t="s">
+      <c r="C85" s="38" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="26"/>
@@ -11701,7 +11737,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="26"/>
-      <c r="G85" s="33" t="s">
+      <c r="G85" s="38" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="27"/>
@@ -11714,7 +11750,7 @@
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
-      <c r="H86" s="32"/>
+      <c r="H86" s="37"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -11739,7 +11775,7 @@
       <c r="B88" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="26"/>
@@ -11747,7 +11783,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="26"/>
-      <c r="G88" s="33" t="s">
+      <c r="G88" s="38" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="27"/>
@@ -11760,7 +11796,7 @@
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="32"/>
+      <c r="H89" s="37"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -11785,7 +11821,7 @@
       <c r="B91" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="38" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="26"/>
@@ -11793,7 +11829,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="26"/>
-      <c r="G91" s="33" t="s">
+      <c r="G91" s="38" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="27"/>
@@ -11831,15 +11867,15 @@
       <c r="B94" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="35"/>
-      <c r="E94" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="30" t="s">
+      <c r="D94" s="40"/>
+      <c r="E94" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="40"/>
+      <c r="G94" s="35" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="27"/>
@@ -11880,15 +11916,15 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L44" activeCellId="0" sqref="L44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N46" activeCellId="0" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11957,28 +11993,28 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="n">
+      <c r="A5" s="43" t="n">
         <v>43266</v>
       </c>
-      <c r="B5" s="39" t="n">
+      <c r="B5" s="44" t="n">
         <v>0.375</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="40" t="s">
+      <c r="D5" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="61" t="n">
+      <c r="H5" s="49" t="n">
         <v>5</v>
       </c>
     </row>
@@ -12479,28 +12515,28 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="38" t="n">
+      <c r="A29" s="43" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="39" t="n">
+      <c r="B29" s="44" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="60" t="n">
+      <c r="D29" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="E29" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="40" t="s">
+      <c r="E29" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="61" t="n">
+      <c r="H29" s="49" t="n">
         <v>5</v>
       </c>
     </row>
@@ -12977,28 +13013,30 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="n">
+      <c r="A52" s="43" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="16" t="n">
+      <c r="B52" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="17" t="s">
+      <c r="D52" s="48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="27"/>
+      <c r="H52" s="49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="n">
@@ -13267,25 +13305,25 @@
       <c r="H64" s="27"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28" t="n">
+      <c r="A65" s="33" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="29" t="n">
+      <c r="B65" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="G65" s="30" t="s">
+      <c r="D65" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" s="35" t="s">
         <v>41</v>
       </c>
       <c r="H65" s="27"/>
@@ -13298,7 +13336,7 @@
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="32"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -13323,7 +13361,7 @@
       <c r="B68" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="26"/>
@@ -13331,7 +13369,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="26"/>
-      <c r="G68" s="33" t="s">
+      <c r="G68" s="38" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="27"/>
@@ -13343,7 +13381,7 @@
       <c r="B69" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="38" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="26"/>
@@ -13351,7 +13389,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="26"/>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="38" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="27"/>
@@ -13363,7 +13401,7 @@
       <c r="B70" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="38" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="26"/>
@@ -13371,7 +13409,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="26"/>
-      <c r="G70" s="33" t="s">
+      <c r="G70" s="38" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="27"/>
@@ -13383,7 +13421,7 @@
       <c r="B71" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="38" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="26"/>
@@ -13391,7 +13429,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="26"/>
-      <c r="G71" s="33" t="s">
+      <c r="G71" s="38" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="27"/>
@@ -13403,7 +13441,7 @@
       <c r="B72" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="38" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="26"/>
@@ -13411,67 +13449,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="26"/>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="38" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="28" t="n">
+      <c r="A73" s="33" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="34" t="s">
+      <c r="B73" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="31"/>
-      <c r="G73" s="34" t="s">
+      <c r="D73" s="36"/>
+      <c r="E73" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="36"/>
+      <c r="G73" s="39" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="28" t="n">
+      <c r="A74" s="33" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="29" t="n">
+      <c r="B74" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="34" t="s">
+      <c r="D74" s="36"/>
+      <c r="E74" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="36"/>
+      <c r="G74" s="39" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="28" t="n">
+      <c r="A75" s="33" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="34" t="s">
+      <c r="B75" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="31"/>
-      <c r="G75" s="34" t="s">
+      <c r="D75" s="36"/>
+      <c r="E75" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="36"/>
+      <c r="G75" s="39" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="27"/>
@@ -13484,7 +13522,7 @@
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
-      <c r="H76" s="32"/>
+      <c r="H76" s="37"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -13509,7 +13547,7 @@
       <c r="B78" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="26"/>
@@ -13517,7 +13555,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="26"/>
-      <c r="G78" s="33" t="s">
+      <c r="G78" s="38" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="27"/>
@@ -13529,7 +13567,7 @@
       <c r="B79" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="38" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="26"/>
@@ -13537,7 +13575,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="26"/>
-      <c r="G79" s="33" t="s">
+      <c r="G79" s="38" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="27"/>
@@ -13549,7 +13587,7 @@
       <c r="B80" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="38" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="26"/>
@@ -13557,7 +13595,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="26"/>
-      <c r="G80" s="33" t="s">
+      <c r="G80" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="27"/>
@@ -13569,7 +13607,7 @@
       <c r="B81" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="26"/>
@@ -13577,7 +13615,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="26"/>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="38" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="27"/>
@@ -13590,7 +13628,7 @@
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="32"/>
+      <c r="H82" s="37"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -13615,7 +13653,7 @@
       <c r="B84" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="26"/>
@@ -13623,7 +13661,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="26"/>
-      <c r="G84" s="33" t="s">
+      <c r="G84" s="38" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="27"/>
@@ -13635,7 +13673,7 @@
       <c r="B85" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="33" t="s">
+      <c r="C85" s="38" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="26"/>
@@ -13643,7 +13681,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="26"/>
-      <c r="G85" s="33" t="s">
+      <c r="G85" s="38" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="27"/>
@@ -13656,7 +13694,7 @@
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
-      <c r="H86" s="32"/>
+      <c r="H86" s="37"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -13681,7 +13719,7 @@
       <c r="B88" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="26"/>
@@ -13689,7 +13727,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="26"/>
-      <c r="G88" s="33" t="s">
+      <c r="G88" s="38" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="27"/>
@@ -13702,7 +13740,7 @@
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="32"/>
+      <c r="H89" s="37"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -13727,7 +13765,7 @@
       <c r="B91" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="38" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="26"/>
@@ -13735,7 +13773,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="26"/>
-      <c r="G91" s="33" t="s">
+      <c r="G91" s="38" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="27"/>
@@ -13773,15 +13811,15 @@
       <c r="B94" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="35"/>
-      <c r="E94" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="30" t="s">
+      <c r="D94" s="40"/>
+      <c r="E94" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="40"/>
+      <c r="G94" s="35" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="27"/>
@@ -13821,15 +13859,15 @@
   </sheetPr>
   <dimension ref="A1:I65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M44" activeCellId="0" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13877,7 +13915,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="62" t="n">
+      <c r="A4" s="67" t="n">
         <v>43265</v>
       </c>
       <c r="B4" s="11" t="n">
@@ -13898,13 +13936,13 @@
       <c r="G4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="63"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="62" t="n">
+      <c r="A5" s="67" t="n">
         <v>43266</v>
       </c>
       <c r="B5" s="11" t="n">
@@ -13925,13 +13963,13 @@
       <c r="G5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="63"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64" t="n">
+      <c r="A6" s="69" t="n">
         <v>43270</v>
       </c>
       <c r="B6" s="16" t="n">
@@ -13948,11 +13986,11 @@
       <c r="G6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="65"/>
+      <c r="H6" s="70"/>
       <c r="I6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="64" t="n">
+      <c r="A7" s="69" t="n">
         <v>43271</v>
       </c>
       <c r="B7" s="16" t="n">
@@ -13969,11 +14007,11 @@
       <c r="G7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="65"/>
+      <c r="H7" s="70"/>
       <c r="I7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="64" t="n">
+      <c r="A8" s="69" t="n">
         <v>43276</v>
       </c>
       <c r="B8" s="16" t="n">
@@ -13990,11 +14028,11 @@
       <c r="G8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="65"/>
+      <c r="H8" s="70"/>
       <c r="I8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="64" t="n">
+      <c r="A9" s="69" t="n">
         <v>43276</v>
       </c>
       <c r="B9" s="16" t="n">
@@ -14011,12 +14049,12 @@
       <c r="G9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="70"/>
       <c r="I9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -14045,7 +14083,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="67" t="n">
+      <c r="A12" s="72" t="n">
         <v>43266</v>
       </c>
       <c r="B12" s="6" t="n">
@@ -14066,13 +14104,13 @@
       <c r="G12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="68"/>
+      <c r="H12" s="73"/>
       <c r="I12" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="67" t="n">
+      <c r="A13" s="72" t="n">
         <v>43266</v>
       </c>
       <c r="B13" s="6" t="n">
@@ -14093,13 +14131,13 @@
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="68"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="64" t="n">
+      <c r="A14" s="69" t="n">
         <v>43271</v>
       </c>
       <c r="B14" s="16" t="n">
@@ -14116,11 +14154,11 @@
       <c r="G14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="65"/>
+      <c r="H14" s="70"/>
       <c r="I14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="64" t="n">
+      <c r="A15" s="69" t="n">
         <v>43271</v>
       </c>
       <c r="B15" s="16" t="n">
@@ -14137,11 +14175,11 @@
       <c r="G15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="65"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="27"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="64" t="n">
+      <c r="A16" s="69" t="n">
         <v>43276</v>
       </c>
       <c r="B16" s="16" t="n">
@@ -14158,11 +14196,11 @@
       <c r="G16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="65"/>
+      <c r="H16" s="70"/>
       <c r="I16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="64" t="n">
+      <c r="A17" s="69" t="n">
         <v>43276</v>
       </c>
       <c r="B17" s="16" t="n">
@@ -14179,7 +14217,7 @@
       <c r="G17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="65"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14213,7 +14251,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="62" t="n">
+      <c r="A20" s="67" t="n">
         <v>43267</v>
       </c>
       <c r="B20" s="11" t="n">
@@ -14234,40 +14272,40 @@
       <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="63"/>
+      <c r="H20" s="68"/>
       <c r="I20" s="14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="69" t="n">
+      <c r="A21" s="74" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="39" t="n">
+      <c r="B21" s="44" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="40" t="s">
+      <c r="D21" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="70"/>
-      <c r="I21" s="61" t="n">
+      <c r="H21" s="75"/>
+      <c r="I21" s="49" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="64" t="n">
+      <c r="A22" s="69" t="n">
         <v>43272</v>
       </c>
       <c r="B22" s="16" t="n">
@@ -14284,11 +14322,11 @@
       <c r="G22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="65"/>
+      <c r="H22" s="70"/>
       <c r="I22" s="27"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="64" t="n">
+      <c r="A23" s="69" t="n">
         <v>43272</v>
       </c>
       <c r="B23" s="16" t="n">
@@ -14305,11 +14343,11 @@
       <c r="G23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="65"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="64" t="n">
+      <c r="A24" s="69" t="n">
         <v>43277</v>
       </c>
       <c r="B24" s="16" t="n">
@@ -14326,11 +14364,11 @@
       <c r="G24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="65"/>
+      <c r="H24" s="70"/>
       <c r="I24" s="27"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="64" t="n">
+      <c r="A25" s="69" t="n">
         <v>43277</v>
       </c>
       <c r="B25" s="16" t="n">
@@ -14347,7 +14385,7 @@
       <c r="G25" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="65"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="27"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14381,7 +14419,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="67" t="n">
+      <c r="A28" s="72" t="n">
         <v>43267</v>
       </c>
       <c r="B28" s="6" t="n">
@@ -14402,13 +14440,13 @@
       <c r="G28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="68"/>
+      <c r="H28" s="73"/>
       <c r="I28" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="67" t="n">
+      <c r="A29" s="72" t="n">
         <v>43267</v>
       </c>
       <c r="B29" s="6" t="n">
@@ -14429,13 +14467,13 @@
       <c r="G29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="68"/>
+      <c r="H29" s="73"/>
       <c r="I29" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="64" t="n">
+      <c r="A30" s="69" t="n">
         <v>43272</v>
       </c>
       <c r="B30" s="16" t="n">
@@ -14452,11 +14490,11 @@
       <c r="G30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="65"/>
+      <c r="H30" s="70"/>
       <c r="I30" s="27"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="64" t="n">
+      <c r="A31" s="69" t="n">
         <v>43273</v>
       </c>
       <c r="B31" s="16" t="n">
@@ -14473,11 +14511,11 @@
       <c r="G31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="65"/>
+      <c r="H31" s="70"/>
       <c r="I31" s="27"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="64" t="n">
+      <c r="A32" s="69" t="n">
         <v>43277</v>
       </c>
       <c r="B32" s="16" t="n">
@@ -14494,11 +14532,11 @@
       <c r="G32" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="65"/>
+      <c r="H32" s="70"/>
       <c r="I32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="64" t="n">
+      <c r="A33" s="69" t="n">
         <v>43277</v>
       </c>
       <c r="B33" s="16" t="n">
@@ -14515,7 +14553,7 @@
       <c r="G33" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="65"/>
+      <c r="H33" s="70"/>
       <c r="I33" s="27"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14551,7 +14589,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="67" t="n">
+      <c r="A36" s="72" t="n">
         <v>43268</v>
       </c>
       <c r="B36" s="6" t="n">
@@ -14572,13 +14610,13 @@
       <c r="G36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="68"/>
+      <c r="H36" s="73"/>
       <c r="I36" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="67" t="n">
+      <c r="A37" s="72" t="n">
         <v>43268</v>
       </c>
       <c r="B37" s="6" t="n">
@@ -14599,13 +14637,13 @@
       <c r="G37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="68"/>
+      <c r="H37" s="73"/>
       <c r="I37" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="64" t="n">
+      <c r="A38" s="69" t="n">
         <v>43273</v>
       </c>
       <c r="B38" s="16" t="n">
@@ -14622,11 +14660,11 @@
       <c r="G38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="65"/>
+      <c r="H38" s="70"/>
       <c r="I38" s="27"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="64" t="n">
+      <c r="A39" s="69" t="n">
         <v>43273</v>
       </c>
       <c r="B39" s="16" t="n">
@@ -14643,11 +14681,11 @@
       <c r="G39" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="65"/>
+      <c r="H39" s="70"/>
       <c r="I39" s="27"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="64" t="n">
+      <c r="A40" s="69" t="n">
         <v>43278</v>
       </c>
       <c r="B40" s="16" t="n">
@@ -14664,11 +14702,11 @@
       <c r="G40" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="65"/>
+      <c r="H40" s="70"/>
       <c r="I40" s="27"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="64" t="n">
+      <c r="A41" s="69" t="n">
         <v>43278</v>
       </c>
       <c r="B41" s="16" t="n">
@@ -14685,7 +14723,7 @@
       <c r="G41" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="65"/>
+      <c r="H41" s="70"/>
       <c r="I41" s="27"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14719,7 +14757,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="67" t="n">
+      <c r="A44" s="72" t="n">
         <v>43268</v>
       </c>
       <c r="B44" s="6" t="n">
@@ -14740,13 +14778,13 @@
       <c r="G44" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="68"/>
+      <c r="H44" s="73"/>
       <c r="I44" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="67" t="n">
+      <c r="A45" s="72" t="n">
         <v>43269</v>
       </c>
       <c r="B45" s="6" t="n">
@@ -14767,13 +14805,13 @@
       <c r="G45" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="68"/>
+      <c r="H45" s="73"/>
       <c r="I45" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="64" t="n">
+      <c r="A46" s="69" t="n">
         <v>43274</v>
       </c>
       <c r="B46" s="16" t="n">
@@ -14790,11 +14828,11 @@
       <c r="G46" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="65"/>
+      <c r="H46" s="70"/>
       <c r="I46" s="27"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="64" t="n">
+      <c r="A47" s="69" t="n">
         <v>43274</v>
       </c>
       <c r="B47" s="16" t="n">
@@ -14811,11 +14849,11 @@
       <c r="G47" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="65"/>
+      <c r="H47" s="70"/>
       <c r="I47" s="27"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="64" t="n">
+      <c r="A48" s="69" t="n">
         <v>43278</v>
       </c>
       <c r="B48" s="16" t="n">
@@ -14832,11 +14870,11 @@
       <c r="G48" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="65"/>
+      <c r="H48" s="70"/>
       <c r="I48" s="27"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="64" t="n">
+      <c r="A49" s="69" t="n">
         <v>43278</v>
       </c>
       <c r="B49" s="16" t="n">
@@ -14853,7 +14891,7 @@
       <c r="G49" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="65"/>
+      <c r="H49" s="70"/>
       <c r="I49" s="27"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14886,33 +14924,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="64" t="n">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="67" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="16" t="n">
+      <c r="B52" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="26" t="n">
+      <c r="D52" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="17" t="s">
+      <c r="E52" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="65"/>
-      <c r="I52" s="27"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="64" t="n">
+      <c r="A53" s="69" t="n">
         <v>43269</v>
       </c>
       <c r="B53" s="16" t="n">
@@ -14933,11 +14973,11 @@
       <c r="G53" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="65"/>
+      <c r="H53" s="70"/>
       <c r="I53" s="27"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="64" t="n">
+      <c r="A54" s="69" t="n">
         <v>43274</v>
       </c>
       <c r="B54" s="16" t="n">
@@ -14954,11 +14994,11 @@
       <c r="G54" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="65"/>
+      <c r="H54" s="70"/>
       <c r="I54" s="27"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="64" t="n">
+      <c r="A55" s="69" t="n">
         <v>43275</v>
       </c>
       <c r="B55" s="16" t="n">
@@ -14975,11 +15015,11 @@
       <c r="G55" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="65"/>
+      <c r="H55" s="70"/>
       <c r="I55" s="27"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="64" t="n">
+      <c r="A56" s="69" t="n">
         <v>43279</v>
       </c>
       <c r="B56" s="16" t="n">
@@ -14996,11 +15036,11 @@
       <c r="G56" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="65"/>
+      <c r="H56" s="70"/>
       <c r="I56" s="27"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="64" t="n">
+      <c r="A57" s="69" t="n">
         <v>43279</v>
       </c>
       <c r="B57" s="16" t="n">
@@ -15017,7 +15057,7 @@
       <c r="G57" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="65"/>
+      <c r="H57" s="70"/>
       <c r="I57" s="27"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15051,7 +15091,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="64" t="n">
+      <c r="A60" s="69" t="n">
         <v>43270</v>
       </c>
       <c r="B60" s="16" t="n">
@@ -15072,11 +15112,11 @@
       <c r="G60" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="65"/>
+      <c r="H60" s="70"/>
       <c r="I60" s="27"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="64" t="n">
+      <c r="A61" s="69" t="n">
         <v>43270</v>
       </c>
       <c r="B61" s="16" t="n">
@@ -15097,11 +15137,11 @@
       <c r="G61" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="65"/>
+      <c r="H61" s="70"/>
       <c r="I61" s="27"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="64" t="n">
+      <c r="A62" s="69" t="n">
         <v>43275</v>
       </c>
       <c r="B62" s="16" t="n">
@@ -15118,11 +15158,11 @@
       <c r="G62" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="65"/>
+      <c r="H62" s="70"/>
       <c r="I62" s="27"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="64" t="n">
+      <c r="A63" s="69" t="n">
         <v>43275</v>
       </c>
       <c r="B63" s="16" t="n">
@@ -15139,11 +15179,11 @@
       <c r="G63" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="65"/>
+      <c r="H63" s="70"/>
       <c r="I63" s="27"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="64" t="n">
+      <c r="A64" s="69" t="n">
         <v>43279</v>
       </c>
       <c r="B64" s="16" t="n">
@@ -15160,28 +15200,28 @@
       <c r="G64" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="65"/>
+      <c r="H64" s="70"/>
       <c r="I64" s="27"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="71" t="n">
+      <c r="A65" s="76" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="29" t="n">
+      <c r="B65" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="31"/>
-      <c r="G65" s="30" t="s">
+      <c r="D65" s="36"/>
+      <c r="E65" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="36"/>
+      <c r="G65" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="72"/>
+      <c r="H65" s="77"/>
       <c r="I65" s="27"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15193,7 +15233,7 @@
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
-      <c r="I66" s="32"/>
+      <c r="I66" s="37"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -15215,13 +15255,13 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="64" t="n">
+      <c r="A68" s="69" t="n">
         <v>43281</v>
       </c>
       <c r="B68" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="26"/>
@@ -15229,20 +15269,20 @@
         <v>5</v>
       </c>
       <c r="F68" s="26"/>
-      <c r="G68" s="33" t="s">
+      <c r="G68" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H68" s="65"/>
+      <c r="H68" s="70"/>
       <c r="I68" s="27"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="64" t="n">
+      <c r="A69" s="69" t="n">
         <v>43281</v>
       </c>
       <c r="B69" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="38" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="26"/>
@@ -15250,20 +15290,20 @@
         <v>5</v>
       </c>
       <c r="F69" s="26"/>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="H69" s="65"/>
+      <c r="H69" s="70"/>
       <c r="I69" s="27"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="64" t="n">
+      <c r="A70" s="69" t="n">
         <v>43282</v>
       </c>
       <c r="B70" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="38" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="26"/>
@@ -15271,20 +15311,20 @@
         <v>5</v>
       </c>
       <c r="F70" s="26"/>
-      <c r="G70" s="33" t="s">
+      <c r="G70" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H70" s="65"/>
+      <c r="H70" s="70"/>
       <c r="I70" s="27"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="64" t="n">
+      <c r="A71" s="69" t="n">
         <v>43282</v>
       </c>
       <c r="B71" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="38" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="26"/>
@@ -15292,20 +15332,20 @@
         <v>5</v>
       </c>
       <c r="F71" s="26"/>
-      <c r="G71" s="33" t="s">
+      <c r="G71" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H71" s="65"/>
+      <c r="H71" s="70"/>
       <c r="I71" s="27"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="64" t="n">
+      <c r="A72" s="69" t="n">
         <v>43283</v>
       </c>
       <c r="B72" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="38" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="26"/>
@@ -15313,73 +15353,73 @@
         <v>5</v>
       </c>
       <c r="F72" s="26"/>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="H72" s="65"/>
+      <c r="H72" s="70"/>
       <c r="I72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="71" t="n">
+      <c r="A73" s="76" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="34" t="s">
+      <c r="B73" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="31"/>
-      <c r="G73" s="34" t="s">
+      <c r="D73" s="36"/>
+      <c r="E73" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="36"/>
+      <c r="G73" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H73" s="72"/>
+      <c r="H73" s="77"/>
       <c r="I73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="71" t="n">
+      <c r="A74" s="76" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="29" t="n">
+      <c r="B74" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="34" t="s">
+      <c r="D74" s="36"/>
+      <c r="E74" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="36"/>
+      <c r="G74" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="H74" s="72"/>
+      <c r="H74" s="77"/>
       <c r="I74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="71" t="n">
+      <c r="A75" s="76" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="34" t="s">
+      <c r="B75" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="31"/>
-      <c r="G75" s="34" t="s">
+      <c r="D75" s="36"/>
+      <c r="E75" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="36"/>
+      <c r="G75" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="H75" s="72"/>
+      <c r="H75" s="77"/>
       <c r="I75" s="27"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15391,7 +15431,7 @@
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
-      <c r="I76" s="32"/>
+      <c r="I76" s="37"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -15413,13 +15453,13 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="64" t="n">
+      <c r="A78" s="69" t="n">
         <v>43287</v>
       </c>
       <c r="B78" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="26"/>
@@ -15427,20 +15467,20 @@
         <v>5</v>
       </c>
       <c r="F78" s="26"/>
-      <c r="G78" s="33" t="s">
+      <c r="G78" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H78" s="65"/>
+      <c r="H78" s="70"/>
       <c r="I78" s="27"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="64" t="n">
+      <c r="A79" s="69" t="n">
         <v>43287</v>
       </c>
       <c r="B79" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="38" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="26"/>
@@ -15448,20 +15488,20 @@
         <v>5</v>
       </c>
       <c r="F79" s="26"/>
-      <c r="G79" s="33" t="s">
+      <c r="G79" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H79" s="65"/>
+      <c r="H79" s="70"/>
       <c r="I79" s="27"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="64" t="n">
+      <c r="A80" s="69" t="n">
         <v>43288</v>
       </c>
       <c r="B80" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="38" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="26"/>
@@ -15469,20 +15509,20 @@
         <v>5</v>
       </c>
       <c r="F80" s="26"/>
-      <c r="G80" s="33" t="s">
+      <c r="G80" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H80" s="65"/>
+      <c r="H80" s="70"/>
       <c r="I80" s="27"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="64" t="n">
+      <c r="A81" s="69" t="n">
         <v>43288</v>
       </c>
       <c r="B81" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="26"/>
@@ -15490,10 +15530,10 @@
         <v>5</v>
       </c>
       <c r="F81" s="26"/>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="H81" s="65"/>
+      <c r="H81" s="70"/>
       <c r="I81" s="27"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15505,7 +15545,7 @@
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
-      <c r="I82" s="32"/>
+      <c r="I82" s="37"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -15527,13 +15567,13 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="64" t="n">
+      <c r="A84" s="69" t="n">
         <v>43291</v>
       </c>
       <c r="B84" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="26"/>
@@ -15541,20 +15581,20 @@
         <v>5</v>
       </c>
       <c r="F84" s="26"/>
-      <c r="G84" s="33" t="s">
+      <c r="G84" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="H84" s="65"/>
+      <c r="H84" s="70"/>
       <c r="I84" s="27"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="64" t="n">
+      <c r="A85" s="69" t="n">
         <v>43292</v>
       </c>
       <c r="B85" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="33" t="s">
+      <c r="C85" s="38" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="26"/>
@@ -15562,10 +15602,10 @@
         <v>5</v>
       </c>
       <c r="F85" s="26"/>
-      <c r="G85" s="33" t="s">
+      <c r="G85" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="H85" s="65"/>
+      <c r="H85" s="70"/>
       <c r="I85" s="27"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15577,7 +15617,7 @@
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
-      <c r="I86" s="32"/>
+      <c r="I86" s="37"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -15599,13 +15639,13 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="64" t="n">
+      <c r="A88" s="69" t="n">
         <v>43295</v>
       </c>
       <c r="B88" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="26"/>
@@ -15613,10 +15653,10 @@
         <v>5</v>
       </c>
       <c r="F88" s="26"/>
-      <c r="G88" s="33" t="s">
+      <c r="G88" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="H88" s="65"/>
+      <c r="H88" s="70"/>
       <c r="I88" s="27"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15628,7 +15668,7 @@
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
-      <c r="I89" s="32"/>
+      <c r="I89" s="37"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -15650,13 +15690,13 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="64" t="n">
+      <c r="A91" s="69" t="n">
         <v>43296</v>
       </c>
       <c r="B91" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="38" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="26"/>
@@ -15664,10 +15704,10 @@
         <v>5</v>
       </c>
       <c r="F91" s="26"/>
-      <c r="G91" s="33" t="s">
+      <c r="G91" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="H91" s="65"/>
+      <c r="H91" s="70"/>
       <c r="I91" s="27"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15701,24 +15741,24 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="64" t="n">
+      <c r="A94" s="69" t="n">
         <v>43296</v>
       </c>
       <c r="B94" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="35"/>
-      <c r="E94" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="30" t="s">
+      <c r="D94" s="40"/>
+      <c r="E94" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="40"/>
+      <c r="G94" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="H94" s="65"/>
+      <c r="H94" s="70"/>
       <c r="I94" s="27"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15759,14 +15799,14 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="M53" activeCellId="0" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -16855,28 +16895,30 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="n">
+      <c r="A52" s="10" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="16" t="n">
+      <c r="B52" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="26" t="n">
+      <c r="D52" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="17" t="s">
+      <c r="E52" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="27"/>
+      <c r="H52" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="n">
@@ -17145,25 +17187,25 @@
       <c r="H64" s="27"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28" t="n">
+      <c r="A65" s="33" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="29" t="n">
+      <c r="B65" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="31" t="n">
+      <c r="D65" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="G65" s="30" t="s">
+      <c r="G65" s="35" t="s">
         <v>41</v>
       </c>
       <c r="H65" s="27"/>
@@ -17176,7 +17218,7 @@
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="32"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -17201,7 +17243,7 @@
       <c r="B68" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="26"/>
@@ -17209,7 +17251,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="26"/>
-      <c r="G68" s="33" t="s">
+      <c r="G68" s="38" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="27"/>
@@ -17221,7 +17263,7 @@
       <c r="B69" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="38" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="26"/>
@@ -17229,7 +17271,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="26"/>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="38" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="27"/>
@@ -17241,7 +17283,7 @@
       <c r="B70" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="38" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="26"/>
@@ -17249,7 +17291,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="26"/>
-      <c r="G70" s="33" t="s">
+      <c r="G70" s="38" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="27"/>
@@ -17261,7 +17303,7 @@
       <c r="B71" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="38" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="26"/>
@@ -17269,7 +17311,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="26"/>
-      <c r="G71" s="33" t="s">
+      <c r="G71" s="38" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="27"/>
@@ -17281,7 +17323,7 @@
       <c r="B72" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="38" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="26"/>
@@ -17289,67 +17331,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="26"/>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="38" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="28" t="n">
+      <c r="A73" s="33" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="34" t="s">
+      <c r="B73" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="31"/>
-      <c r="G73" s="34" t="s">
+      <c r="D73" s="36"/>
+      <c r="E73" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="36"/>
+      <c r="G73" s="39" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="28" t="n">
+      <c r="A74" s="33" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="29" t="n">
+      <c r="B74" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="34" t="s">
+      <c r="D74" s="36"/>
+      <c r="E74" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="36"/>
+      <c r="G74" s="39" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="28" t="n">
+      <c r="A75" s="33" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="34" t="s">
+      <c r="B75" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="31"/>
-      <c r="G75" s="34" t="s">
+      <c r="D75" s="36"/>
+      <c r="E75" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="36"/>
+      <c r="G75" s="39" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="27"/>
@@ -17362,7 +17404,7 @@
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
-      <c r="H76" s="32"/>
+      <c r="H76" s="37"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -17387,7 +17429,7 @@
       <c r="B78" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="26"/>
@@ -17395,7 +17437,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="26"/>
-      <c r="G78" s="33" t="s">
+      <c r="G78" s="38" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="27"/>
@@ -17407,7 +17449,7 @@
       <c r="B79" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="38" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="26"/>
@@ -17415,7 +17457,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="26"/>
-      <c r="G79" s="33" t="s">
+      <c r="G79" s="38" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="27"/>
@@ -17427,7 +17469,7 @@
       <c r="B80" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="38" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="26"/>
@@ -17435,7 +17477,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="26"/>
-      <c r="G80" s="33" t="s">
+      <c r="G80" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="27"/>
@@ -17447,7 +17489,7 @@
       <c r="B81" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="26"/>
@@ -17455,7 +17497,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="26"/>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="38" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="27"/>
@@ -17468,7 +17510,7 @@
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="32"/>
+      <c r="H82" s="37"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -17493,7 +17535,7 @@
       <c r="B84" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="26"/>
@@ -17501,7 +17543,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="26"/>
-      <c r="G84" s="33" t="s">
+      <c r="G84" s="38" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="27"/>
@@ -17513,7 +17555,7 @@
       <c r="B85" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="33" t="s">
+      <c r="C85" s="38" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="26"/>
@@ -17521,7 +17563,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="26"/>
-      <c r="G85" s="33" t="s">
+      <c r="G85" s="38" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="27"/>
@@ -17534,7 +17576,7 @@
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
-      <c r="H86" s="32"/>
+      <c r="H86" s="37"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -17559,7 +17601,7 @@
       <c r="B88" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="26"/>
@@ -17567,7 +17609,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="26"/>
-      <c r="G88" s="33" t="s">
+      <c r="G88" s="38" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="27"/>
@@ -17580,7 +17622,7 @@
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="32"/>
+      <c r="H89" s="37"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -17605,7 +17647,7 @@
       <c r="B91" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="38" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="26"/>
@@ -17613,7 +17655,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="26"/>
-      <c r="G91" s="33" t="s">
+      <c r="G91" s="38" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="27"/>
@@ -17651,15 +17693,15 @@
       <c r="B94" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="35"/>
-      <c r="E94" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="30" t="s">
+      <c r="D94" s="40"/>
+      <c r="E94" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="40"/>
+      <c r="G94" s="35" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="27"/>
@@ -17699,15 +17741,15 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L49" activeCellId="0" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -17785,19 +17827,19 @@
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="36" t="n">
+      <c r="D5" s="41" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="36" t="n">
+      <c r="F5" s="41" t="n">
         <v>2</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="37" t="n">
+      <c r="H5" s="42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -18107,45 +18149,45 @@
       <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="36" t="n">
+      <c r="D20" s="41" t="n">
         <v>3</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="36" t="n">
+      <c r="F20" s="41" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="37" t="n">
+      <c r="H20" s="42" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38" t="n">
+      <c r="A21" s="43" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="39" t="n">
+      <c r="B21" s="44" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="40" t="s">
+      <c r="D21" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="61" t="n">
+      <c r="H21" s="49" t="n">
         <v>5</v>
       </c>
     </row>
@@ -18298,28 +18340,28 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="38" t="n">
+      <c r="A29" s="43" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="39" t="n">
+      <c r="B29" s="44" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="60" t="n">
+      <c r="D29" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="E29" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="40" t="s">
+      <c r="E29" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="61" t="n">
+      <c r="H29" s="49" t="n">
         <v>5</v>
       </c>
     </row>
@@ -18796,28 +18838,30 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="n">
+      <c r="A52" s="43" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="16" t="n">
+      <c r="B52" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="17" t="s">
+      <c r="D52" s="48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="27"/>
+      <c r="H52" s="49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="n">
@@ -19086,25 +19130,25 @@
       <c r="H64" s="27"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28" t="n">
+      <c r="A65" s="33" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="29" t="n">
+      <c r="B65" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="31" t="n">
+      <c r="D65" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="G65" s="30" t="s">
+      <c r="G65" s="35" t="s">
         <v>41</v>
       </c>
       <c r="H65" s="27"/>
@@ -19117,7 +19161,7 @@
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="32"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -19142,7 +19186,7 @@
       <c r="B68" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="26"/>
@@ -19150,7 +19194,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="26"/>
-      <c r="G68" s="33" t="s">
+      <c r="G68" s="38" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="27"/>
@@ -19162,7 +19206,7 @@
       <c r="B69" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="38" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="26"/>
@@ -19170,7 +19214,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="26"/>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="38" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="27"/>
@@ -19182,7 +19226,7 @@
       <c r="B70" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="38" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="26"/>
@@ -19190,7 +19234,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="26"/>
-      <c r="G70" s="33" t="s">
+      <c r="G70" s="38" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="27"/>
@@ -19202,7 +19246,7 @@
       <c r="B71" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="38" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="26"/>
@@ -19210,7 +19254,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="26"/>
-      <c r="G71" s="33" t="s">
+      <c r="G71" s="38" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="27"/>
@@ -19222,7 +19266,7 @@
       <c r="B72" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="38" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="26"/>
@@ -19230,67 +19274,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="26"/>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="38" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="28" t="n">
+      <c r="A73" s="33" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="34" t="s">
+      <c r="B73" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="31"/>
-      <c r="G73" s="34" t="s">
+      <c r="D73" s="36"/>
+      <c r="E73" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="36"/>
+      <c r="G73" s="39" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="28" t="n">
+      <c r="A74" s="33" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="29" t="n">
+      <c r="B74" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="34" t="s">
+      <c r="D74" s="36"/>
+      <c r="E74" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="36"/>
+      <c r="G74" s="39" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="28" t="n">
+      <c r="A75" s="33" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="29" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="34" t="s">
+      <c r="B75" s="34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="31"/>
-      <c r="G75" s="34" t="s">
+      <c r="D75" s="36"/>
+      <c r="E75" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="36"/>
+      <c r="G75" s="39" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="27"/>
@@ -19303,7 +19347,7 @@
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
-      <c r="H76" s="32"/>
+      <c r="H76" s="37"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -19328,7 +19372,7 @@
       <c r="B78" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="26"/>
@@ -19336,7 +19380,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="26"/>
-      <c r="G78" s="33" t="s">
+      <c r="G78" s="38" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="27"/>
@@ -19348,7 +19392,7 @@
       <c r="B79" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="38" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="26"/>
@@ -19356,7 +19400,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="26"/>
-      <c r="G79" s="33" t="s">
+      <c r="G79" s="38" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="27"/>
@@ -19368,7 +19412,7 @@
       <c r="B80" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="38" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="26"/>
@@ -19376,7 +19420,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="26"/>
-      <c r="G80" s="33" t="s">
+      <c r="G80" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="27"/>
@@ -19388,7 +19432,7 @@
       <c r="B81" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="26"/>
@@ -19396,7 +19440,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="26"/>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="38" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="27"/>
@@ -19409,7 +19453,7 @@
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="32"/>
+      <c r="H82" s="37"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -19434,7 +19478,7 @@
       <c r="B84" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="26"/>
@@ -19442,7 +19486,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="26"/>
-      <c r="G84" s="33" t="s">
+      <c r="G84" s="38" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="27"/>
@@ -19454,7 +19498,7 @@
       <c r="B85" s="16" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="33" t="s">
+      <c r="C85" s="38" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="26"/>
@@ -19462,7 +19506,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="26"/>
-      <c r="G85" s="33" t="s">
+      <c r="G85" s="38" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="27"/>
@@ -19475,7 +19519,7 @@
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
-      <c r="H86" s="32"/>
+      <c r="H86" s="37"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -19500,7 +19544,7 @@
       <c r="B88" s="16" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="26"/>
@@ -19508,7 +19552,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="26"/>
-      <c r="G88" s="33" t="s">
+      <c r="G88" s="38" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="27"/>
@@ -19521,7 +19565,7 @@
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="32"/>
+      <c r="H89" s="37"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -19546,7 +19590,7 @@
       <c r="B91" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="38" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="26"/>
@@ -19554,7 +19598,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="26"/>
-      <c r="G91" s="33" t="s">
+      <c r="G91" s="38" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="27"/>
@@ -19592,15 +19636,15 @@
       <c r="B94" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="35"/>
-      <c r="E94" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="30" t="s">
+      <c r="D94" s="40"/>
+      <c r="E94" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="40"/>
+      <c r="G94" s="35" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="27"/>

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -906,7 +906,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+      <selection pane="topLeft" activeCell="J57" activeCellId="0" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1932,28 +1932,30 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="n">
+      <c r="A53" s="10" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="G53" s="17" t="s">
+      <c r="D53" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="27"/>
+      <c r="H53" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="n">
@@ -2723,7 +2725,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K50" activeCellId="0" sqref="K50"/>
+      <selection pane="topLeft" activeCell="K54" activeCellId="0" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3739,28 +3741,30 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="n">
+      <c r="A53" s="10" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="26" t="n">
+      <c r="D53" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="27"/>
+      <c r="H53" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="n">
@@ -4527,7 +4531,7 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
     </sheetView>
   </sheetViews>
@@ -5547,31 +5551,35 @@
       <c r="G52" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="32"/>
+      <c r="H52" s="32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="n">
+      <c r="A53" s="10" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="G53" s="17" t="s">
+      <c r="D53" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="27"/>
+      <c r="H53" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="n">
@@ -6341,7 +6349,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
+      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7463,28 +7471,30 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="n">
+      <c r="A53" s="5" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="17" t="s">
+      <c r="D53" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="27"/>
+      <c r="H53" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="n">
@@ -8285,7 +8295,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K47" activeCellId="0" sqref="K47"/>
+      <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9311,28 +9321,30 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="55" t="n">
+      <c r="A53" s="51" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="56" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="57" t="s">
+      <c r="B53" s="52" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="58" t="n">
+      <c r="D53" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="G53" s="57" t="s">
+      <c r="G53" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="58"/>
+      <c r="H53" s="54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="55" t="n">
@@ -10100,8 +10112,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J51" activeCellId="0" sqref="J51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11127,28 +11139,30 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="n">
+      <c r="A53" s="10" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="26" t="n">
+      <c r="D53" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="27"/>
+      <c r="H53" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="n">
@@ -11917,7 +11931,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N46" activeCellId="0" sqref="N46"/>
+      <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13039,28 +13053,30 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="n">
+      <c r="A53" s="10" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="26" t="n">
+      <c r="D53" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="27"/>
+      <c r="H53" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="n">
@@ -13859,8 +13875,8 @@
   </sheetPr>
   <dimension ref="A1:I65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M44" activeCellId="0" sqref="M44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I53" activeCellId="0" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14951,30 +14967,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="69" t="n">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="67" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="26" t="n">
+      <c r="D53" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="70"/>
-      <c r="I53" s="27"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="69" t="n">
@@ -15799,7 +15817,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M53" activeCellId="0" sqref="M53"/>
+      <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16921,28 +16939,30 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="n">
+      <c r="A53" s="10" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="G53" s="17" t="s">
+      <c r="D53" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="27"/>
+      <c r="H53" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="n">
@@ -17742,7 +17762,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L49" activeCellId="0" sqref="L49"/>
+      <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -18864,28 +18884,30 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="n">
+      <c r="A53" s="10" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="26" t="n">
+      <c r="D53" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="27"/>
+      <c r="H53" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="n">

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -905,7 +905,7 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J57" activeCellId="0" sqref="J57"/>
     </sheetView>
   </sheetViews>
@@ -2724,7 +2724,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K54" activeCellId="0" sqref="K54"/>
     </sheetView>
   </sheetViews>
@@ -4531,7 +4531,7 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
     </sheetView>
   </sheetViews>
@@ -6348,7 +6348,7 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
     </sheetView>
   </sheetViews>
@@ -8294,7 +8294,7 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -10112,7 +10112,7 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -11930,7 +11930,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -13875,8 +13875,8 @@
   </sheetPr>
   <dimension ref="A1:I65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I53" activeCellId="0" sqref="I53"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F66" activeCellId="0" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13994,11 +13994,15 @@
       <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G6" s="17" t="s">
         <v>7</v>
       </c>
@@ -14015,11 +14019,15 @@
       <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G7" s="17" t="s">
         <v>6</v>
       </c>
@@ -14036,11 +14044,15 @@
       <c r="C8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="E8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G8" s="17" t="s">
         <v>4</v>
       </c>
@@ -14057,11 +14069,15 @@
       <c r="C9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G9" s="17" t="s">
         <v>7</v>
       </c>
@@ -14162,11 +14178,15 @@
       <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G14" s="17" t="s">
         <v>10</v>
       </c>
@@ -14183,11 +14203,15 @@
       <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="G15" s="17" t="s">
         <v>13</v>
       </c>
@@ -14204,11 +14228,15 @@
       <c r="C16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="26"/>
+      <c r="F16" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G16" s="17" t="s">
         <v>10</v>
       </c>
@@ -14225,11 +14253,15 @@
       <c r="C17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="26"/>
+      <c r="F17" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G17" s="17" t="s">
         <v>12</v>
       </c>
@@ -14330,11 +14362,15 @@
       <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="26"/>
+      <c r="F22" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G22" s="17" t="s">
         <v>16</v>
       </c>
@@ -14351,11 +14387,15 @@
       <c r="C23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G23" s="17" t="s">
         <v>17</v>
       </c>
@@ -14372,11 +14412,15 @@
       <c r="C24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G24" s="17" t="s">
         <v>15</v>
       </c>
@@ -14393,11 +14437,15 @@
       <c r="C25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E25" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G25" s="17" t="s">
         <v>17</v>
       </c>
@@ -14498,11 +14546,15 @@
       <c r="C30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="26"/>
+      <c r="F30" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G30" s="17" t="s">
         <v>22</v>
       </c>
@@ -14519,11 +14571,15 @@
       <c r="C31" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E31" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G31" s="17" t="s">
         <v>21</v>
       </c>
@@ -14540,11 +14596,15 @@
       <c r="C32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="26"/>
+      <c r="D32" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E32" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="26"/>
+      <c r="F32" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G32" s="17" t="s">
         <v>22</v>
       </c>
@@ -14561,11 +14621,15 @@
       <c r="C33" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E33" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="26"/>
+      <c r="F33" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G33" s="17" t="s">
         <v>20</v>
       </c>
@@ -14668,11 +14732,15 @@
       <c r="C38" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="26"/>
+      <c r="D38" s="26" t="n">
+        <v>4</v>
+      </c>
       <c r="E38" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="26"/>
+      <c r="F38" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G38" s="17" t="s">
         <v>26</v>
       </c>
@@ -14689,11 +14757,15 @@
       <c r="C39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="26"/>
+      <c r="D39" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E39" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="26"/>
+      <c r="F39" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G39" s="17" t="s">
         <v>29</v>
       </c>
@@ -14710,11 +14782,15 @@
       <c r="C40" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="26"/>
+      <c r="D40" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E40" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="26"/>
+      <c r="F40" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G40" s="17" t="s">
         <v>28</v>
       </c>
@@ -14731,11 +14807,15 @@
       <c r="C41" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="26"/>
+      <c r="D41" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E41" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="26"/>
+      <c r="F41" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G41" s="17" t="s">
         <v>26</v>
       </c>
@@ -14836,11 +14916,15 @@
       <c r="C46" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="26"/>
+      <c r="D46" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E46" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="26"/>
+      <c r="F46" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G46" s="17" t="s">
         <v>32</v>
       </c>
@@ -14857,11 +14941,15 @@
       <c r="C47" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="26"/>
+      <c r="D47" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E47" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="26"/>
+      <c r="F47" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G47" s="17" t="s">
         <v>33</v>
       </c>
@@ -14878,11 +14966,15 @@
       <c r="C48" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="26"/>
+      <c r="D48" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E48" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="26"/>
+      <c r="F48" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G48" s="17" t="s">
         <v>33</v>
       </c>
@@ -14899,11 +14991,15 @@
       <c r="C49" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="26"/>
+      <c r="D49" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E49" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="26"/>
+      <c r="F49" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G49" s="17" t="s">
         <v>31</v>
       </c>
@@ -15004,11 +15100,15 @@
       <c r="C54" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="26"/>
+      <c r="D54" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="E54" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="26"/>
+      <c r="F54" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G54" s="17" t="s">
         <v>38</v>
       </c>
@@ -15025,11 +15125,15 @@
       <c r="C55" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="26"/>
+      <c r="D55" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E55" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="26"/>
+      <c r="F55" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G55" s="17" t="s">
         <v>37</v>
       </c>
@@ -15046,11 +15150,15 @@
       <c r="C56" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="26"/>
+      <c r="D56" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E56" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="26"/>
+      <c r="F56" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G56" s="17" t="s">
         <v>36</v>
       </c>
@@ -15067,11 +15175,15 @@
       <c r="C57" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="26"/>
+      <c r="D57" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E57" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="26"/>
+      <c r="F57" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G57" s="17" t="s">
         <v>38</v>
       </c>
@@ -15168,11 +15280,15 @@
       <c r="C62" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="26"/>
+      <c r="D62" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="E62" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="26"/>
+      <c r="F62" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G62" s="17" t="s">
         <v>44</v>
       </c>
@@ -15189,11 +15305,15 @@
       <c r="C63" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="26"/>
+      <c r="D63" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E63" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F63" s="26"/>
+      <c r="F63" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="G63" s="17" t="s">
         <v>41</v>
       </c>
@@ -15210,11 +15330,15 @@
       <c r="C64" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="26"/>
+      <c r="D64" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E64" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="26"/>
+      <c r="F64" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="G64" s="17" t="s">
         <v>43</v>
       </c>
@@ -15231,11 +15355,15 @@
       <c r="C65" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="36"/>
+      <c r="D65" s="36" t="n">
+        <v>0</v>
+      </c>
       <c r="E65" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="36"/>
+      <c r="F65" s="36" t="n">
+        <v>1</v>
+      </c>
       <c r="G65" s="35" t="s">
         <v>41</v>
       </c>
@@ -15816,7 +15944,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -17761,7 +17889,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -905,7 +905,7 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J57" activeCellId="0" sqref="J57"/>
     </sheetView>
   </sheetViews>
@@ -2724,7 +2724,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K54" activeCellId="0" sqref="K54"/>
     </sheetView>
   </sheetViews>
@@ -4531,8 +4531,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F47" activeCellId="0" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4643,11 +4643,15 @@
       <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G6" s="17" t="s">
         <v>7</v>
       </c>
@@ -4663,11 +4667,15 @@
       <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="E7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G7" s="17" t="s">
         <v>6</v>
       </c>
@@ -4801,11 +4809,15 @@
       <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="E14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G14" s="17" t="s">
         <v>10</v>
       </c>
@@ -4821,11 +4833,15 @@
       <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="G15" s="17" t="s">
         <v>13</v>
       </c>
@@ -4959,11 +4975,15 @@
       <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="26"/>
+      <c r="F22" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G22" s="17" t="s">
         <v>16</v>
       </c>
@@ -4979,11 +4999,15 @@
       <c r="C23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G23" s="17" t="s">
         <v>17</v>
       </c>
@@ -5117,11 +5141,15 @@
       <c r="C30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="26"/>
+      <c r="F30" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G30" s="17" t="s">
         <v>22</v>
       </c>
@@ -5137,11 +5165,15 @@
       <c r="C31" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E31" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G31" s="17" t="s">
         <v>21</v>
       </c>
@@ -5275,11 +5307,15 @@
       <c r="C38" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="26"/>
+      <c r="D38" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E38" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="26"/>
+      <c r="F38" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G38" s="17" t="s">
         <v>26</v>
       </c>
@@ -5295,11 +5331,15 @@
       <c r="C39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="26"/>
+      <c r="D39" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E39" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="26"/>
+      <c r="F39" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G39" s="17" t="s">
         <v>29</v>
       </c>
@@ -5433,11 +5473,15 @@
       <c r="C46" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="26"/>
+      <c r="D46" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E46" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="26"/>
+      <c r="F46" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G46" s="17" t="s">
         <v>32</v>
       </c>
@@ -5453,11 +5497,15 @@
       <c r="C47" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="26"/>
+      <c r="D47" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E47" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="26"/>
+      <c r="F47" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G47" s="17" t="s">
         <v>33</v>
       </c>
@@ -5591,11 +5639,15 @@
       <c r="C54" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="26"/>
+      <c r="D54" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="E54" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="26"/>
+      <c r="F54" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G54" s="17" t="s">
         <v>38</v>
       </c>
@@ -5611,11 +5663,15 @@
       <c r="C55" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="26"/>
+      <c r="D55" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="E55" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="26"/>
+      <c r="F55" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G55" s="17" t="s">
         <v>37</v>
       </c>
@@ -5745,11 +5801,15 @@
       <c r="C62" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="26"/>
+      <c r="D62" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E62" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="26"/>
+      <c r="F62" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G62" s="17" t="s">
         <v>44</v>
       </c>
@@ -5765,11 +5825,15 @@
       <c r="C63" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="26"/>
+      <c r="D63" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E63" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F63" s="26"/>
+      <c r="F63" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G63" s="17" t="s">
         <v>41</v>
       </c>
@@ -6348,7 +6412,7 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
     </sheetView>
   </sheetViews>
@@ -8294,7 +8358,7 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -10112,7 +10176,7 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -11930,7 +11994,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -13875,7 +13939,7 @@
   </sheetPr>
   <dimension ref="A1:I65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F66" activeCellId="0" sqref="F66"/>
     </sheetView>
   </sheetViews>
@@ -15944,7 +16008,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -17889,7 +17953,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -905,8 +905,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J57" activeCellId="0" sqref="J57"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G63" activeCellId="0" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1017,11 +1017,15 @@
       <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="E6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="G6" s="17" t="s">
         <v>7</v>
       </c>
@@ -1037,11 +1041,15 @@
       <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="E7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G7" s="17" t="s">
         <v>6</v>
       </c>
@@ -1175,11 +1183,15 @@
       <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G14" s="17" t="s">
         <v>10</v>
       </c>
@@ -1195,11 +1207,15 @@
       <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="G15" s="17" t="s">
         <v>13</v>
       </c>
@@ -1333,11 +1349,15 @@
       <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="26"/>
+      <c r="F22" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G22" s="17" t="s">
         <v>16</v>
       </c>
@@ -1353,11 +1373,15 @@
       <c r="C23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G23" s="17" t="s">
         <v>17</v>
       </c>
@@ -1491,11 +1515,15 @@
       <c r="C30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="26"/>
+      <c r="F30" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G30" s="17" t="s">
         <v>22</v>
       </c>
@@ -1511,11 +1539,15 @@
       <c r="C31" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E31" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G31" s="17" t="s">
         <v>21</v>
       </c>
@@ -1651,11 +1683,15 @@
       <c r="C38" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="26"/>
+      <c r="D38" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E38" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="26"/>
+      <c r="F38" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G38" s="17" t="s">
         <v>26</v>
       </c>
@@ -1671,11 +1707,15 @@
       <c r="C39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="26"/>
+      <c r="D39" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E39" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="26"/>
+      <c r="F39" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G39" s="17" t="s">
         <v>29</v>
       </c>
@@ -1809,11 +1849,15 @@
       <c r="C46" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="26"/>
+      <c r="D46" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E46" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="26"/>
+      <c r="F46" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="G46" s="17" t="s">
         <v>32</v>
       </c>
@@ -1829,11 +1873,15 @@
       <c r="C47" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="26"/>
+      <c r="D47" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E47" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="26"/>
+      <c r="F47" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G47" s="17" t="s">
         <v>33</v>
       </c>
@@ -1967,11 +2015,15 @@
       <c r="C54" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="26"/>
+      <c r="D54" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E54" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="26"/>
+      <c r="F54" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G54" s="17" t="s">
         <v>38</v>
       </c>
@@ -1987,11 +2039,15 @@
       <c r="C55" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="26"/>
+      <c r="D55" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E55" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="26"/>
+      <c r="F55" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G55" s="17" t="s">
         <v>37</v>
       </c>
@@ -2121,11 +2177,15 @@
       <c r="C62" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="26"/>
+      <c r="D62" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E62" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="26"/>
+      <c r="F62" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G62" s="17" t="s">
         <v>44</v>
       </c>
@@ -2141,11 +2201,15 @@
       <c r="C63" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="26"/>
+      <c r="D63" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E63" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F63" s="26"/>
+      <c r="F63" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G63" s="17" t="s">
         <v>41</v>
       </c>
@@ -4531,7 +4595,7 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F47" activeCellId="0" sqref="F47"/>
     </sheetView>
   </sheetViews>

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -905,7 +905,7 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G63" activeCellId="0" sqref="G63"/>
     </sheetView>
   </sheetViews>
@@ -8422,8 +8422,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8534,11 +8534,15 @@
       <c r="C6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="58"/>
+      <c r="D6" s="58" t="n">
+        <v>1</v>
+      </c>
       <c r="E6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="58"/>
+      <c r="F6" s="58" t="n">
+        <v>1</v>
+      </c>
       <c r="G6" s="57" t="s">
         <v>7</v>
       </c>
@@ -8554,11 +8558,15 @@
       <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="58" t="n">
+        <v>3</v>
+      </c>
       <c r="E7" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="G7" s="57" t="s">
         <v>6</v>
       </c>
@@ -8692,11 +8700,15 @@
       <c r="C14" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="58" t="n">
+        <v>2</v>
+      </c>
       <c r="E14" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="58"/>
+      <c r="F14" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="G14" s="57" t="s">
         <v>10</v>
       </c>
@@ -8712,11 +8724,15 @@
       <c r="C15" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="D15" s="58" t="n">
+        <v>1</v>
+      </c>
       <c r="E15" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="58"/>
+      <c r="F15" s="58" t="n">
+        <v>3</v>
+      </c>
       <c r="G15" s="57" t="s">
         <v>13</v>
       </c>
@@ -8850,11 +8866,15 @@
       <c r="C22" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="58"/>
+      <c r="D22" s="58" t="n">
+        <v>2</v>
+      </c>
       <c r="E22" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="58"/>
+      <c r="F22" s="58" t="n">
+        <v>1</v>
+      </c>
       <c r="G22" s="57" t="s">
         <v>16</v>
       </c>
@@ -8870,11 +8890,15 @@
       <c r="C23" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="58"/>
+      <c r="D23" s="58" t="n">
+        <v>3</v>
+      </c>
       <c r="E23" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="58"/>
+      <c r="F23" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="G23" s="57" t="s">
         <v>17</v>
       </c>
@@ -9008,11 +9032,15 @@
       <c r="C30" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="58"/>
+      <c r="D30" s="58" t="n">
+        <v>2</v>
+      </c>
       <c r="E30" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="58"/>
+      <c r="F30" s="58" t="n">
+        <v>1</v>
+      </c>
       <c r="G30" s="57" t="s">
         <v>22</v>
       </c>
@@ -9028,11 +9056,15 @@
       <c r="C31" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="58"/>
+      <c r="D31" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="E31" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="58" t="n">
+        <v>2</v>
+      </c>
       <c r="G31" s="57" t="s">
         <v>21</v>
       </c>
@@ -9168,11 +9200,15 @@
       <c r="C38" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="58"/>
+      <c r="D38" s="58" t="n">
+        <v>3</v>
+      </c>
       <c r="E38" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="58"/>
+      <c r="F38" s="58" t="n">
+        <v>1</v>
+      </c>
       <c r="G38" s="57" t="s">
         <v>26</v>
       </c>
@@ -9188,11 +9224,15 @@
       <c r="C39" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="58"/>
+      <c r="D39" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="E39" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="58"/>
+      <c r="F39" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="G39" s="57" t="s">
         <v>29</v>
       </c>
@@ -9326,11 +9366,15 @@
       <c r="C46" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="58"/>
+      <c r="D46" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="E46" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="58"/>
+      <c r="F46" s="58" t="n">
+        <v>2</v>
+      </c>
       <c r="G46" s="57" t="s">
         <v>32</v>
       </c>
@@ -9346,11 +9390,15 @@
       <c r="C47" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="58"/>
+      <c r="D47" s="58" t="n">
+        <v>2</v>
+      </c>
       <c r="E47" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="58"/>
+      <c r="F47" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="G47" s="57" t="s">
         <v>33</v>
       </c>
@@ -9484,11 +9532,15 @@
       <c r="C54" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="58"/>
+      <c r="D54" s="58" t="n">
+        <v>2</v>
+      </c>
       <c r="E54" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="58"/>
+      <c r="F54" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="G54" s="57" t="s">
         <v>38</v>
       </c>
@@ -9504,11 +9556,15 @@
       <c r="C55" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="58"/>
+      <c r="D55" s="58" t="n">
+        <v>1</v>
+      </c>
       <c r="E55" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="58"/>
+      <c r="F55" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="G55" s="57" t="s">
         <v>37</v>
       </c>
@@ -9638,11 +9694,15 @@
       <c r="C62" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="58"/>
+      <c r="D62" s="58" t="n">
+        <v>1</v>
+      </c>
       <c r="E62" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="58"/>
+      <c r="F62" s="58" t="n">
+        <v>1</v>
+      </c>
       <c r="G62" s="57" t="s">
         <v>44</v>
       </c>
@@ -9658,11 +9718,15 @@
       <c r="C63" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="58"/>
+      <c r="D63" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="E63" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F63" s="58"/>
+      <c r="F63" s="58" t="n">
+        <v>2</v>
+      </c>
       <c r="G63" s="57" t="s">
         <v>41</v>
       </c>

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -906,7 +906,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G63" activeCellId="0" sqref="G63"/>
+      <selection pane="topLeft" activeCell="H63" activeCellId="0" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2120,28 +2120,30 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="n">
+      <c r="A60" s="5" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="16" t="n">
+      <c r="B60" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="17" t="s">
+      <c r="D60" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="27"/>
+      <c r="H60" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="n">
@@ -2788,8 +2790,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K54" activeCellId="0" sqref="K54"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L41" activeCellId="0" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2890,11 +2892,15 @@
       <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G6" s="17" t="s">
         <v>7</v>
       </c>
@@ -2910,11 +2916,15 @@
       <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G7" s="17" t="s">
         <v>6</v>
       </c>
@@ -3048,11 +3058,15 @@
       <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G14" s="17" t="s">
         <v>10</v>
       </c>
@@ -3068,11 +3082,15 @@
       <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="G15" s="17" t="s">
         <v>13</v>
       </c>
@@ -3206,11 +3224,15 @@
       <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="26"/>
+      <c r="F22" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G22" s="17" t="s">
         <v>16</v>
       </c>
@@ -3226,11 +3248,15 @@
       <c r="C23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G23" s="17" t="s">
         <v>17</v>
       </c>
@@ -3364,11 +3390,15 @@
       <c r="C30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="26"/>
+      <c r="F30" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G30" s="17" t="s">
         <v>22</v>
       </c>
@@ -3384,11 +3414,15 @@
       <c r="C31" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E31" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G31" s="17" t="s">
         <v>21</v>
       </c>
@@ -3524,11 +3558,15 @@
       <c r="C38" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="26"/>
+      <c r="D38" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="E38" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="26"/>
+      <c r="F38" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G38" s="17" t="s">
         <v>26</v>
       </c>
@@ -3544,11 +3582,15 @@
       <c r="C39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="26"/>
+      <c r="D39" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E39" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="26"/>
+      <c r="F39" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G39" s="17" t="s">
         <v>29</v>
       </c>
@@ -3682,11 +3724,15 @@
       <c r="C46" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="26"/>
+      <c r="D46" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E46" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="26"/>
+      <c r="F46" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G46" s="17" t="s">
         <v>32</v>
       </c>
@@ -3702,11 +3748,15 @@
       <c r="C47" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="26"/>
+      <c r="D47" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E47" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="26"/>
+      <c r="F47" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G47" s="17" t="s">
         <v>33</v>
       </c>
@@ -3840,11 +3890,15 @@
       <c r="C54" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="26"/>
+      <c r="D54" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E54" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="26"/>
+      <c r="F54" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G54" s="17" t="s">
         <v>38</v>
       </c>
@@ -3860,11 +3914,15 @@
       <c r="C55" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="26"/>
+      <c r="D55" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E55" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="26"/>
+      <c r="F55" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G55" s="17" t="s">
         <v>37</v>
       </c>
@@ -3937,28 +3995,28 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="n">
+      <c r="A60" s="5" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="16" t="n">
+      <c r="B60" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="17" t="s">
+      <c r="D60" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="27"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="n">
@@ -3994,11 +4052,15 @@
       <c r="C62" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="26"/>
+      <c r="D62" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E62" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="26"/>
+      <c r="F62" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G62" s="17" t="s">
         <v>44</v>
       </c>
@@ -4014,11 +4076,15 @@
       <c r="C63" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="26"/>
+      <c r="D63" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E63" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F63" s="26"/>
+      <c r="F63" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G63" s="17" t="s">
         <v>41</v>
       </c>
@@ -4595,8 +4661,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F47" activeCellId="0" sqref="F47"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5808,28 +5874,30 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="n">
+      <c r="A60" s="5" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="16" t="n">
+      <c r="B60" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="17" t="s">
+      <c r="D60" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="27"/>
+      <c r="H60" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="n">
@@ -6477,7 +6545,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
+      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7747,28 +7815,30 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="n">
+      <c r="A60" s="5" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="16" t="n">
+      <c r="B60" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="17" t="s">
+      <c r="D60" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="27"/>
+      <c r="H60" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="n">
@@ -8422,8 +8492,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9637,28 +9707,30 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="55" t="n">
+      <c r="A60" s="59" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="56" t="n">
+      <c r="B60" s="60" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="57" t="s">
+      <c r="C60" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="58" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="57" t="s">
+      <c r="D60" s="62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="58"/>
+      <c r="H60" s="62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="55" t="n">
@@ -10304,8 +10376,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10416,11 +10488,15 @@
       <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G6" s="17" t="s">
         <v>7</v>
       </c>
@@ -10436,11 +10512,15 @@
       <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="E7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G7" s="17" t="s">
         <v>6</v>
       </c>
@@ -10574,11 +10654,15 @@
       <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="26" t="n">
+        <v>4</v>
+      </c>
       <c r="E14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G14" s="17" t="s">
         <v>10</v>
       </c>
@@ -10594,11 +10678,15 @@
       <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="26" t="n">
+        <v>4</v>
+      </c>
       <c r="G15" s="17" t="s">
         <v>13</v>
       </c>
@@ -10732,11 +10820,15 @@
       <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="26"/>
+      <c r="F22" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G22" s="17" t="s">
         <v>16</v>
       </c>
@@ -10752,11 +10844,15 @@
       <c r="C23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="E23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G23" s="17" t="s">
         <v>17</v>
       </c>
@@ -10890,11 +10986,15 @@
       <c r="C30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="26"/>
+      <c r="F30" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G30" s="17" t="s">
         <v>22</v>
       </c>
@@ -10910,11 +11010,15 @@
       <c r="C31" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E31" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G31" s="17" t="s">
         <v>21</v>
       </c>
@@ -11050,11 +11154,15 @@
       <c r="C38" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="26"/>
+      <c r="D38" s="26" t="n">
+        <v>4</v>
+      </c>
       <c r="E38" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="26"/>
+      <c r="F38" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G38" s="17" t="s">
         <v>26</v>
       </c>
@@ -11070,11 +11178,15 @@
       <c r="C39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="26"/>
+      <c r="D39" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E39" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="26"/>
+      <c r="F39" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="G39" s="17" t="s">
         <v>29</v>
       </c>
@@ -11208,11 +11320,15 @@
       <c r="C46" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="26"/>
+      <c r="D46" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="E46" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="26"/>
+      <c r="F46" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G46" s="17" t="s">
         <v>32</v>
       </c>
@@ -11228,11 +11344,15 @@
       <c r="C47" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="26"/>
+      <c r="D47" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="E47" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="26"/>
+      <c r="F47" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G47" s="17" t="s">
         <v>33</v>
       </c>
@@ -11366,11 +11486,15 @@
       <c r="C54" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="26"/>
+      <c r="D54" s="26" t="n">
+        <v>4</v>
+      </c>
       <c r="E54" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="26"/>
+      <c r="F54" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G54" s="17" t="s">
         <v>38</v>
       </c>
@@ -11386,11 +11510,15 @@
       <c r="C55" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="26"/>
+      <c r="D55" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E55" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="26"/>
+      <c r="F55" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G55" s="17" t="s">
         <v>37</v>
       </c>
@@ -11463,28 +11591,30 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="n">
+      <c r="A60" s="5" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="16" t="n">
+      <c r="B60" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="17" t="s">
+      <c r="D60" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="27"/>
+      <c r="H60" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="n">
@@ -11520,11 +11650,15 @@
       <c r="C62" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="26"/>
+      <c r="D62" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="E62" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="26"/>
+      <c r="F62" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="G62" s="17" t="s">
         <v>44</v>
       </c>
@@ -11540,11 +11674,15 @@
       <c r="C63" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="26"/>
+      <c r="D63" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="E63" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F63" s="26"/>
+      <c r="F63" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G63" s="17" t="s">
         <v>41</v>
       </c>
@@ -12123,7 +12261,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
+      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13393,28 +13531,30 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="n">
+      <c r="A60" s="5" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="16" t="n">
+      <c r="B60" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="17" t="s">
+      <c r="D60" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="27"/>
+      <c r="H60" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="n">
@@ -14068,7 +14208,7 @@
   <dimension ref="A1:I65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F66" activeCellId="0" sqref="F66"/>
+      <selection pane="topLeft" activeCell="I60" activeCellId="0" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15412,30 +15552,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="69" t="n">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="72" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="16" t="n">
+      <c r="B60" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="17" t="s">
+      <c r="D60" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="70"/>
-      <c r="I60" s="27"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="69" t="n">
@@ -16137,7 +16279,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
+      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -17407,28 +17549,30 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="n">
+      <c r="A60" s="5" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="16" t="n">
+      <c r="B60" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" s="17" t="s">
+      <c r="D60" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="27"/>
+      <c r="H60" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="n">
@@ -18082,7 +18226,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
+      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -19352,28 +19496,30 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="n">
+      <c r="A60" s="5" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="16" t="n">
+      <c r="B60" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="17" t="s">
+      <c r="D60" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="27"/>
+      <c r="H60" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="n">

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="83">
   <si>
     <t xml:space="preserve">RESULTADOS</t>
   </si>
@@ -279,12 +279,6 @@
   <si>
     <t xml:space="preserve">PALPITE DO CAMPEÃO</t>
   </si>
-  <si>
-    <t xml:space="preserve">RESULTADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPEÃO</t>
-  </si>
 </sst>
 </file>
 
@@ -423,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -476,17 +470,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -513,7 +496,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="73">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -786,15 +769,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -806,23 +781,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -906,7 +869,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H63" activeCellId="0" sqref="H63"/>
+      <selection pane="topLeft" activeCell="H61" activeCellId="0" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2146,28 +2109,30 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="n">
+      <c r="A61" s="5" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="16" t="n">
+      <c r="B61" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="17" t="s">
+      <c r="D61" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="27"/>
+      <c r="H61" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="n">
@@ -2790,8 +2755,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L41" activeCellId="0" sqref="L41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J57" activeCellId="0" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4016,31 +3981,35 @@
       <c r="G60" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="9"/>
+      <c r="H60" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="n">
+      <c r="A61" s="5" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="16" t="n">
+      <c r="B61" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="G61" s="17" t="s">
+      <c r="D61" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="27"/>
+      <c r="H61" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="n">
@@ -4662,7 +4631,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
+      <selection pane="topLeft" activeCell="H61" activeCellId="0" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5900,28 +5869,30 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="n">
+      <c r="A61" s="5" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="16" t="n">
+      <c r="B61" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="17" t="s">
+      <c r="D61" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="27"/>
+      <c r="H61" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="n">
@@ -6545,7 +6516,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
+      <selection pane="topLeft" activeCell="K57" activeCellId="0" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7841,28 +7812,30 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="n">
+      <c r="A61" s="10" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="16" t="n">
+      <c r="B61" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="G61" s="17" t="s">
+      <c r="D61" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="27"/>
+      <c r="H61" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="n">
@@ -8493,7 +8466,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
+      <selection pane="topLeft" activeCell="H61" activeCellId="0" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9733,28 +9706,30 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="55" t="n">
+      <c r="A61" s="59" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="56" t="n">
+      <c r="B61" s="60" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="57" t="s">
+      <c r="C61" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="57" t="s">
+      <c r="D61" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="58"/>
+      <c r="H61" s="62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="55" t="n">
@@ -10377,7 +10352,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
+      <selection pane="topLeft" activeCell="H61" activeCellId="0" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11617,28 +11592,30 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="n">
+      <c r="A61" s="5" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="16" t="n">
+      <c r="B61" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="17" t="s">
+      <c r="D61" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="27"/>
+      <c r="H61" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="n">
@@ -12261,7 +12238,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
+      <selection pane="topLeft" activeCell="I61" activeCellId="0" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13557,28 +13534,30 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="n">
+      <c r="A61" s="43" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="16" t="n">
+      <c r="B61" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="G61" s="17" t="s">
+      <c r="D61" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="27"/>
+      <c r="H61" s="49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="n">
@@ -14205,21 +14184,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I65536"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I60" activeCellId="0" sqref="I60"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14230,9 +14209,8 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -14241,9 +14219,8 @@
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -14256,9 +14233,6 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -14284,8 +14258,7 @@
       <c r="G4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="14" t="n">
+      <c r="H4" s="14" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14311,13 +14284,12 @@
       <c r="G5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="69" t="n">
+      <c r="H5" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="68" t="n">
         <v>43270</v>
       </c>
       <c r="B6" s="16" t="n">
@@ -14338,11 +14310,10 @@
       <c r="G6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69" t="n">
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="68" t="n">
         <v>43271</v>
       </c>
       <c r="B7" s="16" t="n">
@@ -14363,11 +14334,10 @@
       <c r="G7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="69" t="n">
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="68" t="n">
         <v>43276</v>
       </c>
       <c r="B8" s="16" t="n">
@@ -14388,11 +14358,10 @@
       <c r="G8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="69" t="n">
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="68" t="n">
         <v>43276</v>
       </c>
       <c r="B9" s="16" t="n">
@@ -14413,21 +14382,19 @@
       <c r="G9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="70"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
         <v>1</v>
       </c>
@@ -14440,14 +14407,11 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="72" t="n">
+      <c r="A12" s="70" t="n">
         <v>43266</v>
       </c>
       <c r="B12" s="6" t="n">
@@ -14468,13 +14432,12 @@
       <c r="G12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="9" t="n">
+      <c r="H12" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="72" t="n">
+      <c r="A13" s="70" t="n">
         <v>43266</v>
       </c>
       <c r="B13" s="6" t="n">
@@ -14495,13 +14458,12 @@
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="69" t="n">
+      <c r="H13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="68" t="n">
         <v>43271</v>
       </c>
       <c r="B14" s="16" t="n">
@@ -14522,11 +14484,10 @@
       <c r="G14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="69" t="n">
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="68" t="n">
         <v>43271</v>
       </c>
       <c r="B15" s="16" t="n">
@@ -14547,11 +14508,10 @@
       <c r="G15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="69" t="n">
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="68" t="n">
         <v>43276</v>
       </c>
       <c r="B16" s="16" t="n">
@@ -14572,11 +14532,10 @@
       <c r="G16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="27"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="69" t="n">
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="68" t="n">
         <v>43276</v>
       </c>
       <c r="B17" s="16" t="n">
@@ -14597,10 +14556,9 @@
       <c r="G17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="70"/>
-      <c r="I17" s="27"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -14609,9 +14567,8 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
         <v>1</v>
       </c>
@@ -14624,9 +14581,6 @@
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -14652,13 +14606,12 @@
       <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="68"/>
-      <c r="I20" s="14" t="n">
+      <c r="H20" s="14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="74" t="n">
+      <c r="A21" s="71" t="n">
         <v>43267</v>
       </c>
       <c r="B21" s="44" t="n">
@@ -14679,13 +14632,12 @@
       <c r="G21" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="75"/>
-      <c r="I21" s="49" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="69" t="n">
+      <c r="H21" s="49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="68" t="n">
         <v>43272</v>
       </c>
       <c r="B22" s="16" t="n">
@@ -14706,11 +14658,10 @@
       <c r="G22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="27"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="69" t="n">
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="68" t="n">
         <v>43272</v>
       </c>
       <c r="B23" s="16" t="n">
@@ -14731,11 +14682,10 @@
       <c r="G23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="70"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="69" t="n">
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="68" t="n">
         <v>43277</v>
       </c>
       <c r="B24" s="16" t="n">
@@ -14756,11 +14706,10 @@
       <c r="G24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="70"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="69" t="n">
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="68" t="n">
         <v>43277</v>
       </c>
       <c r="B25" s="16" t="n">
@@ -14781,10 +14730,9 @@
       <c r="G25" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="70"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -14793,9 +14741,8 @@
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="22" t="s">
         <v>1</v>
       </c>
@@ -14808,14 +14755,11 @@
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
       <c r="H27" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I27" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="72" t="n">
+      <c r="A28" s="70" t="n">
         <v>43267</v>
       </c>
       <c r="B28" s="6" t="n">
@@ -14836,13 +14780,12 @@
       <c r="G28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="73"/>
-      <c r="I28" s="9" t="n">
+      <c r="H28" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="72" t="n">
+      <c r="A29" s="70" t="n">
         <v>43267</v>
       </c>
       <c r="B29" s="6" t="n">
@@ -14863,13 +14806,12 @@
       <c r="G29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="73"/>
-      <c r="I29" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="69" t="n">
+      <c r="H29" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="68" t="n">
         <v>43272</v>
       </c>
       <c r="B30" s="16" t="n">
@@ -14890,11 +14832,10 @@
       <c r="G30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="70"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="69" t="n">
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="68" t="n">
         <v>43273</v>
       </c>
       <c r="B31" s="16" t="n">
@@ -14915,11 +14856,10 @@
       <c r="G31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="70"/>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="69" t="n">
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="68" t="n">
         <v>43277</v>
       </c>
       <c r="B32" s="16" t="n">
@@ -14940,11 +14880,10 @@
       <c r="G32" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="70"/>
-      <c r="I32" s="27"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="69" t="n">
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="68" t="n">
         <v>43277</v>
       </c>
       <c r="B33" s="16" t="n">
@@ -14965,10 +14904,9 @@
       <c r="G33" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="70"/>
-      <c r="I33" s="27"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -14977,9 +14915,8 @@
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="s">
         <v>1</v>
       </c>
@@ -14994,14 +14931,11 @@
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I35" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="72" t="n">
+      <c r="A36" s="70" t="n">
         <v>43268</v>
       </c>
       <c r="B36" s="6" t="n">
@@ -15022,13 +14956,12 @@
       <c r="G36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="73"/>
-      <c r="I36" s="9" t="n">
+      <c r="H36" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="72" t="n">
+      <c r="A37" s="70" t="n">
         <v>43268</v>
       </c>
       <c r="B37" s="6" t="n">
@@ -15049,13 +14982,12 @@
       <c r="G37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="73"/>
-      <c r="I37" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="69" t="n">
+      <c r="H37" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="68" t="n">
         <v>43273</v>
       </c>
       <c r="B38" s="16" t="n">
@@ -15076,11 +15008,10 @@
       <c r="G38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="70"/>
-      <c r="I38" s="27"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="69" t="n">
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="68" t="n">
         <v>43273</v>
       </c>
       <c r="B39" s="16" t="n">
@@ -15101,11 +15032,10 @@
       <c r="G39" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="70"/>
-      <c r="I39" s="27"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="69" t="n">
+      <c r="H39" s="27"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="68" t="n">
         <v>43278</v>
       </c>
       <c r="B40" s="16" t="n">
@@ -15126,11 +15056,10 @@
       <c r="G40" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="70"/>
-      <c r="I40" s="27"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="69" t="n">
+      <c r="H40" s="27"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="68" t="n">
         <v>43278</v>
       </c>
       <c r="B41" s="16" t="n">
@@ -15151,10 +15080,9 @@
       <c r="G41" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="70"/>
-      <c r="I41" s="27"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -15163,9 +15091,8 @@
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="22" t="s">
         <v>1</v>
       </c>
@@ -15178,14 +15105,11 @@
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I43" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="72" t="n">
+      <c r="A44" s="70" t="n">
         <v>43268</v>
       </c>
       <c r="B44" s="6" t="n">
@@ -15206,13 +15130,12 @@
       <c r="G44" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="73"/>
-      <c r="I44" s="9" t="n">
+      <c r="H44" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="72" t="n">
+      <c r="A45" s="70" t="n">
         <v>43269</v>
       </c>
       <c r="B45" s="6" t="n">
@@ -15233,13 +15156,12 @@
       <c r="G45" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="73"/>
-      <c r="I45" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="69" t="n">
+      <c r="H45" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="68" t="n">
         <v>43274</v>
       </c>
       <c r="B46" s="16" t="n">
@@ -15260,11 +15182,10 @@
       <c r="G46" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="70"/>
-      <c r="I46" s="27"/>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="69" t="n">
+      <c r="H46" s="27"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="68" t="n">
         <v>43274</v>
       </c>
       <c r="B47" s="16" t="n">
@@ -15285,11 +15206,10 @@
       <c r="G47" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="70"/>
-      <c r="I47" s="27"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="69" t="n">
+      <c r="H47" s="27"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="68" t="n">
         <v>43278</v>
       </c>
       <c r="B48" s="16" t="n">
@@ -15310,11 +15230,10 @@
       <c r="G48" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="70"/>
-      <c r="I48" s="27"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="69" t="n">
+      <c r="H48" s="27"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="68" t="n">
         <v>43278</v>
       </c>
       <c r="B49" s="16" t="n">
@@ -15335,10 +15254,9 @@
       <c r="G49" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="70"/>
-      <c r="I49" s="27"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H49" s="27"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -15347,9 +15265,8 @@
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="22" t="s">
         <v>1</v>
       </c>
@@ -15362,9 +15279,6 @@
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I51" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15390,8 +15304,7 @@
       <c r="G52" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="68"/>
-      <c r="I52" s="14" t="n">
+      <c r="H52" s="14" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15417,13 +15330,12 @@
       <c r="G53" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="68"/>
-      <c r="I53" s="14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="69" t="n">
+      <c r="H53" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="68" t="n">
         <v>43274</v>
       </c>
       <c r="B54" s="16" t="n">
@@ -15444,11 +15356,10 @@
       <c r="G54" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="70"/>
-      <c r="I54" s="27"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="69" t="n">
+      <c r="H54" s="27"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="68" t="n">
         <v>43275</v>
       </c>
       <c r="B55" s="16" t="n">
@@ -15469,11 +15380,10 @@
       <c r="G55" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="70"/>
-      <c r="I55" s="27"/>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="69" t="n">
+      <c r="H55" s="27"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="68" t="n">
         <v>43279</v>
       </c>
       <c r="B56" s="16" t="n">
@@ -15494,11 +15404,10 @@
       <c r="G56" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="70"/>
-      <c r="I56" s="27"/>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="69" t="n">
+      <c r="H56" s="27"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="68" t="n">
         <v>43279</v>
       </c>
       <c r="B57" s="16" t="n">
@@ -15519,10 +15428,9 @@
       <c r="G57" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="70"/>
-      <c r="I57" s="27"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H57" s="27"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -15531,9 +15439,8 @@
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="s">
         <v>1</v>
       </c>
@@ -15546,14 +15453,11 @@
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
       <c r="H59" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I59" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="72" t="n">
+      <c r="A60" s="70" t="n">
         <v>43270</v>
       </c>
       <c r="B60" s="6" t="n">
@@ -15574,38 +15478,38 @@
       <c r="G60" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="73"/>
-      <c r="I60" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="69" t="n">
+      <c r="H60" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="70" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="16" t="n">
+      <c r="B61" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="17" t="s">
+      <c r="D61" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="70"/>
-      <c r="I61" s="27"/>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="69" t="n">
+      <c r="H61" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="68" t="n">
         <v>43275</v>
       </c>
       <c r="B62" s="16" t="n">
@@ -15626,11 +15530,10 @@
       <c r="G62" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="70"/>
-      <c r="I62" s="27"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="69" t="n">
+      <c r="H62" s="27"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="68" t="n">
         <v>43275</v>
       </c>
       <c r="B63" s="16" t="n">
@@ -15651,11 +15554,10 @@
       <c r="G63" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="70"/>
-      <c r="I63" s="27"/>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="69" t="n">
+      <c r="H63" s="27"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="68" t="n">
         <v>43279</v>
       </c>
       <c r="B64" s="16" t="n">
@@ -15676,11 +15578,10 @@
       <c r="G64" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="70"/>
-      <c r="I64" s="27"/>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="76" t="n">
+      <c r="H64" s="27"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="72" t="n">
         <v>43279</v>
       </c>
       <c r="B65" s="34" t="n">
@@ -15701,10 +15602,9 @@
       <c r="G65" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="77"/>
-      <c r="I65" s="27"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H65" s="27"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -15712,10 +15612,9 @@
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="37"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H66" s="37"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
         <v>1</v>
       </c>
@@ -15728,14 +15627,11 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="68" t="n">
         <v>43281</v>
       </c>
       <c r="B68" s="16" t="n">
@@ -15752,11 +15648,10 @@
       <c r="G68" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H68" s="70"/>
-      <c r="I68" s="27"/>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="69" t="n">
+      <c r="H68" s="27"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="68" t="n">
         <v>43281</v>
       </c>
       <c r="B69" s="16" t="n">
@@ -15773,11 +15668,10 @@
       <c r="G69" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="H69" s="70"/>
-      <c r="I69" s="27"/>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="69" t="n">
+      <c r="H69" s="27"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="68" t="n">
         <v>43282</v>
       </c>
       <c r="B70" s="16" t="n">
@@ -15794,11 +15688,10 @@
       <c r="G70" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H70" s="70"/>
-      <c r="I70" s="27"/>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="69" t="n">
+      <c r="H70" s="27"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="68" t="n">
         <v>43282</v>
       </c>
       <c r="B71" s="16" t="n">
@@ -15815,11 +15708,10 @@
       <c r="G71" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H71" s="70"/>
-      <c r="I71" s="27"/>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="69" t="n">
+      <c r="H71" s="27"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="68" t="n">
         <v>43283</v>
       </c>
       <c r="B72" s="16" t="n">
@@ -15836,11 +15728,10 @@
       <c r="G72" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="H72" s="70"/>
-      <c r="I72" s="27"/>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="76" t="n">
+      <c r="H72" s="27"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="72" t="n">
         <v>43283</v>
       </c>
       <c r="B73" s="34" t="n">
@@ -15857,11 +15748,10 @@
       <c r="G73" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H73" s="77"/>
-      <c r="I73" s="27"/>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="76" t="n">
+      <c r="H73" s="27"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="72" t="n">
         <v>43284</v>
       </c>
       <c r="B74" s="34" t="n">
@@ -15878,11 +15768,10 @@
       <c r="G74" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="H74" s="77"/>
-      <c r="I74" s="27"/>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="76" t="n">
+      <c r="H74" s="27"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="72" t="n">
         <v>43284</v>
       </c>
       <c r="B75" s="34" t="n">
@@ -15899,10 +15788,9 @@
       <c r="G75" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="H75" s="77"/>
-      <c r="I75" s="27"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H75" s="27"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -15910,10 +15798,9 @@
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="37"/>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H76" s="37"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
         <v>1</v>
       </c>
@@ -15926,14 +15813,11 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="68" t="n">
         <v>43287</v>
       </c>
       <c r="B78" s="16" t="n">
@@ -15950,11 +15834,10 @@
       <c r="G78" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H78" s="70"/>
-      <c r="I78" s="27"/>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="69" t="n">
+      <c r="H78" s="27"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="68" t="n">
         <v>43287</v>
       </c>
       <c r="B79" s="16" t="n">
@@ -15971,11 +15854,10 @@
       <c r="G79" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H79" s="70"/>
-      <c r="I79" s="27"/>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="69" t="n">
+      <c r="H79" s="27"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="68" t="n">
         <v>43288</v>
       </c>
       <c r="B80" s="16" t="n">
@@ -15992,11 +15874,10 @@
       <c r="G80" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H80" s="70"/>
-      <c r="I80" s="27"/>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="69" t="n">
+      <c r="H80" s="27"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="68" t="n">
         <v>43288</v>
       </c>
       <c r="B81" s="16" t="n">
@@ -16013,10 +15894,9 @@
       <c r="G81" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="H81" s="70"/>
-      <c r="I81" s="27"/>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H81" s="27"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="17"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -16024,10 +15904,9 @@
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="37"/>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H82" s="37"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
         <v>1</v>
       </c>
@@ -16040,14 +15919,11 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="68" t="n">
         <v>43291</v>
       </c>
       <c r="B84" s="16" t="n">
@@ -16064,11 +15940,10 @@
       <c r="G84" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="H84" s="70"/>
-      <c r="I84" s="27"/>
-    </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="69" t="n">
+      <c r="H84" s="27"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="68" t="n">
         <v>43292</v>
       </c>
       <c r="B85" s="16" t="n">
@@ -16085,10 +15960,9 @@
       <c r="G85" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="H85" s="70"/>
-      <c r="I85" s="27"/>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H85" s="27"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -16096,10 +15970,9 @@
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="37"/>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H86" s="37"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
         <v>1</v>
       </c>
@@ -16112,14 +15985,11 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="68" t="n">
         <v>43295</v>
       </c>
       <c r="B88" s="16" t="n">
@@ -16136,10 +16006,9 @@
       <c r="G88" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="H88" s="70"/>
-      <c r="I88" s="27"/>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H88" s="27"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="17"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -16147,10 +16016,9 @@
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="37"/>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H89" s="37"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
         <v>1</v>
       </c>
@@ -16163,14 +16031,11 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="68" t="n">
         <v>43296</v>
       </c>
       <c r="B91" s="16" t="n">
@@ -16187,10 +16052,9 @@
       <c r="G91" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="H91" s="70"/>
-      <c r="I91" s="27"/>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H91" s="27"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="17"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -16199,9 +16063,8 @@
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
       <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
         <v>1</v>
       </c>
@@ -16214,14 +16077,11 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="68" t="n">
         <v>43296</v>
       </c>
       <c r="B94" s="16" t="n">
@@ -16238,14 +16098,11 @@
       <c r="G94" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="H94" s="70"/>
-      <c r="I94" s="27"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="H94" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C19:G19"/>
@@ -16279,7 +16136,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
+      <selection pane="topLeft" activeCell="H62" activeCellId="0" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -17575,28 +17432,30 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="n">
+      <c r="A61" s="5" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="16" t="n">
+      <c r="B61" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="G61" s="17" t="s">
+      <c r="D61" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="27"/>
+      <c r="H61" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="n">
@@ -18226,7 +18085,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
+      <selection pane="topLeft" activeCell="H61" activeCellId="0" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -19522,28 +19381,30 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="n">
+      <c r="A61" s="5" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="16" t="n">
+      <c r="B61" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="17" t="s">
+      <c r="D61" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="27"/>
+      <c r="H61" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="n">

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -717,6 +717,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
@@ -730,22 +746,6 @@
       <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -868,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H61" activeCellId="0" sqref="H61"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -971,28 +971,30 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+      <c r="A6" s="5" t="n">
         <v>43270</v>
       </c>
-      <c r="B6" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="D6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="n">
@@ -2755,8 +2757,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J57" activeCellId="0" sqref="J57"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2848,28 +2850,30 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+      <c r="A6" s="5" t="n">
         <v>43270</v>
       </c>
-      <c r="B6" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="D6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="n">
@@ -4630,8 +4634,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H61" activeCellId="0" sqref="H61"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4733,28 +4737,30 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+      <c r="A6" s="10" t="n">
         <v>43270</v>
       </c>
-      <c r="B6" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="D6" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="n">
@@ -6515,8 +6521,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K57" activeCellId="0" sqref="K57"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6592,54 +6598,56 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="10" t="n">
         <v>43266</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="11" t="n">
         <v>0.375</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="D5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="9" t="n">
+      <c r="H5" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+      <c r="A6" s="10" t="n">
         <v>43270</v>
       </c>
-      <c r="B6" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="D6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="n">
@@ -8465,8 +8473,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H61" activeCellId="0" sqref="H61"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8589,71 +8597,73 @@
       <c r="G6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="58"/>
+      <c r="H6" s="58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="55" t="n">
+      <c r="A7" s="59" t="n">
         <v>43271</v>
       </c>
-      <c r="B7" s="56" t="n">
+      <c r="B7" s="60" t="n">
         <v>0.5</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="62" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="58"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="55" t="n">
+      <c r="A8" s="59" t="n">
         <v>43276</v>
       </c>
-      <c r="B8" s="56" t="n">
+      <c r="B8" s="60" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="57" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="62"/>
+      <c r="G8" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="58"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="55" t="n">
+      <c r="A9" s="59" t="n">
         <v>43276</v>
       </c>
-      <c r="B9" s="56" t="n">
+      <c r="B9" s="60" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="57" t="s">
+      <c r="D9" s="62"/>
+      <c r="E9" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="58"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20"/>
@@ -8682,144 +8692,144 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="59" t="n">
+      <c r="A12" s="55" t="n">
         <v>43266</v>
       </c>
-      <c r="B12" s="60" t="n">
+      <c r="B12" s="56" t="n">
         <v>0.5</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="61" t="s">
+      <c r="D12" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="62" t="n">
+      <c r="H12" s="58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="59" t="n">
+      <c r="A13" s="55" t="n">
         <v>43266</v>
       </c>
-      <c r="B13" s="60" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C13" s="61" t="s">
+      <c r="B13" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C13" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="62" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="61" t="s">
+      <c r="D13" s="58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="62" t="n">
+      <c r="H13" s="58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="55" t="n">
+      <c r="A14" s="59" t="n">
         <v>43271</v>
       </c>
-      <c r="B14" s="56" t="n">
+      <c r="B14" s="60" t="n">
         <v>0.375</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="58" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="57" t="s">
+      <c r="D14" s="62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="58"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="55" t="n">
+      <c r="A15" s="59" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="56" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="60" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="58" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="57" t="s">
+      <c r="D15" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="62" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="55" t="n">
+      <c r="A16" s="59" t="n">
         <v>43276</v>
       </c>
-      <c r="B16" s="56" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C16" s="57" t="s">
+      <c r="B16" s="60" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="57" t="s">
+      <c r="D16" s="62"/>
+      <c r="E16" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="58"/>
+      <c r="H16" s="62"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="55" t="n">
+      <c r="A17" s="59" t="n">
         <v>43276</v>
       </c>
-      <c r="B17" s="56" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="60" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C17" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="57" t="s">
+      <c r="D17" s="62"/>
+      <c r="E17" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="62"/>
+      <c r="G17" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="58"/>
+      <c r="H17" s="62"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21"/>
@@ -8874,118 +8884,118 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="59" t="n">
+      <c r="A21" s="55" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="60" t="n">
+      <c r="B21" s="56" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="61" t="s">
+      <c r="D21" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="62" t="n">
+      <c r="H21" s="58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="55" t="n">
+      <c r="A22" s="59" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="56" t="n">
+      <c r="B22" s="60" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="58" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="57" t="s">
+      <c r="D22" s="62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="58"/>
+      <c r="H22" s="62"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="55" t="n">
+      <c r="A23" s="59" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="56" t="n">
+      <c r="B23" s="60" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="58" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="57" t="s">
+      <c r="D23" s="62" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="58"/>
+      <c r="H23" s="62"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="55" t="n">
+      <c r="A24" s="59" t="n">
         <v>43277</v>
       </c>
-      <c r="B24" s="56" t="n">
+      <c r="B24" s="60" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="57" t="s">
+      <c r="D24" s="62"/>
+      <c r="E24" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="62"/>
+      <c r="G24" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="58"/>
+      <c r="H24" s="62"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="55" t="n">
+      <c r="A25" s="59" t="n">
         <v>43277</v>
       </c>
-      <c r="B25" s="56" t="n">
+      <c r="B25" s="60" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="57" t="s">
+      <c r="D25" s="62"/>
+      <c r="E25" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="62"/>
+      <c r="G25" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="58"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21"/>
@@ -9014,28 +9024,28 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="59" t="n">
+      <c r="A28" s="55" t="n">
         <v>43267</v>
       </c>
-      <c r="B28" s="60" t="n">
+      <c r="B28" s="56" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="62" t="n">
+      <c r="D28" s="58" t="n">
         <v>4</v>
       </c>
-      <c r="E28" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="61" t="s">
+      <c r="E28" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="62" t="n">
+      <c r="H28" s="58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9066,92 +9076,92 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="55" t="n">
+      <c r="A30" s="59" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="56" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="57" t="s">
+      <c r="B30" s="60" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="58" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="57" t="s">
+      <c r="D30" s="62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="58"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="55" t="n">
+      <c r="A31" s="59" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="56" t="n">
+      <c r="B31" s="60" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="58" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" s="57" t="s">
+      <c r="D31" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="58"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="55" t="n">
+      <c r="A32" s="59" t="n">
         <v>43277</v>
       </c>
-      <c r="B32" s="56" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C32" s="57" t="s">
+      <c r="B32" s="60" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C32" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="57" t="s">
+      <c r="D32" s="62"/>
+      <c r="E32" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="62"/>
+      <c r="G32" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="58"/>
+      <c r="H32" s="62"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="55" t="n">
+      <c r="A33" s="59" t="n">
         <v>43277</v>
       </c>
-      <c r="B33" s="56" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C33" s="57" t="s">
+      <c r="B33" s="60" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C33" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="57" t="s">
+      <c r="D33" s="62"/>
+      <c r="E33" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="62"/>
+      <c r="G33" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="58"/>
+      <c r="H33" s="62"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21"/>
@@ -9182,144 +9192,144 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="59" t="n">
+      <c r="A36" s="55" t="n">
         <v>43268</v>
       </c>
-      <c r="B36" s="60" t="n">
+      <c r="B36" s="56" t="n">
         <v>0.375</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="62" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="61" t="s">
+      <c r="D36" s="58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="62" t="n">
+      <c r="H36" s="58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="59" t="n">
+      <c r="A37" s="55" t="n">
         <v>43268</v>
       </c>
-      <c r="B37" s="60" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="61" t="s">
+      <c r="B37" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="62" t="n">
+      <c r="D37" s="58" t="n">
         <v>4</v>
       </c>
-      <c r="E37" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="61" t="s">
+      <c r="E37" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="62" t="n">
+      <c r="H37" s="58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="55" t="n">
+      <c r="A38" s="59" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="56" t="n">
+      <c r="B38" s="60" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="58" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="57" t="s">
+      <c r="D38" s="62" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="58"/>
+      <c r="H38" s="62"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="55" t="n">
+      <c r="A39" s="59" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="56" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="57" t="s">
+      <c r="B39" s="60" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="57" t="s">
+      <c r="D39" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="58"/>
+      <c r="H39" s="62"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="55" t="n">
+      <c r="A40" s="59" t="n">
         <v>43278</v>
       </c>
-      <c r="B40" s="56" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C40" s="57" t="s">
+      <c r="B40" s="60" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C40" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="58"/>
-      <c r="G40" s="57" t="s">
+      <c r="D40" s="62"/>
+      <c r="E40" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="62"/>
+      <c r="G40" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="58"/>
+      <c r="H40" s="62"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="55" t="n">
+      <c r="A41" s="59" t="n">
         <v>43278</v>
       </c>
-      <c r="B41" s="56" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C41" s="57" t="s">
+      <c r="B41" s="60" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C41" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="58"/>
-      <c r="G41" s="57" t="s">
+      <c r="D41" s="62"/>
+      <c r="E41" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="62"/>
+      <c r="G41" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="58"/>
+      <c r="H41" s="62"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21"/>
@@ -9348,28 +9358,28 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="59" t="n">
+      <c r="A44" s="55" t="n">
         <v>43268</v>
       </c>
-      <c r="B44" s="60" t="n">
+      <c r="B44" s="56" t="n">
         <v>0.5</v>
       </c>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="62" t="n">
+      <c r="D44" s="58" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="61" t="s">
+      <c r="E44" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="62" t="n">
+      <c r="H44" s="58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9400,92 +9410,92 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="55" t="n">
+      <c r="A46" s="59" t="n">
         <v>43274</v>
       </c>
-      <c r="B46" s="56" t="n">
+      <c r="B46" s="60" t="n">
         <v>0.5</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="58" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" s="57" t="s">
+      <c r="D46" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="58"/>
+      <c r="H46" s="62"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="55" t="n">
+      <c r="A47" s="59" t="n">
         <v>43274</v>
       </c>
-      <c r="B47" s="56" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C47" s="57" t="s">
+      <c r="B47" s="60" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C47" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="58" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="57" t="s">
+      <c r="D47" s="62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="58"/>
+      <c r="H47" s="62"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="55" t="n">
+      <c r="A48" s="59" t="n">
         <v>43278</v>
       </c>
-      <c r="B48" s="56" t="n">
+      <c r="B48" s="60" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="58"/>
-      <c r="E48" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="58"/>
-      <c r="G48" s="57" t="s">
+      <c r="D48" s="62"/>
+      <c r="E48" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="62"/>
+      <c r="G48" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="58"/>
+      <c r="H48" s="62"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="55" t="n">
+      <c r="A49" s="59" t="n">
         <v>43278</v>
       </c>
-      <c r="B49" s="56" t="n">
+      <c r="B49" s="60" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="58"/>
-      <c r="E49" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="58"/>
-      <c r="G49" s="57" t="s">
+      <c r="D49" s="62"/>
+      <c r="E49" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="62"/>
+      <c r="G49" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="58"/>
+      <c r="H49" s="62"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21"/>
@@ -9566,92 +9576,92 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="55" t="n">
+      <c r="A54" s="59" t="n">
         <v>43274</v>
       </c>
-      <c r="B54" s="56" t="n">
+      <c r="B54" s="60" t="n">
         <v>0.375</v>
       </c>
-      <c r="C54" s="57" t="s">
+      <c r="C54" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="58" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="57" t="s">
+      <c r="D54" s="62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="58"/>
+      <c r="H54" s="62"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="55" t="n">
+      <c r="A55" s="59" t="n">
         <v>43275</v>
       </c>
-      <c r="B55" s="56" t="n">
+      <c r="B55" s="60" t="n">
         <v>0.375</v>
       </c>
-      <c r="C55" s="57" t="s">
+      <c r="C55" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="57" t="s">
+      <c r="D55" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="58"/>
+      <c r="H55" s="62"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="55" t="n">
+      <c r="A56" s="59" t="n">
         <v>43279</v>
       </c>
-      <c r="B56" s="56" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C56" s="57" t="s">
+      <c r="B56" s="60" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C56" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="58"/>
-      <c r="E56" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="58"/>
-      <c r="G56" s="57" t="s">
+      <c r="D56" s="62"/>
+      <c r="E56" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="62"/>
+      <c r="G56" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="58"/>
+      <c r="H56" s="62"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="55" t="n">
+      <c r="A57" s="59" t="n">
         <v>43279</v>
       </c>
-      <c r="B57" s="56" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C57" s="57" t="s">
+      <c r="B57" s="60" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C57" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="58"/>
-      <c r="E57" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="58"/>
-      <c r="G57" s="57" t="s">
+      <c r="D57" s="62"/>
+      <c r="E57" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="62"/>
+      <c r="G57" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="58"/>
+      <c r="H57" s="62"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21"/>
@@ -9680,144 +9690,144 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="59" t="n">
+      <c r="A60" s="55" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="60" t="n">
+      <c r="B60" s="56" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="61" t="s">
+      <c r="C60" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="62" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="61" t="s">
+      <c r="D60" s="58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="62" t="n">
+      <c r="H60" s="58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="59" t="n">
+      <c r="A61" s="55" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="60" t="n">
+      <c r="B61" s="56" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="61" t="s">
+      <c r="C61" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="61" t="s">
+      <c r="D61" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="62" t="n">
+      <c r="H61" s="58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="55" t="n">
+      <c r="A62" s="59" t="n">
         <v>43275</v>
       </c>
-      <c r="B62" s="56" t="n">
+      <c r="B62" s="60" t="n">
         <v>0.5</v>
       </c>
-      <c r="C62" s="57" t="s">
+      <c r="C62" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="57" t="s">
+      <c r="D62" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="58"/>
+      <c r="H62" s="62"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="55" t="n">
+      <c r="A63" s="59" t="n">
         <v>43275</v>
       </c>
-      <c r="B63" s="56" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C63" s="57" t="s">
+      <c r="B63" s="60" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C63" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="58" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" s="57" t="s">
+      <c r="D63" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="58"/>
+      <c r="H63" s="62"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="55" t="n">
+      <c r="A64" s="59" t="n">
         <v>43279</v>
       </c>
-      <c r="B64" s="56" t="n">
+      <c r="B64" s="60" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C64" s="57" t="s">
+      <c r="C64" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="58"/>
-      <c r="E64" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="58"/>
-      <c r="G64" s="57" t="s">
+      <c r="D64" s="62"/>
+      <c r="E64" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="62"/>
+      <c r="G64" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="58"/>
+      <c r="H64" s="62"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="55" t="n">
+      <c r="A65" s="59" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="56" t="n">
+      <c r="B65" s="60" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="57" t="s">
+      <c r="C65" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="58"/>
-      <c r="E65" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="58"/>
-      <c r="G65" s="57" t="s">
+      <c r="D65" s="62"/>
+      <c r="E65" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="62"/>
+      <c r="G65" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="58"/>
+      <c r="H65" s="62"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="17"/>
@@ -10351,8 +10361,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H61" activeCellId="0" sqref="H61"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10454,28 +10464,30 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+      <c r="A6" s="10" t="n">
         <v>43270</v>
       </c>
-      <c r="B6" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="D6" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="n">
@@ -12237,8 +12249,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I61" activeCellId="0" sqref="I61"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12340,28 +12352,30 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+      <c r="A6" s="10" t="n">
         <v>43270</v>
       </c>
-      <c r="B6" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="D6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="n">
@@ -14186,8 +14200,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P22" activeCellId="0" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14289,28 +14303,30 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68" t="n">
+      <c r="A6" s="67" t="n">
         <v>43270</v>
       </c>
-      <c r="B6" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="D6" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="68" t="n">
@@ -16135,8 +16151,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H62" activeCellId="0" sqref="H62"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16238,28 +16254,30 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+      <c r="A6" s="5" t="n">
         <v>43270</v>
       </c>
-      <c r="B6" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="D6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="n">
@@ -18084,8 +18102,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H61" activeCellId="0" sqref="H61"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -18187,28 +18205,30 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+      <c r="A6" s="5" t="n">
         <v>43270</v>
       </c>
-      <c r="B6" s="16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="D6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="n">

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -496,7 +496,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -629,6 +629,26 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
@@ -660,42 +680,6 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -789,6 +773,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -868,8 +860,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1167,28 +1159,30 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
+      <c r="A15" s="15" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="21" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="D15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="n">
@@ -1309,52 +1303,56 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="n">
+      <c r="A22" s="33" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="21" t="n">
+      <c r="B22" s="34" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="D22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="32"/>
+      <c r="H22" s="37" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="n">
+      <c r="A23" s="10" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="21" t="n">
+      <c r="B23" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="D23" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="n">
@@ -2209,21 +2207,21 @@
       <c r="H64" s="32"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="33" t="n">
+      <c r="A65" s="38" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="34" t="n">
+      <c r="B65" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="36"/>
-      <c r="G65" s="35" t="s">
+      <c r="D65" s="41"/>
+      <c r="E65" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="41"/>
+      <c r="G65" s="40" t="s">
         <v>41</v>
       </c>
       <c r="H65" s="32"/>
@@ -2236,7 +2234,7 @@
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="37"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -2261,7 +2259,7 @@
       <c r="B68" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="43" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="31"/>
@@ -2269,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="31"/>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="43" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="32"/>
@@ -2281,7 +2279,7 @@
       <c r="B69" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="43" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="31"/>
@@ -2289,7 +2287,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="31"/>
-      <c r="G69" s="38" t="s">
+      <c r="G69" s="43" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="32"/>
@@ -2301,7 +2299,7 @@
       <c r="B70" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="31"/>
@@ -2309,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="31"/>
-      <c r="G70" s="38" t="s">
+      <c r="G70" s="43" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="32"/>
@@ -2321,7 +2319,7 @@
       <c r="B71" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="43" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="31"/>
@@ -2329,7 +2327,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="31"/>
-      <c r="G71" s="38" t="s">
+      <c r="G71" s="43" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="32"/>
@@ -2341,7 +2339,7 @@
       <c r="B72" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="43" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="31"/>
@@ -2349,67 +2347,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="31"/>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="43" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="32"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="33" t="n">
+      <c r="A73" s="38" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="39" t="s">
+      <c r="B73" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="36"/>
-      <c r="G73" s="39" t="s">
+      <c r="D73" s="41"/>
+      <c r="E73" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="41"/>
+      <c r="G73" s="44" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="32"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="33" t="n">
+      <c r="A74" s="38" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="34" t="n">
+      <c r="B74" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="36"/>
-      <c r="E74" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="36"/>
-      <c r="G74" s="39" t="s">
+      <c r="D74" s="41"/>
+      <c r="E74" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="41"/>
+      <c r="G74" s="44" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="32"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="33" t="n">
+      <c r="A75" s="38" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="39" t="s">
+      <c r="B75" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="36"/>
-      <c r="G75" s="39" t="s">
+      <c r="D75" s="41"/>
+      <c r="E75" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="41"/>
+      <c r="G75" s="44" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="32"/>
@@ -2422,7 +2420,7 @@
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="37"/>
+      <c r="H76" s="42"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -2447,7 +2445,7 @@
       <c r="B78" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="31"/>
@@ -2455,7 +2453,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="31"/>
-      <c r="G78" s="38" t="s">
+      <c r="G78" s="43" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="32"/>
@@ -2467,7 +2465,7 @@
       <c r="B79" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="43" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="31"/>
@@ -2475,7 +2473,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="31"/>
-      <c r="G79" s="38" t="s">
+      <c r="G79" s="43" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="32"/>
@@ -2487,7 +2485,7 @@
       <c r="B80" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="43" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="31"/>
@@ -2495,7 +2493,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="31"/>
-      <c r="G80" s="38" t="s">
+      <c r="G80" s="43" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="32"/>
@@ -2507,7 +2505,7 @@
       <c r="B81" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="43" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="31"/>
@@ -2515,7 +2513,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="31"/>
-      <c r="G81" s="38" t="s">
+      <c r="G81" s="43" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="32"/>
@@ -2528,7 +2526,7 @@
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
-      <c r="H82" s="37"/>
+      <c r="H82" s="42"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -2553,7 +2551,7 @@
       <c r="B84" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="43" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="31"/>
@@ -2561,7 +2559,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="31"/>
-      <c r="G84" s="38" t="s">
+      <c r="G84" s="43" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="32"/>
@@ -2573,7 +2571,7 @@
       <c r="B85" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="43" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="31"/>
@@ -2581,7 +2579,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="31"/>
-      <c r="G85" s="38" t="s">
+      <c r="G85" s="43" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="32"/>
@@ -2594,7 +2592,7 @@
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
       <c r="G86" s="22"/>
-      <c r="H86" s="37"/>
+      <c r="H86" s="42"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -2619,7 +2617,7 @@
       <c r="B88" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="43" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="31"/>
@@ -2627,7 +2625,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="31"/>
-      <c r="G88" s="38" t="s">
+      <c r="G88" s="43" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="32"/>
@@ -2640,7 +2638,7 @@
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
-      <c r="H89" s="37"/>
+      <c r="H89" s="42"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -2665,7 +2663,7 @@
       <c r="B91" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="31"/>
@@ -2673,7 +2671,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="31"/>
-      <c r="G91" s="38" t="s">
+      <c r="G91" s="43" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="32"/>
@@ -2711,15 +2709,15 @@
       <c r="B94" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="40"/>
-      <c r="G94" s="35" t="s">
+      <c r="D94" s="45"/>
+      <c r="E94" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="45"/>
+      <c r="G94" s="40" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="32"/>
@@ -2762,7 +2760,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3050,28 +3048,30 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
+      <c r="A15" s="10" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="21" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="D15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="n">
@@ -3192,52 +3192,56 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="n">
+      <c r="A22" s="33" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="21" t="n">
+      <c r="B22" s="34" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="D22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="32"/>
+      <c r="H22" s="37" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="n">
+      <c r="A23" s="10" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="21" t="n">
+      <c r="B23" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="D23" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="n">
@@ -4092,21 +4096,21 @@
       <c r="H64" s="32"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="33" t="n">
+      <c r="A65" s="38" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="34" t="n">
+      <c r="B65" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="36"/>
-      <c r="G65" s="35" t="s">
+      <c r="D65" s="41"/>
+      <c r="E65" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="41"/>
+      <c r="G65" s="40" t="s">
         <v>41</v>
       </c>
       <c r="H65" s="32"/>
@@ -4119,7 +4123,7 @@
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="37"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -4144,7 +4148,7 @@
       <c r="B68" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="43" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="31"/>
@@ -4152,7 +4156,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="31"/>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="43" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="32"/>
@@ -4164,7 +4168,7 @@
       <c r="B69" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="43" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="31"/>
@@ -4172,7 +4176,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="31"/>
-      <c r="G69" s="38" t="s">
+      <c r="G69" s="43" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="32"/>
@@ -4184,7 +4188,7 @@
       <c r="B70" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="31"/>
@@ -4192,7 +4196,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="31"/>
-      <c r="G70" s="38" t="s">
+      <c r="G70" s="43" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="32"/>
@@ -4204,7 +4208,7 @@
       <c r="B71" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="43" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="31"/>
@@ -4212,7 +4216,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="31"/>
-      <c r="G71" s="38" t="s">
+      <c r="G71" s="43" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="32"/>
@@ -4224,7 +4228,7 @@
       <c r="B72" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="43" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="31"/>
@@ -4232,67 +4236,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="31"/>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="43" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="32"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="33" t="n">
+      <c r="A73" s="38" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="39" t="s">
+      <c r="B73" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="36"/>
-      <c r="G73" s="39" t="s">
+      <c r="D73" s="41"/>
+      <c r="E73" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="41"/>
+      <c r="G73" s="44" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="32"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="33" t="n">
+      <c r="A74" s="38" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="34" t="n">
+      <c r="B74" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="36"/>
-      <c r="E74" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="36"/>
-      <c r="G74" s="39" t="s">
+      <c r="D74" s="41"/>
+      <c r="E74" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="41"/>
+      <c r="G74" s="44" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="32"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="33" t="n">
+      <c r="A75" s="38" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="39" t="s">
+      <c r="B75" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="36"/>
-      <c r="G75" s="39" t="s">
+      <c r="D75" s="41"/>
+      <c r="E75" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="41"/>
+      <c r="G75" s="44" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="32"/>
@@ -4305,7 +4309,7 @@
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="37"/>
+      <c r="H76" s="42"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -4330,7 +4334,7 @@
       <c r="B78" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="31"/>
@@ -4338,7 +4342,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="31"/>
-      <c r="G78" s="38" t="s">
+      <c r="G78" s="43" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="32"/>
@@ -4350,7 +4354,7 @@
       <c r="B79" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="43" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="31"/>
@@ -4358,7 +4362,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="31"/>
-      <c r="G79" s="38" t="s">
+      <c r="G79" s="43" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="32"/>
@@ -4370,7 +4374,7 @@
       <c r="B80" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="43" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="31"/>
@@ -4378,7 +4382,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="31"/>
-      <c r="G80" s="38" t="s">
+      <c r="G80" s="43" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="32"/>
@@ -4390,7 +4394,7 @@
       <c r="B81" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="43" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="31"/>
@@ -4398,7 +4402,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="31"/>
-      <c r="G81" s="38" t="s">
+      <c r="G81" s="43" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="32"/>
@@ -4411,7 +4415,7 @@
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
-      <c r="H82" s="37"/>
+      <c r="H82" s="42"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -4436,7 +4440,7 @@
       <c r="B84" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="43" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="31"/>
@@ -4444,7 +4448,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="31"/>
-      <c r="G84" s="38" t="s">
+      <c r="G84" s="43" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="32"/>
@@ -4456,7 +4460,7 @@
       <c r="B85" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="43" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="31"/>
@@ -4464,7 +4468,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="31"/>
-      <c r="G85" s="38" t="s">
+      <c r="G85" s="43" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="32"/>
@@ -4477,7 +4481,7 @@
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
       <c r="G86" s="22"/>
-      <c r="H86" s="37"/>
+      <c r="H86" s="42"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -4502,7 +4506,7 @@
       <c r="B88" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="43" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="31"/>
@@ -4510,7 +4514,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="31"/>
-      <c r="G88" s="38" t="s">
+      <c r="G88" s="43" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="32"/>
@@ -4523,7 +4527,7 @@
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
-      <c r="H89" s="37"/>
+      <c r="H89" s="42"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -4548,7 +4552,7 @@
       <c r="B91" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="31"/>
@@ -4556,7 +4560,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="31"/>
-      <c r="G91" s="38" t="s">
+      <c r="G91" s="43" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="32"/>
@@ -4594,15 +4598,15 @@
       <c r="B94" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="40"/>
-      <c r="G94" s="35" t="s">
+      <c r="D94" s="45"/>
+      <c r="E94" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="45"/>
+      <c r="G94" s="40" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="32"/>
@@ -4642,8 +4646,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4941,28 +4945,30 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
+      <c r="A15" s="10" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="21" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="D15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="n">
@@ -5083,52 +5089,56 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="n">
+      <c r="A22" s="5" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="21" t="n">
+      <c r="B22" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="D22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="32"/>
+      <c r="H22" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="n">
+      <c r="A23" s="10" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="21" t="n">
+      <c r="B23" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="D23" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="n">
@@ -5981,21 +5991,21 @@
       <c r="H64" s="32"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="33" t="n">
+      <c r="A65" s="38" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="34" t="n">
+      <c r="B65" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="36"/>
-      <c r="G65" s="35" t="s">
+      <c r="D65" s="41"/>
+      <c r="E65" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="41"/>
+      <c r="G65" s="40" t="s">
         <v>41</v>
       </c>
       <c r="H65" s="32"/>
@@ -6008,7 +6018,7 @@
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="37"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -6033,7 +6043,7 @@
       <c r="B68" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="43" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="31"/>
@@ -6041,7 +6051,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="31"/>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="43" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="32"/>
@@ -6053,7 +6063,7 @@
       <c r="B69" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="43" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="31"/>
@@ -6061,7 +6071,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="31"/>
-      <c r="G69" s="38" t="s">
+      <c r="G69" s="43" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="32"/>
@@ -6073,7 +6083,7 @@
       <c r="B70" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="31"/>
@@ -6081,7 +6091,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="31"/>
-      <c r="G70" s="38" t="s">
+      <c r="G70" s="43" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="32"/>
@@ -6093,7 +6103,7 @@
       <c r="B71" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="43" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="31"/>
@@ -6101,7 +6111,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="31"/>
-      <c r="G71" s="38" t="s">
+      <c r="G71" s="43" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="32"/>
@@ -6113,7 +6123,7 @@
       <c r="B72" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="43" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="31"/>
@@ -6121,67 +6131,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="31"/>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="43" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="32"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="33" t="n">
+      <c r="A73" s="38" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="39" t="s">
+      <c r="B73" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="36"/>
-      <c r="G73" s="39" t="s">
+      <c r="D73" s="41"/>
+      <c r="E73" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="41"/>
+      <c r="G73" s="44" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="32"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="33" t="n">
+      <c r="A74" s="38" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="34" t="n">
+      <c r="B74" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="36"/>
-      <c r="E74" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="36"/>
-      <c r="G74" s="39" t="s">
+      <c r="D74" s="41"/>
+      <c r="E74" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="41"/>
+      <c r="G74" s="44" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="32"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="33" t="n">
+      <c r="A75" s="38" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="39" t="s">
+      <c r="B75" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="36"/>
-      <c r="G75" s="39" t="s">
+      <c r="D75" s="41"/>
+      <c r="E75" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="41"/>
+      <c r="G75" s="44" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="32"/>
@@ -6194,7 +6204,7 @@
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="37"/>
+      <c r="H76" s="42"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -6219,7 +6229,7 @@
       <c r="B78" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="31"/>
@@ -6227,7 +6237,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="31"/>
-      <c r="G78" s="38" t="s">
+      <c r="G78" s="43" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="32"/>
@@ -6239,7 +6249,7 @@
       <c r="B79" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="43" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="31"/>
@@ -6247,7 +6257,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="31"/>
-      <c r="G79" s="38" t="s">
+      <c r="G79" s="43" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="32"/>
@@ -6259,7 +6269,7 @@
       <c r="B80" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="43" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="31"/>
@@ -6267,7 +6277,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="31"/>
-      <c r="G80" s="38" t="s">
+      <c r="G80" s="43" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="32"/>
@@ -6279,7 +6289,7 @@
       <c r="B81" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="43" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="31"/>
@@ -6287,7 +6297,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="31"/>
-      <c r="G81" s="38" t="s">
+      <c r="G81" s="43" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="32"/>
@@ -6300,7 +6310,7 @@
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
-      <c r="H82" s="37"/>
+      <c r="H82" s="42"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -6325,7 +6335,7 @@
       <c r="B84" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="43" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="31"/>
@@ -6333,7 +6343,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="31"/>
-      <c r="G84" s="38" t="s">
+      <c r="G84" s="43" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="32"/>
@@ -6345,7 +6355,7 @@
       <c r="B85" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="43" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="31"/>
@@ -6353,7 +6363,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="31"/>
-      <c r="G85" s="38" t="s">
+      <c r="G85" s="43" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="32"/>
@@ -6366,7 +6376,7 @@
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
       <c r="G86" s="22"/>
-      <c r="H86" s="37"/>
+      <c r="H86" s="42"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -6391,7 +6401,7 @@
       <c r="B88" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="43" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="31"/>
@@ -6399,7 +6409,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="31"/>
-      <c r="G88" s="38" t="s">
+      <c r="G88" s="43" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="32"/>
@@ -6412,7 +6422,7 @@
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
-      <c r="H89" s="37"/>
+      <c r="H89" s="42"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -6437,7 +6447,7 @@
       <c r="B91" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="31"/>
@@ -6445,7 +6455,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="31"/>
-      <c r="G91" s="38" t="s">
+      <c r="G91" s="43" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="32"/>
@@ -6483,15 +6493,15 @@
       <c r="B94" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="40"/>
-      <c r="G94" s="35" t="s">
+      <c r="D94" s="45"/>
+      <c r="E94" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="45"/>
+      <c r="G94" s="40" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="32"/>
@@ -6533,8 +6543,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O32" activeCellId="0" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6840,28 +6850,30 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
+      <c r="A15" s="10" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="21" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="31" t="n">
+      <c r="D15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="n">
@@ -6947,95 +6959,99 @@
       <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="41" t="n">
+      <c r="D20" s="13" t="n">
         <v>3</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="41" t="n">
+      <c r="F20" s="13" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="42" t="n">
+      <c r="H20" s="14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="43" t="n">
+      <c r="A21" s="33" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="44" t="n">
+      <c r="B21" s="34" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="45" t="s">
+      <c r="D21" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="47" t="n">
+      <c r="H21" s="37" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="n">
+      <c r="A22" s="5" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="21" t="n">
+      <c r="B22" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="D22" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="32"/>
+      <c r="H22" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="n">
+      <c r="A23" s="10" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="21" t="n">
+      <c r="B23" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="D23" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="n">
@@ -7636,28 +7652,28 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="43" t="n">
+      <c r="A52" s="33" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="44" t="n">
+      <c r="B52" s="34" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="45" t="s">
+      <c r="D52" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="49" t="n">
+      <c r="H52" s="37" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7934,25 +7950,25 @@
       <c r="H64" s="32"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="33" t="n">
+      <c r="A65" s="38" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="34" t="n">
+      <c r="B65" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="36" t="n">
-        <v>3</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="36" t="n">
+      <c r="D65" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="G65" s="35" t="s">
+      <c r="G65" s="40" t="s">
         <v>41</v>
       </c>
       <c r="H65" s="32"/>
@@ -7965,7 +7981,7 @@
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="37"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -7990,7 +8006,7 @@
       <c r="B68" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="43" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="31"/>
@@ -7998,7 +8014,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="31"/>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="43" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="32"/>
@@ -8010,7 +8026,7 @@
       <c r="B69" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="43" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="31"/>
@@ -8018,7 +8034,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="31"/>
-      <c r="G69" s="38" t="s">
+      <c r="G69" s="43" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="32"/>
@@ -8030,7 +8046,7 @@
       <c r="B70" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="31"/>
@@ -8038,7 +8054,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="31"/>
-      <c r="G70" s="38" t="s">
+      <c r="G70" s="43" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="32"/>
@@ -8050,7 +8066,7 @@
       <c r="B71" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="43" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="31"/>
@@ -8058,7 +8074,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="31"/>
-      <c r="G71" s="38" t="s">
+      <c r="G71" s="43" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="32"/>
@@ -8070,7 +8086,7 @@
       <c r="B72" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="43" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="31"/>
@@ -8078,67 +8094,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="31"/>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="43" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="32"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="33" t="n">
+      <c r="A73" s="38" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="39" t="s">
+      <c r="B73" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="36"/>
-      <c r="G73" s="39" t="s">
+      <c r="D73" s="41"/>
+      <c r="E73" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="41"/>
+      <c r="G73" s="44" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="32"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="33" t="n">
+      <c r="A74" s="38" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="34" t="n">
+      <c r="B74" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="36"/>
-      <c r="E74" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="36"/>
-      <c r="G74" s="39" t="s">
+      <c r="D74" s="41"/>
+      <c r="E74" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="41"/>
+      <c r="G74" s="44" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="32"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="33" t="n">
+      <c r="A75" s="38" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="39" t="s">
+      <c r="B75" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="36"/>
-      <c r="G75" s="39" t="s">
+      <c r="D75" s="41"/>
+      <c r="E75" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="41"/>
+      <c r="G75" s="44" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="32"/>
@@ -8151,7 +8167,7 @@
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="37"/>
+      <c r="H76" s="42"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -8176,7 +8192,7 @@
       <c r="B78" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="31"/>
@@ -8184,7 +8200,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="31"/>
-      <c r="G78" s="38" t="s">
+      <c r="G78" s="43" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="32"/>
@@ -8196,7 +8212,7 @@
       <c r="B79" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="43" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="31"/>
@@ -8204,7 +8220,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="31"/>
-      <c r="G79" s="38" t="s">
+      <c r="G79" s="43" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="32"/>
@@ -8216,7 +8232,7 @@
       <c r="B80" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="43" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="31"/>
@@ -8224,7 +8240,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="31"/>
-      <c r="G80" s="38" t="s">
+      <c r="G80" s="43" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="32"/>
@@ -8236,7 +8252,7 @@
       <c r="B81" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="43" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="31"/>
@@ -8244,7 +8260,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="31"/>
-      <c r="G81" s="38" t="s">
+      <c r="G81" s="43" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="32"/>
@@ -8257,7 +8273,7 @@
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
-      <c r="H82" s="37"/>
+      <c r="H82" s="42"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -8282,7 +8298,7 @@
       <c r="B84" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="43" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="31"/>
@@ -8290,7 +8306,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="31"/>
-      <c r="G84" s="38" t="s">
+      <c r="G84" s="43" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="32"/>
@@ -8302,7 +8318,7 @@
       <c r="B85" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="43" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="31"/>
@@ -8310,7 +8326,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="31"/>
-      <c r="G85" s="38" t="s">
+      <c r="G85" s="43" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="32"/>
@@ -8323,7 +8339,7 @@
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
       <c r="G86" s="22"/>
-      <c r="H86" s="37"/>
+      <c r="H86" s="42"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -8348,7 +8364,7 @@
       <c r="B88" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="43" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="31"/>
@@ -8356,7 +8372,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="31"/>
-      <c r="G88" s="38" t="s">
+      <c r="G88" s="43" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="32"/>
@@ -8369,7 +8385,7 @@
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
-      <c r="H89" s="37"/>
+      <c r="H89" s="42"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -8394,7 +8410,7 @@
       <c r="B91" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="31"/>
@@ -8402,7 +8418,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="31"/>
-      <c r="G91" s="38" t="s">
+      <c r="G91" s="43" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="32"/>
@@ -8440,15 +8456,15 @@
       <c r="B94" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="40"/>
-      <c r="G94" s="35" t="s">
+      <c r="D94" s="45"/>
+      <c r="E94" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="45"/>
+      <c r="G94" s="40" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="32"/>
@@ -8489,8 +8505,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8524,164 +8540,164 @@
       <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50" t="s">
+      <c r="A3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51" t="n">
+      <c r="A4" s="47" t="n">
         <v>43265</v>
       </c>
-      <c r="B4" s="52" t="n">
+      <c r="B4" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="54" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="53" t="s">
+      <c r="D4" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="54" t="n">
+      <c r="H4" s="50" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="n">
+      <c r="A5" s="47" t="n">
         <v>43266</v>
       </c>
-      <c r="B5" s="52" t="n">
+      <c r="B5" s="48" t="n">
         <v>0.375</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="54" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="53" t="s">
+      <c r="D5" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="54" t="n">
+      <c r="H5" s="50" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="55" t="n">
+      <c r="A6" s="51" t="n">
         <v>43270</v>
       </c>
-      <c r="B6" s="56" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="52" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="58" t="n">
+      <c r="H6" s="54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51" t="n">
+      <c r="A7" s="47" t="n">
         <v>43271</v>
       </c>
-      <c r="B7" s="52" t="n">
+      <c r="B7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="54" t="n">
+      <c r="H7" s="50" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="59" t="n">
+      <c r="A8" s="55" t="n">
         <v>43276</v>
       </c>
-      <c r="B8" s="60" t="n">
+      <c r="B8" s="56" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="61" t="s">
+      <c r="D8" s="58"/>
+      <c r="E8" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="58"/>
+      <c r="G8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="62"/>
+      <c r="H8" s="58"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="59" t="n">
+      <c r="A9" s="55" t="n">
         <v>43276</v>
       </c>
-      <c r="B9" s="60" t="n">
+      <c r="B9" s="56" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="61" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="58"/>
+      <c r="G9" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="62"/>
+      <c r="H9" s="58"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25"/>
@@ -8710,146 +8726,148 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="55" t="n">
+      <c r="A12" s="51" t="n">
         <v>43266</v>
       </c>
-      <c r="B12" s="56" t="n">
+      <c r="B12" s="52" t="n">
         <v>0.5</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="57" t="s">
+      <c r="D12" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="58" t="n">
+      <c r="H12" s="54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="55" t="n">
+      <c r="A13" s="51" t="n">
         <v>43266</v>
       </c>
-      <c r="B13" s="56" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C13" s="57" t="s">
+      <c r="B13" s="52" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C13" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="58" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="57" t="s">
+      <c r="D13" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="58" t="n">
+      <c r="H13" s="54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="51" t="n">
+      <c r="A14" s="47" t="n">
         <v>43271</v>
       </c>
-      <c r="B14" s="52" t="n">
+      <c r="B14" s="48" t="n">
         <v>0.375</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="53" t="s">
+      <c r="D14" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="54" t="n">
+      <c r="H14" s="50" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="59" t="n">
+      <c r="A15" s="47" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="60" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="61" t="s">
+      <c r="B15" s="48" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="62" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="61" t="s">
+      <c r="D15" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="50" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="62"/>
+      <c r="H15" s="50" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="59" t="n">
+      <c r="A16" s="55" t="n">
         <v>43276</v>
       </c>
-      <c r="B16" s="60" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C16" s="61" t="s">
+      <c r="B16" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="61" t="s">
+      <c r="D16" s="58"/>
+      <c r="E16" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="62"/>
+      <c r="H16" s="58"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="59" t="n">
+      <c r="A17" s="55" t="n">
         <v>43276</v>
       </c>
-      <c r="B17" s="60" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C17" s="61" t="s">
+      <c r="B17" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C17" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="61" t="s">
+      <c r="D17" s="58"/>
+      <c r="E17" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="G17" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="62"/>
+      <c r="H17" s="58"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26"/>
@@ -8878,144 +8896,148 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="51" t="n">
+      <c r="A20" s="47" t="n">
         <v>43267</v>
       </c>
-      <c r="B20" s="52" t="n">
+      <c r="B20" s="48" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="54" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="53" t="s">
+      <c r="D20" s="50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="54" t="n">
+      <c r="H20" s="50" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="55" t="n">
+      <c r="A21" s="51" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="56" t="n">
+      <c r="B21" s="52" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="57" t="s">
+      <c r="D21" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="58" t="n">
+      <c r="H21" s="54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="59" t="n">
+      <c r="A22" s="51" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="60" t="n">
+      <c r="B22" s="52" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="62" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="61" t="s">
+      <c r="D22" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="62"/>
+      <c r="H22" s="54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="59" t="n">
+      <c r="A23" s="47" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="60" t="n">
+      <c r="B23" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="62" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="61" t="s">
+      <c r="D23" s="50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="62"/>
+      <c r="H23" s="50" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="59" t="n">
+      <c r="A24" s="55" t="n">
         <v>43277</v>
       </c>
-      <c r="B24" s="60" t="n">
+      <c r="B24" s="56" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="61" t="s">
+      <c r="D24" s="58"/>
+      <c r="E24" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="62"/>
+      <c r="H24" s="58"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="59" t="n">
+      <c r="A25" s="55" t="n">
         <v>43277</v>
       </c>
-      <c r="B25" s="60" t="n">
+      <c r="B25" s="56" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="61" t="s">
+      <c r="D25" s="58"/>
+      <c r="E25" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="58"/>
+      <c r="G25" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="62"/>
+      <c r="H25" s="58"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="26"/>
@@ -9044,144 +9066,144 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="55" t="n">
+      <c r="A28" s="51" t="n">
         <v>43267</v>
       </c>
-      <c r="B28" s="56" t="n">
+      <c r="B28" s="52" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="58" t="n">
+      <c r="D28" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="E28" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="57" t="s">
+      <c r="E28" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="58" t="n">
+      <c r="H28" s="54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="63" t="n">
+      <c r="A29" s="59" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="64" t="n">
+      <c r="B29" s="60" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="65" t="s">
+      <c r="D29" s="62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="66" t="n">
+      <c r="H29" s="62" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="59" t="n">
+      <c r="A30" s="55" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="60" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="61" t="s">
+      <c r="B30" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="62" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="61" t="s">
+      <c r="D30" s="58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="62"/>
+      <c r="H30" s="58"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="59" t="n">
+      <c r="A31" s="55" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="60" t="n">
+      <c r="B31" s="56" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="62" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" s="61" t="s">
+      <c r="D31" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="62"/>
+      <c r="H31" s="58"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="59" t="n">
+      <c r="A32" s="55" t="n">
         <v>43277</v>
       </c>
-      <c r="B32" s="60" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C32" s="61" t="s">
+      <c r="B32" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C32" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="62"/>
-      <c r="G32" s="61" t="s">
+      <c r="D32" s="58"/>
+      <c r="E32" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="58"/>
+      <c r="G32" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="62"/>
+      <c r="H32" s="58"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="59" t="n">
+      <c r="A33" s="55" t="n">
         <v>43277</v>
       </c>
-      <c r="B33" s="60" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C33" s="61" t="s">
+      <c r="B33" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C33" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="61" t="s">
+      <c r="D33" s="58"/>
+      <c r="E33" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="58"/>
+      <c r="G33" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="62"/>
+      <c r="H33" s="58"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26"/>
@@ -9212,144 +9234,144 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="55" t="n">
+      <c r="A36" s="51" t="n">
         <v>43268</v>
       </c>
-      <c r="B36" s="56" t="n">
+      <c r="B36" s="52" t="n">
         <v>0.375</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="58" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="57" t="s">
+      <c r="D36" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="58" t="n">
+      <c r="H36" s="54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="55" t="n">
+      <c r="A37" s="51" t="n">
         <v>43268</v>
       </c>
-      <c r="B37" s="56" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="57" t="s">
+      <c r="B37" s="52" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="58" t="n">
+      <c r="D37" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="E37" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="57" t="s">
+      <c r="E37" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="58" t="n">
+      <c r="H37" s="54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="59" t="n">
+      <c r="A38" s="55" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="60" t="n">
+      <c r="B38" s="56" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="62" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="61" t="s">
+      <c r="D38" s="58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="62"/>
+      <c r="H38" s="58"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="59" t="n">
+      <c r="A39" s="55" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="60" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="61" t="s">
+      <c r="B39" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="61" t="s">
+      <c r="D39" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="62"/>
+      <c r="H39" s="58"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="59" t="n">
+      <c r="A40" s="55" t="n">
         <v>43278</v>
       </c>
-      <c r="B40" s="60" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C40" s="61" t="s">
+      <c r="B40" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C40" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="62"/>
-      <c r="E40" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="62"/>
-      <c r="G40" s="61" t="s">
+      <c r="D40" s="58"/>
+      <c r="E40" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="58"/>
+      <c r="G40" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="62"/>
+      <c r="H40" s="58"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="59" t="n">
+      <c r="A41" s="55" t="n">
         <v>43278</v>
       </c>
-      <c r="B41" s="60" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C41" s="61" t="s">
+      <c r="B41" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C41" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="62"/>
-      <c r="E41" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="62"/>
-      <c r="G41" s="61" t="s">
+      <c r="D41" s="58"/>
+      <c r="E41" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="58"/>
+      <c r="G41" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="62"/>
+      <c r="H41" s="58"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="26"/>
@@ -9378,144 +9400,144 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="55" t="n">
+      <c r="A44" s="51" t="n">
         <v>43268</v>
       </c>
-      <c r="B44" s="56" t="n">
+      <c r="B44" s="52" t="n">
         <v>0.5</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="58" t="n">
+      <c r="D44" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="57" t="s">
+      <c r="E44" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="58" t="n">
+      <c r="H44" s="54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="63" t="n">
+      <c r="A45" s="59" t="n">
         <v>43269</v>
       </c>
-      <c r="B45" s="64" t="n">
+      <c r="B45" s="60" t="n">
         <v>0.375</v>
       </c>
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="65" t="s">
+      <c r="D45" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="66" t="n">
+      <c r="H45" s="62" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="59" t="n">
+      <c r="A46" s="55" t="n">
         <v>43274</v>
       </c>
-      <c r="B46" s="60" t="n">
+      <c r="B46" s="56" t="n">
         <v>0.5</v>
       </c>
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="62" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" s="61" t="s">
+      <c r="D46" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="62"/>
+      <c r="H46" s="58"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="59" t="n">
+      <c r="A47" s="55" t="n">
         <v>43274</v>
       </c>
-      <c r="B47" s="60" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C47" s="61" t="s">
+      <c r="B47" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C47" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="62" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="61" t="s">
+      <c r="D47" s="58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="62"/>
+      <c r="H47" s="58"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="59" t="n">
+      <c r="A48" s="55" t="n">
         <v>43278</v>
       </c>
-      <c r="B48" s="60" t="n">
+      <c r="B48" s="56" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C48" s="61" t="s">
+      <c r="C48" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="62"/>
-      <c r="E48" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="62"/>
-      <c r="G48" s="61" t="s">
+      <c r="D48" s="58"/>
+      <c r="E48" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="58"/>
+      <c r="G48" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="62"/>
+      <c r="H48" s="58"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="59" t="n">
+      <c r="A49" s="55" t="n">
         <v>43278</v>
       </c>
-      <c r="B49" s="60" t="n">
+      <c r="B49" s="56" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="62"/>
-      <c r="G49" s="61" t="s">
+      <c r="D49" s="58"/>
+      <c r="E49" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="58"/>
+      <c r="G49" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="62"/>
+      <c r="H49" s="58"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="26"/>
@@ -9544,144 +9566,144 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="51" t="n">
+      <c r="A52" s="47" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="52" t="n">
+      <c r="B52" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="53" t="s">
+      <c r="C52" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="54" t="n">
+      <c r="D52" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="53" t="s">
+      <c r="E52" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="54" t="n">
+      <c r="H52" s="50" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="51" t="n">
+      <c r="A53" s="47" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="52" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="53" t="s">
+      <c r="B53" s="48" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="54" t="n">
-        <v>2</v>
-      </c>
-      <c r="G53" s="53" t="s">
+      <c r="D53" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="54" t="n">
+      <c r="H53" s="50" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="59" t="n">
+      <c r="A54" s="55" t="n">
         <v>43274</v>
       </c>
-      <c r="B54" s="60" t="n">
+      <c r="B54" s="56" t="n">
         <v>0.375</v>
       </c>
-      <c r="C54" s="61" t="s">
+      <c r="C54" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="62" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="61" t="s">
+      <c r="D54" s="58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="62"/>
+      <c r="H54" s="58"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="59" t="n">
+      <c r="A55" s="55" t="n">
         <v>43275</v>
       </c>
-      <c r="B55" s="60" t="n">
+      <c r="B55" s="56" t="n">
         <v>0.375</v>
       </c>
-      <c r="C55" s="61" t="s">
+      <c r="C55" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="61" t="s">
+      <c r="D55" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="62"/>
+      <c r="H55" s="58"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="59" t="n">
+      <c r="A56" s="55" t="n">
         <v>43279</v>
       </c>
-      <c r="B56" s="60" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C56" s="61" t="s">
+      <c r="B56" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C56" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="62"/>
-      <c r="E56" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="62"/>
-      <c r="G56" s="61" t="s">
+      <c r="D56" s="58"/>
+      <c r="E56" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="58"/>
+      <c r="G56" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="62"/>
+      <c r="H56" s="58"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="59" t="n">
+      <c r="A57" s="55" t="n">
         <v>43279</v>
       </c>
-      <c r="B57" s="60" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C57" s="61" t="s">
+      <c r="B57" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C57" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="62"/>
-      <c r="E57" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="62"/>
-      <c r="G57" s="61" t="s">
+      <c r="D57" s="58"/>
+      <c r="E57" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="58"/>
+      <c r="G57" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="62"/>
+      <c r="H57" s="58"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="26"/>
@@ -9710,144 +9732,144 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="55" t="n">
+      <c r="A60" s="51" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="56" t="n">
+      <c r="B60" s="52" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="57" t="s">
+      <c r="C60" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="58" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="57" t="s">
+      <c r="D60" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="58" t="n">
+      <c r="H60" s="54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="55" t="n">
+      <c r="A61" s="51" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="56" t="n">
+      <c r="B61" s="52" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="57" t="s">
+      <c r="C61" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="57" t="s">
+      <c r="D61" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="58" t="n">
+      <c r="H61" s="54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="59" t="n">
+      <c r="A62" s="55" t="n">
         <v>43275</v>
       </c>
-      <c r="B62" s="60" t="n">
+      <c r="B62" s="56" t="n">
         <v>0.5</v>
       </c>
-      <c r="C62" s="61" t="s">
+      <c r="C62" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="61" t="s">
+      <c r="D62" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="62"/>
+      <c r="H62" s="58"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="59" t="n">
+      <c r="A63" s="55" t="n">
         <v>43275</v>
       </c>
-      <c r="B63" s="60" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C63" s="61" t="s">
+      <c r="B63" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C63" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="62" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" s="61" t="s">
+      <c r="D63" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="62"/>
+      <c r="H63" s="58"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="59" t="n">
+      <c r="A64" s="55" t="n">
         <v>43279</v>
       </c>
-      <c r="B64" s="60" t="n">
+      <c r="B64" s="56" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C64" s="61" t="s">
+      <c r="C64" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="62"/>
-      <c r="E64" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="61" t="s">
+      <c r="D64" s="58"/>
+      <c r="E64" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="58"/>
+      <c r="G64" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="62"/>
+      <c r="H64" s="58"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="59" t="n">
+      <c r="A65" s="55" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="60" t="n">
+      <c r="B65" s="56" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="62"/>
-      <c r="G65" s="61" t="s">
+      <c r="D65" s="58"/>
+      <c r="E65" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="58"/>
+      <c r="G65" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="62"/>
+      <c r="H65" s="58"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="22"/>
@@ -9857,7 +9879,7 @@
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="37"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -9882,7 +9904,7 @@
       <c r="B68" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="43" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="31"/>
@@ -9890,7 +9912,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="31"/>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="43" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="32"/>
@@ -9902,7 +9924,7 @@
       <c r="B69" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="43" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="31"/>
@@ -9910,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="31"/>
-      <c r="G69" s="38" t="s">
+      <c r="G69" s="43" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="32"/>
@@ -9922,7 +9944,7 @@
       <c r="B70" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="31"/>
@@ -9930,7 +9952,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="31"/>
-      <c r="G70" s="38" t="s">
+      <c r="G70" s="43" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="32"/>
@@ -9942,7 +9964,7 @@
       <c r="B71" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="43" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="31"/>
@@ -9950,7 +9972,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="31"/>
-      <c r="G71" s="38" t="s">
+      <c r="G71" s="43" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="32"/>
@@ -9962,7 +9984,7 @@
       <c r="B72" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="43" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="31"/>
@@ -9970,67 +9992,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="31"/>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="43" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="32"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="33" t="n">
+      <c r="A73" s="38" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="39" t="s">
+      <c r="B73" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="36"/>
-      <c r="G73" s="39" t="s">
+      <c r="D73" s="41"/>
+      <c r="E73" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="41"/>
+      <c r="G73" s="44" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="32"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="33" t="n">
+      <c r="A74" s="38" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="34" t="n">
+      <c r="B74" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="36"/>
-      <c r="E74" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="36"/>
-      <c r="G74" s="39" t="s">
+      <c r="D74" s="41"/>
+      <c r="E74" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="41"/>
+      <c r="G74" s="44" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="32"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="33" t="n">
+      <c r="A75" s="38" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="39" t="s">
+      <c r="B75" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="36"/>
-      <c r="G75" s="39" t="s">
+      <c r="D75" s="41"/>
+      <c r="E75" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="41"/>
+      <c r="G75" s="44" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="32"/>
@@ -10043,7 +10065,7 @@
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="37"/>
+      <c r="H76" s="42"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -10068,7 +10090,7 @@
       <c r="B78" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="31"/>
@@ -10076,7 +10098,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="31"/>
-      <c r="G78" s="38" t="s">
+      <c r="G78" s="43" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="32"/>
@@ -10088,7 +10110,7 @@
       <c r="B79" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="43" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="31"/>
@@ -10096,7 +10118,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="31"/>
-      <c r="G79" s="38" t="s">
+      <c r="G79" s="43" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="32"/>
@@ -10108,7 +10130,7 @@
       <c r="B80" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="43" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="31"/>
@@ -10116,7 +10138,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="31"/>
-      <c r="G80" s="38" t="s">
+      <c r="G80" s="43" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="32"/>
@@ -10128,7 +10150,7 @@
       <c r="B81" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="43" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="31"/>
@@ -10136,7 +10158,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="31"/>
-      <c r="G81" s="38" t="s">
+      <c r="G81" s="43" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="32"/>
@@ -10149,7 +10171,7 @@
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
-      <c r="H82" s="37"/>
+      <c r="H82" s="42"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -10174,7 +10196,7 @@
       <c r="B84" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="43" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="31"/>
@@ -10182,7 +10204,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="31"/>
-      <c r="G84" s="38" t="s">
+      <c r="G84" s="43" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="32"/>
@@ -10194,7 +10216,7 @@
       <c r="B85" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="43" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="31"/>
@@ -10202,7 +10224,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="31"/>
-      <c r="G85" s="38" t="s">
+      <c r="G85" s="43" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="32"/>
@@ -10215,7 +10237,7 @@
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
       <c r="G86" s="22"/>
-      <c r="H86" s="37"/>
+      <c r="H86" s="42"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -10240,7 +10262,7 @@
       <c r="B88" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="43" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="31"/>
@@ -10248,7 +10270,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="31"/>
-      <c r="G88" s="38" t="s">
+      <c r="G88" s="43" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="32"/>
@@ -10261,7 +10283,7 @@
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
-      <c r="H89" s="37"/>
+      <c r="H89" s="42"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -10286,7 +10308,7 @@
       <c r="B91" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="31"/>
@@ -10294,7 +10316,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="31"/>
-      <c r="G91" s="38" t="s">
+      <c r="G91" s="43" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="32"/>
@@ -10332,15 +10354,15 @@
       <c r="B94" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="40"/>
-      <c r="G94" s="35" t="s">
+      <c r="D94" s="45"/>
+      <c r="E94" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="45"/>
+      <c r="G94" s="40" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="32"/>
@@ -10381,8 +10403,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10680,28 +10702,30 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
+      <c r="A15" s="10" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="21" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="31" t="n">
+      <c r="D15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="n">
@@ -10822,52 +10846,56 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="n">
+      <c r="A22" s="5" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="21" t="n">
+      <c r="B22" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="D22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="32"/>
+      <c r="H22" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="n">
+      <c r="A23" s="10" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="21" t="n">
+      <c r="B23" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="D23" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="n">
@@ -11722,21 +11750,21 @@
       <c r="H64" s="32"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="33" t="n">
+      <c r="A65" s="38" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="34" t="n">
+      <c r="B65" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="36"/>
-      <c r="G65" s="35" t="s">
+      <c r="D65" s="41"/>
+      <c r="E65" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="41"/>
+      <c r="G65" s="40" t="s">
         <v>41</v>
       </c>
       <c r="H65" s="32"/>
@@ -11749,7 +11777,7 @@
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="37"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -11774,7 +11802,7 @@
       <c r="B68" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="43" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="31"/>
@@ -11782,7 +11810,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="31"/>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="43" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="32"/>
@@ -11794,7 +11822,7 @@
       <c r="B69" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="43" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="31"/>
@@ -11802,7 +11830,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="31"/>
-      <c r="G69" s="38" t="s">
+      <c r="G69" s="43" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="32"/>
@@ -11814,7 +11842,7 @@
       <c r="B70" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="31"/>
@@ -11822,7 +11850,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="31"/>
-      <c r="G70" s="38" t="s">
+      <c r="G70" s="43" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="32"/>
@@ -11834,7 +11862,7 @@
       <c r="B71" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="43" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="31"/>
@@ -11842,7 +11870,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="31"/>
-      <c r="G71" s="38" t="s">
+      <c r="G71" s="43" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="32"/>
@@ -11854,7 +11882,7 @@
       <c r="B72" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="43" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="31"/>
@@ -11862,67 +11890,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="31"/>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="43" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="32"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="33" t="n">
+      <c r="A73" s="38" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="39" t="s">
+      <c r="B73" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="36"/>
-      <c r="G73" s="39" t="s">
+      <c r="D73" s="41"/>
+      <c r="E73" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="41"/>
+      <c r="G73" s="44" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="32"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="33" t="n">
+      <c r="A74" s="38" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="34" t="n">
+      <c r="B74" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="36"/>
-      <c r="E74" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="36"/>
-      <c r="G74" s="39" t="s">
+      <c r="D74" s="41"/>
+      <c r="E74" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="41"/>
+      <c r="G74" s="44" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="32"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="33" t="n">
+      <c r="A75" s="38" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="39" t="s">
+      <c r="B75" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="36"/>
-      <c r="G75" s="39" t="s">
+      <c r="D75" s="41"/>
+      <c r="E75" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="41"/>
+      <c r="G75" s="44" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="32"/>
@@ -11935,7 +11963,7 @@
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="37"/>
+      <c r="H76" s="42"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -11960,7 +11988,7 @@
       <c r="B78" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="31"/>
@@ -11968,7 +11996,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="31"/>
-      <c r="G78" s="38" t="s">
+      <c r="G78" s="43" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="32"/>
@@ -11980,7 +12008,7 @@
       <c r="B79" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="43" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="31"/>
@@ -11988,7 +12016,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="31"/>
-      <c r="G79" s="38" t="s">
+      <c r="G79" s="43" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="32"/>
@@ -12000,7 +12028,7 @@
       <c r="B80" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="43" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="31"/>
@@ -12008,7 +12036,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="31"/>
-      <c r="G80" s="38" t="s">
+      <c r="G80" s="43" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="32"/>
@@ -12020,7 +12048,7 @@
       <c r="B81" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="43" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="31"/>
@@ -12028,7 +12056,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="31"/>
-      <c r="G81" s="38" t="s">
+      <c r="G81" s="43" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="32"/>
@@ -12041,7 +12069,7 @@
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
-      <c r="H82" s="37"/>
+      <c r="H82" s="42"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -12066,7 +12094,7 @@
       <c r="B84" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="43" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="31"/>
@@ -12074,7 +12102,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="31"/>
-      <c r="G84" s="38" t="s">
+      <c r="G84" s="43" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="32"/>
@@ -12086,7 +12114,7 @@
       <c r="B85" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="43" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="31"/>
@@ -12094,7 +12122,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="31"/>
-      <c r="G85" s="38" t="s">
+      <c r="G85" s="43" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="32"/>
@@ -12107,7 +12135,7 @@
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
       <c r="G86" s="22"/>
-      <c r="H86" s="37"/>
+      <c r="H86" s="42"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -12132,7 +12160,7 @@
       <c r="B88" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="43" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="31"/>
@@ -12140,7 +12168,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="31"/>
-      <c r="G88" s="38" t="s">
+      <c r="G88" s="43" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="32"/>
@@ -12153,7 +12181,7 @@
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
-      <c r="H89" s="37"/>
+      <c r="H89" s="42"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -12178,7 +12206,7 @@
       <c r="B91" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="31"/>
@@ -12186,7 +12214,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="31"/>
-      <c r="G91" s="38" t="s">
+      <c r="G91" s="43" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="32"/>
@@ -12224,15 +12252,15 @@
       <c r="B94" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="40"/>
-      <c r="G94" s="35" t="s">
+      <c r="D94" s="45"/>
+      <c r="E94" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="45"/>
+      <c r="G94" s="40" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="32"/>
@@ -12273,8 +12301,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12350,28 +12378,28 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="n">
+      <c r="A5" s="33" t="n">
         <v>43266</v>
       </c>
-      <c r="B5" s="44" t="n">
+      <c r="B5" s="34" t="n">
         <v>0.375</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="45" t="s">
+      <c r="D5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="49" t="n">
+      <c r="H5" s="37" t="n">
         <v>5</v>
       </c>
     </row>
@@ -12580,28 +12608,30 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
+      <c r="A15" s="10" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="21" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="D15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="n">
@@ -12730,52 +12760,56 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="n">
+      <c r="A22" s="5" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="21" t="n">
+      <c r="B22" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="D22" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="32"/>
+      <c r="H22" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="n">
+      <c r="A23" s="33" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="21" t="n">
+      <c r="B23" s="34" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="D23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="37" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="n">
@@ -12878,28 +12912,28 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="43" t="n">
+      <c r="A29" s="33" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="44" t="n">
+      <c r="B29" s="34" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="45" t="s">
+      <c r="D29" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="49" t="n">
+      <c r="H29" s="37" t="n">
         <v>5</v>
       </c>
     </row>
@@ -13376,28 +13410,28 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="43" t="n">
+      <c r="A52" s="33" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="44" t="n">
+      <c r="B52" s="34" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="45" t="s">
+      <c r="D52" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="49" t="n">
+      <c r="H52" s="37" t="n">
         <v>5</v>
       </c>
     </row>
@@ -13576,28 +13610,28 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="43" t="n">
+      <c r="A61" s="33" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="44" t="n">
+      <c r="B61" s="34" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="45" t="s">
+      <c r="C61" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G61" s="45" t="s">
+      <c r="D61" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="49" t="n">
+      <c r="H61" s="37" t="n">
         <v>5</v>
       </c>
     </row>
@@ -13674,25 +13708,25 @@
       <c r="H64" s="32"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="33" t="n">
+      <c r="A65" s="38" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="34" t="n">
+      <c r="B65" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="36" t="n">
-        <v>3</v>
-      </c>
-      <c r="G65" s="35" t="s">
+      <c r="D65" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" s="40" t="s">
         <v>41</v>
       </c>
       <c r="H65" s="32"/>
@@ -13705,7 +13739,7 @@
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="37"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -13730,7 +13764,7 @@
       <c r="B68" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="43" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="31"/>
@@ -13738,7 +13772,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="31"/>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="43" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="32"/>
@@ -13750,7 +13784,7 @@
       <c r="B69" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="43" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="31"/>
@@ -13758,7 +13792,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="31"/>
-      <c r="G69" s="38" t="s">
+      <c r="G69" s="43" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="32"/>
@@ -13770,7 +13804,7 @@
       <c r="B70" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="31"/>
@@ -13778,7 +13812,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="31"/>
-      <c r="G70" s="38" t="s">
+      <c r="G70" s="43" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="32"/>
@@ -13790,7 +13824,7 @@
       <c r="B71" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="43" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="31"/>
@@ -13798,7 +13832,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="31"/>
-      <c r="G71" s="38" t="s">
+      <c r="G71" s="43" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="32"/>
@@ -13810,7 +13844,7 @@
       <c r="B72" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="43" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="31"/>
@@ -13818,67 +13852,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="31"/>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="43" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="32"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="33" t="n">
+      <c r="A73" s="38" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="39" t="s">
+      <c r="B73" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="36"/>
-      <c r="G73" s="39" t="s">
+      <c r="D73" s="41"/>
+      <c r="E73" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="41"/>
+      <c r="G73" s="44" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="32"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="33" t="n">
+      <c r="A74" s="38" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="34" t="n">
+      <c r="B74" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="36"/>
-      <c r="E74" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="36"/>
-      <c r="G74" s="39" t="s">
+      <c r="D74" s="41"/>
+      <c r="E74" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="41"/>
+      <c r="G74" s="44" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="32"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="33" t="n">
+      <c r="A75" s="38" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="39" t="s">
+      <c r="B75" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="36"/>
-      <c r="G75" s="39" t="s">
+      <c r="D75" s="41"/>
+      <c r="E75" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="41"/>
+      <c r="G75" s="44" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="32"/>
@@ -13891,7 +13925,7 @@
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="37"/>
+      <c r="H76" s="42"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -13916,7 +13950,7 @@
       <c r="B78" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="31"/>
@@ -13924,7 +13958,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="31"/>
-      <c r="G78" s="38" t="s">
+      <c r="G78" s="43" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="32"/>
@@ -13936,7 +13970,7 @@
       <c r="B79" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="43" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="31"/>
@@ -13944,7 +13978,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="31"/>
-      <c r="G79" s="38" t="s">
+      <c r="G79" s="43" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="32"/>
@@ -13956,7 +13990,7 @@
       <c r="B80" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="43" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="31"/>
@@ -13964,7 +13998,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="31"/>
-      <c r="G80" s="38" t="s">
+      <c r="G80" s="43" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="32"/>
@@ -13976,7 +14010,7 @@
       <c r="B81" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="43" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="31"/>
@@ -13984,7 +14018,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="31"/>
-      <c r="G81" s="38" t="s">
+      <c r="G81" s="43" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="32"/>
@@ -13997,7 +14031,7 @@
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
-      <c r="H82" s="37"/>
+      <c r="H82" s="42"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -14022,7 +14056,7 @@
       <c r="B84" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="43" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="31"/>
@@ -14030,7 +14064,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="31"/>
-      <c r="G84" s="38" t="s">
+      <c r="G84" s="43" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="32"/>
@@ -14042,7 +14076,7 @@
       <c r="B85" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="43" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="31"/>
@@ -14050,7 +14084,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="31"/>
-      <c r="G85" s="38" t="s">
+      <c r="G85" s="43" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="32"/>
@@ -14063,7 +14097,7 @@
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
       <c r="G86" s="22"/>
-      <c r="H86" s="37"/>
+      <c r="H86" s="42"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -14088,7 +14122,7 @@
       <c r="B88" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="43" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="31"/>
@@ -14096,7 +14130,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="31"/>
-      <c r="G88" s="38" t="s">
+      <c r="G88" s="43" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="32"/>
@@ -14109,7 +14143,7 @@
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
-      <c r="H89" s="37"/>
+      <c r="H89" s="42"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -14134,7 +14168,7 @@
       <c r="B91" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="31"/>
@@ -14142,7 +14176,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="31"/>
-      <c r="G91" s="38" t="s">
+      <c r="G91" s="43" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="32"/>
@@ -14180,15 +14214,15 @@
       <c r="B94" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="40"/>
-      <c r="G94" s="35" t="s">
+      <c r="D94" s="45"/>
+      <c r="E94" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="45"/>
+      <c r="G94" s="40" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="32"/>
@@ -14229,7 +14263,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14279,7 +14313,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="67" t="n">
+      <c r="A4" s="63" t="n">
         <v>43265</v>
       </c>
       <c r="B4" s="11" t="n">
@@ -14305,7 +14339,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="67" t="n">
+      <c r="A5" s="63" t="n">
         <v>43266</v>
       </c>
       <c r="B5" s="11" t="n">
@@ -14331,7 +14365,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="67" t="n">
+      <c r="A6" s="63" t="n">
         <v>43270</v>
       </c>
       <c r="B6" s="11" t="n">
@@ -14357,7 +14391,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="67" t="n">
+      <c r="A7" s="63" t="n">
         <v>43271</v>
       </c>
       <c r="B7" s="11" t="n">
@@ -14383,7 +14417,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68" t="n">
+      <c r="A8" s="64" t="n">
         <v>43276</v>
       </c>
       <c r="B8" s="21" t="n">
@@ -14407,7 +14441,7 @@
       <c r="H8" s="32"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="68" t="n">
+      <c r="A9" s="64" t="n">
         <v>43276</v>
       </c>
       <c r="B9" s="21" t="n">
@@ -14431,8 +14465,8 @@
       <c r="H9" s="32"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14457,7 +14491,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="70" t="n">
+      <c r="A12" s="66" t="n">
         <v>43266</v>
       </c>
       <c r="B12" s="6" t="n">
@@ -14483,7 +14517,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="70" t="n">
+      <c r="A13" s="66" t="n">
         <v>43266</v>
       </c>
       <c r="B13" s="6" t="n">
@@ -14509,57 +14543,59 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="71" t="n">
+      <c r="A14" s="67" t="n">
         <v>43271</v>
       </c>
-      <c r="B14" s="44" t="n">
+      <c r="B14" s="34" t="n">
         <v>0.375</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="45" t="s">
+      <c r="D14" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="49" t="n">
+      <c r="H14" s="37" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="68" t="n">
+      <c r="A15" s="63" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="21" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="D15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="68" t="n">
+      <c r="A16" s="64" t="n">
         <v>43276</v>
       </c>
       <c r="B16" s="21" t="n">
@@ -14583,7 +14619,7 @@
       <c r="H16" s="32"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="68" t="n">
+      <c r="A17" s="64" t="n">
         <v>43276</v>
       </c>
       <c r="B17" s="21" t="n">
@@ -14633,7 +14669,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="67" t="n">
+      <c r="A20" s="63" t="n">
         <v>43267</v>
       </c>
       <c r="B20" s="11" t="n">
@@ -14659,81 +14695,85 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="71" t="n">
+      <c r="A21" s="67" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="44" t="n">
+      <c r="B21" s="34" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="45" t="s">
+      <c r="D21" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="49" t="n">
+      <c r="H21" s="37" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="68" t="n">
+      <c r="A22" s="66" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="21" t="n">
+      <c r="B22" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="D22" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="32"/>
+      <c r="H22" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="68" t="n">
+      <c r="A23" s="63" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="21" t="n">
+      <c r="B23" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="D23" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="68" t="n">
+      <c r="A24" s="64" t="n">
         <v>43277</v>
       </c>
       <c r="B24" s="21" t="n">
@@ -14757,7 +14797,7 @@
       <c r="H24" s="32"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="68" t="n">
+      <c r="A25" s="64" t="n">
         <v>43277</v>
       </c>
       <c r="B25" s="21" t="n">
@@ -14807,7 +14847,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="70" t="n">
+      <c r="A28" s="66" t="n">
         <v>43267</v>
       </c>
       <c r="B28" s="6" t="n">
@@ -14833,7 +14873,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="70" t="n">
+      <c r="A29" s="66" t="n">
         <v>43267</v>
       </c>
       <c r="B29" s="6" t="n">
@@ -14859,7 +14899,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="68" t="n">
+      <c r="A30" s="64" t="n">
         <v>43272</v>
       </c>
       <c r="B30" s="21" t="n">
@@ -14883,7 +14923,7 @@
       <c r="H30" s="32"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="68" t="n">
+      <c r="A31" s="64" t="n">
         <v>43273</v>
       </c>
       <c r="B31" s="21" t="n">
@@ -14907,7 +14947,7 @@
       <c r="H31" s="32"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="68" t="n">
+      <c r="A32" s="64" t="n">
         <v>43277</v>
       </c>
       <c r="B32" s="21" t="n">
@@ -14931,7 +14971,7 @@
       <c r="H32" s="32"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="68" t="n">
+      <c r="A33" s="64" t="n">
         <v>43277</v>
       </c>
       <c r="B33" s="21" t="n">
@@ -14983,7 +15023,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="70" t="n">
+      <c r="A36" s="66" t="n">
         <v>43268</v>
       </c>
       <c r="B36" s="6" t="n">
@@ -15009,7 +15049,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="70" t="n">
+      <c r="A37" s="66" t="n">
         <v>43268</v>
       </c>
       <c r="B37" s="6" t="n">
@@ -15035,7 +15075,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="68" t="n">
+      <c r="A38" s="64" t="n">
         <v>43273</v>
       </c>
       <c r="B38" s="21" t="n">
@@ -15059,7 +15099,7 @@
       <c r="H38" s="32"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="68" t="n">
+      <c r="A39" s="64" t="n">
         <v>43273</v>
       </c>
       <c r="B39" s="21" t="n">
@@ -15083,7 +15123,7 @@
       <c r="H39" s="32"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="68" t="n">
+      <c r="A40" s="64" t="n">
         <v>43278</v>
       </c>
       <c r="B40" s="21" t="n">
@@ -15107,7 +15147,7 @@
       <c r="H40" s="32"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="68" t="n">
+      <c r="A41" s="64" t="n">
         <v>43278</v>
       </c>
       <c r="B41" s="21" t="n">
@@ -15157,7 +15197,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="70" t="n">
+      <c r="A44" s="66" t="n">
         <v>43268</v>
       </c>
       <c r="B44" s="6" t="n">
@@ -15183,7 +15223,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="70" t="n">
+      <c r="A45" s="66" t="n">
         <v>43269</v>
       </c>
       <c r="B45" s="6" t="n">
@@ -15209,7 +15249,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="68" t="n">
+      <c r="A46" s="64" t="n">
         <v>43274</v>
       </c>
       <c r="B46" s="21" t="n">
@@ -15233,7 +15273,7 @@
       <c r="H46" s="32"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="68" t="n">
+      <c r="A47" s="64" t="n">
         <v>43274</v>
       </c>
       <c r="B47" s="21" t="n">
@@ -15257,7 +15297,7 @@
       <c r="H47" s="32"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="68" t="n">
+      <c r="A48" s="64" t="n">
         <v>43278</v>
       </c>
       <c r="B48" s="21" t="n">
@@ -15281,7 +15321,7 @@
       <c r="H48" s="32"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="68" t="n">
+      <c r="A49" s="64" t="n">
         <v>43278</v>
       </c>
       <c r="B49" s="21" t="n">
@@ -15331,7 +15371,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="67" t="n">
+      <c r="A52" s="63" t="n">
         <v>43269</v>
       </c>
       <c r="B52" s="11" t="n">
@@ -15357,7 +15397,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="67" t="n">
+      <c r="A53" s="63" t="n">
         <v>43269</v>
       </c>
       <c r="B53" s="11" t="n">
@@ -15383,7 +15423,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="68" t="n">
+      <c r="A54" s="64" t="n">
         <v>43274</v>
       </c>
       <c r="B54" s="21" t="n">
@@ -15407,7 +15447,7 @@
       <c r="H54" s="32"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="68" t="n">
+      <c r="A55" s="64" t="n">
         <v>43275</v>
       </c>
       <c r="B55" s="21" t="n">
@@ -15431,7 +15471,7 @@
       <c r="H55" s="32"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="68" t="n">
+      <c r="A56" s="64" t="n">
         <v>43279</v>
       </c>
       <c r="B56" s="21" t="n">
@@ -15455,7 +15495,7 @@
       <c r="H56" s="32"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="68" t="n">
+      <c r="A57" s="64" t="n">
         <v>43279</v>
       </c>
       <c r="B57" s="21" t="n">
@@ -15505,7 +15545,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="70" t="n">
+      <c r="A60" s="66" t="n">
         <v>43270</v>
       </c>
       <c r="B60" s="6" t="n">
@@ -15531,7 +15571,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="70" t="n">
+      <c r="A61" s="66" t="n">
         <v>43270</v>
       </c>
       <c r="B61" s="6" t="n">
@@ -15557,7 +15597,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="68" t="n">
+      <c r="A62" s="64" t="n">
         <v>43275</v>
       </c>
       <c r="B62" s="21" t="n">
@@ -15581,7 +15621,7 @@
       <c r="H62" s="32"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="68" t="n">
+      <c r="A63" s="64" t="n">
         <v>43275</v>
       </c>
       <c r="B63" s="21" t="n">
@@ -15605,7 +15645,7 @@
       <c r="H63" s="32"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="68" t="n">
+      <c r="A64" s="64" t="n">
         <v>43279</v>
       </c>
       <c r="B64" s="21" t="n">
@@ -15629,25 +15669,25 @@
       <c r="H64" s="32"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="72" t="n">
+      <c r="A65" s="68" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="34" t="n">
+      <c r="B65" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="35" t="s">
+      <c r="D65" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="40" t="s">
         <v>41</v>
       </c>
       <c r="H65" s="32"/>
@@ -15660,7 +15700,7 @@
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="37"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -15679,13 +15719,13 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="68" t="n">
+      <c r="A68" s="64" t="n">
         <v>43281</v>
       </c>
       <c r="B68" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="43" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="31"/>
@@ -15693,19 +15733,19 @@
         <v>5</v>
       </c>
       <c r="F68" s="31"/>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="43" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="32"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="68" t="n">
+      <c r="A69" s="64" t="n">
         <v>43281</v>
       </c>
       <c r="B69" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="43" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="31"/>
@@ -15713,19 +15753,19 @@
         <v>5</v>
       </c>
       <c r="F69" s="31"/>
-      <c r="G69" s="38" t="s">
+      <c r="G69" s="43" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="32"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="68" t="n">
+      <c r="A70" s="64" t="n">
         <v>43282</v>
       </c>
       <c r="B70" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="31"/>
@@ -15733,19 +15773,19 @@
         <v>5</v>
       </c>
       <c r="F70" s="31"/>
-      <c r="G70" s="38" t="s">
+      <c r="G70" s="43" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="32"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="68" t="n">
+      <c r="A71" s="64" t="n">
         <v>43282</v>
       </c>
       <c r="B71" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="43" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="31"/>
@@ -15753,19 +15793,19 @@
         <v>5</v>
       </c>
       <c r="F71" s="31"/>
-      <c r="G71" s="38" t="s">
+      <c r="G71" s="43" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="32"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="68" t="n">
+      <c r="A72" s="64" t="n">
         <v>43283</v>
       </c>
       <c r="B72" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="43" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="31"/>
@@ -15773,67 +15813,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="31"/>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="43" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="32"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="72" t="n">
+      <c r="A73" s="68" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="39" t="s">
+      <c r="B73" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="36"/>
-      <c r="G73" s="39" t="s">
+      <c r="D73" s="41"/>
+      <c r="E73" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="41"/>
+      <c r="G73" s="44" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="32"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="72" t="n">
+      <c r="A74" s="68" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="34" t="n">
+      <c r="B74" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="36"/>
-      <c r="E74" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="36"/>
-      <c r="G74" s="39" t="s">
+      <c r="D74" s="41"/>
+      <c r="E74" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="41"/>
+      <c r="G74" s="44" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="32"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="72" t="n">
+      <c r="A75" s="68" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="39" t="s">
+      <c r="B75" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="36"/>
-      <c r="G75" s="39" t="s">
+      <c r="D75" s="41"/>
+      <c r="E75" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="41"/>
+      <c r="G75" s="44" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="32"/>
@@ -15846,7 +15886,7 @@
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="37"/>
+      <c r="H76" s="42"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -15865,13 +15905,13 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="68" t="n">
+      <c r="A78" s="64" t="n">
         <v>43287</v>
       </c>
       <c r="B78" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="31"/>
@@ -15879,19 +15919,19 @@
         <v>5</v>
       </c>
       <c r="F78" s="31"/>
-      <c r="G78" s="38" t="s">
+      <c r="G78" s="43" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="32"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="68" t="n">
+      <c r="A79" s="64" t="n">
         <v>43287</v>
       </c>
       <c r="B79" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="43" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="31"/>
@@ -15899,19 +15939,19 @@
         <v>5</v>
       </c>
       <c r="F79" s="31"/>
-      <c r="G79" s="38" t="s">
+      <c r="G79" s="43" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="32"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="68" t="n">
+      <c r="A80" s="64" t="n">
         <v>43288</v>
       </c>
       <c r="B80" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="43" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="31"/>
@@ -15919,19 +15959,19 @@
         <v>5</v>
       </c>
       <c r="F80" s="31"/>
-      <c r="G80" s="38" t="s">
+      <c r="G80" s="43" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="32"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="68" t="n">
+      <c r="A81" s="64" t="n">
         <v>43288</v>
       </c>
       <c r="B81" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="43" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="31"/>
@@ -15939,7 +15979,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="31"/>
-      <c r="G81" s="38" t="s">
+      <c r="G81" s="43" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="32"/>
@@ -15952,7 +15992,7 @@
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
-      <c r="H82" s="37"/>
+      <c r="H82" s="42"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -15971,13 +16011,13 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="68" t="n">
+      <c r="A84" s="64" t="n">
         <v>43291</v>
       </c>
       <c r="B84" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="43" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="31"/>
@@ -15985,19 +16025,19 @@
         <v>5</v>
       </c>
       <c r="F84" s="31"/>
-      <c r="G84" s="38" t="s">
+      <c r="G84" s="43" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="32"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="68" t="n">
+      <c r="A85" s="64" t="n">
         <v>43292</v>
       </c>
       <c r="B85" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="43" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="31"/>
@@ -16005,7 +16045,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="31"/>
-      <c r="G85" s="38" t="s">
+      <c r="G85" s="43" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="32"/>
@@ -16018,7 +16058,7 @@
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
       <c r="G86" s="22"/>
-      <c r="H86" s="37"/>
+      <c r="H86" s="42"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -16037,13 +16077,13 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="68" t="n">
+      <c r="A88" s="64" t="n">
         <v>43295</v>
       </c>
       <c r="B88" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="43" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="31"/>
@@ -16051,7 +16091,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="31"/>
-      <c r="G88" s="38" t="s">
+      <c r="G88" s="43" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="32"/>
@@ -16064,7 +16104,7 @@
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
-      <c r="H89" s="37"/>
+      <c r="H89" s="42"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -16083,13 +16123,13 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="68" t="n">
+      <c r="A91" s="64" t="n">
         <v>43296</v>
       </c>
       <c r="B91" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="31"/>
@@ -16097,7 +16137,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="31"/>
-      <c r="G91" s="38" t="s">
+      <c r="G91" s="43" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="32"/>
@@ -16129,21 +16169,21 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="68" t="n">
+      <c r="A94" s="64" t="n">
         <v>43296</v>
       </c>
       <c r="B94" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="40"/>
-      <c r="G94" s="35" t="s">
+      <c r="D94" s="45"/>
+      <c r="E94" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="45"/>
+      <c r="G94" s="40" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="32"/>
@@ -16184,7 +16224,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+      <selection pane="topLeft" activeCell="Q32" activeCellId="0" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16490,28 +16530,30 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
+      <c r="A15" s="10" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="21" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="31" t="n">
+      <c r="D15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="n">
@@ -16640,52 +16682,56 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="n">
+      <c r="A22" s="5" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="21" t="n">
+      <c r="B22" s="6" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="D22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="32"/>
+      <c r="H22" s="9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="n">
+      <c r="A23" s="10" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="21" t="n">
+      <c r="B23" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="D23" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="n">
@@ -17584,25 +17630,25 @@
       <c r="H64" s="32"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="33" t="n">
+      <c r="A65" s="38" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="34" t="n">
+      <c r="B65" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G65" s="35" t="s">
+      <c r="D65" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" s="40" t="s">
         <v>41</v>
       </c>
       <c r="H65" s="32"/>
@@ -17615,7 +17661,7 @@
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="37"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -17640,7 +17686,7 @@
       <c r="B68" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="43" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="31"/>
@@ -17648,7 +17694,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="31"/>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="43" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="32"/>
@@ -17660,7 +17706,7 @@
       <c r="B69" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="43" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="31"/>
@@ -17668,7 +17714,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="31"/>
-      <c r="G69" s="38" t="s">
+      <c r="G69" s="43" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="32"/>
@@ -17680,7 +17726,7 @@
       <c r="B70" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="31"/>
@@ -17688,7 +17734,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="31"/>
-      <c r="G70" s="38" t="s">
+      <c r="G70" s="43" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="32"/>
@@ -17700,7 +17746,7 @@
       <c r="B71" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="43" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="31"/>
@@ -17708,7 +17754,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="31"/>
-      <c r="G71" s="38" t="s">
+      <c r="G71" s="43" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="32"/>
@@ -17720,7 +17766,7 @@
       <c r="B72" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="43" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="31"/>
@@ -17728,67 +17774,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="31"/>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="43" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="32"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="33" t="n">
+      <c r="A73" s="38" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="39" t="s">
+      <c r="B73" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="36"/>
-      <c r="G73" s="39" t="s">
+      <c r="D73" s="41"/>
+      <c r="E73" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="41"/>
+      <c r="G73" s="44" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="32"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="33" t="n">
+      <c r="A74" s="38" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="34" t="n">
+      <c r="B74" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="36"/>
-      <c r="E74" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="36"/>
-      <c r="G74" s="39" t="s">
+      <c r="D74" s="41"/>
+      <c r="E74" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="41"/>
+      <c r="G74" s="44" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="32"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="33" t="n">
+      <c r="A75" s="38" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="39" t="s">
+      <c r="B75" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="36"/>
-      <c r="G75" s="39" t="s">
+      <c r="D75" s="41"/>
+      <c r="E75" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="41"/>
+      <c r="G75" s="44" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="32"/>
@@ -17801,7 +17847,7 @@
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="37"/>
+      <c r="H76" s="42"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -17826,7 +17872,7 @@
       <c r="B78" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="31"/>
@@ -17834,7 +17880,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="31"/>
-      <c r="G78" s="38" t="s">
+      <c r="G78" s="43" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="32"/>
@@ -17846,7 +17892,7 @@
       <c r="B79" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="43" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="31"/>
@@ -17854,7 +17900,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="31"/>
-      <c r="G79" s="38" t="s">
+      <c r="G79" s="43" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="32"/>
@@ -17866,7 +17912,7 @@
       <c r="B80" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="43" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="31"/>
@@ -17874,7 +17920,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="31"/>
-      <c r="G80" s="38" t="s">
+      <c r="G80" s="43" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="32"/>
@@ -17886,7 +17932,7 @@
       <c r="B81" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="43" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="31"/>
@@ -17894,7 +17940,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="31"/>
-      <c r="G81" s="38" t="s">
+      <c r="G81" s="43" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="32"/>
@@ -17907,7 +17953,7 @@
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
-      <c r="H82" s="37"/>
+      <c r="H82" s="42"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -17932,7 +17978,7 @@
       <c r="B84" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="43" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="31"/>
@@ -17940,7 +17986,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="31"/>
-      <c r="G84" s="38" t="s">
+      <c r="G84" s="43" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="32"/>
@@ -17952,7 +17998,7 @@
       <c r="B85" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="43" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="31"/>
@@ -17960,7 +18006,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="31"/>
-      <c r="G85" s="38" t="s">
+      <c r="G85" s="43" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="32"/>
@@ -17973,7 +18019,7 @@
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
       <c r="G86" s="22"/>
-      <c r="H86" s="37"/>
+      <c r="H86" s="42"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -17998,7 +18044,7 @@
       <c r="B88" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="43" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="31"/>
@@ -18006,7 +18052,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="31"/>
-      <c r="G88" s="38" t="s">
+      <c r="G88" s="43" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="32"/>
@@ -18019,7 +18065,7 @@
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
-      <c r="H89" s="37"/>
+      <c r="H89" s="42"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -18044,7 +18090,7 @@
       <c r="B91" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="31"/>
@@ -18052,7 +18098,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="31"/>
-      <c r="G91" s="38" t="s">
+      <c r="G91" s="43" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="32"/>
@@ -18090,15 +18136,15 @@
       <c r="B94" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="40"/>
-      <c r="G94" s="35" t="s">
+      <c r="D94" s="45"/>
+      <c r="E94" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="45"/>
+      <c r="G94" s="40" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="32"/>
@@ -18139,7 +18185,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -18224,19 +18270,19 @@
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="41" t="n">
+      <c r="D5" s="69" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="41" t="n">
+      <c r="F5" s="69" t="n">
         <v>2</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="42" t="n">
+      <c r="H5" s="70" t="n">
         <v>3</v>
       </c>
     </row>
@@ -18445,28 +18491,30 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
+      <c r="A15" s="10" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="21" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="D15" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="n">
@@ -18552,95 +18600,99 @@
       <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="41" t="n">
+      <c r="D20" s="69" t="n">
         <v>3</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="41" t="n">
+      <c r="F20" s="69" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="42" t="n">
+      <c r="H20" s="70" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="43" t="n">
+      <c r="A21" s="33" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="44" t="n">
+      <c r="B21" s="34" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="45" t="s">
+      <c r="D21" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="49" t="n">
+      <c r="H21" s="37" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="n">
+      <c r="A22" s="10" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="21" t="n">
+      <c r="B22" s="11" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="D22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="32"/>
+      <c r="H22" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="n">
+      <c r="A23" s="10" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="21" t="n">
+      <c r="B23" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="D23" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="n">
@@ -18743,28 +18795,28 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="43" t="n">
+      <c r="A29" s="33" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="44" t="n">
+      <c r="B29" s="34" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="45" t="s">
+      <c r="D29" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="49" t="n">
+      <c r="H29" s="37" t="n">
         <v>5</v>
       </c>
     </row>
@@ -19241,28 +19293,28 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="43" t="n">
+      <c r="A52" s="33" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="44" t="n">
+      <c r="B52" s="34" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="45" t="s">
+      <c r="D52" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="49" t="n">
+      <c r="H52" s="37" t="n">
         <v>5</v>
       </c>
     </row>
@@ -19539,25 +19591,25 @@
       <c r="H64" s="32"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="33" t="n">
+      <c r="A65" s="38" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="34" t="n">
+      <c r="B65" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G65" s="35" t="s">
+      <c r="D65" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" s="40" t="s">
         <v>41</v>
       </c>
       <c r="H65" s="32"/>
@@ -19570,7 +19622,7 @@
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="37"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -19595,7 +19647,7 @@
       <c r="B68" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="43" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="31"/>
@@ -19603,7 +19655,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="31"/>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="43" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="32"/>
@@ -19615,7 +19667,7 @@
       <c r="B69" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="43" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="31"/>
@@ -19623,7 +19675,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="31"/>
-      <c r="G69" s="38" t="s">
+      <c r="G69" s="43" t="s">
         <v>49</v>
       </c>
       <c r="H69" s="32"/>
@@ -19635,7 +19687,7 @@
       <c r="B70" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="31"/>
@@ -19643,7 +19695,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="31"/>
-      <c r="G70" s="38" t="s">
+      <c r="G70" s="43" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="32"/>
@@ -19655,7 +19707,7 @@
       <c r="B71" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="43" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="31"/>
@@ -19663,7 +19715,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="31"/>
-      <c r="G71" s="38" t="s">
+      <c r="G71" s="43" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="32"/>
@@ -19675,7 +19727,7 @@
       <c r="B72" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="43" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="31"/>
@@ -19683,67 +19735,67 @@
         <v>5</v>
       </c>
       <c r="F72" s="31"/>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="43" t="s">
         <v>55</v>
       </c>
       <c r="H72" s="32"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="33" t="n">
+      <c r="A73" s="38" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="39" t="s">
+      <c r="B73" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="36"/>
-      <c r="G73" s="39" t="s">
+      <c r="D73" s="41"/>
+      <c r="E73" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="41"/>
+      <c r="G73" s="44" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="32"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="33" t="n">
+      <c r="A74" s="38" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="34" t="n">
+      <c r="B74" s="39" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="36"/>
-      <c r="E74" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="36"/>
-      <c r="G74" s="39" t="s">
+      <c r="D74" s="41"/>
+      <c r="E74" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="41"/>
+      <c r="G74" s="44" t="s">
         <v>59</v>
       </c>
       <c r="H74" s="32"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="33" t="n">
+      <c r="A75" s="38" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="34" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="39" t="s">
+      <c r="B75" s="39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="36"/>
-      <c r="G75" s="39" t="s">
+      <c r="D75" s="41"/>
+      <c r="E75" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="41"/>
+      <c r="G75" s="44" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="32"/>
@@ -19756,7 +19808,7 @@
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="37"/>
+      <c r="H76" s="42"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -19781,7 +19833,7 @@
       <c r="B78" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D78" s="31"/>
@@ -19789,7 +19841,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="31"/>
-      <c r="G78" s="38" t="s">
+      <c r="G78" s="43" t="s">
         <v>64</v>
       </c>
       <c r="H78" s="32"/>
@@ -19801,7 +19853,7 @@
       <c r="B79" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="43" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="31"/>
@@ -19809,7 +19861,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="31"/>
-      <c r="G79" s="38" t="s">
+      <c r="G79" s="43" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="32"/>
@@ -19821,7 +19873,7 @@
       <c r="B80" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="43" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="31"/>
@@ -19829,7 +19881,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="31"/>
-      <c r="G80" s="38" t="s">
+      <c r="G80" s="43" t="s">
         <v>68</v>
       </c>
       <c r="H80" s="32"/>
@@ -19841,7 +19893,7 @@
       <c r="B81" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="43" t="s">
         <v>69</v>
       </c>
       <c r="D81" s="31"/>
@@ -19849,7 +19901,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="31"/>
-      <c r="G81" s="38" t="s">
+      <c r="G81" s="43" t="s">
         <v>70</v>
       </c>
       <c r="H81" s="32"/>
@@ -19862,7 +19914,7 @@
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
-      <c r="H82" s="37"/>
+      <c r="H82" s="42"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -19887,7 +19939,7 @@
       <c r="B84" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="43" t="s">
         <v>72</v>
       </c>
       <c r="D84" s="31"/>
@@ -19895,7 +19947,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="31"/>
-      <c r="G84" s="38" t="s">
+      <c r="G84" s="43" t="s">
         <v>73</v>
       </c>
       <c r="H84" s="32"/>
@@ -19907,7 +19959,7 @@
       <c r="B85" s="21" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="43" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="31"/>
@@ -19915,7 +19967,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="31"/>
-      <c r="G85" s="38" t="s">
+      <c r="G85" s="43" t="s">
         <v>75</v>
       </c>
       <c r="H85" s="32"/>
@@ -19928,7 +19980,7 @@
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
       <c r="G86" s="22"/>
-      <c r="H86" s="37"/>
+      <c r="H86" s="42"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -19953,7 +20005,7 @@
       <c r="B88" s="21" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="43" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="31"/>
@@ -19961,7 +20013,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="31"/>
-      <c r="G88" s="38" t="s">
+      <c r="G88" s="43" t="s">
         <v>78</v>
       </c>
       <c r="H88" s="32"/>
@@ -19974,7 +20026,7 @@
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
-      <c r="H89" s="37"/>
+      <c r="H89" s="42"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -19999,7 +20051,7 @@
       <c r="B91" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="31"/>
@@ -20007,7 +20059,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="31"/>
-      <c r="G91" s="38" t="s">
+      <c r="G91" s="43" t="s">
         <v>81</v>
       </c>
       <c r="H91" s="32"/>
@@ -20045,15 +20097,15 @@
       <c r="B94" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="40"/>
-      <c r="G94" s="35" t="s">
+      <c r="D94" s="45"/>
+      <c r="E94" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="45"/>
+      <c r="G94" s="40" t="s">
         <v>81</v>
       </c>
       <c r="H94" s="32"/>

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -290,7 +290,7 @@
     <numFmt numFmtId="166" formatCode="H:MM;@"/>
     <numFmt numFmtId="167" formatCode="MM/DD"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -327,12 +327,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -515,15 +509,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -539,11 +533,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -559,11 +553,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -579,11 +573,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -599,11 +593,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -615,27 +609,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -651,11 +645,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -671,7 +665,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -679,19 +673,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -707,7 +709,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -723,7 +725,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -739,7 +741,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -755,7 +757,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -782,14 +784,6 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -871,7 +865,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -904,7 +898,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,28 +1480,30 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="n">
+      <c r="A30" s="6" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="22" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="23" t="s">
+      <c r="D30" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="33"/>
+      <c r="H30" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="n">
@@ -1654,28 +1650,30 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="n">
+      <c r="A38" s="34" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="22" t="n">
+      <c r="B38" s="35" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="23" t="s">
+      <c r="D38" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="33"/>
+      <c r="H38" s="38" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="n">
@@ -2772,8 +2770,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2799,7 +2797,7 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,28 +3379,30 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="n">
+      <c r="A30" s="6" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="22" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="23" t="s">
+      <c r="D30" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="33"/>
+      <c r="H30" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="n">
@@ -3549,28 +3549,30 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="n">
+      <c r="A38" s="11" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="22" t="n">
+      <c r="B38" s="12" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="32" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="23" t="s">
+      <c r="D38" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="33"/>
+      <c r="H38" s="15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="n">
@@ -4666,7 +4668,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4699,7 +4701,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5281,28 +5283,30 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="n">
+      <c r="A30" s="6" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="22" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="23" t="s">
+      <c r="D30" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="33"/>
+      <c r="H30" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="n">
@@ -5447,28 +5451,30 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="n">
+      <c r="A38" s="11" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="22" t="n">
+      <c r="B38" s="12" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="23" t="s">
+      <c r="D38" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="33"/>
+      <c r="H38" s="15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="n">
@@ -6566,7 +6572,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="L33" activeCellId="0" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6599,7 +6605,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7205,28 +7211,30 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="n">
+      <c r="A30" s="6" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="22" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="23" t="s">
+      <c r="D30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="33"/>
+      <c r="H30" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="n">
@@ -7381,28 +7389,30 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="n">
+      <c r="A38" s="11" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="22" t="n">
+      <c r="B38" s="12" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="32" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="23" t="s">
+      <c r="D38" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="33"/>
+      <c r="H38" s="48" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="n">
@@ -8531,7 +8541,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8564,168 +8574,168 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="s">
+      <c r="A3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="48" t="n">
+      <c r="A4" s="50" t="n">
         <v>43265</v>
       </c>
-      <c r="B4" s="49" t="n">
+      <c r="B4" s="51" t="n">
         <v>0.5</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="51" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="50" t="s">
+      <c r="D4" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="51" t="n">
+      <c r="H4" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48" t="n">
+      <c r="A5" s="50" t="n">
         <v>43266</v>
       </c>
-      <c r="B5" s="49" t="n">
+      <c r="B5" s="51" t="n">
         <v>0.375</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="51" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="50" t="s">
+      <c r="D5" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="51" t="n">
+      <c r="H5" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="n">
+      <c r="A6" s="54" t="n">
         <v>43270</v>
       </c>
-      <c r="B6" s="53" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="54" t="s">
+      <c r="B6" s="55" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="54" t="s">
+      <c r="D6" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="55" t="n">
+      <c r="H6" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="n">
+      <c r="A7" s="50" t="n">
         <v>43271</v>
       </c>
-      <c r="B7" s="49" t="n">
+      <c r="B7" s="51" t="n">
         <v>0.5</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="51" t="n">
+      <c r="H7" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="56" t="n">
+      <c r="A8" s="58" t="n">
         <v>43276</v>
       </c>
-      <c r="B8" s="57" t="n">
+      <c r="B8" s="59" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="58" t="s">
+      <c r="D8" s="61"/>
+      <c r="E8" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="61"/>
+      <c r="G8" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="59"/>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="56" t="n">
+      <c r="A9" s="58" t="n">
         <v>43276</v>
       </c>
-      <c r="B9" s="57" t="n">
+      <c r="B9" s="59" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="58" t="s">
+      <c r="D9" s="61"/>
+      <c r="E9" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="61"/>
+      <c r="G9" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="59"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="26"/>
@@ -8754,148 +8764,148 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="52" t="n">
+      <c r="A12" s="54" t="n">
         <v>43266</v>
       </c>
-      <c r="B12" s="53" t="n">
+      <c r="B12" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="54" t="s">
+      <c r="D12" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="55" t="n">
+      <c r="H12" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="52" t="n">
+      <c r="A13" s="54" t="n">
         <v>43266</v>
       </c>
-      <c r="B13" s="53" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C13" s="54" t="s">
+      <c r="B13" s="55" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C13" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="54" t="s">
+      <c r="D13" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="55" t="n">
+      <c r="H13" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="48" t="n">
+      <c r="A14" s="50" t="n">
         <v>43271</v>
       </c>
-      <c r="B14" s="49" t="n">
+      <c r="B14" s="51" t="n">
         <v>0.375</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="51" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="50" t="s">
+      <c r="D14" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="51" t="n">
+      <c r="H14" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="48" t="n">
+      <c r="A15" s="50" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="49" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="50" t="s">
+      <c r="B15" s="51" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="50" t="s">
+      <c r="D15" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="51" t="n">
+      <c r="H15" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="56" t="n">
+      <c r="A16" s="58" t="n">
         <v>43276</v>
       </c>
-      <c r="B16" s="57" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C16" s="58" t="s">
+      <c r="B16" s="59" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="58" t="s">
+      <c r="D16" s="61"/>
+      <c r="E16" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="61"/>
+      <c r="G16" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="59"/>
+      <c r="H16" s="61"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="56" t="n">
+      <c r="A17" s="58" t="n">
         <v>43276</v>
       </c>
-      <c r="B17" s="57" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C17" s="58" t="s">
+      <c r="B17" s="59" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C17" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="58" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="61"/>
+      <c r="G17" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="59"/>
+      <c r="H17" s="61"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="27"/>
@@ -8924,148 +8934,148 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="48" t="n">
+      <c r="A20" s="50" t="n">
         <v>43267</v>
       </c>
-      <c r="B20" s="49" t="n">
+      <c r="B20" s="51" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="50" t="s">
+      <c r="D20" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="51" t="n">
+      <c r="H20" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="52" t="n">
+      <c r="A21" s="54" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="53" t="n">
+      <c r="B21" s="55" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="54" t="s">
+      <c r="D21" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="55" t="n">
+      <c r="H21" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="52" t="n">
+      <c r="A22" s="54" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="53" t="n">
+      <c r="B22" s="55" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="54" t="s">
+      <c r="D22" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="55" t="n">
+      <c r="H22" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="48" t="n">
+      <c r="A23" s="50" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="49" t="n">
+      <c r="B23" s="51" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="50" t="s">
+      <c r="D23" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="51" t="n">
+      <c r="H23" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="56" t="n">
+      <c r="A24" s="58" t="n">
         <v>43277</v>
       </c>
-      <c r="B24" s="57" t="n">
+      <c r="B24" s="59" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="58" t="s">
+      <c r="D24" s="61"/>
+      <c r="E24" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="59"/>
+      <c r="H24" s="61"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="56" t="n">
+      <c r="A25" s="58" t="n">
         <v>43277</v>
       </c>
-      <c r="B25" s="57" t="n">
+      <c r="B25" s="59" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="59"/>
-      <c r="G25" s="58" t="s">
+      <c r="D25" s="61"/>
+      <c r="E25" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="61"/>
+      <c r="G25" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="59"/>
+      <c r="H25" s="61"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="27"/>
@@ -9094,144 +9104,146 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="52" t="n">
+      <c r="A28" s="54" t="n">
         <v>43267</v>
       </c>
-      <c r="B28" s="53" t="n">
+      <c r="B28" s="55" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="55" t="n">
+      <c r="D28" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="E28" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="54" t="s">
+      <c r="E28" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="55" t="n">
+      <c r="H28" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="60" t="n">
+      <c r="A29" s="62" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="61" t="n">
+      <c r="B29" s="63" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="63" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="62" t="s">
+      <c r="D29" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="63" t="n">
+      <c r="H29" s="65" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="56" t="n">
+      <c r="A30" s="54" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="57" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="58" t="s">
+      <c r="B30" s="55" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="59" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="58" t="s">
+      <c r="D30" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="59"/>
+      <c r="H30" s="57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="56" t="n">
+      <c r="A31" s="58" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="57" t="n">
+      <c r="B31" s="59" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="59" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" s="58" t="s">
+      <c r="D31" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="59"/>
+      <c r="H31" s="61"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="56" t="n">
+      <c r="A32" s="58" t="n">
         <v>43277</v>
       </c>
-      <c r="B32" s="57" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C32" s="58" t="s">
+      <c r="B32" s="59" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C32" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="59"/>
-      <c r="G32" s="58" t="s">
+      <c r="D32" s="61"/>
+      <c r="E32" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="61"/>
+      <c r="G32" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="59"/>
+      <c r="H32" s="61"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="56" t="n">
+      <c r="A33" s="58" t="n">
         <v>43277</v>
       </c>
-      <c r="B33" s="57" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C33" s="58" t="s">
+      <c r="B33" s="59" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C33" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="59"/>
-      <c r="G33" s="58" t="s">
+      <c r="D33" s="61"/>
+      <c r="E33" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="61"/>
+      <c r="G33" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="59"/>
+      <c r="H33" s="61"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="27"/>
@@ -9262,144 +9274,146 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="52" t="n">
+      <c r="A36" s="54" t="n">
         <v>43268</v>
       </c>
-      <c r="B36" s="53" t="n">
+      <c r="B36" s="55" t="n">
         <v>0.375</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="54" t="s">
+      <c r="D36" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="55" t="n">
+      <c r="H36" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="52" t="n">
+      <c r="A37" s="54" t="n">
         <v>43268</v>
       </c>
-      <c r="B37" s="53" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="54" t="s">
+      <c r="B37" s="55" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="55" t="n">
+      <c r="D37" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="E37" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="54" t="s">
+      <c r="E37" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="55" t="n">
+      <c r="H37" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="56" t="n">
+      <c r="A38" s="50" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="57" t="n">
+      <c r="B38" s="51" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="58" t="s">
+      <c r="D38" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="59"/>
+      <c r="H38" s="53" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="56" t="n">
+      <c r="A39" s="58" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="57" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="58" t="s">
+      <c r="B39" s="59" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="58" t="s">
+      <c r="D39" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="59"/>
+      <c r="H39" s="61"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="56" t="n">
+      <c r="A40" s="58" t="n">
         <v>43278</v>
       </c>
-      <c r="B40" s="57" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C40" s="58" t="s">
+      <c r="B40" s="59" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C40" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="59"/>
-      <c r="G40" s="58" t="s">
+      <c r="D40" s="61"/>
+      <c r="E40" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="61"/>
+      <c r="G40" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="59"/>
+      <c r="H40" s="61"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="56" t="n">
+      <c r="A41" s="58" t="n">
         <v>43278</v>
       </c>
-      <c r="B41" s="57" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C41" s="58" t="s">
+      <c r="B41" s="59" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C41" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="59"/>
-      <c r="G41" s="58" t="s">
+      <c r="D41" s="61"/>
+      <c r="E41" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="61"/>
+      <c r="G41" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="59"/>
+      <c r="H41" s="61"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="27"/>
@@ -9428,144 +9442,144 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="52" t="n">
+      <c r="A44" s="54" t="n">
         <v>43268</v>
       </c>
-      <c r="B44" s="53" t="n">
+      <c r="B44" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="55" t="n">
+      <c r="D44" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="54" t="s">
+      <c r="E44" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="55" t="n">
+      <c r="H44" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="60" t="n">
+      <c r="A45" s="62" t="n">
         <v>43269</v>
       </c>
-      <c r="B45" s="61" t="n">
+      <c r="B45" s="63" t="n">
         <v>0.375</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="62" t="s">
+      <c r="D45" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="63" t="n">
+      <c r="H45" s="65" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="56" t="n">
+      <c r="A46" s="58" t="n">
         <v>43274</v>
       </c>
-      <c r="B46" s="57" t="n">
+      <c r="B46" s="59" t="n">
         <v>0.5</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="59" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" s="58" t="s">
+      <c r="D46" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="59"/>
+      <c r="H46" s="61"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="56" t="n">
+      <c r="A47" s="58" t="n">
         <v>43274</v>
       </c>
-      <c r="B47" s="57" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C47" s="58" t="s">
+      <c r="B47" s="59" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C47" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="59" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="58" t="s">
+      <c r="D47" s="61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="59"/>
+      <c r="H47" s="61"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="56" t="n">
+      <c r="A48" s="58" t="n">
         <v>43278</v>
       </c>
-      <c r="B48" s="57" t="n">
+      <c r="B48" s="59" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="59"/>
-      <c r="G48" s="58" t="s">
+      <c r="D48" s="61"/>
+      <c r="E48" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="61"/>
+      <c r="G48" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="59"/>
+      <c r="H48" s="61"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="56" t="n">
+      <c r="A49" s="58" t="n">
         <v>43278</v>
       </c>
-      <c r="B49" s="57" t="n">
+      <c r="B49" s="59" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="59"/>
-      <c r="G49" s="58" t="s">
+      <c r="D49" s="61"/>
+      <c r="E49" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="61"/>
+      <c r="G49" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="59"/>
+      <c r="H49" s="61"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="27"/>
@@ -9594,144 +9608,144 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="48" t="n">
+      <c r="A52" s="50" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="49" t="n">
+      <c r="B52" s="51" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="51" t="n">
+      <c r="D52" s="53" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="50" t="s">
+      <c r="E52" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="51" t="n">
+      <c r="H52" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="48" t="n">
+      <c r="A53" s="50" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="49" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="50" t="s">
+      <c r="B53" s="51" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="51" t="n">
-        <v>2</v>
-      </c>
-      <c r="G53" s="50" t="s">
+      <c r="D53" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="51" t="n">
+      <c r="H53" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="56" t="n">
+      <c r="A54" s="58" t="n">
         <v>43274</v>
       </c>
-      <c r="B54" s="57" t="n">
+      <c r="B54" s="59" t="n">
         <v>0.375</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="59" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="58" t="s">
+      <c r="D54" s="61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="59"/>
+      <c r="H54" s="61"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="56" t="n">
+      <c r="A55" s="58" t="n">
         <v>43275</v>
       </c>
-      <c r="B55" s="57" t="n">
+      <c r="B55" s="59" t="n">
         <v>0.375</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="58" t="s">
+      <c r="D55" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="59"/>
+      <c r="H55" s="61"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="56" t="n">
+      <c r="A56" s="58" t="n">
         <v>43279</v>
       </c>
-      <c r="B56" s="57" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C56" s="58" t="s">
+      <c r="B56" s="59" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C56" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="59"/>
-      <c r="E56" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="59"/>
-      <c r="G56" s="58" t="s">
+      <c r="D56" s="61"/>
+      <c r="E56" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="61"/>
+      <c r="G56" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="59"/>
+      <c r="H56" s="61"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="56" t="n">
+      <c r="A57" s="58" t="n">
         <v>43279</v>
       </c>
-      <c r="B57" s="57" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C57" s="58" t="s">
+      <c r="B57" s="59" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C57" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="59"/>
-      <c r="E57" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="59"/>
-      <c r="G57" s="58" t="s">
+      <c r="D57" s="61"/>
+      <c r="E57" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="61"/>
+      <c r="G57" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="59"/>
+      <c r="H57" s="61"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="27"/>
@@ -9760,144 +9774,144 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="52" t="n">
+      <c r="A60" s="54" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="53" t="n">
+      <c r="B60" s="55" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="54" t="s">
+      <c r="D60" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="55" t="n">
+      <c r="H60" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="52" t="n">
+      <c r="A61" s="54" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="53" t="n">
+      <c r="B61" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="54" t="s">
+      <c r="D61" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="55" t="n">
+      <c r="H61" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="56" t="n">
+      <c r="A62" s="58" t="n">
         <v>43275</v>
       </c>
-      <c r="B62" s="57" t="n">
+      <c r="B62" s="59" t="n">
         <v>0.5</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="C62" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="58" t="s">
+      <c r="D62" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="59"/>
+      <c r="H62" s="61"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="56" t="n">
+      <c r="A63" s="58" t="n">
         <v>43275</v>
       </c>
-      <c r="B63" s="57" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C63" s="58" t="s">
+      <c r="B63" s="59" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C63" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="59" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" s="58" t="s">
+      <c r="D63" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="59"/>
+      <c r="H63" s="61"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="56" t="n">
+      <c r="A64" s="58" t="n">
         <v>43279</v>
       </c>
-      <c r="B64" s="57" t="n">
+      <c r="B64" s="59" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="59"/>
-      <c r="E64" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="59"/>
-      <c r="G64" s="58" t="s">
+      <c r="D64" s="61"/>
+      <c r="E64" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="61"/>
+      <c r="G64" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="59"/>
+      <c r="H64" s="61"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="56" t="n">
+      <c r="A65" s="58" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="57" t="n">
+      <c r="B65" s="59" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="59"/>
-      <c r="E65" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="58" t="s">
+      <c r="D65" s="61"/>
+      <c r="E65" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="61"/>
+      <c r="G65" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="59"/>
+      <c r="H65" s="61"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="23"/>
@@ -10432,7 +10446,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="L33" activeCellId="0" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10465,7 +10479,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11047,28 +11061,30 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="n">
+      <c r="A30" s="11" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="22" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="12" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" s="23" t="s">
+      <c r="D30" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="33"/>
+      <c r="H30" s="15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="n">
@@ -11215,28 +11231,30 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="n">
+      <c r="A38" s="11" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="22" t="n">
+      <c r="B38" s="12" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="32" t="n">
+      <c r="D38" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="E38" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="23" t="s">
+      <c r="E38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="33"/>
+      <c r="H38" s="15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="n">
@@ -12332,8 +12350,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12366,7 +12384,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12972,28 +12990,30 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="n">
+      <c r="A30" s="6" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="22" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="23" t="s">
+      <c r="D30" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="33"/>
+      <c r="H30" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="n">
@@ -13148,28 +13168,30 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="n">
+      <c r="A38" s="11" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="22" t="n">
+      <c r="B38" s="12" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="32" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="23" t="s">
+      <c r="D38" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="33"/>
+      <c r="H38" s="15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="n">
@@ -14297,7 +14319,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14330,7 +14352,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14350,7 +14372,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64" t="n">
+      <c r="A4" s="66" t="n">
         <v>43265</v>
       </c>
       <c r="B4" s="12" t="n">
@@ -14376,7 +14398,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="64" t="n">
+      <c r="A5" s="66" t="n">
         <v>43266</v>
       </c>
       <c r="B5" s="12" t="n">
@@ -14402,7 +14424,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64" t="n">
+      <c r="A6" s="66" t="n">
         <v>43270</v>
       </c>
       <c r="B6" s="12" t="n">
@@ -14428,7 +14450,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="64" t="n">
+      <c r="A7" s="66" t="n">
         <v>43271</v>
       </c>
       <c r="B7" s="12" t="n">
@@ -14454,7 +14476,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="65" t="n">
+      <c r="A8" s="67" t="n">
         <v>43276</v>
       </c>
       <c r="B8" s="22" t="n">
@@ -14478,7 +14500,7 @@
       <c r="H8" s="33"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="65" t="n">
+      <c r="A9" s="67" t="n">
         <v>43276</v>
       </c>
       <c r="B9" s="22" t="n">
@@ -14502,8 +14524,8 @@
       <c r="H9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -14528,7 +14550,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="67" t="n">
+      <c r="A12" s="69" t="n">
         <v>43266</v>
       </c>
       <c r="B12" s="7" t="n">
@@ -14554,7 +14576,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="67" t="n">
+      <c r="A13" s="69" t="n">
         <v>43266</v>
       </c>
       <c r="B13" s="7" t="n">
@@ -14580,7 +14602,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="68" t="n">
+      <c r="A14" s="70" t="n">
         <v>43271</v>
       </c>
       <c r="B14" s="35" t="n">
@@ -14606,7 +14628,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="64" t="n">
+      <c r="A15" s="66" t="n">
         <v>43271</v>
       </c>
       <c r="B15" s="12" t="n">
@@ -14632,7 +14654,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="65" t="n">
+      <c r="A16" s="67" t="n">
         <v>43276</v>
       </c>
       <c r="B16" s="22" t="n">
@@ -14656,7 +14678,7 @@
       <c r="H16" s="33"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="65" t="n">
+      <c r="A17" s="67" t="n">
         <v>43276</v>
       </c>
       <c r="B17" s="22" t="n">
@@ -14706,7 +14728,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="64" t="n">
+      <c r="A20" s="66" t="n">
         <v>43267</v>
       </c>
       <c r="B20" s="12" t="n">
@@ -14732,7 +14754,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="68" t="n">
+      <c r="A21" s="70" t="n">
         <v>43267</v>
       </c>
       <c r="B21" s="35" t="n">
@@ -14758,7 +14780,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="67" t="n">
+      <c r="A22" s="69" t="n">
         <v>43272</v>
       </c>
       <c r="B22" s="7" t="n">
@@ -14784,7 +14806,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="64" t="n">
+      <c r="A23" s="66" t="n">
         <v>43272</v>
       </c>
       <c r="B23" s="12" t="n">
@@ -14810,7 +14832,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="65" t="n">
+      <c r="A24" s="67" t="n">
         <v>43277</v>
       </c>
       <c r="B24" s="22" t="n">
@@ -14834,7 +14856,7 @@
       <c r="H24" s="33"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="65" t="n">
+      <c r="A25" s="67" t="n">
         <v>43277</v>
       </c>
       <c r="B25" s="22" t="n">
@@ -14884,7 +14906,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="67" t="n">
+      <c r="A28" s="69" t="n">
         <v>43267</v>
       </c>
       <c r="B28" s="7" t="n">
@@ -14910,7 +14932,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="67" t="n">
+      <c r="A29" s="69" t="n">
         <v>43267</v>
       </c>
       <c r="B29" s="7" t="n">
@@ -14936,31 +14958,33 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="65" t="n">
+      <c r="A30" s="69" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="22" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="23" t="s">
+      <c r="D30" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="33"/>
+      <c r="H30" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="65" t="n">
+      <c r="A31" s="67" t="n">
         <v>43273</v>
       </c>
       <c r="B31" s="22" t="n">
@@ -14984,7 +15008,7 @@
       <c r="H31" s="33"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="65" t="n">
+      <c r="A32" s="67" t="n">
         <v>43277</v>
       </c>
       <c r="B32" s="22" t="n">
@@ -15008,7 +15032,7 @@
       <c r="H32" s="33"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="65" t="n">
+      <c r="A33" s="67" t="n">
         <v>43277</v>
       </c>
       <c r="B33" s="22" t="n">
@@ -15060,7 +15084,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="67" t="n">
+      <c r="A36" s="69" t="n">
         <v>43268</v>
       </c>
       <c r="B36" s="7" t="n">
@@ -15086,7 +15110,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="67" t="n">
+      <c r="A37" s="69" t="n">
         <v>43268</v>
       </c>
       <c r="B37" s="7" t="n">
@@ -15112,31 +15136,33 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="65" t="n">
+      <c r="A38" s="66" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="22" t="n">
+      <c r="B38" s="12" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="32" t="n">
+      <c r="D38" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="E38" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="23" t="s">
+      <c r="E38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="33"/>
+      <c r="H38" s="15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="65" t="n">
+      <c r="A39" s="67" t="n">
         <v>43273</v>
       </c>
       <c r="B39" s="22" t="n">
@@ -15160,7 +15186,7 @@
       <c r="H39" s="33"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="65" t="n">
+      <c r="A40" s="67" t="n">
         <v>43278</v>
       </c>
       <c r="B40" s="22" t="n">
@@ -15184,7 +15210,7 @@
       <c r="H40" s="33"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="65" t="n">
+      <c r="A41" s="67" t="n">
         <v>43278</v>
       </c>
       <c r="B41" s="22" t="n">
@@ -15234,7 +15260,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="67" t="n">
+      <c r="A44" s="69" t="n">
         <v>43268</v>
       </c>
       <c r="B44" s="7" t="n">
@@ -15260,7 +15286,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="67" t="n">
+      <c r="A45" s="69" t="n">
         <v>43269</v>
       </c>
       <c r="B45" s="7" t="n">
@@ -15286,7 +15312,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="65" t="n">
+      <c r="A46" s="67" t="n">
         <v>43274</v>
       </c>
       <c r="B46" s="22" t="n">
@@ -15310,7 +15336,7 @@
       <c r="H46" s="33"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="65" t="n">
+      <c r="A47" s="67" t="n">
         <v>43274</v>
       </c>
       <c r="B47" s="22" t="n">
@@ -15334,7 +15360,7 @@
       <c r="H47" s="33"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="65" t="n">
+      <c r="A48" s="67" t="n">
         <v>43278</v>
       </c>
       <c r="B48" s="22" t="n">
@@ -15358,7 +15384,7 @@
       <c r="H48" s="33"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="65" t="n">
+      <c r="A49" s="67" t="n">
         <v>43278</v>
       </c>
       <c r="B49" s="22" t="n">
@@ -15408,7 +15434,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="64" t="n">
+      <c r="A52" s="66" t="n">
         <v>43269</v>
       </c>
       <c r="B52" s="12" t="n">
@@ -15434,7 +15460,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="64" t="n">
+      <c r="A53" s="66" t="n">
         <v>43269</v>
       </c>
       <c r="B53" s="12" t="n">
@@ -15460,7 +15486,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="65" t="n">
+      <c r="A54" s="67" t="n">
         <v>43274</v>
       </c>
       <c r="B54" s="22" t="n">
@@ -15484,7 +15510,7 @@
       <c r="H54" s="33"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="65" t="n">
+      <c r="A55" s="67" t="n">
         <v>43275</v>
       </c>
       <c r="B55" s="22" t="n">
@@ -15508,7 +15534,7 @@
       <c r="H55" s="33"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="65" t="n">
+      <c r="A56" s="67" t="n">
         <v>43279</v>
       </c>
       <c r="B56" s="22" t="n">
@@ -15532,7 +15558,7 @@
       <c r="H56" s="33"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="65" t="n">
+      <c r="A57" s="67" t="n">
         <v>43279</v>
       </c>
       <c r="B57" s="22" t="n">
@@ -15582,7 +15608,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="67" t="n">
+      <c r="A60" s="69" t="n">
         <v>43270</v>
       </c>
       <c r="B60" s="7" t="n">
@@ -15608,7 +15634,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="67" t="n">
+      <c r="A61" s="69" t="n">
         <v>43270</v>
       </c>
       <c r="B61" s="7" t="n">
@@ -15634,7 +15660,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="65" t="n">
+      <c r="A62" s="67" t="n">
         <v>43275</v>
       </c>
       <c r="B62" s="22" t="n">
@@ -15658,7 +15684,7 @@
       <c r="H62" s="33"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="65" t="n">
+      <c r="A63" s="67" t="n">
         <v>43275</v>
       </c>
       <c r="B63" s="22" t="n">
@@ -15682,7 +15708,7 @@
       <c r="H63" s="33"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="65" t="n">
+      <c r="A64" s="67" t="n">
         <v>43279</v>
       </c>
       <c r="B64" s="22" t="n">
@@ -15706,7 +15732,7 @@
       <c r="H64" s="33"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="69" t="n">
+      <c r="A65" s="71" t="n">
         <v>43279</v>
       </c>
       <c r="B65" s="40" t="n">
@@ -15756,7 +15782,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="65" t="n">
+      <c r="A68" s="67" t="n">
         <v>43281</v>
       </c>
       <c r="B68" s="22" t="n">
@@ -15776,7 +15802,7 @@
       <c r="H68" s="33"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="65" t="n">
+      <c r="A69" s="67" t="n">
         <v>43281</v>
       </c>
       <c r="B69" s="22" t="n">
@@ -15796,7 +15822,7 @@
       <c r="H69" s="33"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="65" t="n">
+      <c r="A70" s="67" t="n">
         <v>43282</v>
       </c>
       <c r="B70" s="22" t="n">
@@ -15816,7 +15842,7 @@
       <c r="H70" s="33"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="65" t="n">
+      <c r="A71" s="67" t="n">
         <v>43282</v>
       </c>
       <c r="B71" s="22" t="n">
@@ -15836,7 +15862,7 @@
       <c r="H71" s="33"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="65" t="n">
+      <c r="A72" s="67" t="n">
         <v>43283</v>
       </c>
       <c r="B72" s="22" t="n">
@@ -15856,7 +15882,7 @@
       <c r="H72" s="33"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="69" t="n">
+      <c r="A73" s="71" t="n">
         <v>43283</v>
       </c>
       <c r="B73" s="40" t="n">
@@ -15876,7 +15902,7 @@
       <c r="H73" s="33"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="69" t="n">
+      <c r="A74" s="71" t="n">
         <v>43284</v>
       </c>
       <c r="B74" s="40" t="n">
@@ -15896,7 +15922,7 @@
       <c r="H74" s="33"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="69" t="n">
+      <c r="A75" s="71" t="n">
         <v>43284</v>
       </c>
       <c r="B75" s="40" t="n">
@@ -15942,7 +15968,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="65" t="n">
+      <c r="A78" s="67" t="n">
         <v>43287</v>
       </c>
       <c r="B78" s="22" t="n">
@@ -15962,7 +15988,7 @@
       <c r="H78" s="33"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="65" t="n">
+      <c r="A79" s="67" t="n">
         <v>43287</v>
       </c>
       <c r="B79" s="22" t="n">
@@ -15982,7 +16008,7 @@
       <c r="H79" s="33"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="65" t="n">
+      <c r="A80" s="67" t="n">
         <v>43288</v>
       </c>
       <c r="B80" s="22" t="n">
@@ -16002,7 +16028,7 @@
       <c r="H80" s="33"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="65" t="n">
+      <c r="A81" s="67" t="n">
         <v>43288</v>
       </c>
       <c r="B81" s="22" t="n">
@@ -16048,7 +16074,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="65" t="n">
+      <c r="A84" s="67" t="n">
         <v>43291</v>
       </c>
       <c r="B84" s="22" t="n">
@@ -16068,7 +16094,7 @@
       <c r="H84" s="33"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="65" t="n">
+      <c r="A85" s="67" t="n">
         <v>43292</v>
       </c>
       <c r="B85" s="22" t="n">
@@ -16114,7 +16140,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="65" t="n">
+      <c r="A88" s="67" t="n">
         <v>43295</v>
       </c>
       <c r="B88" s="22" t="n">
@@ -16160,7 +16186,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="65" t="n">
+      <c r="A91" s="67" t="n">
         <v>43296</v>
       </c>
       <c r="B91" s="22" t="n">
@@ -16206,7 +16232,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="65" t="n">
+      <c r="A94" s="67" t="n">
         <v>43296</v>
       </c>
       <c r="B94" s="22" t="n">
@@ -16260,8 +16286,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16287,7 +16313,7 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -16297,7 +16323,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16903,28 +16929,30 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="n">
+      <c r="A30" s="6" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="22" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="23" t="s">
+      <c r="D30" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="33"/>
+      <c r="H30" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="n">
@@ -17079,28 +17107,30 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="n">
+      <c r="A38" s="11" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="22" t="n">
+      <c r="B38" s="12" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="32" t="n">
+      <c r="D38" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="E38" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="23" t="s">
+      <c r="E38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="33"/>
+      <c r="H38" s="15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="n">
@@ -18228,7 +18258,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -18261,7 +18291,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18316,19 +18346,19 @@
       <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="70" t="n">
+      <c r="D5" s="47" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="70" t="n">
+      <c r="F5" s="47" t="n">
         <v>2</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="71" t="n">
+      <c r="H5" s="48" t="n">
         <v>3</v>
       </c>
     </row>
@@ -18646,19 +18676,19 @@
       <c r="C20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="70" t="n">
+      <c r="D20" s="47" t="n">
         <v>3</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="70" t="n">
+      <c r="F20" s="47" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="71" t="n">
+      <c r="H20" s="48" t="n">
         <v>3</v>
       </c>
     </row>
@@ -18867,28 +18897,30 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="n">
+      <c r="A30" s="6" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="22" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="23" t="s">
+      <c r="D30" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="33"/>
+      <c r="H30" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="n">
@@ -19043,28 +19075,30 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="n">
+      <c r="A38" s="11" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="22" t="n">
+      <c r="B38" s="12" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="32" t="n">
+      <c r="D38" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="E38" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="23" t="s">
+      <c r="E38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="33"/>
+      <c r="H38" s="15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="n">

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -865,7 +865,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1506,28 +1506,30 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="n">
+      <c r="A31" s="6" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="22" t="n">
+      <c r="B31" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="23" t="s">
+      <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="33"/>
+      <c r="H31" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="n">
@@ -1676,28 +1678,30 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="n">
+      <c r="A39" s="6" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="22" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="23" t="s">
+      <c r="D39" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="33"/>
+      <c r="H39" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="n">
@@ -2771,7 +2775,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3405,28 +3409,30 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="n">
+      <c r="A31" s="6" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="22" t="n">
+      <c r="B31" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="23" t="s">
+      <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="33"/>
+      <c r="H31" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="n">
@@ -3575,28 +3581,30 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="n">
+      <c r="A39" s="6" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="22" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="23" t="s">
+      <c r="D39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="33"/>
+      <c r="H39" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="n">
@@ -4668,7 +4676,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4701,7 +4709,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5309,28 +5317,30 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="n">
+      <c r="A31" s="6" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="22" t="n">
+      <c r="B31" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="23" t="s">
+      <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="33"/>
+      <c r="H31" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="n">
@@ -5477,28 +5487,30 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="n">
+      <c r="A39" s="11" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="22" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="12" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="23" t="s">
+      <c r="D39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="33"/>
+      <c r="H39" s="15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="n">
@@ -6572,7 +6584,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L33" activeCellId="0" sqref="L33"/>
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6605,7 +6617,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7237,28 +7249,30 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="n">
+      <c r="A31" s="6" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="22" t="n">
+      <c r="B31" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="23" t="s">
+      <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="33"/>
+      <c r="H31" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="n">
@@ -7415,28 +7429,30 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="n">
+      <c r="A39" s="6" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="22" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" s="23" t="s">
+      <c r="D39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="33"/>
+      <c r="H39" s="10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="n">
@@ -8541,7 +8557,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9182,28 +9198,30 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="58" t="n">
+      <c r="A31" s="54" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="59" t="n">
+      <c r="B31" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" s="60" t="s">
+      <c r="D31" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="61"/>
+      <c r="H31" s="57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="58" t="n">
@@ -9352,28 +9370,30 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="58" t="n">
+      <c r="A39" s="54" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="59" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="60" t="s">
+      <c r="B39" s="55" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="60" t="s">
+      <c r="D39" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="61"/>
+      <c r="H39" s="57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="58" t="n">
@@ -10446,7 +10466,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L33" activeCellId="0" sqref="L33"/>
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10479,7 +10499,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11087,28 +11107,30 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="n">
+      <c r="A31" s="6" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="22" t="n">
+      <c r="B31" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="23" t="s">
+      <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="33"/>
+      <c r="H31" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="n">
@@ -11257,28 +11279,30 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="n">
+      <c r="A39" s="11" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="22" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="12" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="23" t="s">
+      <c r="D39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="33"/>
+      <c r="H39" s="15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="n">
@@ -12351,7 +12375,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12384,7 +12408,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13016,28 +13040,30 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="n">
+      <c r="A31" s="11" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="22" t="n">
+      <c r="B31" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="23" t="s">
+      <c r="D31" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="33"/>
+      <c r="H31" s="48" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="n">
@@ -13194,28 +13220,30 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="n">
+      <c r="A39" s="34" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="22" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="35" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" s="23" t="s">
+      <c r="D39" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="33"/>
+      <c r="H39" s="38" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="n">
@@ -14318,8 +14346,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14352,7 +14380,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14984,28 +15012,30 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="67" t="n">
+      <c r="A31" s="69" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="22" t="n">
+      <c r="B31" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="23" t="s">
+      <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="33"/>
+      <c r="H31" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="67" t="n">
@@ -15162,28 +15192,30 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="67" t="n">
+      <c r="A39" s="70" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="22" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="35" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" s="23" t="s">
+      <c r="D39" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="33"/>
+      <c r="H39" s="38" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="67" t="n">
@@ -16287,7 +16319,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16313,7 +16345,7 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -16323,7 +16355,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16955,28 +16987,30 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="n">
+      <c r="A31" s="11" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="22" t="n">
+      <c r="B31" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="32" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="23" t="s">
+      <c r="D31" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="33"/>
+      <c r="H31" s="15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="n">
@@ -17133,28 +17167,30 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="n">
+      <c r="A39" s="6" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="22" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" s="23" t="s">
+      <c r="D39" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="33"/>
+      <c r="H39" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="n">
@@ -18258,7 +18294,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -18291,7 +18327,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18923,28 +18959,30 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="n">
+      <c r="A31" s="11" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="22" t="n">
+      <c r="B31" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="32" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="23" t="s">
+      <c r="D31" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="33"/>
+      <c r="H31" s="15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="n">
@@ -19101,28 +19139,30 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="n">
+      <c r="A39" s="6" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="22" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="32" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="23" t="s">
+      <c r="D39" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="33"/>
+      <c r="H39" s="10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="n">

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -284,11 +284,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM"/>
     <numFmt numFmtId="166" formatCode="H:MM;@"/>
-    <numFmt numFmtId="167" formatCode="MM/DD"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -496,7 +495,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -761,30 +760,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -862,18 +837,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H41" activeCellId="0" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,7 +873,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,7 +1818,9 @@
       <c r="G46" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="33"/>
+      <c r="H46" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="n">
@@ -2009,7 +1986,9 @@
       <c r="G54" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="33"/>
+      <c r="H54" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="n">
@@ -2759,7 +2738,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2774,16 +2753,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J51" activeCellId="0" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2801,7 +2780,7 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3746,7 +3725,9 @@
       <c r="G46" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="33"/>
+      <c r="H46" s="33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="n">
@@ -3912,7 +3893,9 @@
       <c r="G54" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="33"/>
+      <c r="H54" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="n">
@@ -4660,7 +4643,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4673,18 +4656,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K50" activeCellId="0" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4709,7 +4692,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5652,7 +5635,9 @@
       <c r="G46" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="33"/>
+      <c r="H46" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="n">
@@ -5818,7 +5803,9 @@
       <c r="G54" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="33"/>
+      <c r="H54" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="n">
@@ -6568,7 +6555,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6581,18 +6568,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K52" activeCellId="0" sqref="K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6617,7 +6604,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7602,7 +7589,9 @@
       <c r="G46" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="33"/>
+      <c r="H46" s="33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="n">
@@ -7776,7 +7765,9 @@
       <c r="G54" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="33"/>
+      <c r="H54" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="n">
@@ -8541,7 +8532,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8554,18 +8545,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K43" activeCellId="0" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8590,7 +8581,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9535,7 +9526,9 @@
       <c r="G46" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="61"/>
+      <c r="H46" s="61" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="58" t="n">
@@ -9701,7 +9694,9 @@
       <c r="G54" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="61"/>
+      <c r="H54" s="61" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="58" t="n">
@@ -10450,7 +10445,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10463,18 +10458,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H54" activeCellId="0" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10499,7 +10494,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11444,7 +11439,9 @@
       <c r="G46" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="33"/>
+      <c r="H46" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="n">
@@ -11610,7 +11607,9 @@
       <c r="G54" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="33"/>
+      <c r="H54" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="n">
@@ -12359,7 +12358,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -12374,16 +12373,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12408,7 +12407,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13393,7 +13392,9 @@
       <c r="G46" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="33"/>
+      <c r="H46" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="n">
@@ -13567,7 +13568,9 @@
       <c r="G54" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="33"/>
+      <c r="H54" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="n">
@@ -14331,7 +14334,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14346,16 +14349,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H54" activeCellId="0" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14380,7 +14383,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14400,7 +14403,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="66" t="n">
+      <c r="A4" s="11" t="n">
         <v>43265</v>
       </c>
       <c r="B4" s="12" t="n">
@@ -14426,7 +14429,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="66" t="n">
+      <c r="A5" s="11" t="n">
         <v>43266</v>
       </c>
       <c r="B5" s="12" t="n">
@@ -14452,7 +14455,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="66" t="n">
+      <c r="A6" s="11" t="n">
         <v>43270</v>
       </c>
       <c r="B6" s="12" t="n">
@@ -14478,7 +14481,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="66" t="n">
+      <c r="A7" s="11" t="n">
         <v>43271</v>
       </c>
       <c r="B7" s="12" t="n">
@@ -14504,7 +14507,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="67" t="n">
+      <c r="A8" s="21" t="n">
         <v>43276</v>
       </c>
       <c r="B8" s="22" t="n">
@@ -14528,7 +14531,7 @@
       <c r="H8" s="33"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="67" t="n">
+      <c r="A9" s="21" t="n">
         <v>43276</v>
       </c>
       <c r="B9" s="22" t="n">
@@ -14552,8 +14555,8 @@
       <c r="H9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -14578,7 +14581,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="69" t="n">
+      <c r="A12" s="6" t="n">
         <v>43266</v>
       </c>
       <c r="B12" s="7" t="n">
@@ -14604,7 +14607,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="69" t="n">
+      <c r="A13" s="6" t="n">
         <v>43266</v>
       </c>
       <c r="B13" s="7" t="n">
@@ -14630,7 +14633,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="70" t="n">
+      <c r="A14" s="34" t="n">
         <v>43271</v>
       </c>
       <c r="B14" s="35" t="n">
@@ -14656,7 +14659,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="66" t="n">
+      <c r="A15" s="11" t="n">
         <v>43271</v>
       </c>
       <c r="B15" s="12" t="n">
@@ -14682,7 +14685,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="67" t="n">
+      <c r="A16" s="21" t="n">
         <v>43276</v>
       </c>
       <c r="B16" s="22" t="n">
@@ -14706,7 +14709,7 @@
       <c r="H16" s="33"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="67" t="n">
+      <c r="A17" s="21" t="n">
         <v>43276</v>
       </c>
       <c r="B17" s="22" t="n">
@@ -14756,7 +14759,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="66" t="n">
+      <c r="A20" s="11" t="n">
         <v>43267</v>
       </c>
       <c r="B20" s="12" t="n">
@@ -14782,7 +14785,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="70" t="n">
+      <c r="A21" s="34" t="n">
         <v>43267</v>
       </c>
       <c r="B21" s="35" t="n">
@@ -14808,7 +14811,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="69" t="n">
+      <c r="A22" s="6" t="n">
         <v>43272</v>
       </c>
       <c r="B22" s="7" t="n">
@@ -14834,7 +14837,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="66" t="n">
+      <c r="A23" s="11" t="n">
         <v>43272</v>
       </c>
       <c r="B23" s="12" t="n">
@@ -14860,7 +14863,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="67" t="n">
+      <c r="A24" s="21" t="n">
         <v>43277</v>
       </c>
       <c r="B24" s="22" t="n">
@@ -14884,7 +14887,7 @@
       <c r="H24" s="33"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="67" t="n">
+      <c r="A25" s="21" t="n">
         <v>43277</v>
       </c>
       <c r="B25" s="22" t="n">
@@ -14934,7 +14937,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="69" t="n">
+      <c r="A28" s="6" t="n">
         <v>43267</v>
       </c>
       <c r="B28" s="7" t="n">
@@ -14960,7 +14963,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="69" t="n">
+      <c r="A29" s="6" t="n">
         <v>43267</v>
       </c>
       <c r="B29" s="7" t="n">
@@ -14986,7 +14989,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="69" t="n">
+      <c r="A30" s="6" t="n">
         <v>43272</v>
       </c>
       <c r="B30" s="7" t="n">
@@ -15012,7 +15015,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="69" t="n">
+      <c r="A31" s="6" t="n">
         <v>43273</v>
       </c>
       <c r="B31" s="7" t="n">
@@ -15038,7 +15041,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="67" t="n">
+      <c r="A32" s="21" t="n">
         <v>43277</v>
       </c>
       <c r="B32" s="22" t="n">
@@ -15062,7 +15065,7 @@
       <c r="H32" s="33"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="67" t="n">
+      <c r="A33" s="21" t="n">
         <v>43277</v>
       </c>
       <c r="B33" s="22" t="n">
@@ -15114,7 +15117,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="69" t="n">
+      <c r="A36" s="6" t="n">
         <v>43268</v>
       </c>
       <c r="B36" s="7" t="n">
@@ -15140,7 +15143,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="69" t="n">
+      <c r="A37" s="6" t="n">
         <v>43268</v>
       </c>
       <c r="B37" s="7" t="n">
@@ -15166,7 +15169,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="66" t="n">
+      <c r="A38" s="11" t="n">
         <v>43273</v>
       </c>
       <c r="B38" s="12" t="n">
@@ -15192,7 +15195,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="70" t="n">
+      <c r="A39" s="34" t="n">
         <v>43273</v>
       </c>
       <c r="B39" s="35" t="n">
@@ -15218,7 +15221,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="67" t="n">
+      <c r="A40" s="21" t="n">
         <v>43278</v>
       </c>
       <c r="B40" s="22" t="n">
@@ -15242,7 +15245,7 @@
       <c r="H40" s="33"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="67" t="n">
+      <c r="A41" s="21" t="n">
         <v>43278</v>
       </c>
       <c r="B41" s="22" t="n">
@@ -15292,7 +15295,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="69" t="n">
+      <c r="A44" s="6" t="n">
         <v>43268</v>
       </c>
       <c r="B44" s="7" t="n">
@@ -15318,7 +15321,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="69" t="n">
+      <c r="A45" s="6" t="n">
         <v>43269</v>
       </c>
       <c r="B45" s="7" t="n">
@@ -15344,7 +15347,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="67" t="n">
+      <c r="A46" s="21" t="n">
         <v>43274</v>
       </c>
       <c r="B46" s="22" t="n">
@@ -15365,10 +15368,12 @@
       <c r="G46" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="33"/>
+      <c r="H46" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="67" t="n">
+      <c r="A47" s="21" t="n">
         <v>43274</v>
       </c>
       <c r="B47" s="22" t="n">
@@ -15392,7 +15397,7 @@
       <c r="H47" s="33"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="67" t="n">
+      <c r="A48" s="21" t="n">
         <v>43278</v>
       </c>
       <c r="B48" s="22" t="n">
@@ -15416,7 +15421,7 @@
       <c r="H48" s="33"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="67" t="n">
+      <c r="A49" s="21" t="n">
         <v>43278</v>
       </c>
       <c r="B49" s="22" t="n">
@@ -15466,7 +15471,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="66" t="n">
+      <c r="A52" s="11" t="n">
         <v>43269</v>
       </c>
       <c r="B52" s="12" t="n">
@@ -15492,7 +15497,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="66" t="n">
+      <c r="A53" s="11" t="n">
         <v>43269</v>
       </c>
       <c r="B53" s="12" t="n">
@@ -15518,7 +15523,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="67" t="n">
+      <c r="A54" s="21" t="n">
         <v>43274</v>
       </c>
       <c r="B54" s="22" t="n">
@@ -15539,10 +15544,12 @@
       <c r="G54" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="33"/>
+      <c r="H54" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="67" t="n">
+      <c r="A55" s="21" t="n">
         <v>43275</v>
       </c>
       <c r="B55" s="22" t="n">
@@ -15566,7 +15573,7 @@
       <c r="H55" s="33"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="67" t="n">
+      <c r="A56" s="21" t="n">
         <v>43279</v>
       </c>
       <c r="B56" s="22" t="n">
@@ -15590,7 +15597,7 @@
       <c r="H56" s="33"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="67" t="n">
+      <c r="A57" s="21" t="n">
         <v>43279</v>
       </c>
       <c r="B57" s="22" t="n">
@@ -15640,7 +15647,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="69" t="n">
+      <c r="A60" s="6" t="n">
         <v>43270</v>
       </c>
       <c r="B60" s="7" t="n">
@@ -15666,7 +15673,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="69" t="n">
+      <c r="A61" s="6" t="n">
         <v>43270</v>
       </c>
       <c r="B61" s="7" t="n">
@@ -15692,7 +15699,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="67" t="n">
+      <c r="A62" s="21" t="n">
         <v>43275</v>
       </c>
       <c r="B62" s="22" t="n">
@@ -15716,7 +15723,7 @@
       <c r="H62" s="33"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="67" t="n">
+      <c r="A63" s="21" t="n">
         <v>43275</v>
       </c>
       <c r="B63" s="22" t="n">
@@ -15740,7 +15747,7 @@
       <c r="H63" s="33"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="67" t="n">
+      <c r="A64" s="21" t="n">
         <v>43279</v>
       </c>
       <c r="B64" s="22" t="n">
@@ -15764,7 +15771,7 @@
       <c r="H64" s="33"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="71" t="n">
+      <c r="A65" s="39" t="n">
         <v>43279</v>
       </c>
       <c r="B65" s="40" t="n">
@@ -15814,7 +15821,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="67" t="n">
+      <c r="A68" s="21" t="n">
         <v>43281</v>
       </c>
       <c r="B68" s="22" t="n">
@@ -15834,7 +15841,7 @@
       <c r="H68" s="33"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="67" t="n">
+      <c r="A69" s="21" t="n">
         <v>43281</v>
       </c>
       <c r="B69" s="22" t="n">
@@ -15854,7 +15861,7 @@
       <c r="H69" s="33"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="67" t="n">
+      <c r="A70" s="21" t="n">
         <v>43282</v>
       </c>
       <c r="B70" s="22" t="n">
@@ -15874,7 +15881,7 @@
       <c r="H70" s="33"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="67" t="n">
+      <c r="A71" s="21" t="n">
         <v>43282</v>
       </c>
       <c r="B71" s="22" t="n">
@@ -15894,7 +15901,7 @@
       <c r="H71" s="33"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="67" t="n">
+      <c r="A72" s="21" t="n">
         <v>43283</v>
       </c>
       <c r="B72" s="22" t="n">
@@ -15914,7 +15921,7 @@
       <c r="H72" s="33"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="71" t="n">
+      <c r="A73" s="39" t="n">
         <v>43283</v>
       </c>
       <c r="B73" s="40" t="n">
@@ -15934,7 +15941,7 @@
       <c r="H73" s="33"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="71" t="n">
+      <c r="A74" s="39" t="n">
         <v>43284</v>
       </c>
       <c r="B74" s="40" t="n">
@@ -15954,7 +15961,7 @@
       <c r="H74" s="33"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="71" t="n">
+      <c r="A75" s="39" t="n">
         <v>43284</v>
       </c>
       <c r="B75" s="40" t="n">
@@ -16000,7 +16007,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="67" t="n">
+      <c r="A78" s="21" t="n">
         <v>43287</v>
       </c>
       <c r="B78" s="22" t="n">
@@ -16020,7 +16027,7 @@
       <c r="H78" s="33"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="67" t="n">
+      <c r="A79" s="21" t="n">
         <v>43287</v>
       </c>
       <c r="B79" s="22" t="n">
@@ -16040,7 +16047,7 @@
       <c r="H79" s="33"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="67" t="n">
+      <c r="A80" s="21" t="n">
         <v>43288</v>
       </c>
       <c r="B80" s="22" t="n">
@@ -16060,7 +16067,7 @@
       <c r="H80" s="33"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="67" t="n">
+      <c r="A81" s="21" t="n">
         <v>43288</v>
       </c>
       <c r="B81" s="22" t="n">
@@ -16106,7 +16113,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="67" t="n">
+      <c r="A84" s="21" t="n">
         <v>43291</v>
       </c>
       <c r="B84" s="22" t="n">
@@ -16126,7 +16133,7 @@
       <c r="H84" s="33"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="67" t="n">
+      <c r="A85" s="21" t="n">
         <v>43292</v>
       </c>
       <c r="B85" s="22" t="n">
@@ -16172,7 +16179,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="67" t="n">
+      <c r="A88" s="21" t="n">
         <v>43295</v>
       </c>
       <c r="B88" s="22" t="n">
@@ -16218,7 +16225,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="67" t="n">
+      <c r="A91" s="21" t="n">
         <v>43296</v>
       </c>
       <c r="B91" s="22" t="n">
@@ -16264,7 +16271,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="67" t="n">
+      <c r="A94" s="21" t="n">
         <v>43296</v>
       </c>
       <c r="B94" s="22" t="n">
@@ -16303,7 +16310,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -16318,16 +16325,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H54" activeCellId="0" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16345,7 +16352,7 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -16355,7 +16362,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17340,7 +17347,9 @@
       <c r="G46" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="33"/>
+      <c r="H46" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="n">
@@ -17514,7 +17523,9 @@
       <c r="G54" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="33"/>
+      <c r="H54" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="n">
@@ -18278,7 +18289,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -18293,16 +18304,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K50" activeCellId="0" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18327,7 +18338,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19312,7 +19323,9 @@
       <c r="G46" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="33"/>
+      <c r="H46" s="33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="n">
@@ -19486,7 +19499,9 @@
       <c r="G54" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="33"/>
+      <c r="H54" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="n">
@@ -20250,7 +20265,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -840,7 +840,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H41" activeCellId="0" sqref="H41"/>
+      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -873,7 +873,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,7 +1844,9 @@
       <c r="G47" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="33"/>
+      <c r="H47" s="33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="n">
@@ -2012,7 +2014,9 @@
       <c r="G55" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="33"/>
+      <c r="H55" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="n">
@@ -2154,7 +2158,9 @@
       <c r="G62" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="33"/>
+      <c r="H62" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="n">
@@ -2178,7 +2184,9 @@
       <c r="G63" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="33"/>
+      <c r="H63" s="33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="n">
@@ -2753,8 +2761,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J51" activeCellId="0" sqref="J51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2780,7 +2788,7 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,7 +3927,9 @@
       <c r="G55" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="33"/>
+      <c r="H55" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="n">
@@ -4061,7 +4071,9 @@
       <c r="G62" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="33"/>
+      <c r="H62" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="n">
@@ -4085,7 +4097,9 @@
       <c r="G63" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="33"/>
+      <c r="H63" s="33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="n">
@@ -4659,7 +4673,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K50" activeCellId="0" sqref="K50"/>
+      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4692,7 +4706,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5661,7 +5675,9 @@
       <c r="G47" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="33"/>
+      <c r="H47" s="33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="n">
@@ -5829,7 +5845,9 @@
       <c r="G55" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="33"/>
+      <c r="H55" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="n">
@@ -5971,7 +5989,9 @@
       <c r="G62" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="33"/>
+      <c r="H62" s="33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="n">
@@ -5995,7 +6015,9 @@
       <c r="G63" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="33"/>
+      <c r="H63" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="n">
@@ -6571,7 +6593,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K52" activeCellId="0" sqref="K52"/>
+      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6604,7 +6626,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7615,7 +7637,9 @@
       <c r="G47" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="33"/>
+      <c r="H47" s="33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="n">
@@ -7791,7 +7815,9 @@
       <c r="G55" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="33"/>
+      <c r="H55" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="n">
@@ -7941,7 +7967,9 @@
       <c r="G62" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="33"/>
+      <c r="H62" s="33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="n">
@@ -7965,7 +7993,9 @@
       <c r="G63" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="33"/>
+      <c r="H63" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="n">
@@ -8548,7 +8578,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K43" activeCellId="0" sqref="K43"/>
+      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8581,7 +8611,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9552,7 +9582,9 @@
       <c r="G47" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="61"/>
+      <c r="H47" s="61" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="58" t="n">
@@ -9720,7 +9752,9 @@
       <c r="G55" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="61"/>
+      <c r="H55" s="61" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="58" t="n">
@@ -9862,7 +9896,9 @@
       <c r="G62" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="61"/>
+      <c r="H62" s="61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="58" t="n">
@@ -9886,7 +9922,9 @@
       <c r="G63" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="61"/>
+      <c r="H63" s="61" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="58" t="n">
@@ -10461,7 +10499,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H54" activeCellId="0" sqref="H54"/>
+      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10494,7 +10532,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11465,7 +11503,9 @@
       <c r="G47" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="33"/>
+      <c r="H47" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="n">
@@ -11633,7 +11673,9 @@
       <c r="G55" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="33"/>
+      <c r="H55" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="n">
@@ -11775,7 +11817,9 @@
       <c r="G62" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="33"/>
+      <c r="H62" s="33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="n">
@@ -11799,7 +11843,9 @@
       <c r="G63" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="33"/>
+      <c r="H63" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="n">
@@ -12374,7 +12420,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
+      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12407,7 +12453,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13418,7 +13464,9 @@
       <c r="G47" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="33"/>
+      <c r="H47" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="n">
@@ -13594,7 +13642,9 @@
       <c r="G55" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="33"/>
+      <c r="H55" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="n">
@@ -13744,7 +13794,9 @@
       <c r="G62" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="33"/>
+      <c r="H62" s="33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="n">
@@ -13768,7 +13820,9 @@
       <c r="G63" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="33"/>
+      <c r="H63" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="n">
@@ -14350,7 +14404,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H54" activeCellId="0" sqref="H54"/>
+      <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14383,7 +14437,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15394,7 +15448,9 @@
       <c r="G47" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="33"/>
+      <c r="H47" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="n">
@@ -15570,7 +15626,9 @@
       <c r="G55" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="33"/>
+      <c r="H55" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="n">
@@ -15720,7 +15778,9 @@
       <c r="G62" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="33"/>
+      <c r="H62" s="33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="n">
@@ -15744,7 +15804,9 @@
       <c r="G63" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="33"/>
+      <c r="H63" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="n">
@@ -16326,7 +16388,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H54" activeCellId="0" sqref="H54"/>
+      <selection pane="topLeft" activeCell="H65" activeCellId="0" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16352,7 +16414,7 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -16362,7 +16424,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17373,7 +17435,9 @@
       <c r="G47" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="33"/>
+      <c r="H47" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="n">
@@ -17549,7 +17613,9 @@
       <c r="G55" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="33"/>
+      <c r="H55" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="n">
@@ -17699,7 +17765,9 @@
       <c r="G62" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="33"/>
+      <c r="H62" s="33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="n">
@@ -17723,7 +17791,9 @@
       <c r="G63" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="33"/>
+      <c r="H63" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="n">
@@ -18305,7 +18375,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K50" activeCellId="0" sqref="K50"/>
+      <selection pane="topLeft" activeCell="H65" activeCellId="0" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18338,7 +18408,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19349,7 +19419,9 @@
       <c r="G47" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="33"/>
+      <c r="H47" s="33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="n">
@@ -19525,7 +19597,9 @@
       <c r="G55" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="33"/>
+      <c r="H55" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="n">
@@ -19675,7 +19749,9 @@
       <c r="G62" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="33"/>
+      <c r="H62" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="n">
@@ -19699,7 +19775,9 @@
       <c r="G63" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="33"/>
+      <c r="H63" s="33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="n">

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -2761,8 +2761,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G56" activeCellId="0" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2921,11 +2921,15 @@
       <c r="C8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="E8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="G8" s="23" t="s">
         <v>4</v>
       </c>
@@ -2941,11 +2945,15 @@
       <c r="C9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="32" t="n">
+        <v>3</v>
+      </c>
       <c r="G9" s="23" t="s">
         <v>7</v>
       </c>
@@ -3091,11 +3099,15 @@
       <c r="C16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="32"/>
+      <c r="D16" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="E16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="32"/>
+      <c r="F16" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="G16" s="23" t="s">
         <v>10</v>
       </c>
@@ -3111,11 +3123,15 @@
       <c r="C17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E17" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="32"/>
+      <c r="F17" s="32" t="n">
+        <v>3</v>
+      </c>
       <c r="G17" s="23" t="s">
         <v>12</v>
       </c>
@@ -3261,11 +3277,15 @@
       <c r="C24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E24" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="32"/>
+      <c r="F24" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G24" s="23" t="s">
         <v>15</v>
       </c>
@@ -3281,11 +3301,15 @@
       <c r="C25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E25" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="32"/>
+      <c r="F25" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="G25" s="23" t="s">
         <v>17</v>
       </c>
@@ -3431,11 +3455,15 @@
       <c r="C32" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E32" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="32"/>
+      <c r="F32" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G32" s="23" t="s">
         <v>22</v>
       </c>
@@ -3451,11 +3479,15 @@
       <c r="C33" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E33" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="32"/>
+      <c r="F33" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G33" s="23" t="s">
         <v>20</v>
       </c>
@@ -3603,11 +3635,15 @@
       <c r="C40" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E40" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="32"/>
+      <c r="F40" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G40" s="23" t="s">
         <v>28</v>
       </c>
@@ -3623,11 +3659,15 @@
       <c r="C41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E41" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="32"/>
+      <c r="F41" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="G41" s="23" t="s">
         <v>26</v>
       </c>
@@ -3771,11 +3811,15 @@
       <c r="C48" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E48" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="32"/>
+      <c r="F48" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="G48" s="23" t="s">
         <v>33</v>
       </c>
@@ -3791,11 +3835,15 @@
       <c r="C49" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="32"/>
+      <c r="D49" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E49" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="32"/>
+      <c r="F49" s="32" t="n">
+        <v>3</v>
+      </c>
       <c r="G49" s="23" t="s">
         <v>31</v>
       </c>
@@ -3941,11 +3989,15 @@
       <c r="C56" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="32"/>
+      <c r="D56" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="E56" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="32"/>
+      <c r="F56" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G56" s="23" t="s">
         <v>36</v>
       </c>
@@ -3961,11 +4013,15 @@
       <c r="C57" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="32"/>
+      <c r="D57" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E57" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="32"/>
+      <c r="F57" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G57" s="23" t="s">
         <v>38</v>
       </c>
@@ -4111,11 +4167,15 @@
       <c r="C64" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="32"/>
+      <c r="D64" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E64" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="32"/>
+      <c r="F64" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G64" s="23" t="s">
         <v>43</v>
       </c>
@@ -4131,11 +4191,15 @@
       <c r="C65" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="42"/>
+      <c r="D65" s="42" t="n">
+        <v>1</v>
+      </c>
       <c r="E65" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="42"/>
+      <c r="F65" s="42" t="n">
+        <v>3</v>
+      </c>
       <c r="G65" s="41" t="s">
         <v>41</v>
       </c>
@@ -4672,8 +4736,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D69" activeCellId="0" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4839,11 +4903,15 @@
       <c r="C8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G8" s="23" t="s">
         <v>4</v>
       </c>
@@ -4859,11 +4927,15 @@
       <c r="C9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G9" s="23" t="s">
         <v>7</v>
       </c>
@@ -5009,11 +5081,15 @@
       <c r="C16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="32"/>
+      <c r="D16" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="E16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="32"/>
+      <c r="F16" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="G16" s="23" t="s">
         <v>10</v>
       </c>
@@ -5029,11 +5105,15 @@
       <c r="C17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E17" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="32"/>
+      <c r="F17" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G17" s="23" t="s">
         <v>12</v>
       </c>
@@ -5179,11 +5259,15 @@
       <c r="C24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E24" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="32"/>
+      <c r="F24" s="32" t="n">
+        <v>3</v>
+      </c>
       <c r="G24" s="23" t="s">
         <v>15</v>
       </c>
@@ -5199,11 +5283,15 @@
       <c r="C25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E25" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="32"/>
+      <c r="F25" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G25" s="23" t="s">
         <v>17</v>
       </c>
@@ -5349,11 +5437,15 @@
       <c r="C32" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E32" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="32"/>
+      <c r="F32" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G32" s="23" t="s">
         <v>22</v>
       </c>
@@ -5369,11 +5461,15 @@
       <c r="C33" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E33" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="32"/>
+      <c r="F33" s="32" t="n">
+        <v>3</v>
+      </c>
       <c r="G33" s="23" t="s">
         <v>20</v>
       </c>
@@ -5519,11 +5615,15 @@
       <c r="C40" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E40" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="32"/>
+      <c r="F40" s="32" t="n">
+        <v>4</v>
+      </c>
       <c r="G40" s="23" t="s">
         <v>28</v>
       </c>
@@ -5539,11 +5639,15 @@
       <c r="C41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E41" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="32"/>
+      <c r="F41" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="G41" s="23" t="s">
         <v>26</v>
       </c>
@@ -5689,11 +5793,15 @@
       <c r="C48" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="E48" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="32"/>
+      <c r="F48" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G48" s="23" t="s">
         <v>33</v>
       </c>
@@ -5709,11 +5817,15 @@
       <c r="C49" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="32"/>
+      <c r="D49" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E49" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="32"/>
+      <c r="F49" s="32" t="n">
+        <v>4</v>
+      </c>
       <c r="G49" s="23" t="s">
         <v>31</v>
       </c>
@@ -5859,11 +5971,15 @@
       <c r="C56" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="32"/>
+      <c r="D56" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E56" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="32"/>
+      <c r="F56" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G56" s="23" t="s">
         <v>36</v>
       </c>
@@ -5879,11 +5995,15 @@
       <c r="C57" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="32"/>
+      <c r="D57" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E57" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="32"/>
+      <c r="F57" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G57" s="23" t="s">
         <v>38</v>
       </c>
@@ -6029,11 +6149,15 @@
       <c r="C64" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="32"/>
+      <c r="D64" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E64" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="32"/>
+      <c r="F64" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="G64" s="23" t="s">
         <v>43</v>
       </c>
@@ -6049,11 +6173,15 @@
       <c r="C65" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="42"/>
+      <c r="D65" s="42" t="n">
+        <v>1</v>
+      </c>
       <c r="E65" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="42"/>
+      <c r="F65" s="42" t="n">
+        <v>3</v>
+      </c>
       <c r="G65" s="41" t="s">
         <v>41</v>
       </c>

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -2761,8 +2761,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G56" activeCellId="0" sqref="G56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2921,15 +2921,11 @@
       <c r="C8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="D8" s="32"/>
       <c r="E8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="32" t="n">
-        <v>0</v>
-      </c>
+      <c r="F8" s="32"/>
       <c r="G8" s="23" t="s">
         <v>4</v>
       </c>
@@ -2945,15 +2941,11 @@
       <c r="C9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="32" t="n">
-        <v>1</v>
-      </c>
+      <c r="D9" s="32"/>
       <c r="E9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="32" t="n">
-        <v>3</v>
-      </c>
+      <c r="F9" s="32"/>
       <c r="G9" s="23" t="s">
         <v>7</v>
       </c>
@@ -3099,15 +3091,11 @@
       <c r="C16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="D16" s="32"/>
       <c r="E16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="32" t="n">
-        <v>0</v>
-      </c>
+      <c r="F16" s="32"/>
       <c r="G16" s="23" t="s">
         <v>10</v>
       </c>
@@ -3123,15 +3111,11 @@
       <c r="C17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="32" t="n">
-        <v>0</v>
-      </c>
+      <c r="D17" s="32"/>
       <c r="E17" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="32" t="n">
-        <v>3</v>
-      </c>
+      <c r="F17" s="32"/>
       <c r="G17" s="23" t="s">
         <v>12</v>
       </c>
@@ -3277,15 +3261,11 @@
       <c r="C24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="32" t="n">
-        <v>1</v>
-      </c>
+      <c r="D24" s="32"/>
       <c r="E24" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="F24" s="32"/>
       <c r="G24" s="23" t="s">
         <v>15</v>
       </c>
@@ -3301,15 +3281,11 @@
       <c r="C25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="32" t="n">
-        <v>1</v>
-      </c>
+      <c r="D25" s="32"/>
       <c r="E25" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="32" t="n">
-        <v>0</v>
-      </c>
+      <c r="F25" s="32"/>
       <c r="G25" s="23" t="s">
         <v>17</v>
       </c>
@@ -3455,15 +3431,11 @@
       <c r="C32" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="32" t="n">
-        <v>0</v>
-      </c>
+      <c r="D32" s="32"/>
       <c r="E32" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="F32" s="32"/>
       <c r="G32" s="23" t="s">
         <v>22</v>
       </c>
@@ -3479,15 +3451,11 @@
       <c r="C33" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="32" t="n">
-        <v>1</v>
-      </c>
+      <c r="D33" s="32"/>
       <c r="E33" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="F33" s="32"/>
       <c r="G33" s="23" t="s">
         <v>20</v>
       </c>
@@ -3635,15 +3603,11 @@
       <c r="C40" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="32" t="n">
-        <v>0</v>
-      </c>
+      <c r="D40" s="32"/>
       <c r="E40" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="F40" s="32"/>
       <c r="G40" s="23" t="s">
         <v>28</v>
       </c>
@@ -3659,15 +3623,11 @@
       <c r="C41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="32" t="n">
-        <v>1</v>
-      </c>
+      <c r="D41" s="32"/>
       <c r="E41" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="32" t="n">
-        <v>0</v>
-      </c>
+      <c r="F41" s="32"/>
       <c r="G41" s="23" t="s">
         <v>26</v>
       </c>
@@ -3811,15 +3771,11 @@
       <c r="C48" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="32" t="n">
-        <v>1</v>
-      </c>
+      <c r="D48" s="32"/>
       <c r="E48" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="32" t="n">
-        <v>0</v>
-      </c>
+      <c r="F48" s="32"/>
       <c r="G48" s="23" t="s">
         <v>33</v>
       </c>
@@ -3835,15 +3791,11 @@
       <c r="C49" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="32" t="n">
-        <v>0</v>
-      </c>
+      <c r="D49" s="32"/>
       <c r="E49" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="32" t="n">
-        <v>3</v>
-      </c>
+      <c r="F49" s="32"/>
       <c r="G49" s="23" t="s">
         <v>31</v>
       </c>
@@ -3989,15 +3941,11 @@
       <c r="C56" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="D56" s="32"/>
       <c r="E56" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="F56" s="32"/>
       <c r="G56" s="23" t="s">
         <v>36</v>
       </c>
@@ -4013,15 +3961,11 @@
       <c r="C57" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="32" t="n">
-        <v>0</v>
-      </c>
+      <c r="D57" s="32"/>
       <c r="E57" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="F57" s="32"/>
       <c r="G57" s="23" t="s">
         <v>38</v>
       </c>
@@ -4167,15 +4111,11 @@
       <c r="C64" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="32" t="n">
-        <v>1</v>
-      </c>
+      <c r="D64" s="32"/>
       <c r="E64" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="32" t="n">
-        <v>2</v>
-      </c>
+      <c r="F64" s="32"/>
       <c r="G64" s="23" t="s">
         <v>43</v>
       </c>
@@ -4191,15 +4131,11 @@
       <c r="C65" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="42" t="n">
-        <v>1</v>
-      </c>
+      <c r="D65" s="42"/>
       <c r="E65" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="42" t="n">
-        <v>3</v>
-      </c>
+      <c r="F65" s="42"/>
       <c r="G65" s="41" t="s">
         <v>41</v>
       </c>
@@ -4736,7 +4672,7 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D69" activeCellId="0" sqref="D69"/>
     </sheetView>
   </sheetViews>
@@ -6720,7 +6656,7 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
     </sheetView>
   </sheetViews>
@@ -8705,8 +8641,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8872,11 +8808,15 @@
       <c r="C8" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="61" t="n">
+        <v>2</v>
+      </c>
       <c r="E8" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="61"/>
+      <c r="F8" s="61" t="n">
+        <v>0</v>
+      </c>
       <c r="G8" s="60" t="s">
         <v>4</v>
       </c>
@@ -8892,11 +8832,15 @@
       <c r="C9" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="61"/>
+      <c r="D9" s="61" t="n">
+        <v>1</v>
+      </c>
       <c r="E9" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="61"/>
+      <c r="F9" s="61" t="n">
+        <v>3</v>
+      </c>
       <c r="G9" s="60" t="s">
         <v>7</v>
       </c>
@@ -9042,11 +8986,15 @@
       <c r="C16" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="61"/>
+      <c r="D16" s="61" t="n">
+        <v>2</v>
+      </c>
       <c r="E16" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="61"/>
+      <c r="F16" s="61" t="n">
+        <v>0</v>
+      </c>
       <c r="G16" s="60" t="s">
         <v>10</v>
       </c>
@@ -9062,11 +9010,15 @@
       <c r="C17" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="61"/>
+      <c r="D17" s="61" t="n">
+        <v>0</v>
+      </c>
       <c r="E17" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="61"/>
+      <c r="F17" s="61" t="n">
+        <v>3</v>
+      </c>
       <c r="G17" s="60" t="s">
         <v>12</v>
       </c>
@@ -9212,11 +9164,15 @@
       <c r="C24" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="61"/>
+      <c r="D24" s="61" t="n">
+        <v>1</v>
+      </c>
       <c r="E24" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="61"/>
+      <c r="F24" s="61" t="n">
+        <v>2</v>
+      </c>
       <c r="G24" s="60" t="s">
         <v>15</v>
       </c>
@@ -9232,11 +9188,15 @@
       <c r="C25" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="61" t="n">
+        <v>1</v>
+      </c>
       <c r="E25" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="61"/>
+      <c r="F25" s="61" t="n">
+        <v>0</v>
+      </c>
       <c r="G25" s="60" t="s">
         <v>17</v>
       </c>
@@ -9382,11 +9342,15 @@
       <c r="C32" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="61"/>
+      <c r="D32" s="61" t="n">
+        <v>0</v>
+      </c>
       <c r="E32" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="61"/>
+      <c r="F32" s="61" t="n">
+        <v>2</v>
+      </c>
       <c r="G32" s="60" t="s">
         <v>22</v>
       </c>
@@ -9402,11 +9366,15 @@
       <c r="C33" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="61"/>
+      <c r="D33" s="61" t="n">
+        <v>1</v>
+      </c>
       <c r="E33" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="61"/>
+      <c r="F33" s="61" t="n">
+        <v>2</v>
+      </c>
       <c r="G33" s="60" t="s">
         <v>20</v>
       </c>
@@ -9554,11 +9522,15 @@
       <c r="C40" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="61"/>
+      <c r="D40" s="61" t="n">
+        <v>0</v>
+      </c>
       <c r="E40" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="61"/>
+      <c r="F40" s="61" t="n">
+        <v>2</v>
+      </c>
       <c r="G40" s="60" t="s">
         <v>28</v>
       </c>
@@ -9574,11 +9546,15 @@
       <c r="C41" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="61"/>
+      <c r="D41" s="61" t="n">
+        <v>1</v>
+      </c>
       <c r="E41" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="61"/>
+      <c r="F41" s="61" t="n">
+        <v>0</v>
+      </c>
       <c r="G41" s="60" t="s">
         <v>26</v>
       </c>
@@ -9724,11 +9700,15 @@
       <c r="C48" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="61"/>
+      <c r="D48" s="61" t="n">
+        <v>1</v>
+      </c>
       <c r="E48" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="61"/>
+      <c r="F48" s="61" t="n">
+        <v>0</v>
+      </c>
       <c r="G48" s="60" t="s">
         <v>33</v>
       </c>
@@ -9744,11 +9724,15 @@
       <c r="C49" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="61"/>
+      <c r="D49" s="61" t="n">
+        <v>0</v>
+      </c>
       <c r="E49" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="61"/>
+      <c r="F49" s="61" t="n">
+        <v>3</v>
+      </c>
       <c r="G49" s="60" t="s">
         <v>31</v>
       </c>
@@ -9894,11 +9878,15 @@
       <c r="C56" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="61"/>
+      <c r="D56" s="61" t="n">
+        <v>2</v>
+      </c>
       <c r="E56" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="61"/>
+      <c r="F56" s="61" t="n">
+        <v>2</v>
+      </c>
       <c r="G56" s="60" t="s">
         <v>36</v>
       </c>
@@ -9914,11 +9902,15 @@
       <c r="C57" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="61"/>
+      <c r="D57" s="61" t="n">
+        <v>0</v>
+      </c>
       <c r="E57" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="61"/>
+      <c r="F57" s="61" t="n">
+        <v>2</v>
+      </c>
       <c r="G57" s="60" t="s">
         <v>38</v>
       </c>
@@ -10064,11 +10056,15 @@
       <c r="C64" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="61"/>
+      <c r="D64" s="61" t="n">
+        <v>1</v>
+      </c>
       <c r="E64" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="61"/>
+      <c r="F64" s="61" t="n">
+        <v>2</v>
+      </c>
       <c r="G64" s="60" t="s">
         <v>43</v>
       </c>
@@ -10084,11 +10080,15 @@
       <c r="C65" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="61"/>
+      <c r="D65" s="61" t="n">
+        <v>1</v>
+      </c>
       <c r="E65" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="61"/>
+      <c r="F65" s="61" t="n">
+        <v>3</v>
+      </c>
       <c r="G65" s="60" t="s">
         <v>41</v>
       </c>
@@ -10626,7 +10626,7 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
     </sheetView>
   </sheetViews>
@@ -12547,7 +12547,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
     </sheetView>
   </sheetViews>
@@ -14531,7 +14531,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
     </sheetView>
   </sheetViews>
@@ -16515,7 +16515,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H65" activeCellId="0" sqref="H65"/>
     </sheetView>
   </sheetViews>
@@ -18502,7 +18502,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H65" activeCellId="0" sqref="H65"/>
     </sheetView>
   </sheetViews>

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -837,18 +837,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,11 +1006,15 @@
       <c r="C8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="E8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="G8" s="23" t="s">
         <v>4</v>
       </c>
@@ -1026,11 +1030,15 @@
       <c r="C9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="E9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="G9" s="23" t="s">
         <v>7</v>
       </c>
@@ -1176,11 +1184,15 @@
       <c r="C16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="32"/>
+      <c r="D16" s="32" t="n">
+        <v>3</v>
+      </c>
       <c r="E16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="32"/>
+      <c r="F16" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G16" s="23" t="s">
         <v>10</v>
       </c>
@@ -1196,11 +1208,15 @@
       <c r="C17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E17" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="32"/>
+      <c r="F17" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G17" s="23" t="s">
         <v>12</v>
       </c>
@@ -1346,11 +1362,15 @@
       <c r="C24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E24" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="32"/>
+      <c r="F24" s="32" t="n">
+        <v>3</v>
+      </c>
       <c r="G24" s="23" t="s">
         <v>15</v>
       </c>
@@ -1366,11 +1386,15 @@
       <c r="C25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E25" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="32"/>
+      <c r="F25" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G25" s="23" t="s">
         <v>17</v>
       </c>
@@ -1516,11 +1540,15 @@
       <c r="C32" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E32" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="32"/>
+      <c r="F32" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G32" s="23" t="s">
         <v>22</v>
       </c>
@@ -1536,11 +1564,15 @@
       <c r="C33" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="E33" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="32"/>
+      <c r="F33" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G33" s="23" t="s">
         <v>20</v>
       </c>
@@ -1688,11 +1720,15 @@
       <c r="C40" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E40" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="32"/>
+      <c r="F40" s="32" t="n">
+        <v>3</v>
+      </c>
       <c r="G40" s="23" t="s">
         <v>28</v>
       </c>
@@ -1708,11 +1744,15 @@
       <c r="C41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="E41" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="32"/>
+      <c r="F41" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="G41" s="23" t="s">
         <v>26</v>
       </c>
@@ -1858,11 +1898,15 @@
       <c r="C48" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="E48" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="32"/>
+      <c r="F48" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G48" s="23" t="s">
         <v>33</v>
       </c>
@@ -1878,11 +1922,15 @@
       <c r="C49" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="32"/>
+      <c r="D49" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E49" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="32"/>
+      <c r="F49" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G49" s="23" t="s">
         <v>31</v>
       </c>
@@ -2028,11 +2076,15 @@
       <c r="C56" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="32"/>
+      <c r="D56" s="32" t="n">
+        <v>3</v>
+      </c>
       <c r="E56" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="32"/>
+      <c r="F56" s="32" t="n">
+        <v>3</v>
+      </c>
       <c r="G56" s="23" t="s">
         <v>36</v>
       </c>
@@ -2048,11 +2100,15 @@
       <c r="C57" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="32"/>
+      <c r="D57" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E57" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="32"/>
+      <c r="F57" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G57" s="23" t="s">
         <v>38</v>
       </c>
@@ -2198,11 +2254,15 @@
       <c r="C64" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="32"/>
+      <c r="D64" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="E64" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="32"/>
+      <c r="F64" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G64" s="23" t="s">
         <v>43</v>
       </c>
@@ -2218,11 +2278,15 @@
       <c r="C65" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="42"/>
+      <c r="D65" s="42" t="n">
+        <v>2</v>
+      </c>
       <c r="E65" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="42"/>
+      <c r="F65" s="42" t="n">
+        <v>3</v>
+      </c>
       <c r="G65" s="41" t="s">
         <v>41</v>
       </c>
@@ -2746,7 +2810,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2761,16 +2825,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F56" activeCellId="0" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2921,11 +2985,15 @@
       <c r="C8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G8" s="23" t="s">
         <v>4</v>
       </c>
@@ -2941,11 +3009,15 @@
       <c r="C9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G9" s="23" t="s">
         <v>7</v>
       </c>
@@ -3091,11 +3163,15 @@
       <c r="C16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="32"/>
+      <c r="D16" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="E16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="32"/>
+      <c r="F16" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="G16" s="23" t="s">
         <v>10</v>
       </c>
@@ -3111,11 +3187,15 @@
       <c r="C17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E17" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="32"/>
+      <c r="F17" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G17" s="23" t="s">
         <v>12</v>
       </c>
@@ -3261,11 +3341,15 @@
       <c r="C24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E24" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="32"/>
+      <c r="F24" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G24" s="23" t="s">
         <v>15</v>
       </c>
@@ -3281,11 +3365,15 @@
       <c r="C25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E25" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="32"/>
+      <c r="F25" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G25" s="23" t="s">
         <v>17</v>
       </c>
@@ -3431,11 +3519,15 @@
       <c r="C32" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E32" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="32"/>
+      <c r="F32" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G32" s="23" t="s">
         <v>22</v>
       </c>
@@ -3451,11 +3543,15 @@
       <c r="C33" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E33" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="32"/>
+      <c r="F33" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G33" s="23" t="s">
         <v>20</v>
       </c>
@@ -3603,11 +3699,15 @@
       <c r="C40" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E40" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="32"/>
+      <c r="F40" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G40" s="23" t="s">
         <v>28</v>
       </c>
@@ -3623,11 +3723,15 @@
       <c r="C41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E41" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="32"/>
+      <c r="F41" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="G41" s="23" t="s">
         <v>26</v>
       </c>
@@ -3771,11 +3875,15 @@
       <c r="C48" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E48" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="32"/>
+      <c r="F48" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G48" s="23" t="s">
         <v>33</v>
       </c>
@@ -3791,11 +3899,15 @@
       <c r="C49" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="32"/>
+      <c r="D49" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E49" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="32"/>
+      <c r="F49" s="32" t="n">
+        <v>3</v>
+      </c>
       <c r="G49" s="23" t="s">
         <v>31</v>
       </c>
@@ -3941,11 +4053,15 @@
       <c r="C56" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="32"/>
+      <c r="D56" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E56" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="32"/>
+      <c r="F56" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G56" s="23" t="s">
         <v>36</v>
       </c>
@@ -3961,11 +4077,15 @@
       <c r="C57" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="32"/>
+      <c r="D57" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E57" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="32"/>
+      <c r="F57" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G57" s="23" t="s">
         <v>38</v>
       </c>
@@ -4111,11 +4231,15 @@
       <c r="C64" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="32"/>
+      <c r="D64" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="E64" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="32"/>
+      <c r="F64" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G64" s="23" t="s">
         <v>43</v>
       </c>
@@ -4131,11 +4255,15 @@
       <c r="C65" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="42"/>
+      <c r="D65" s="42" t="n">
+        <v>1</v>
+      </c>
       <c r="E65" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="42"/>
+      <c r="F65" s="42" t="n">
+        <v>2</v>
+      </c>
       <c r="G65" s="41" t="s">
         <v>41</v>
       </c>
@@ -4657,7 +4785,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4670,18 +4798,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D69" activeCellId="0" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6641,7 +6769,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6654,18 +6782,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8626,7 +8754,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8639,18 +8767,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10611,7 +10739,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10624,18 +10752,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D66" activeCellId="0" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10793,11 +10921,15 @@
       <c r="C8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="E8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="G8" s="23" t="s">
         <v>4</v>
       </c>
@@ -10813,11 +10945,15 @@
       <c r="C9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G9" s="23" t="s">
         <v>7</v>
       </c>
@@ -10963,11 +11099,15 @@
       <c r="C16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="32"/>
+      <c r="D16" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="E16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="32"/>
+      <c r="F16" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="G16" s="23" t="s">
         <v>10</v>
       </c>
@@ -10983,11 +11123,15 @@
       <c r="C17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E17" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="32"/>
+      <c r="F17" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G17" s="23" t="s">
         <v>12</v>
       </c>
@@ -11133,11 +11277,15 @@
       <c r="C24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E24" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="32"/>
+      <c r="F24" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G24" s="23" t="s">
         <v>15</v>
       </c>
@@ -11153,11 +11301,15 @@
       <c r="C25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E25" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="32"/>
+      <c r="F25" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G25" s="23" t="s">
         <v>17</v>
       </c>
@@ -11303,11 +11455,15 @@
       <c r="C32" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E32" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="32"/>
+      <c r="F32" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G32" s="23" t="s">
         <v>22</v>
       </c>
@@ -11323,11 +11479,15 @@
       <c r="C33" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="E33" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="32"/>
+      <c r="F33" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G33" s="23" t="s">
         <v>20</v>
       </c>
@@ -11475,11 +11635,15 @@
       <c r="C40" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E40" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="32"/>
+      <c r="F40" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="G40" s="23" t="s">
         <v>28</v>
       </c>
@@ -11495,11 +11659,15 @@
       <c r="C41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E41" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="32"/>
+      <c r="F41" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="G41" s="23" t="s">
         <v>26</v>
       </c>
@@ -11645,11 +11813,15 @@
       <c r="C48" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="E48" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="32"/>
+      <c r="F48" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G48" s="23" t="s">
         <v>33</v>
       </c>
@@ -11665,11 +11837,15 @@
       <c r="C49" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="32"/>
+      <c r="D49" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E49" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="32"/>
+      <c r="F49" s="32" t="n">
+        <v>3</v>
+      </c>
       <c r="G49" s="23" t="s">
         <v>31</v>
       </c>
@@ -11815,11 +11991,15 @@
       <c r="C56" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="32"/>
+      <c r="D56" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="E56" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="32"/>
+      <c r="F56" s="32" t="n">
+        <v>3</v>
+      </c>
       <c r="G56" s="23" t="s">
         <v>36</v>
       </c>
@@ -11835,11 +12015,15 @@
       <c r="C57" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="32"/>
+      <c r="D57" s="32" t="n">
+        <v>0</v>
+      </c>
       <c r="E57" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="32"/>
+      <c r="F57" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G57" s="23" t="s">
         <v>38</v>
       </c>
@@ -11985,11 +12169,15 @@
       <c r="C64" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="32"/>
+      <c r="D64" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="E64" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="32"/>
+      <c r="F64" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="G64" s="23" t="s">
         <v>43</v>
       </c>
@@ -12005,11 +12193,15 @@
       <c r="C65" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="42"/>
+      <c r="D65" s="42" t="n">
+        <v>2</v>
+      </c>
       <c r="E65" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="42"/>
+      <c r="F65" s="42" t="n">
+        <v>3</v>
+      </c>
       <c r="G65" s="41" t="s">
         <v>41</v>
       </c>
@@ -12532,7 +12724,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -12547,16 +12739,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14516,7 +14708,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14531,16 +14723,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16500,7 +16692,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -16515,16 +16707,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H65" activeCellId="0" sqref="H65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18487,7 +18679,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -18502,16 +18694,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H65" activeCellId="0" sqref="H65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20471,7 +20663,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -840,7 +840,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+      <selection pane="topLeft" activeCell="G65" activeCellId="0" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -873,7 +873,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1748,7 +1748,9 @@
       <c r="G40" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="36"/>
+      <c r="H40" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="32" t="n">
@@ -1772,7 +1774,9 @@
       <c r="G41" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="36"/>
+      <c r="H41" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="22"/>
@@ -1926,7 +1930,9 @@
       <c r="G48" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="36"/>
+      <c r="H48" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="32" t="n">
@@ -1950,7 +1956,9 @@
       <c r="G49" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="36"/>
+      <c r="H49" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22"/>
@@ -2282,7 +2290,9 @@
       <c r="G64" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="36"/>
+      <c r="H64" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="37" t="n">
@@ -2306,7 +2316,9 @@
       <c r="G65" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="36"/>
+      <c r="H65" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="34"/>
@@ -2841,8 +2853,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2868,7 +2880,7 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,7 +3755,9 @@
       <c r="G40" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="36"/>
+      <c r="H40" s="36" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="32" t="n">
@@ -3767,7 +3781,9 @@
       <c r="G41" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="36"/>
+      <c r="H41" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="22"/>
@@ -3895,7 +3911,9 @@
       <c r="G47" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="36"/>
+      <c r="H47" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="32" t="n">
@@ -3919,7 +3937,9 @@
       <c r="G48" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="36"/>
+      <c r="H48" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="32" t="n">
@@ -3943,7 +3963,9 @@
       <c r="G49" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="36"/>
+      <c r="H49" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22"/>
@@ -4275,7 +4297,9 @@
       <c r="G64" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="36"/>
+      <c r="H64" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="37" t="n">
@@ -4299,7 +4323,9 @@
       <c r="G65" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="36"/>
+      <c r="H65" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="34"/>
@@ -4833,7 +4859,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
+      <selection pane="topLeft" activeCell="H70" activeCellId="0" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4866,7 +4892,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5739,7 +5765,9 @@
       <c r="G40" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="36"/>
+      <c r="H40" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="32" t="n">
@@ -5763,7 +5791,9 @@
       <c r="G41" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="36"/>
+      <c r="H41" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="22"/>
@@ -5917,7 +5947,9 @@
       <c r="G48" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="36"/>
+      <c r="H48" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="32" t="n">
@@ -5941,7 +5973,9 @@
       <c r="G49" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="36"/>
+      <c r="H49" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22"/>
@@ -6273,7 +6307,9 @@
       <c r="G64" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="36"/>
+      <c r="H64" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="37" t="n">
@@ -6297,7 +6333,9 @@
       <c r="G65" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="36"/>
+      <c r="H65" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="34"/>
@@ -6833,7 +6871,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6866,7 +6904,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7741,7 +7779,9 @@
       <c r="G40" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="36"/>
+      <c r="H40" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="32" t="n">
@@ -7765,7 +7805,9 @@
       <c r="G41" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="36"/>
+      <c r="H41" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="22"/>
@@ -7919,7 +7961,9 @@
       <c r="G48" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="36"/>
+      <c r="H48" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="32" t="n">
@@ -7943,7 +7987,9 @@
       <c r="G49" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="36"/>
+      <c r="H49" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22"/>
@@ -8275,7 +8321,9 @@
       <c r="G64" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="36"/>
+      <c r="H64" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="37" t="n">
@@ -8299,7 +8347,9 @@
       <c r="G65" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="36"/>
+      <c r="H65" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="34"/>
@@ -8834,7 +8884,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8867,7 +8917,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9742,7 +9792,9 @@
       <c r="G40" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="61"/>
+      <c r="H40" s="61" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="58" t="n">
@@ -9766,7 +9818,9 @@
       <c r="G41" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="61"/>
+      <c r="H41" s="61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="22"/>
@@ -9920,7 +9974,9 @@
       <c r="G48" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="61"/>
+      <c r="H48" s="61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="58" t="n">
@@ -9944,7 +10000,9 @@
       <c r="G49" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="61"/>
+      <c r="H49" s="61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22"/>
@@ -10276,7 +10334,9 @@
       <c r="G64" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="61"/>
+      <c r="H64" s="61" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="58" t="n">
@@ -10300,7 +10360,9 @@
       <c r="G65" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="61"/>
+      <c r="H65" s="61" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="34"/>
@@ -10834,8 +10896,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N41" activeCellId="0" sqref="N41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10868,7 +10930,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11743,7 +11805,9 @@
       <c r="G40" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="36"/>
+      <c r="H40" s="36" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="32" t="n">
@@ -11767,7 +11831,9 @@
       <c r="G41" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="36"/>
+      <c r="H41" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="22"/>
@@ -11921,7 +11987,9 @@
       <c r="G48" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="36"/>
+      <c r="H48" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="32" t="n">
@@ -11945,7 +12013,9 @@
       <c r="G49" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="36"/>
+      <c r="H49" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22"/>
@@ -12277,7 +12347,9 @@
       <c r="G64" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="36"/>
+      <c r="H64" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="37" t="n">
@@ -12301,7 +12373,9 @@
       <c r="G65" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="36"/>
+      <c r="H65" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="34"/>
@@ -12835,8 +12909,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G49" activeCellId="0" sqref="G49"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12869,7 +12943,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13744,7 +13818,9 @@
       <c r="G40" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="36"/>
+      <c r="H40" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="32" t="n">
@@ -13768,7 +13844,9 @@
       <c r="G41" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="36"/>
+      <c r="H41" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="22"/>
@@ -13922,7 +14000,9 @@
       <c r="G48" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="36"/>
+      <c r="H48" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="32" t="n">
@@ -13946,7 +14026,9 @@
       <c r="G49" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="36"/>
+      <c r="H49" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22"/>
@@ -14278,7 +14360,9 @@
       <c r="G64" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="36"/>
+      <c r="H64" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="37" t="n">
@@ -14302,7 +14386,9 @@
       <c r="G65" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="36"/>
+      <c r="H65" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="34"/>
@@ -14836,7 +14922,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H46" activeCellId="0" sqref="H46"/>
+      <selection pane="topLeft" activeCell="C67" activeCellId="0" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14869,7 +14955,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15744,7 +15830,9 @@
       <c r="G40" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="36"/>
+      <c r="H40" s="36" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="32" t="n">
@@ -15768,7 +15856,9 @@
       <c r="G41" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="36"/>
+      <c r="H41" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="22"/>
@@ -15922,7 +16012,9 @@
       <c r="G48" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="36"/>
+      <c r="H48" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="32" t="n">
@@ -15946,7 +16038,9 @@
       <c r="G49" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="36"/>
+      <c r="H49" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22"/>
@@ -16278,7 +16372,9 @@
       <c r="G64" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="36"/>
+      <c r="H64" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="37" t="n">
@@ -16302,7 +16398,9 @@
       <c r="G65" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="36"/>
+      <c r="H65" s="36" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="34"/>
@@ -16836,7 +16934,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
+      <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16862,7 +16960,7 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -16872,7 +16970,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17747,7 +17845,9 @@
       <c r="G40" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="36"/>
+      <c r="H40" s="36" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="32" t="n">
@@ -17771,7 +17871,9 @@
       <c r="G41" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="36"/>
+      <c r="H41" s="36" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="22"/>
@@ -17925,7 +18027,9 @@
       <c r="G48" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="36"/>
+      <c r="H48" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="32" t="n">
@@ -17949,7 +18053,9 @@
       <c r="G49" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="36"/>
+      <c r="H49" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22"/>
@@ -18281,7 +18387,9 @@
       <c r="G64" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="36"/>
+      <c r="H64" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="37" t="n">
@@ -18305,7 +18413,9 @@
       <c r="G65" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="36"/>
+      <c r="H65" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="34"/>
@@ -18838,8 +18948,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -18872,7 +18982,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19747,7 +19857,9 @@
       <c r="G40" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="36"/>
+      <c r="H40" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="32" t="n">
@@ -19771,7 +19883,9 @@
       <c r="G41" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="36"/>
+      <c r="H41" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="22"/>
@@ -19925,7 +20039,9 @@
       <c r="G48" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="36"/>
+      <c r="H48" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="32" t="n">
@@ -19949,7 +20065,9 @@
       <c r="G49" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="36"/>
+      <c r="H49" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22"/>
@@ -20281,7 +20399,9 @@
       <c r="G64" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="36"/>
+      <c r="H64" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="37" t="n">
@@ -20305,7 +20425,9 @@
       <c r="G65" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="36"/>
+      <c r="H65" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="34"/>

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="88">
   <si>
     <t xml:space="preserve">RESULTADOS</t>
   </si>
@@ -279,6 +279,21 @@
   <si>
     <t xml:space="preserve">PALPITE DO CAMPEÃO</t>
   </si>
+  <si>
+    <t xml:space="preserve">França </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suiça</t>
+  </si>
 </sst>
 </file>
 
@@ -289,7 +304,7 @@
     <numFmt numFmtId="165" formatCode="DD/MM"/>
     <numFmt numFmtId="166" formatCode="H:MM;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -362,6 +377,20 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -495,7 +524,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -676,6 +705,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
@@ -743,6 +788,18 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -837,18 +894,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G65" activeCellId="0" sqref="G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,7 +2895,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2853,16 +2910,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C64" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F76" activeCellId="0" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4055,19 +4112,19 @@
       <c r="C54" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="64" t="n">
+      <c r="D54" s="71" t="n">
         <v>2</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="64" t="n">
+      <c r="F54" s="71" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="65" t="n">
+      <c r="H54" s="72" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4081,19 +4138,19 @@
       <c r="C55" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="64" t="n">
+      <c r="D55" s="71" t="n">
         <v>2</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="64" t="n">
+      <c r="F55" s="71" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="65" t="n">
+      <c r="H55" s="72" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4360,16 +4417,20 @@
       <c r="B68" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="35"/>
+      <c r="C68" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="46" t="n">
+        <v>2</v>
+      </c>
       <c r="E68" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="42" t="s">
-        <v>47</v>
+      <c r="F68" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="H68" s="36"/>
     </row>
@@ -4380,16 +4441,20 @@
       <c r="B69" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="35"/>
+      <c r="C69" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="46" t="n">
+        <v>1</v>
+      </c>
       <c r="E69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="42" t="s">
-        <v>49</v>
+      <c r="F69" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="45" t="s">
+        <v>12</v>
       </c>
       <c r="H69" s="36"/>
     </row>
@@ -4400,16 +4465,20 @@
       <c r="B70" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="35"/>
+      <c r="C70" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="46" t="n">
+        <v>2</v>
+      </c>
       <c r="E70" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="42" t="s">
-        <v>51</v>
+      <c r="F70" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="45" t="s">
+        <v>4</v>
       </c>
       <c r="H70" s="36"/>
     </row>
@@ -4420,16 +4489,20 @@
       <c r="B71" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="35"/>
+      <c r="C71" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="46" t="n">
+        <v>1</v>
+      </c>
       <c r="E71" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="42" t="s">
-        <v>53</v>
+      <c r="F71" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="45" t="s">
+        <v>18</v>
       </c>
       <c r="H71" s="36"/>
     </row>
@@ -4440,16 +4513,20 @@
       <c r="B72" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="35"/>
+      <c r="C72" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="46" t="n">
+        <v>2</v>
+      </c>
       <c r="E72" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="35"/>
-      <c r="G72" s="42" t="s">
-        <v>55</v>
+      <c r="F72" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="45" t="s">
+        <v>32</v>
       </c>
       <c r="H72" s="36"/>
     </row>
@@ -4460,16 +4537,20 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="40"/>
+      <c r="C73" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="48" t="n">
+        <v>2</v>
+      </c>
       <c r="E73" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="40"/>
-      <c r="G73" s="43" t="s">
-        <v>57</v>
+      <c r="F73" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="47" t="s">
+        <v>42</v>
       </c>
       <c r="H73" s="36"/>
     </row>
@@ -4480,16 +4561,20 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="40"/>
+      <c r="C74" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="48" t="n">
+        <v>1</v>
+      </c>
       <c r="E74" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="40"/>
-      <c r="G74" s="43" t="s">
-        <v>59</v>
+      <c r="F74" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="47" t="s">
+        <v>29</v>
       </c>
       <c r="H74" s="36"/>
     </row>
@@ -4500,16 +4585,20 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="40"/>
+      <c r="C75" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="48" t="n">
+        <v>2</v>
+      </c>
       <c r="E75" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="40"/>
-      <c r="G75" s="43" t="s">
-        <v>61</v>
+      <c r="F75" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="H75" s="36"/>
     </row>
@@ -4843,7 +4932,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4856,18 +4945,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H70" activeCellId="0" sqref="H70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K69" activeCellId="0" sqref="K69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6370,16 +6459,20 @@
       <c r="B68" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="35"/>
+      <c r="C68" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="46" t="n">
+        <v>1</v>
+      </c>
       <c r="E68" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="42" t="s">
-        <v>47</v>
+      <c r="F68" s="46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="H68" s="36"/>
     </row>
@@ -6390,16 +6483,20 @@
       <c r="B69" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="35"/>
+      <c r="C69" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="46" t="n">
+        <v>2</v>
+      </c>
       <c r="E69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="42" t="s">
-        <v>49</v>
+      <c r="F69" s="46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" s="45" t="s">
+        <v>12</v>
       </c>
       <c r="H69" s="36"/>
     </row>
@@ -6410,16 +6507,20 @@
       <c r="B70" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="35"/>
+      <c r="C70" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="46" t="n">
+        <v>3</v>
+      </c>
       <c r="E70" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="42" t="s">
-        <v>51</v>
+      <c r="F70" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="45" t="s">
+        <v>4</v>
       </c>
       <c r="H70" s="36"/>
     </row>
@@ -6430,16 +6531,20 @@
       <c r="B71" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="35"/>
+      <c r="C71" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="46" t="n">
+        <v>2</v>
+      </c>
       <c r="E71" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="42" t="s">
-        <v>53</v>
+      <c r="F71" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="45" t="s">
+        <v>18</v>
       </c>
       <c r="H71" s="36"/>
     </row>
@@ -6450,16 +6555,20 @@
       <c r="B72" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="35"/>
+      <c r="C72" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="46" t="n">
+        <v>2</v>
+      </c>
       <c r="E72" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="35"/>
-      <c r="G72" s="42" t="s">
-        <v>55</v>
+      <c r="F72" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="45" t="s">
+        <v>32</v>
       </c>
       <c r="H72" s="36"/>
     </row>
@@ -6470,16 +6579,20 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="40"/>
+      <c r="C73" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="48" t="n">
+        <v>3</v>
+      </c>
       <c r="E73" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="40"/>
-      <c r="G73" s="43" t="s">
-        <v>57</v>
+      <c r="F73" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="47" t="s">
+        <v>42</v>
       </c>
       <c r="H73" s="36"/>
     </row>
@@ -6490,16 +6603,20 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="40"/>
+      <c r="C74" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="48" t="n">
+        <v>2</v>
+      </c>
       <c r="E74" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="40"/>
-      <c r="G74" s="43" t="s">
-        <v>59</v>
+      <c r="F74" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="47" t="s">
+        <v>29</v>
       </c>
       <c r="H74" s="36"/>
     </row>
@@ -6510,16 +6627,20 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="40"/>
+      <c r="C75" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="48" t="n">
+        <v>2</v>
+      </c>
       <c r="E75" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="40"/>
-      <c r="G75" s="43" t="s">
-        <v>61</v>
+      <c r="F75" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="H75" s="36"/>
     </row>
@@ -6855,7 +6976,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6868,18 +6989,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F75" activeCellId="0" sqref="F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8384,16 +8505,20 @@
       <c r="B68" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="35"/>
+      <c r="C68" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="46" t="n">
+        <v>2</v>
+      </c>
       <c r="E68" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="42" t="s">
-        <v>47</v>
+      <c r="F68" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="H68" s="36"/>
     </row>
@@ -8404,16 +8529,20 @@
       <c r="B69" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="35"/>
+      <c r="C69" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="46" t="n">
+        <v>2</v>
+      </c>
       <c r="E69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="42" t="s">
-        <v>49</v>
+      <c r="F69" s="46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" s="45" t="s">
+        <v>12</v>
       </c>
       <c r="H69" s="36"/>
     </row>
@@ -8424,16 +8553,20 @@
       <c r="B70" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="35"/>
+      <c r="C70" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="46" t="n">
+        <v>1</v>
+      </c>
       <c r="E70" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="42" t="s">
-        <v>51</v>
+      <c r="F70" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="45" t="s">
+        <v>4</v>
       </c>
       <c r="H70" s="36"/>
     </row>
@@ -8444,16 +8577,20 @@
       <c r="B71" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="35"/>
+      <c r="C71" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="46" t="n">
+        <v>0</v>
+      </c>
       <c r="E71" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="42" t="s">
-        <v>53</v>
+      <c r="F71" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="45" t="s">
+        <v>18</v>
       </c>
       <c r="H71" s="36"/>
     </row>
@@ -8464,16 +8601,20 @@
       <c r="B72" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="35"/>
+      <c r="C72" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="46" t="n">
+        <v>2</v>
+      </c>
       <c r="E72" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="35"/>
-      <c r="G72" s="42" t="s">
-        <v>55</v>
+      <c r="F72" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="45" t="s">
+        <v>32</v>
       </c>
       <c r="H72" s="36"/>
     </row>
@@ -8484,16 +8625,20 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="40"/>
+      <c r="C73" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="48" t="n">
+        <v>2</v>
+      </c>
       <c r="E73" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="40"/>
-      <c r="G73" s="43" t="s">
-        <v>57</v>
+      <c r="F73" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="47" t="s">
+        <v>42</v>
       </c>
       <c r="H73" s="36"/>
     </row>
@@ -8504,16 +8649,20 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="40"/>
+      <c r="C74" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="48" t="n">
+        <v>3</v>
+      </c>
       <c r="E74" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="40"/>
-      <c r="G74" s="43" t="s">
-        <v>59</v>
+      <c r="F74" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="47" t="s">
+        <v>29</v>
       </c>
       <c r="H74" s="36"/>
     </row>
@@ -8524,16 +8673,20 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="40"/>
+      <c r="C75" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="48" t="n">
+        <v>1</v>
+      </c>
       <c r="E75" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="40"/>
-      <c r="G75" s="43" t="s">
-        <v>61</v>
+      <c r="F75" s="48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G75" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="H75" s="36"/>
     </row>
@@ -8868,7 +9021,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8881,18 +9034,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8921,174 +9074,174 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45" t="s">
+      <c r="A3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="n">
+      <c r="A4" s="50" t="n">
         <v>43265</v>
       </c>
-      <c r="B4" s="47" t="n">
+      <c r="B4" s="51" t="n">
         <v>0.5</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="48" t="s">
+      <c r="D4" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="49" t="n">
+      <c r="H4" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="n">
+      <c r="A5" s="50" t="n">
         <v>43266</v>
       </c>
-      <c r="B5" s="47" t="n">
+      <c r="B5" s="51" t="n">
         <v>0.375</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="48" t="s">
+      <c r="D5" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="49" t="n">
+      <c r="H5" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="n">
+      <c r="A6" s="54" t="n">
         <v>43270</v>
       </c>
-      <c r="B6" s="51" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="52" t="s">
+      <c r="B6" s="55" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="52" t="s">
+      <c r="D6" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="53" t="n">
+      <c r="H6" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="n">
+      <c r="A7" s="50" t="n">
         <v>43271</v>
       </c>
-      <c r="B7" s="47" t="n">
+      <c r="B7" s="51" t="n">
         <v>0.5</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="49" t="n">
+      <c r="H7" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="n">
+      <c r="A8" s="50" t="n">
         <v>43276</v>
       </c>
-      <c r="B8" s="47" t="n">
+      <c r="B8" s="51" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="48" t="s">
+      <c r="D8" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="49" t="n">
+      <c r="H8" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="50" t="n">
+      <c r="A9" s="54" t="n">
         <v>43276</v>
       </c>
-      <c r="B9" s="51" t="n">
+      <c r="B9" s="55" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="53" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="52" t="s">
+      <c r="D9" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="57" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="53" t="n">
+      <c r="H9" s="57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9119,158 +9272,158 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="50" t="n">
+      <c r="A12" s="54" t="n">
         <v>43266</v>
       </c>
-      <c r="B12" s="51" t="n">
+      <c r="B12" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="52" t="s">
+      <c r="D12" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="53" t="n">
+      <c r="H12" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="50" t="n">
+      <c r="A13" s="54" t="n">
         <v>43266</v>
       </c>
-      <c r="B13" s="51" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C13" s="52" t="s">
+      <c r="B13" s="55" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C13" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="52" t="s">
+      <c r="D13" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="53" t="n">
+      <c r="H13" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="n">
+      <c r="A14" s="50" t="n">
         <v>43271</v>
       </c>
-      <c r="B14" s="47" t="n">
+      <c r="B14" s="51" t="n">
         <v>0.375</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="48" t="s">
+      <c r="D14" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="49" t="n">
+      <c r="H14" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46" t="n">
+      <c r="A15" s="50" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="47" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="48" t="s">
+      <c r="B15" s="51" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="48" t="s">
+      <c r="D15" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="49" t="n">
+      <c r="H15" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="50" t="n">
+      <c r="A16" s="54" t="n">
         <v>43276</v>
       </c>
-      <c r="B16" s="51" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C16" s="52" t="s">
+      <c r="B16" s="55" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="52" t="s">
+      <c r="D16" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="53" t="n">
+      <c r="H16" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="50" t="n">
+      <c r="A17" s="54" t="n">
         <v>43276</v>
       </c>
-      <c r="B17" s="51" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C17" s="52" t="s">
+      <c r="B17" s="55" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C17" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="53" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" s="52" t="s">
+      <c r="D17" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="57" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="53" t="n">
+      <c r="H17" s="57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9301,158 +9454,158 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46" t="n">
+      <c r="A20" s="50" t="n">
         <v>43267</v>
       </c>
-      <c r="B20" s="47" t="n">
+      <c r="B20" s="51" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="48" t="s">
+      <c r="D20" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="49" t="n">
+      <c r="H20" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="50" t="n">
+      <c r="A21" s="54" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="51" t="n">
+      <c r="B21" s="55" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="52" t="s">
+      <c r="D21" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="53" t="n">
+      <c r="H21" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="50" t="n">
+      <c r="A22" s="54" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="51" t="n">
+      <c r="B22" s="55" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="52" t="s">
+      <c r="D22" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="53" t="n">
+      <c r="H22" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="46" t="n">
+      <c r="A23" s="50" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="47" t="n">
+      <c r="B23" s="51" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="48" t="s">
+      <c r="D23" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="49" t="n">
+      <c r="H23" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="50" t="n">
+      <c r="A24" s="54" t="n">
         <v>43277</v>
       </c>
-      <c r="B24" s="51" t="n">
+      <c r="B24" s="55" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" s="52" t="s">
+      <c r="D24" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="53" t="n">
+      <c r="H24" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="50" t="n">
+      <c r="A25" s="54" t="n">
         <v>43277</v>
       </c>
-      <c r="B25" s="51" t="n">
+      <c r="B25" s="55" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="52" t="s">
+      <c r="D25" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="53" t="n">
+      <c r="H25" s="57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9483,158 +9636,158 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="50" t="n">
+      <c r="A28" s="54" t="n">
         <v>43267</v>
       </c>
-      <c r="B28" s="51" t="n">
+      <c r="B28" s="55" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="53" t="n">
+      <c r="D28" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="E28" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="52" t="s">
+      <c r="E28" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="53" t="n">
+      <c r="H28" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="54" t="n">
+      <c r="A29" s="58" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="55" t="n">
+      <c r="B29" s="59" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="56" t="s">
+      <c r="D29" s="61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="57" t="n">
+      <c r="H29" s="61" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="50" t="n">
+      <c r="A30" s="54" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="51" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="52" t="s">
+      <c r="B30" s="55" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="52" t="s">
+      <c r="D30" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="53" t="n">
+      <c r="H30" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="50" t="n">
+      <c r="A31" s="54" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="51" t="n">
+      <c r="B31" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" s="52" t="s">
+      <c r="D31" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="53" t="n">
+      <c r="H31" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="46" t="n">
+      <c r="A32" s="50" t="n">
         <v>43277</v>
       </c>
-      <c r="B32" s="47" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C32" s="48" t="s">
+      <c r="B32" s="51" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C32" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" s="48" t="s">
+      <c r="D32" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="49" t="n">
+      <c r="H32" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="54" t="n">
+      <c r="A33" s="58" t="n">
         <v>43277</v>
       </c>
-      <c r="B33" s="55" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C33" s="56" t="s">
+      <c r="B33" s="59" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C33" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" s="56" t="s">
+      <c r="D33" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="57" t="n">
+      <c r="H33" s="61" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9667,158 +9820,158 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="50" t="n">
+      <c r="A36" s="54" t="n">
         <v>43268</v>
       </c>
-      <c r="B36" s="51" t="n">
+      <c r="B36" s="55" t="n">
         <v>0.375</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="52" t="s">
+      <c r="D36" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="53" t="n">
+      <c r="H36" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="50" t="n">
+      <c r="A37" s="54" t="n">
         <v>43268</v>
       </c>
-      <c r="B37" s="51" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="52" t="s">
+      <c r="B37" s="55" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="53" t="n">
+      <c r="D37" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="E37" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="52" t="s">
+      <c r="E37" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="53" t="n">
+      <c r="H37" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="46" t="n">
+      <c r="A38" s="50" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="47" t="n">
+      <c r="B38" s="51" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="48" t="s">
+      <c r="D38" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="49" t="n">
+      <c r="H38" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="50" t="n">
+      <c r="A39" s="54" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="51" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="52" t="s">
+      <c r="B39" s="55" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="52" t="s">
+      <c r="D39" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="53" t="n">
+      <c r="H39" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="58" t="n">
+      <c r="A40" s="62" t="n">
         <v>43278</v>
       </c>
-      <c r="B40" s="59" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C40" s="60" t="s">
+      <c r="B40" s="63" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C40" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" s="60" t="s">
+      <c r="D40" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="61" t="n">
+      <c r="H40" s="65" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="58" t="n">
+      <c r="A41" s="62" t="n">
         <v>43278</v>
       </c>
-      <c r="B41" s="59" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C41" s="60" t="s">
+      <c r="B41" s="63" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C41" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="60" t="s">
+      <c r="D41" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="61" t="n">
+      <c r="H41" s="65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9849,158 +10002,158 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="50" t="n">
+      <c r="A44" s="54" t="n">
         <v>43268</v>
       </c>
-      <c r="B44" s="51" t="n">
+      <c r="B44" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="53" t="n">
+      <c r="D44" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="52" t="s">
+      <c r="E44" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="53" t="n">
+      <c r="H44" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="54" t="n">
+      <c r="A45" s="58" t="n">
         <v>43269</v>
       </c>
-      <c r="B45" s="55" t="n">
+      <c r="B45" s="59" t="n">
         <v>0.375</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="56" t="s">
+      <c r="D45" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="57" t="n">
+      <c r="H45" s="61" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="46" t="n">
+      <c r="A46" s="50" t="n">
         <v>43274</v>
       </c>
-      <c r="B46" s="47" t="n">
+      <c r="B46" s="51" t="n">
         <v>0.5</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" s="48" t="s">
+      <c r="D46" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="49" t="n">
+      <c r="H46" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="46" t="n">
+      <c r="A47" s="50" t="n">
         <v>43274</v>
       </c>
-      <c r="B47" s="47" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C47" s="48" t="s">
+      <c r="B47" s="51" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C47" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="48" t="s">
+      <c r="D47" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="49" t="n">
+      <c r="H47" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="58" t="n">
+      <c r="A48" s="62" t="n">
         <v>43278</v>
       </c>
-      <c r="B48" s="59" t="n">
+      <c r="B48" s="63" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="60" t="s">
+      <c r="D48" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="61" t="n">
+      <c r="H48" s="65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="58" t="n">
+      <c r="A49" s="62" t="n">
         <v>43278</v>
       </c>
-      <c r="B49" s="59" t="n">
+      <c r="B49" s="63" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="61" t="n">
-        <v>3</v>
-      </c>
-      <c r="G49" s="60" t="s">
+      <c r="D49" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="65" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="61" t="n">
+      <c r="H49" s="65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10031,156 +10184,156 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="46" t="n">
+      <c r="A52" s="50" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="47" t="n">
+      <c r="B52" s="51" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="49" t="n">
+      <c r="D52" s="53" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="48" t="s">
+      <c r="E52" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="49" t="n">
+      <c r="H52" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="46" t="n">
+      <c r="A53" s="50" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="47" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="48" t="s">
+      <c r="B53" s="51" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G53" s="48" t="s">
+      <c r="D53" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="49" t="n">
+      <c r="H53" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="46" t="n">
+      <c r="A54" s="50" t="n">
         <v>43274</v>
       </c>
-      <c r="B54" s="47" t="n">
+      <c r="B54" s="51" t="n">
         <v>0.375</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="48" t="s">
+      <c r="D54" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="49" t="n">
+      <c r="H54" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="46" t="n">
+      <c r="A55" s="50" t="n">
         <v>43275</v>
       </c>
-      <c r="B55" s="47" t="n">
+      <c r="B55" s="51" t="n">
         <v>0.375</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="48" t="s">
+      <c r="D55" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="49" t="n">
+      <c r="H55" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="58" t="n">
+      <c r="A56" s="62" t="n">
         <v>43279</v>
       </c>
-      <c r="B56" s="59" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C56" s="60" t="s">
+      <c r="B56" s="63" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C56" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="61" t="n">
-        <v>2</v>
-      </c>
-      <c r="E56" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" s="60" t="s">
+      <c r="D56" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="61"/>
+      <c r="H56" s="65"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="58" t="n">
+      <c r="A57" s="62" t="n">
         <v>43279</v>
       </c>
-      <c r="B57" s="59" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C57" s="60" t="s">
+      <c r="B57" s="63" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C57" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" s="60" t="s">
+      <c r="D57" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="61"/>
+      <c r="H57" s="65"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="22"/>
@@ -10209,158 +10362,158 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="50" t="n">
+      <c r="A60" s="54" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="51" t="n">
+      <c r="B60" s="55" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="52" t="s">
+      <c r="C60" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="52" t="s">
+      <c r="D60" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="53" t="n">
+      <c r="H60" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="50" t="n">
+      <c r="A61" s="54" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="51" t="n">
+      <c r="B61" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="52" t="s">
+      <c r="C61" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="52" t="s">
+      <c r="D61" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="53" t="n">
+      <c r="H61" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="50" t="n">
+      <c r="A62" s="54" t="n">
         <v>43275</v>
       </c>
-      <c r="B62" s="51" t="n">
+      <c r="B62" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C62" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="52" t="s">
+      <c r="D62" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="53" t="n">
+      <c r="H62" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="46" t="n">
+      <c r="A63" s="50" t="n">
         <v>43275</v>
       </c>
-      <c r="B63" s="47" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C63" s="48" t="s">
+      <c r="B63" s="51" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C63" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" s="48" t="s">
+      <c r="D63" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="49" t="n">
+      <c r="H63" s="53" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="58" t="n">
+      <c r="A64" s="62" t="n">
         <v>43279</v>
       </c>
-      <c r="B64" s="59" t="n">
+      <c r="B64" s="63" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C64" s="60" t="s">
+      <c r="C64" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" s="60" t="s">
+      <c r="D64" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="61" t="n">
+      <c r="H64" s="65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="58" t="n">
+      <c r="A65" s="62" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="59" t="n">
+      <c r="B65" s="63" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="61" t="n">
-        <v>3</v>
-      </c>
-      <c r="G65" s="60" t="s">
+      <c r="D65" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="65" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="61" t="n">
+      <c r="H65" s="65" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10397,16 +10550,20 @@
       <c r="B68" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="35"/>
+      <c r="C68" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="46" t="n">
+        <v>1</v>
+      </c>
       <c r="E68" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="42" t="s">
-        <v>47</v>
+      <c r="F68" s="46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="H68" s="36"/>
     </row>
@@ -10417,16 +10574,20 @@
       <c r="B69" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="35"/>
+      <c r="C69" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="46" t="n">
+        <v>2</v>
+      </c>
       <c r="E69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="42" t="s">
-        <v>49</v>
+      <c r="F69" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="45" t="s">
+        <v>12</v>
       </c>
       <c r="H69" s="36"/>
     </row>
@@ -10437,16 +10598,20 @@
       <c r="B70" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="35"/>
+      <c r="C70" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="46" t="n">
+        <v>2</v>
+      </c>
       <c r="E70" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="42" t="s">
-        <v>51</v>
+      <c r="F70" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="45" t="s">
+        <v>4</v>
       </c>
       <c r="H70" s="36"/>
     </row>
@@ -10457,16 +10622,20 @@
       <c r="B71" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="35"/>
+      <c r="C71" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="46" t="n">
+        <v>3</v>
+      </c>
       <c r="E71" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="42" t="s">
-        <v>53</v>
+      <c r="F71" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="45" t="s">
+        <v>18</v>
       </c>
       <c r="H71" s="36"/>
     </row>
@@ -10477,16 +10646,20 @@
       <c r="B72" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="35"/>
+      <c r="C72" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="46" t="n">
+        <v>2</v>
+      </c>
       <c r="E72" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="35"/>
-      <c r="G72" s="42" t="s">
-        <v>55</v>
+      <c r="F72" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="45" t="s">
+        <v>32</v>
       </c>
       <c r="H72" s="36"/>
     </row>
@@ -10497,16 +10670,20 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="40"/>
+      <c r="C73" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="48" t="n">
+        <v>3</v>
+      </c>
       <c r="E73" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="40"/>
-      <c r="G73" s="43" t="s">
-        <v>57</v>
+      <c r="F73" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="47" t="s">
+        <v>42</v>
       </c>
       <c r="H73" s="36"/>
     </row>
@@ -10517,16 +10694,20 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="40"/>
+      <c r="C74" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="48" t="n">
+        <v>1</v>
+      </c>
       <c r="E74" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="40"/>
-      <c r="G74" s="43" t="s">
-        <v>59</v>
+      <c r="F74" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="47" t="s">
+        <v>29</v>
       </c>
       <c r="H74" s="36"/>
     </row>
@@ -10537,16 +10718,20 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="40"/>
+      <c r="C75" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="48" t="n">
+        <v>2</v>
+      </c>
       <c r="E75" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="40"/>
-      <c r="G75" s="43" t="s">
-        <v>61</v>
+      <c r="F75" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="H75" s="36"/>
     </row>
@@ -10881,7 +11066,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10894,18 +11079,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K59" activeCellId="0" sqref="K59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12403,163 +12588,195 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="32" t="n">
         <v>43281</v>
       </c>
       <c r="B68" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="42" t="s">
-        <v>47</v>
+      <c r="C68" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="66" t="s">
+        <v>20</v>
       </c>
       <c r="H68" s="36"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="32" t="n">
         <v>43281</v>
       </c>
       <c r="B69" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="35"/>
-      <c r="E69" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="42" t="s">
-        <v>49</v>
+      <c r="C69" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="66" t="s">
+        <v>12</v>
       </c>
       <c r="H69" s="36"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="32" t="n">
         <v>43282</v>
       </c>
       <c r="B70" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="42" t="s">
-        <v>51</v>
+      <c r="C70" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="66" t="s">
+        <v>84</v>
       </c>
       <c r="H70" s="36"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="32" t="n">
         <v>43282</v>
       </c>
       <c r="B71" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="42" t="s">
-        <v>53</v>
+      <c r="C71" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="66" t="s">
+        <v>18</v>
       </c>
       <c r="H71" s="36"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="32" t="n">
         <v>43283</v>
       </c>
       <c r="B72" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="35"/>
-      <c r="E72" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="35"/>
-      <c r="G72" s="42" t="s">
-        <v>55</v>
+      <c r="C72" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="F72" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="66" t="s">
+        <v>32</v>
       </c>
       <c r="H72" s="36"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="37" t="n">
         <v>43283</v>
       </c>
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="40"/>
-      <c r="E73" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="40"/>
-      <c r="G73" s="43" t="s">
-        <v>57</v>
+      <c r="C73" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="67" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="66" t="s">
+        <v>42</v>
       </c>
       <c r="H73" s="36"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="37" t="n">
         <v>43284</v>
       </c>
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="40"/>
-      <c r="E74" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="40"/>
-      <c r="G74" s="43" t="s">
-        <v>59</v>
+      <c r="C74" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="66" t="s">
+        <v>87</v>
       </c>
       <c r="H74" s="36"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="37" t="n">
         <v>43284</v>
       </c>
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="40"/>
-      <c r="E75" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="40"/>
-      <c r="G75" s="43" t="s">
-        <v>61</v>
+      <c r="C75" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" s="66" t="s">
+        <v>39</v>
       </c>
       <c r="H75" s="36"/>
     </row>
@@ -12894,7 +13111,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -12909,16 +13126,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13596,19 +13813,19 @@
       <c r="C31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="62" t="n">
+      <c r="D31" s="69" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="62" t="n">
+      <c r="F31" s="69" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="63" t="n">
+      <c r="H31" s="70" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14906,7 +15123,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14921,16 +15138,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C67" activeCellId="0" sqref="C67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16435,16 +16652,20 @@
       <c r="B68" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="35"/>
+      <c r="C68" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="46" t="n">
+        <v>2</v>
+      </c>
       <c r="E68" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="42" t="s">
-        <v>47</v>
+      <c r="F68" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="H68" s="36"/>
     </row>
@@ -16455,16 +16676,20 @@
       <c r="B69" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="35"/>
+      <c r="C69" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="46" t="n">
+        <v>1</v>
+      </c>
       <c r="E69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="42" t="s">
-        <v>49</v>
+      <c r="F69" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="45" t="s">
+        <v>12</v>
       </c>
       <c r="H69" s="36"/>
     </row>
@@ -16475,16 +16700,20 @@
       <c r="B70" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="35"/>
+      <c r="C70" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="46" t="n">
+        <v>2</v>
+      </c>
       <c r="E70" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="42" t="s">
-        <v>51</v>
+      <c r="F70" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="45" t="s">
+        <v>4</v>
       </c>
       <c r="H70" s="36"/>
     </row>
@@ -16495,16 +16724,20 @@
       <c r="B71" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="35"/>
+      <c r="C71" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="46" t="n">
+        <v>3</v>
+      </c>
       <c r="E71" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="42" t="s">
-        <v>53</v>
+      <c r="F71" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="45" t="s">
+        <v>18</v>
       </c>
       <c r="H71" s="36"/>
     </row>
@@ -16515,16 +16748,20 @@
       <c r="B72" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="35"/>
+      <c r="C72" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="46" t="n">
+        <v>2</v>
+      </c>
       <c r="E72" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="35"/>
-      <c r="G72" s="42" t="s">
-        <v>55</v>
+      <c r="F72" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="45" t="s">
+        <v>32</v>
       </c>
       <c r="H72" s="36"/>
     </row>
@@ -16535,16 +16772,20 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="40"/>
+      <c r="C73" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="48" t="n">
+        <v>2</v>
+      </c>
       <c r="E73" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="40"/>
-      <c r="G73" s="43" t="s">
-        <v>57</v>
+      <c r="F73" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="47" t="s">
+        <v>42</v>
       </c>
       <c r="H73" s="36"/>
     </row>
@@ -16555,16 +16796,20 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="40"/>
+      <c r="C74" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="48" t="n">
+        <v>1</v>
+      </c>
       <c r="E74" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="40"/>
-      <c r="G74" s="43" t="s">
-        <v>59</v>
+      <c r="F74" s="48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" s="47" t="s">
+        <v>29</v>
       </c>
       <c r="H74" s="36"/>
     </row>
@@ -16575,16 +16820,20 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="40"/>
+      <c r="C75" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="48" t="n">
+        <v>1</v>
+      </c>
       <c r="E75" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="40"/>
-      <c r="G75" s="43" t="s">
-        <v>61</v>
+      <c r="F75" s="48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="H75" s="36"/>
     </row>
@@ -16918,7 +17167,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -16933,16 +17182,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18933,7 +19182,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -18948,16 +19197,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20462,16 +20711,20 @@
       <c r="B68" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="35"/>
+      <c r="C68" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="46" t="n">
+        <v>2</v>
+      </c>
       <c r="E68" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="42" t="s">
-        <v>47</v>
+      <c r="F68" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="H68" s="36"/>
     </row>
@@ -20482,16 +20735,20 @@
       <c r="B69" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="35"/>
+      <c r="C69" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="46" t="n">
+        <v>3</v>
+      </c>
       <c r="E69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="42" t="s">
-        <v>49</v>
+      <c r="F69" s="46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" s="45" t="s">
+        <v>12</v>
       </c>
       <c r="H69" s="36"/>
     </row>
@@ -20502,16 +20759,20 @@
       <c r="B70" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="35"/>
+      <c r="C70" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="46" t="n">
+        <v>2</v>
+      </c>
       <c r="E70" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="42" t="s">
-        <v>51</v>
+      <c r="F70" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="45" t="s">
+        <v>32</v>
       </c>
       <c r="H70" s="36"/>
     </row>
@@ -20522,16 +20783,20 @@
       <c r="B71" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="35"/>
+      <c r="C71" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="46" t="n">
+        <v>3</v>
+      </c>
       <c r="E71" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="42" t="s">
-        <v>53</v>
+      <c r="F71" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="45" t="s">
+        <v>42</v>
       </c>
       <c r="H71" s="36"/>
     </row>
@@ -20542,16 +20807,20 @@
       <c r="B72" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="35"/>
+      <c r="C72" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="46" t="n">
+        <v>3</v>
+      </c>
       <c r="E72" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="35"/>
-      <c r="G72" s="42" t="s">
-        <v>55</v>
+      <c r="F72" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="45" t="s">
+        <v>4</v>
       </c>
       <c r="H72" s="36"/>
     </row>
@@ -20562,16 +20831,20 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="40"/>
+      <c r="C73" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="48" t="n">
+        <v>1</v>
+      </c>
       <c r="E73" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="40"/>
-      <c r="G73" s="43" t="s">
-        <v>57</v>
+      <c r="F73" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="47" t="s">
+        <v>18</v>
       </c>
       <c r="H73" s="36"/>
     </row>
@@ -20582,16 +20855,20 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="40"/>
+      <c r="C74" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="48" t="n">
+        <v>1</v>
+      </c>
       <c r="E74" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="40"/>
-      <c r="G74" s="43" t="s">
-        <v>59</v>
+      <c r="F74" s="48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" s="47" t="s">
+        <v>29</v>
       </c>
       <c r="H74" s="36"/>
     </row>
@@ -20602,16 +20879,20 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="40"/>
+      <c r="C75" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="48" t="n">
+        <v>2</v>
+      </c>
       <c r="E75" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="40"/>
-      <c r="G75" s="43" t="s">
-        <v>61</v>
+      <c r="F75" s="48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="H75" s="36"/>
     </row>
@@ -20945,7 +21226,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="72">
   <si>
     <t xml:space="preserve">RESULTADOS</t>
   </si>
@@ -167,54 +167,6 @@
   </si>
   <si>
     <t xml:space="preserve">OITAVAS DE FINAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2G</t>
   </si>
   <si>
     <t xml:space="preserve">QUARTAS DE FINAL</t>
@@ -524,7 +476,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -693,18 +645,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -720,6 +660,14 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -894,18 +842,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G65" activeCellId="0" sqref="G65"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H74" activeCellId="0" sqref="H74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -930,7 +878,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,17 +2359,23 @@
         <v>0.625</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="D68" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E68" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="35"/>
+      <c r="F68" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="G68" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="H68" s="36"/>
+        <v>20</v>
+      </c>
+      <c r="H68" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="32" t="n">
@@ -2431,17 +2385,23 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="D69" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="35"/>
+      <c r="F69" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="G69" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="H69" s="36"/>
+        <v>12</v>
+      </c>
+      <c r="H69" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="32" t="n">
@@ -2451,17 +2411,23 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="35"/>
+        <v>13</v>
+      </c>
+      <c r="D70" s="43" t="n">
+        <v>3</v>
+      </c>
       <c r="E70" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="35"/>
+      <c r="F70" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="G70" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="H70" s="36"/>
+        <v>4</v>
+      </c>
+      <c r="H70" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="32" t="n">
@@ -2471,17 +2437,23 @@
         <v>0.625</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="D71" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E71" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="35"/>
+      <c r="F71" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="G71" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H71" s="36"/>
+        <v>18</v>
+      </c>
+      <c r="H71" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="32" t="n">
@@ -2491,17 +2463,23 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="35"/>
+        <v>28</v>
+      </c>
+      <c r="D72" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E72" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="35"/>
+      <c r="F72" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="G72" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H72" s="36"/>
+        <v>32</v>
+      </c>
+      <c r="H72" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="37" t="n">
@@ -2510,18 +2488,24 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="40"/>
+      <c r="C73" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="45" t="n">
+        <v>4</v>
+      </c>
       <c r="E73" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="40"/>
-      <c r="G73" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H73" s="36"/>
+      <c r="F73" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="37" t="n">
@@ -2530,18 +2514,24 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="40"/>
+      <c r="C74" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="45" t="n">
+        <v>2</v>
+      </c>
       <c r="E74" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="40"/>
-      <c r="G74" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="H74" s="36"/>
+      <c r="F74" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="37" t="n">
@@ -2550,18 +2540,24 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="40"/>
+      <c r="C75" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="E75" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="40"/>
-      <c r="G75" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="H75" s="36"/>
+      <c r="F75" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H75" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="34"/>
@@ -2579,7 +2575,7 @@
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -2596,16 +2592,16 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>63</v>
+      <c r="C78" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F78" s="35"/>
-      <c r="G78" s="42" t="s">
-        <v>64</v>
+      <c r="G78" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="H78" s="36"/>
     </row>
@@ -2616,16 +2612,16 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="42" t="s">
-        <v>65</v>
+      <c r="C79" s="46" t="s">
+        <v>49</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="35"/>
-      <c r="G79" s="42" t="s">
-        <v>66</v>
+      <c r="G79" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="H79" s="36"/>
     </row>
@@ -2636,16 +2632,16 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="42" t="s">
-        <v>67</v>
+      <c r="C80" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F80" s="35"/>
-      <c r="G80" s="42" t="s">
-        <v>68</v>
+      <c r="G80" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="H80" s="36"/>
     </row>
@@ -2656,16 +2652,16 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="42" t="s">
-        <v>69</v>
+      <c r="C81" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="35"/>
-      <c r="G81" s="42" t="s">
-        <v>70</v>
+      <c r="G81" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="H81" s="36"/>
     </row>
@@ -2685,7 +2681,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -2702,16 +2698,16 @@
       <c r="B84" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="42" t="s">
-        <v>72</v>
+      <c r="C84" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F84" s="35"/>
-      <c r="G84" s="42" t="s">
-        <v>73</v>
+      <c r="G84" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -2722,16 +2718,16 @@
       <c r="B85" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="42" t="s">
-        <v>74</v>
+      <c r="C85" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F85" s="35"/>
-      <c r="G85" s="42" t="s">
-        <v>75</v>
+      <c r="G85" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -2751,7 +2747,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -2768,16 +2764,16 @@
       <c r="B88" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="42" t="s">
-        <v>77</v>
+      <c r="C88" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F88" s="35"/>
-      <c r="G88" s="42" t="s">
-        <v>78</v>
+      <c r="G88" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -2797,7 +2793,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -2814,16 +2810,16 @@
       <c r="B91" s="33" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="42" t="s">
-        <v>80</v>
+      <c r="C91" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="35"/>
-      <c r="G91" s="42" t="s">
-        <v>81</v>
+      <c r="G91" s="46" t="s">
+        <v>65</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -2843,7 +2839,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -2861,15 +2857,15 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D94" s="44"/>
+        <v>64</v>
+      </c>
+      <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="44"/>
+      <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -2895,7 +2891,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2910,16 +2906,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C64" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F76" activeCellId="0" sqref="F76"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C43" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,7 +2933,7 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4112,19 +4108,19 @@
       <c r="C54" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="71" t="n">
+      <c r="D54" s="70" t="n">
         <v>2</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="71" t="n">
+      <c r="F54" s="70" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="72" t="n">
+      <c r="H54" s="71" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4138,19 +4134,19 @@
       <c r="C55" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="71" t="n">
+      <c r="D55" s="70" t="n">
         <v>2</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="71" t="n">
+      <c r="F55" s="70" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="72" t="n">
+      <c r="H55" s="71" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4417,22 +4413,24 @@
       <c r="B68" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="46" t="n">
+      <c r="D68" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E68" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" s="45" t="s">
+      <c r="F68" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="36"/>
+      <c r="H68" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="32" t="n">
@@ -4441,22 +4439,24 @@
       <c r="B69" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="45" t="s">
+      <c r="C69" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="46" t="n">
+      <c r="D69" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" s="45" t="s">
+      <c r="F69" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="36"/>
+      <c r="H69" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="32" t="n">
@@ -4465,22 +4465,24 @@
       <c r="B70" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="45" t="s">
+      <c r="C70" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="46" t="n">
+      <c r="D70" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E70" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="45" t="s">
+      <c r="F70" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H70" s="36"/>
+      <c r="H70" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="32" t="n">
@@ -4489,22 +4491,24 @@
       <c r="B71" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C71" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="46" t="n">
+      <c r="D71" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E71" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="45" t="s">
+      <c r="F71" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H71" s="36"/>
+      <c r="H71" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="32" t="n">
@@ -4513,22 +4517,24 @@
       <c r="B72" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="45" t="s">
+      <c r="C72" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="46" t="n">
+      <c r="D72" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E72" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="45" t="s">
+      <c r="F72" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H72" s="36"/>
+      <c r="H72" s="36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="37" t="n">
@@ -4537,22 +4543,24 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="47" t="s">
+      <c r="C73" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="48" t="n">
+      <c r="D73" s="45" t="n">
         <v>2</v>
       </c>
       <c r="E73" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="47" t="s">
+      <c r="F73" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H73" s="36"/>
+      <c r="H73" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="37" t="n">
@@ -4561,22 +4569,24 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="47" t="s">
+      <c r="C74" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="48" t="n">
+      <c r="D74" s="45" t="n">
         <v>1</v>
       </c>
       <c r="E74" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="47" t="s">
+      <c r="F74" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="36"/>
+      <c r="H74" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="37" t="n">
@@ -4585,22 +4595,24 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="C75" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="48" t="n">
+      <c r="D75" s="45" t="n">
         <v>2</v>
       </c>
       <c r="E75" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="47" t="s">
+      <c r="F75" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H75" s="36"/>
+      <c r="H75" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="34"/>
@@ -4618,7 +4630,7 @@
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -4635,16 +4647,16 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>63</v>
+      <c r="C78" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F78" s="35"/>
-      <c r="G78" s="42" t="s">
-        <v>64</v>
+      <c r="G78" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="H78" s="36"/>
     </row>
@@ -4655,16 +4667,16 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="42" t="s">
-        <v>65</v>
+      <c r="C79" s="46" t="s">
+        <v>49</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="35"/>
-      <c r="G79" s="42" t="s">
-        <v>66</v>
+      <c r="G79" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="H79" s="36"/>
     </row>
@@ -4675,16 +4687,16 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="42" t="s">
-        <v>67</v>
+      <c r="C80" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F80" s="35"/>
-      <c r="G80" s="42" t="s">
-        <v>68</v>
+      <c r="G80" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="H80" s="36"/>
     </row>
@@ -4695,16 +4707,16 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="42" t="s">
-        <v>69</v>
+      <c r="C81" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="35"/>
-      <c r="G81" s="42" t="s">
-        <v>70</v>
+      <c r="G81" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="H81" s="36"/>
     </row>
@@ -4724,7 +4736,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -4741,16 +4753,16 @@
       <c r="B84" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="42" t="s">
-        <v>72</v>
+      <c r="C84" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F84" s="35"/>
-      <c r="G84" s="42" t="s">
-        <v>73</v>
+      <c r="G84" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -4761,16 +4773,16 @@
       <c r="B85" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="42" t="s">
-        <v>74</v>
+      <c r="C85" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F85" s="35"/>
-      <c r="G85" s="42" t="s">
-        <v>75</v>
+      <c r="G85" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -4790,7 +4802,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -4807,16 +4819,16 @@
       <c r="B88" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="42" t="s">
-        <v>77</v>
+      <c r="C88" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F88" s="35"/>
-      <c r="G88" s="42" t="s">
-        <v>78</v>
+      <c r="G88" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -4836,7 +4848,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -4853,16 +4865,16 @@
       <c r="B91" s="33" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="42" t="s">
-        <v>80</v>
+      <c r="C91" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="35"/>
-      <c r="G91" s="42" t="s">
-        <v>81</v>
+      <c r="G91" s="46" t="s">
+        <v>65</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -4882,7 +4894,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -4900,15 +4912,15 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D94" s="44"/>
+        <v>64</v>
+      </c>
+      <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="44"/>
+      <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -4932,7 +4944,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4945,18 +4957,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K69" activeCellId="0" sqref="K69"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4981,7 +4993,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6459,22 +6471,24 @@
       <c r="B68" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="46" t="n">
+      <c r="D68" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E68" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G68" s="45" t="s">
+      <c r="F68" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="36"/>
+      <c r="H68" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="32" t="n">
@@ -6483,22 +6497,24 @@
       <c r="B69" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="45" t="s">
+      <c r="C69" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="46" t="n">
+      <c r="D69" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G69" s="45" t="s">
+      <c r="F69" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="36"/>
+      <c r="H69" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="32" t="n">
@@ -6507,22 +6523,24 @@
       <c r="B70" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="45" t="s">
+      <c r="C70" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="46" t="n">
+      <c r="D70" s="43" t="n">
         <v>3</v>
       </c>
       <c r="E70" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="45" t="s">
+      <c r="F70" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H70" s="36"/>
+      <c r="H70" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="32" t="n">
@@ -6531,22 +6549,24 @@
       <c r="B71" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C71" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="46" t="n">
+      <c r="D71" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E71" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="45" t="s">
+      <c r="F71" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H71" s="36"/>
+      <c r="H71" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="32" t="n">
@@ -6555,22 +6575,24 @@
       <c r="B72" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="45" t="s">
+      <c r="C72" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="46" t="n">
+      <c r="D72" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E72" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" s="45" t="s">
+      <c r="F72" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H72" s="36"/>
+      <c r="H72" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="37" t="n">
@@ -6579,22 +6601,24 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="47" t="s">
+      <c r="C73" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="48" t="n">
+      <c r="D73" s="45" t="n">
         <v>3</v>
       </c>
       <c r="E73" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="47" t="s">
+      <c r="F73" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H73" s="36"/>
+      <c r="H73" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="37" t="n">
@@ -6603,22 +6627,24 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="47" t="s">
+      <c r="C74" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="48" t="n">
+      <c r="D74" s="45" t="n">
         <v>2</v>
       </c>
       <c r="E74" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="47" t="s">
+      <c r="F74" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="36"/>
+      <c r="H74" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="37" t="n">
@@ -6627,22 +6653,24 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="C75" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="48" t="n">
+      <c r="D75" s="45" t="n">
         <v>2</v>
       </c>
       <c r="E75" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="47" t="s">
+      <c r="F75" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H75" s="36"/>
+      <c r="H75" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="34"/>
@@ -6660,7 +6688,7 @@
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -6677,16 +6705,16 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>63</v>
+      <c r="C78" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F78" s="35"/>
-      <c r="G78" s="42" t="s">
-        <v>64</v>
+      <c r="G78" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="H78" s="36"/>
     </row>
@@ -6697,16 +6725,16 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="42" t="s">
-        <v>65</v>
+      <c r="C79" s="46" t="s">
+        <v>49</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="35"/>
-      <c r="G79" s="42" t="s">
-        <v>66</v>
+      <c r="G79" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="H79" s="36"/>
     </row>
@@ -6717,16 +6745,16 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="42" t="s">
-        <v>67</v>
+      <c r="C80" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F80" s="35"/>
-      <c r="G80" s="42" t="s">
-        <v>68</v>
+      <c r="G80" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="H80" s="36"/>
     </row>
@@ -6737,16 +6765,16 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="42" t="s">
-        <v>69</v>
+      <c r="C81" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="35"/>
-      <c r="G81" s="42" t="s">
-        <v>70</v>
+      <c r="G81" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="H81" s="36"/>
     </row>
@@ -6766,7 +6794,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -6783,16 +6811,16 @@
       <c r="B84" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="42" t="s">
-        <v>72</v>
+      <c r="C84" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F84" s="35"/>
-      <c r="G84" s="42" t="s">
-        <v>73</v>
+      <c r="G84" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -6803,16 +6831,16 @@
       <c r="B85" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="42" t="s">
-        <v>74</v>
+      <c r="C85" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F85" s="35"/>
-      <c r="G85" s="42" t="s">
-        <v>75</v>
+      <c r="G85" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -6832,7 +6860,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -6849,16 +6877,16 @@
       <c r="B88" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="42" t="s">
-        <v>77</v>
+      <c r="C88" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F88" s="35"/>
-      <c r="G88" s="42" t="s">
-        <v>78</v>
+      <c r="G88" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -6878,7 +6906,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -6895,16 +6923,16 @@
       <c r="B91" s="33" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="42" t="s">
-        <v>80</v>
+      <c r="C91" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="35"/>
-      <c r="G91" s="42" t="s">
-        <v>81</v>
+      <c r="G91" s="46" t="s">
+        <v>65</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -6924,7 +6952,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -6942,15 +6970,15 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D94" s="44"/>
+        <v>64</v>
+      </c>
+      <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="44"/>
+      <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -6976,7 +7004,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6989,18 +7017,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F75" activeCellId="0" sqref="F75"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H75" activeCellId="0" sqref="H75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7025,7 +7053,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8505,22 +8533,24 @@
       <c r="B68" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="46" t="n">
+      <c r="D68" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E68" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" s="45" t="s">
+      <c r="F68" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="36"/>
+      <c r="H68" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="32" t="n">
@@ -8529,22 +8559,24 @@
       <c r="B69" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="45" t="s">
+      <c r="C69" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="46" t="n">
+      <c r="D69" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G69" s="45" t="s">
+      <c r="F69" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="36"/>
+      <c r="H69" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="32" t="n">
@@ -8553,22 +8585,24 @@
       <c r="B70" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="45" t="s">
+      <c r="C70" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="46" t="n">
+      <c r="D70" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E70" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" s="45" t="s">
+      <c r="F70" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H70" s="36"/>
+      <c r="H70" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="32" t="n">
@@ -8577,22 +8611,24 @@
       <c r="B71" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C71" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="46" t="n">
+      <c r="D71" s="43" t="n">
         <v>0</v>
       </c>
       <c r="E71" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="45" t="s">
+      <c r="F71" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H71" s="36"/>
+      <c r="H71" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="32" t="n">
@@ -8601,22 +8637,24 @@
       <c r="B72" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="45" t="s">
+      <c r="C72" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="46" t="n">
+      <c r="D72" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E72" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" s="45" t="s">
+      <c r="F72" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H72" s="36"/>
+      <c r="H72" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="37" t="n">
@@ -8625,22 +8663,24 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="47" t="s">
+      <c r="C73" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="48" t="n">
+      <c r="D73" s="45" t="n">
         <v>2</v>
       </c>
       <c r="E73" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="47" t="s">
+      <c r="F73" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H73" s="36"/>
+      <c r="H73" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="37" t="n">
@@ -8649,22 +8689,24 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="47" t="s">
+      <c r="C74" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="48" t="n">
+      <c r="D74" s="45" t="n">
         <v>3</v>
       </c>
       <c r="E74" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" s="47" t="s">
+      <c r="F74" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="36"/>
+      <c r="H74" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="37" t="n">
@@ -8673,22 +8715,24 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="C75" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="48" t="n">
+      <c r="D75" s="45" t="n">
         <v>1</v>
       </c>
       <c r="E75" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G75" s="47" t="s">
+      <c r="F75" s="45" t="n">
+        <v>3</v>
+      </c>
+      <c r="G75" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H75" s="36"/>
+      <c r="H75" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="34"/>
@@ -8706,7 +8750,7 @@
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -8723,16 +8767,16 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>63</v>
+      <c r="C78" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F78" s="35"/>
-      <c r="G78" s="42" t="s">
-        <v>64</v>
+      <c r="G78" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="H78" s="36"/>
     </row>
@@ -8743,16 +8787,16 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="42" t="s">
-        <v>65</v>
+      <c r="C79" s="46" t="s">
+        <v>49</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="35"/>
-      <c r="G79" s="42" t="s">
-        <v>66</v>
+      <c r="G79" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="H79" s="36"/>
     </row>
@@ -8763,16 +8807,16 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="42" t="s">
-        <v>67</v>
+      <c r="C80" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F80" s="35"/>
-      <c r="G80" s="42" t="s">
-        <v>68</v>
+      <c r="G80" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="H80" s="36"/>
     </row>
@@ -8783,16 +8827,16 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="42" t="s">
-        <v>69</v>
+      <c r="C81" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="35"/>
-      <c r="G81" s="42" t="s">
-        <v>70</v>
+      <c r="G81" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="H81" s="36"/>
     </row>
@@ -8812,7 +8856,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -8829,16 +8873,16 @@
       <c r="B84" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="42" t="s">
-        <v>72</v>
+      <c r="C84" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F84" s="35"/>
-      <c r="G84" s="42" t="s">
-        <v>73</v>
+      <c r="G84" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -8849,16 +8893,16 @@
       <c r="B85" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="42" t="s">
-        <v>74</v>
+      <c r="C85" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F85" s="35"/>
-      <c r="G85" s="42" t="s">
-        <v>75</v>
+      <c r="G85" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -8878,7 +8922,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -8895,16 +8939,16 @@
       <c r="B88" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="42" t="s">
-        <v>77</v>
+      <c r="C88" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F88" s="35"/>
-      <c r="G88" s="42" t="s">
-        <v>78</v>
+      <c r="G88" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -8924,7 +8968,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -8941,16 +8985,16 @@
       <c r="B91" s="33" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="42" t="s">
-        <v>80</v>
+      <c r="C91" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="35"/>
-      <c r="G91" s="42" t="s">
-        <v>81</v>
+      <c r="G91" s="46" t="s">
+        <v>65</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -8970,7 +9014,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -8988,15 +9032,15 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D94" s="44"/>
+        <v>64</v>
+      </c>
+      <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="44"/>
+      <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -9021,7 +9065,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9034,18 +9078,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H76" activeCellId="0" sqref="H76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9070,178 +9114,178 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49" t="s">
+      <c r="A3" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="n">
+      <c r="A4" s="49" t="n">
         <v>43265</v>
       </c>
-      <c r="B4" s="51" t="n">
+      <c r="B4" s="50" t="n">
         <v>0.5</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="52" t="s">
+      <c r="D4" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="53" t="n">
+      <c r="H4" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="n">
+      <c r="A5" s="49" t="n">
         <v>43266</v>
       </c>
-      <c r="B5" s="51" t="n">
+      <c r="B5" s="50" t="n">
         <v>0.375</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="52" t="s">
+      <c r="D5" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="53" t="n">
+      <c r="H5" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54" t="n">
+      <c r="A6" s="53" t="n">
         <v>43270</v>
       </c>
-      <c r="B6" s="55" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="56" t="s">
+      <c r="B6" s="54" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="56" t="s">
+      <c r="D6" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="57" t="n">
+      <c r="H6" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="n">
+      <c r="A7" s="49" t="n">
         <v>43271</v>
       </c>
-      <c r="B7" s="51" t="n">
+      <c r="B7" s="50" t="n">
         <v>0.5</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="53" t="n">
+      <c r="H7" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="50" t="n">
+      <c r="A8" s="49" t="n">
         <v>43276</v>
       </c>
-      <c r="B8" s="51" t="n">
+      <c r="B8" s="50" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="52" t="s">
+      <c r="D8" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="53" t="n">
+      <c r="H8" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54" t="n">
+      <c r="A9" s="53" t="n">
         <v>43276</v>
       </c>
-      <c r="B9" s="55" t="n">
+      <c r="B9" s="54" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="57" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="56" t="s">
+      <c r="D9" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="57" t="n">
+      <c r="H9" s="56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9272,158 +9316,158 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="54" t="n">
+      <c r="A12" s="53" t="n">
         <v>43266</v>
       </c>
-      <c r="B12" s="55" t="n">
+      <c r="B12" s="54" t="n">
         <v>0.5</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="56" t="s">
+      <c r="D12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="57" t="n">
+      <c r="H12" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="54" t="n">
+      <c r="A13" s="53" t="n">
         <v>43266</v>
       </c>
-      <c r="B13" s="55" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C13" s="56" t="s">
+      <c r="B13" s="54" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C13" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="56" t="s">
+      <c r="D13" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="57" t="n">
+      <c r="H13" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="50" t="n">
+      <c r="A14" s="49" t="n">
         <v>43271</v>
       </c>
-      <c r="B14" s="51" t="n">
+      <c r="B14" s="50" t="n">
         <v>0.375</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="52" t="s">
+      <c r="D14" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="53" t="n">
+      <c r="H14" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="50" t="n">
+      <c r="A15" s="49" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="51" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="52" t="s">
+      <c r="B15" s="50" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="53" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="52" t="s">
+      <c r="D15" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="53" t="n">
+      <c r="H15" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="54" t="n">
+      <c r="A16" s="53" t="n">
         <v>43276</v>
       </c>
-      <c r="B16" s="55" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C16" s="56" t="s">
+      <c r="B16" s="54" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="56" t="s">
+      <c r="D16" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="57" t="n">
+      <c r="H16" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="54" t="n">
+      <c r="A17" s="53" t="n">
         <v>43276</v>
       </c>
-      <c r="B17" s="55" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C17" s="56" t="s">
+      <c r="B17" s="54" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C17" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="57" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" s="56" t="s">
+      <c r="D17" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="57" t="n">
+      <c r="H17" s="56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9454,158 +9498,158 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="50" t="n">
+      <c r="A20" s="49" t="n">
         <v>43267</v>
       </c>
-      <c r="B20" s="51" t="n">
+      <c r="B20" s="50" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="53" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="52" t="s">
+      <c r="D20" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="53" t="n">
+      <c r="H20" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="54" t="n">
+      <c r="A21" s="53" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="55" t="n">
+      <c r="B21" s="54" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="56" t="s">
+      <c r="D21" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="57" t="n">
+      <c r="H21" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="54" t="n">
+      <c r="A22" s="53" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="55" t="n">
+      <c r="B22" s="54" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="56" t="s">
+      <c r="D22" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="57" t="n">
+      <c r="H22" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="50" t="n">
+      <c r="A23" s="49" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="51" t="n">
+      <c r="B23" s="50" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="53" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="52" t="s">
+      <c r="D23" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="53" t="n">
+      <c r="H23" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="54" t="n">
+      <c r="A24" s="53" t="n">
         <v>43277</v>
       </c>
-      <c r="B24" s="55" t="n">
+      <c r="B24" s="54" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" s="56" t="s">
+      <c r="D24" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="57" t="n">
+      <c r="H24" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="54" t="n">
+      <c r="A25" s="53" t="n">
         <v>43277</v>
       </c>
-      <c r="B25" s="55" t="n">
+      <c r="B25" s="54" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="56" t="s">
+      <c r="D25" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="57" t="n">
+      <c r="H25" s="56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9636,158 +9680,158 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="54" t="n">
+      <c r="A28" s="53" t="n">
         <v>43267</v>
       </c>
-      <c r="B28" s="55" t="n">
+      <c r="B28" s="54" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="57" t="n">
+      <c r="D28" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="E28" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="56" t="s">
+      <c r="E28" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="57" t="n">
+      <c r="H28" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="58" t="n">
+      <c r="A29" s="57" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="59" t="n">
+      <c r="B29" s="58" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="61" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="60" t="s">
+      <c r="D29" s="60" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="61" t="n">
+      <c r="H29" s="60" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="54" t="n">
+      <c r="A30" s="53" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="55" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="56" t="s">
+      <c r="B30" s="54" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="56" t="s">
+      <c r="D30" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="57" t="n">
+      <c r="H30" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="54" t="n">
+      <c r="A31" s="53" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="55" t="n">
+      <c r="B31" s="54" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" s="56" t="s">
+      <c r="D31" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="57" t="n">
+      <c r="H31" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="50" t="n">
+      <c r="A32" s="49" t="n">
         <v>43277</v>
       </c>
-      <c r="B32" s="51" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C32" s="52" t="s">
+      <c r="B32" s="50" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C32" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" s="52" t="s">
+      <c r="D32" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="53" t="n">
+      <c r="H32" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="58" t="n">
+      <c r="A33" s="57" t="n">
         <v>43277</v>
       </c>
-      <c r="B33" s="59" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C33" s="60" t="s">
+      <c r="B33" s="58" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C33" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" s="60" t="s">
+      <c r="D33" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="60" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="61" t="n">
+      <c r="H33" s="60" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9820,158 +9864,158 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="54" t="n">
+      <c r="A36" s="53" t="n">
         <v>43268</v>
       </c>
-      <c r="B36" s="55" t="n">
+      <c r="B36" s="54" t="n">
         <v>0.375</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="56" t="s">
+      <c r="D36" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="57" t="n">
+      <c r="H36" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="54" t="n">
+      <c r="A37" s="53" t="n">
         <v>43268</v>
       </c>
-      <c r="B37" s="55" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="56" t="s">
+      <c r="B37" s="54" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="57" t="n">
+      <c r="D37" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="E37" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="56" t="s">
+      <c r="E37" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="57" t="n">
+      <c r="H37" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="50" t="n">
+      <c r="A38" s="49" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="51" t="n">
+      <c r="B38" s="50" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="53" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="52" t="s">
+      <c r="D38" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="53" t="n">
+      <c r="H38" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="54" t="n">
+      <c r="A39" s="53" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="55" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="56" t="s">
+      <c r="B39" s="54" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="56" t="s">
+      <c r="D39" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="57" t="n">
+      <c r="H39" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="62" t="n">
+      <c r="A40" s="61" t="n">
         <v>43278</v>
       </c>
-      <c r="B40" s="63" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C40" s="64" t="s">
+      <c r="B40" s="62" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C40" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="65" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" s="64" t="s">
+      <c r="D40" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="65" t="n">
+      <c r="H40" s="64" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="62" t="n">
+      <c r="A41" s="61" t="n">
         <v>43278</v>
       </c>
-      <c r="B41" s="63" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C41" s="64" t="s">
+      <c r="B41" s="62" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C41" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="64" t="s">
+      <c r="D41" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="65" t="n">
+      <c r="H41" s="64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10002,158 +10046,158 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="54" t="n">
+      <c r="A44" s="53" t="n">
         <v>43268</v>
       </c>
-      <c r="B44" s="55" t="n">
+      <c r="B44" s="54" t="n">
         <v>0.5</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="57" t="n">
+      <c r="D44" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="56" t="s">
+      <c r="E44" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="57" t="n">
+      <c r="H44" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="58" t="n">
+      <c r="A45" s="57" t="n">
         <v>43269</v>
       </c>
-      <c r="B45" s="59" t="n">
+      <c r="B45" s="58" t="n">
         <v>0.375</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="60" t="s">
+      <c r="D45" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="61" t="n">
+      <c r="H45" s="60" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="50" t="n">
+      <c r="A46" s="49" t="n">
         <v>43274</v>
       </c>
-      <c r="B46" s="51" t="n">
+      <c r="B46" s="50" t="n">
         <v>0.5</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" s="52" t="s">
+      <c r="D46" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="53" t="n">
+      <c r="H46" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="50" t="n">
+      <c r="A47" s="49" t="n">
         <v>43274</v>
       </c>
-      <c r="B47" s="51" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C47" s="52" t="s">
+      <c r="B47" s="50" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C47" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="52" t="s">
+      <c r="D47" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="53" t="n">
+      <c r="H47" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="62" t="n">
+      <c r="A48" s="61" t="n">
         <v>43278</v>
       </c>
-      <c r="B48" s="63" t="n">
+      <c r="B48" s="62" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="64" t="s">
+      <c r="D48" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="65" t="n">
+      <c r="H48" s="64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="62" t="n">
+      <c r="A49" s="61" t="n">
         <v>43278</v>
       </c>
-      <c r="B49" s="63" t="n">
+      <c r="B49" s="62" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="65" t="n">
-        <v>3</v>
-      </c>
-      <c r="G49" s="64" t="s">
+      <c r="D49" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="65" t="n">
+      <c r="H49" s="64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10184,156 +10228,156 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="50" t="n">
+      <c r="A52" s="49" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="51" t="n">
+      <c r="B52" s="50" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="52" t="s">
+      <c r="C52" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="53" t="n">
+      <c r="D52" s="52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="52" t="s">
+      <c r="E52" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="53" t="n">
+      <c r="H52" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="50" t="n">
+      <c r="A53" s="49" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="51" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="52" t="s">
+      <c r="B53" s="50" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="G53" s="52" t="s">
+      <c r="D53" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="53" t="n">
+      <c r="H53" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="50" t="n">
+      <c r="A54" s="49" t="n">
         <v>43274</v>
       </c>
-      <c r="B54" s="51" t="n">
+      <c r="B54" s="50" t="n">
         <v>0.375</v>
       </c>
-      <c r="C54" s="52" t="s">
+      <c r="C54" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="52" t="s">
+      <c r="D54" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="53" t="n">
+      <c r="H54" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="50" t="n">
+      <c r="A55" s="49" t="n">
         <v>43275</v>
       </c>
-      <c r="B55" s="51" t="n">
+      <c r="B55" s="50" t="n">
         <v>0.375</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="C55" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="52" t="s">
+      <c r="D55" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="53" t="n">
+      <c r="H55" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="62" t="n">
+      <c r="A56" s="61" t="n">
         <v>43279</v>
       </c>
-      <c r="B56" s="63" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C56" s="64" t="s">
+      <c r="B56" s="62" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C56" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="65" t="n">
-        <v>2</v>
-      </c>
-      <c r="E56" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="65" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" s="64" t="s">
+      <c r="D56" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="65"/>
+      <c r="H56" s="64"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="62" t="n">
+      <c r="A57" s="61" t="n">
         <v>43279</v>
       </c>
-      <c r="B57" s="63" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C57" s="64" t="s">
+      <c r="B57" s="62" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C57" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="65" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" s="64" t="s">
+      <c r="D57" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="65"/>
+      <c r="H57" s="64"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="22"/>
@@ -10362,158 +10406,158 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="54" t="n">
+      <c r="A60" s="53" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="55" t="n">
+      <c r="B60" s="54" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="56" t="s">
+      <c r="C60" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="56" t="s">
+      <c r="D60" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="57" t="n">
+      <c r="H60" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="54" t="n">
+      <c r="A61" s="53" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="55" t="n">
+      <c r="B61" s="54" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="56" t="s">
+      <c r="C61" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="56" t="s">
+      <c r="D61" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="57" t="n">
+      <c r="H61" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="54" t="n">
+      <c r="A62" s="53" t="n">
         <v>43275</v>
       </c>
-      <c r="B62" s="55" t="n">
+      <c r="B62" s="54" t="n">
         <v>0.5</v>
       </c>
-      <c r="C62" s="56" t="s">
+      <c r="C62" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="56" t="s">
+      <c r="D62" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="57" t="n">
+      <c r="H62" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="50" t="n">
+      <c r="A63" s="49" t="n">
         <v>43275</v>
       </c>
-      <c r="B63" s="51" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C63" s="52" t="s">
+      <c r="B63" s="50" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C63" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="53" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" s="52" t="s">
+      <c r="D63" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="53" t="n">
+      <c r="H63" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="62" t="n">
+      <c r="A64" s="61" t="n">
         <v>43279</v>
       </c>
-      <c r="B64" s="63" t="n">
+      <c r="B64" s="62" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C64" s="64" t="s">
+      <c r="C64" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="65" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" s="64" t="s">
+      <c r="D64" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="65" t="n">
+      <c r="H64" s="64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="62" t="n">
+      <c r="A65" s="61" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="63" t="n">
+      <c r="B65" s="62" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="64" t="s">
+      <c r="C65" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="65" t="n">
-        <v>3</v>
-      </c>
-      <c r="G65" s="64" t="s">
+      <c r="D65" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="65" t="n">
+      <c r="H65" s="64" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10550,22 +10594,24 @@
       <c r="B68" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="46" t="n">
+      <c r="D68" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E68" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G68" s="45" t="s">
+      <c r="F68" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="36"/>
+      <c r="H68" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="32" t="n">
@@ -10574,22 +10620,24 @@
       <c r="B69" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="45" t="s">
+      <c r="C69" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="46" t="n">
+      <c r="D69" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" s="45" t="s">
+      <c r="F69" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="36"/>
+      <c r="H69" s="36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="32" t="n">
@@ -10598,22 +10646,24 @@
       <c r="B70" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="45" t="s">
+      <c r="C70" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="46" t="n">
+      <c r="D70" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E70" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" s="45" t="s">
+      <c r="F70" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H70" s="36"/>
+      <c r="H70" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="32" t="n">
@@ -10622,22 +10672,24 @@
       <c r="B71" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C71" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="46" t="n">
+      <c r="D71" s="43" t="n">
         <v>3</v>
       </c>
       <c r="E71" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="45" t="s">
+      <c r="F71" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H71" s="36"/>
+      <c r="H71" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="32" t="n">
@@ -10646,22 +10698,24 @@
       <c r="B72" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="45" t="s">
+      <c r="C72" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="46" t="n">
+      <c r="D72" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E72" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="45" t="s">
+      <c r="F72" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H72" s="36"/>
+      <c r="H72" s="36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="37" t="n">
@@ -10670,22 +10724,24 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="47" t="s">
+      <c r="C73" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="48" t="n">
+      <c r="D73" s="45" t="n">
         <v>3</v>
       </c>
       <c r="E73" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="47" t="s">
+      <c r="F73" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H73" s="36"/>
+      <c r="H73" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="37" t="n">
@@ -10694,22 +10750,24 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="47" t="s">
+      <c r="C74" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="48" t="n">
+      <c r="D74" s="45" t="n">
         <v>1</v>
       </c>
       <c r="E74" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="47" t="s">
+      <c r="F74" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="36"/>
+      <c r="H74" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="37" t="n">
@@ -10718,22 +10776,24 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="C75" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="48" t="n">
+      <c r="D75" s="45" t="n">
         <v>2</v>
       </c>
       <c r="E75" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="47" t="s">
+      <c r="F75" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H75" s="36"/>
+      <c r="H75" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="34"/>
@@ -10751,7 +10811,7 @@
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -10768,16 +10828,16 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>63</v>
+      <c r="C78" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F78" s="35"/>
-      <c r="G78" s="42" t="s">
-        <v>64</v>
+      <c r="G78" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="H78" s="36"/>
     </row>
@@ -10788,16 +10848,16 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="42" t="s">
-        <v>65</v>
+      <c r="C79" s="46" t="s">
+        <v>49</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="35"/>
-      <c r="G79" s="42" t="s">
-        <v>66</v>
+      <c r="G79" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="H79" s="36"/>
     </row>
@@ -10808,16 +10868,16 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="42" t="s">
-        <v>67</v>
+      <c r="C80" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F80" s="35"/>
-      <c r="G80" s="42" t="s">
-        <v>68</v>
+      <c r="G80" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="H80" s="36"/>
     </row>
@@ -10828,16 +10888,16 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="42" t="s">
-        <v>69</v>
+      <c r="C81" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="35"/>
-      <c r="G81" s="42" t="s">
-        <v>70</v>
+      <c r="G81" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="H81" s="36"/>
     </row>
@@ -10857,7 +10917,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -10874,16 +10934,16 @@
       <c r="B84" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="42" t="s">
-        <v>72</v>
+      <c r="C84" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F84" s="35"/>
-      <c r="G84" s="42" t="s">
-        <v>73</v>
+      <c r="G84" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -10894,16 +10954,16 @@
       <c r="B85" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="42" t="s">
-        <v>74</v>
+      <c r="C85" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F85" s="35"/>
-      <c r="G85" s="42" t="s">
-        <v>75</v>
+      <c r="G85" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -10923,7 +10983,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -10940,16 +11000,16 @@
       <c r="B88" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="42" t="s">
-        <v>77</v>
+      <c r="C88" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F88" s="35"/>
-      <c r="G88" s="42" t="s">
-        <v>78</v>
+      <c r="G88" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -10969,7 +11029,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -10986,16 +11046,16 @@
       <c r="B91" s="33" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="42" t="s">
-        <v>80</v>
+      <c r="C91" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="35"/>
-      <c r="G91" s="42" t="s">
-        <v>81</v>
+      <c r="G91" s="46" t="s">
+        <v>65</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -11015,7 +11075,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -11033,15 +11093,15 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D94" s="44"/>
+        <v>64</v>
+      </c>
+      <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="44"/>
+      <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -11066,7 +11126,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -11079,18 +11139,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K59" activeCellId="0" sqref="K59"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H76" activeCellId="0" sqref="H76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11115,7 +11175,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12595,22 +12655,24 @@
       <c r="B68" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" s="66" t="s">
+      <c r="C68" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="36"/>
+      <c r="H68" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="32" t="n">
@@ -12619,22 +12681,24 @@
       <c r="B69" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="66" t="s">
+      <c r="C69" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="E69" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" s="66" t="s">
+      <c r="D69" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="36"/>
+      <c r="H69" s="36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="32" t="n">
@@ -12643,22 +12707,24 @@
       <c r="B70" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="66" t="s">
+      <c r="C70" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="E70" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="H70" s="36"/>
+      <c r="D70" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="32" t="n">
@@ -12667,22 +12733,24 @@
       <c r="B71" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="E71" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="66" t="s">
+      <c r="C71" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="H71" s="36"/>
+      <c r="H71" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="32" t="n">
@@ -12691,22 +12759,24 @@
       <c r="B72" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="66" t="s">
+      <c r="C72" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="E72" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="F72" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="66" t="s">
+      <c r="D72" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="F72" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="H72" s="36"/>
+      <c r="H72" s="36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="37" t="n">
@@ -12715,22 +12785,24 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="66" t="s">
+      <c r="C73" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="67" t="n">
-        <v>3</v>
-      </c>
-      <c r="E73" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="66" t="s">
+      <c r="D73" s="66" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="H73" s="36"/>
+      <c r="H73" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="37" t="n">
@@ -12739,22 +12811,24 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="66" t="s">
+      <c r="C74" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="E74" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="H74" s="36"/>
+      <c r="D74" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="H74" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="37" t="n">
@@ -12763,22 +12837,24 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="66" t="s">
+      <c r="C75" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="G75" s="66" t="s">
+      <c r="D75" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="H75" s="36"/>
+      <c r="H75" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="34"/>
@@ -12796,7 +12872,7 @@
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -12813,16 +12889,16 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>63</v>
+      <c r="C78" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F78" s="35"/>
-      <c r="G78" s="42" t="s">
-        <v>64</v>
+      <c r="G78" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="H78" s="36"/>
     </row>
@@ -12833,16 +12909,16 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="42" t="s">
-        <v>65</v>
+      <c r="C79" s="46" t="s">
+        <v>49</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="35"/>
-      <c r="G79" s="42" t="s">
-        <v>66</v>
+      <c r="G79" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="H79" s="36"/>
     </row>
@@ -12853,16 +12929,16 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="42" t="s">
-        <v>67</v>
+      <c r="C80" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F80" s="35"/>
-      <c r="G80" s="42" t="s">
-        <v>68</v>
+      <c r="G80" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="H80" s="36"/>
     </row>
@@ -12873,16 +12949,16 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="42" t="s">
-        <v>69</v>
+      <c r="C81" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="35"/>
-      <c r="G81" s="42" t="s">
-        <v>70</v>
+      <c r="G81" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="H81" s="36"/>
     </row>
@@ -12902,7 +12978,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -12919,16 +12995,16 @@
       <c r="B84" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="42" t="s">
-        <v>72</v>
+      <c r="C84" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F84" s="35"/>
-      <c r="G84" s="42" t="s">
-        <v>73</v>
+      <c r="G84" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -12939,16 +13015,16 @@
       <c r="B85" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="42" t="s">
-        <v>74</v>
+      <c r="C85" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F85" s="35"/>
-      <c r="G85" s="42" t="s">
-        <v>75</v>
+      <c r="G85" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -12968,7 +13044,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -12985,16 +13061,16 @@
       <c r="B88" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="42" t="s">
-        <v>77</v>
+      <c r="C88" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F88" s="35"/>
-      <c r="G88" s="42" t="s">
-        <v>78</v>
+      <c r="G88" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -13014,7 +13090,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -13031,16 +13107,16 @@
       <c r="B91" s="33" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="42" t="s">
-        <v>80</v>
+      <c r="C91" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="35"/>
-      <c r="G91" s="42" t="s">
-        <v>81</v>
+      <c r="G91" s="46" t="s">
+        <v>65</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -13060,7 +13136,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -13078,15 +13154,15 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D94" s="44"/>
+        <v>64</v>
+      </c>
+      <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="44"/>
+      <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -13111,7 +13187,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13126,16 +13202,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13160,7 +13236,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>102</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13813,19 +13889,19 @@
       <c r="C31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="69" t="n">
+      <c r="D31" s="68" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="69" t="n">
+      <c r="F31" s="68" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="70" t="n">
+      <c r="H31" s="69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14641,17 +14717,23 @@
         <v>0.625</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="D68" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E68" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="35"/>
+      <c r="F68" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="G68" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="H68" s="36"/>
+        <v>20</v>
+      </c>
+      <c r="H68" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="32" t="n">
@@ -14661,17 +14743,23 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="D69" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="35"/>
+      <c r="F69" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="G69" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="H69" s="36"/>
+        <v>12</v>
+      </c>
+      <c r="H69" s="36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="32" t="n">
@@ -14681,17 +14769,23 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="35"/>
+        <v>13</v>
+      </c>
+      <c r="D70" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E70" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="35"/>
+      <c r="F70" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="G70" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="H70" s="36"/>
+        <v>4</v>
+      </c>
+      <c r="H70" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="32" t="n">
@@ -14701,17 +14795,23 @@
         <v>0.625</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="D71" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E71" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="35"/>
+      <c r="F71" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="G71" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H71" s="36"/>
+        <v>18</v>
+      </c>
+      <c r="H71" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="32" t="n">
@@ -14721,17 +14821,23 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="35"/>
+        <v>28</v>
+      </c>
+      <c r="D72" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E72" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="35"/>
+      <c r="F72" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="G72" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H72" s="36"/>
+        <v>32</v>
+      </c>
+      <c r="H72" s="36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="37" t="n">
@@ -14740,18 +14846,24 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="40"/>
+      <c r="C73" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="45" t="n">
+        <v>2</v>
+      </c>
       <c r="E73" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="40"/>
-      <c r="G73" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H73" s="36"/>
+      <c r="F73" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="37" t="n">
@@ -14760,18 +14872,24 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="40"/>
+      <c r="C74" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="E74" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="40"/>
-      <c r="G74" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="H74" s="36"/>
+      <c r="F74" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="37" t="n">
@@ -14780,18 +14898,24 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="40"/>
+      <c r="C75" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="45" t="n">
+        <v>0</v>
+      </c>
       <c r="E75" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="40"/>
-      <c r="G75" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="H75" s="36"/>
+      <c r="F75" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H75" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="34"/>
@@ -14809,7 +14933,7 @@
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -14826,16 +14950,16 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>63</v>
+      <c r="C78" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F78" s="35"/>
-      <c r="G78" s="42" t="s">
-        <v>64</v>
+      <c r="G78" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="H78" s="36"/>
     </row>
@@ -14846,16 +14970,16 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="42" t="s">
-        <v>65</v>
+      <c r="C79" s="46" t="s">
+        <v>49</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="35"/>
-      <c r="G79" s="42" t="s">
-        <v>66</v>
+      <c r="G79" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="H79" s="36"/>
     </row>
@@ -14866,16 +14990,16 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="42" t="s">
-        <v>67</v>
+      <c r="C80" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F80" s="35"/>
-      <c r="G80" s="42" t="s">
-        <v>68</v>
+      <c r="G80" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="H80" s="36"/>
     </row>
@@ -14886,16 +15010,16 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="42" t="s">
-        <v>69</v>
+      <c r="C81" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="35"/>
-      <c r="G81" s="42" t="s">
-        <v>70</v>
+      <c r="G81" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="H81" s="36"/>
     </row>
@@ -14915,7 +15039,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -14932,16 +15056,16 @@
       <c r="B84" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="42" t="s">
-        <v>72</v>
+      <c r="C84" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F84" s="35"/>
-      <c r="G84" s="42" t="s">
-        <v>73</v>
+      <c r="G84" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -14952,16 +15076,16 @@
       <c r="B85" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="42" t="s">
-        <v>74</v>
+      <c r="C85" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F85" s="35"/>
-      <c r="G85" s="42" t="s">
-        <v>75</v>
+      <c r="G85" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -14981,7 +15105,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -14998,16 +15122,16 @@
       <c r="B88" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="42" t="s">
-        <v>77</v>
+      <c r="C88" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F88" s="35"/>
-      <c r="G88" s="42" t="s">
-        <v>78</v>
+      <c r="G88" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -15027,7 +15151,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -15044,16 +15168,16 @@
       <c r="B91" s="33" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="42" t="s">
-        <v>80</v>
+      <c r="C91" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="35"/>
-      <c r="G91" s="42" t="s">
-        <v>81</v>
+      <c r="G91" s="46" t="s">
+        <v>65</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -15073,7 +15197,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -15091,15 +15215,15 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D94" s="44"/>
+        <v>64</v>
+      </c>
+      <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="44"/>
+      <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -15123,7 +15247,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -15138,16 +15262,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15172,7 +15296,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16652,22 +16776,24 @@
       <c r="B68" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="46" t="n">
+      <c r="D68" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E68" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" s="45" t="s">
+      <c r="F68" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="36"/>
+      <c r="H68" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="32" t="n">
@@ -16676,22 +16802,24 @@
       <c r="B69" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="45" t="s">
+      <c r="C69" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="46" t="n">
+      <c r="D69" s="43" t="n">
         <v>1</v>
       </c>
       <c r="E69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="45" t="s">
+      <c r="F69" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="36"/>
+      <c r="H69" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="32" t="n">
@@ -16700,22 +16828,24 @@
       <c r="B70" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="45" t="s">
+      <c r="C70" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="46" t="n">
+      <c r="D70" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E70" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" s="45" t="s">
+      <c r="F70" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H70" s="36"/>
+      <c r="H70" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="32" t="n">
@@ -16724,22 +16854,24 @@
       <c r="B71" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C71" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="46" t="n">
+      <c r="D71" s="43" t="n">
         <v>3</v>
       </c>
       <c r="E71" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="45" t="s">
+      <c r="F71" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H71" s="36"/>
+      <c r="H71" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="32" t="n">
@@ -16748,22 +16880,24 @@
       <c r="B72" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="45" t="s">
+      <c r="C72" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="46" t="n">
+      <c r="D72" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E72" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="45" t="s">
+      <c r="F72" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H72" s="36"/>
+      <c r="H72" s="36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="37" t="n">
@@ -16772,22 +16906,24 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="47" t="s">
+      <c r="C73" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="48" t="n">
+      <c r="D73" s="45" t="n">
         <v>2</v>
       </c>
       <c r="E73" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="47" t="s">
+      <c r="F73" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H73" s="36"/>
+      <c r="H73" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="37" t="n">
@@ -16796,22 +16932,24 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="47" t="s">
+      <c r="C74" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="48" t="n">
+      <c r="D74" s="45" t="n">
         <v>1</v>
       </c>
       <c r="E74" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G74" s="47" t="s">
+      <c r="F74" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="36"/>
+      <c r="H74" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="37" t="n">
@@ -16820,22 +16958,24 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="C75" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="48" t="n">
+      <c r="D75" s="45" t="n">
         <v>1</v>
       </c>
       <c r="E75" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G75" s="47" t="s">
+      <c r="F75" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H75" s="36"/>
+      <c r="H75" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="34"/>
@@ -16853,7 +16993,7 @@
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -16870,16 +17010,16 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>63</v>
+      <c r="C78" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F78" s="35"/>
-      <c r="G78" s="42" t="s">
-        <v>64</v>
+      <c r="G78" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="H78" s="36"/>
     </row>
@@ -16890,16 +17030,16 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="42" t="s">
-        <v>65</v>
+      <c r="C79" s="46" t="s">
+        <v>49</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="35"/>
-      <c r="G79" s="42" t="s">
-        <v>66</v>
+      <c r="G79" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="H79" s="36"/>
     </row>
@@ -16910,16 +17050,16 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="42" t="s">
-        <v>67</v>
+      <c r="C80" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F80" s="35"/>
-      <c r="G80" s="42" t="s">
-        <v>68</v>
+      <c r="G80" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="H80" s="36"/>
     </row>
@@ -16930,16 +17070,16 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="42" t="s">
-        <v>69</v>
+      <c r="C81" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="35"/>
-      <c r="G81" s="42" t="s">
-        <v>70</v>
+      <c r="G81" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="H81" s="36"/>
     </row>
@@ -16959,7 +17099,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -16976,16 +17116,16 @@
       <c r="B84" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="42" t="s">
-        <v>72</v>
+      <c r="C84" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F84" s="35"/>
-      <c r="G84" s="42" t="s">
-        <v>73</v>
+      <c r="G84" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -16996,16 +17136,16 @@
       <c r="B85" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="42" t="s">
-        <v>74</v>
+      <c r="C85" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F85" s="35"/>
-      <c r="G85" s="42" t="s">
-        <v>75</v>
+      <c r="G85" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -17025,7 +17165,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -17042,16 +17182,16 @@
       <c r="B88" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="42" t="s">
-        <v>77</v>
+      <c r="C88" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F88" s="35"/>
-      <c r="G88" s="42" t="s">
-        <v>78</v>
+      <c r="G88" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -17071,7 +17211,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -17088,16 +17228,16 @@
       <c r="B91" s="33" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="42" t="s">
-        <v>80</v>
+      <c r="C91" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="35"/>
-      <c r="G91" s="42" t="s">
-        <v>81</v>
+      <c r="G91" s="46" t="s">
+        <v>65</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -17117,7 +17257,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -17135,15 +17275,15 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D94" s="44"/>
+        <v>64</v>
+      </c>
+      <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="44"/>
+      <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -17167,7 +17307,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -17182,16 +17322,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J75" activeCellId="0" sqref="J75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17209,7 +17349,7 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -17219,7 +17359,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>83</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18700,17 +18840,23 @@
         <v>0.625</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="D68" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="E68" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="35"/>
+      <c r="F68" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="G68" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="H68" s="36"/>
+        <v>20</v>
+      </c>
+      <c r="H68" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="32" t="n">
@@ -18720,17 +18866,23 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="D69" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="E69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="35"/>
+      <c r="F69" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="G69" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="H69" s="36"/>
+        <v>12</v>
+      </c>
+      <c r="H69" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="32" t="n">
@@ -18740,17 +18892,23 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="35"/>
+        <v>13</v>
+      </c>
+      <c r="D70" s="43" t="n">
+        <v>3</v>
+      </c>
       <c r="E70" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="35"/>
+      <c r="F70" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="G70" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="H70" s="36"/>
+        <v>4</v>
+      </c>
+      <c r="H70" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="32" t="n">
@@ -18760,17 +18918,23 @@
         <v>0.625</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="D71" s="43" t="n">
+        <v>3</v>
+      </c>
       <c r="E71" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="35"/>
+      <c r="F71" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="G71" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H71" s="36"/>
+        <v>18</v>
+      </c>
+      <c r="H71" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="32" t="n">
@@ -18780,17 +18944,23 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="35"/>
+        <v>28</v>
+      </c>
+      <c r="D72" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E72" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="35"/>
+      <c r="F72" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="G72" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H72" s="36"/>
+        <v>32</v>
+      </c>
+      <c r="H72" s="36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="37" t="n">
@@ -18799,18 +18969,24 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="40"/>
+      <c r="C73" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="45" t="n">
+        <v>4</v>
+      </c>
       <c r="E73" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="40"/>
-      <c r="G73" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H73" s="36"/>
+      <c r="F73" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="37" t="n">
@@ -18819,18 +18995,24 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="40"/>
+      <c r="C74" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="E74" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="40"/>
-      <c r="G74" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="H74" s="36"/>
+      <c r="F74" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="37" t="n">
@@ -18839,18 +19021,24 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="40"/>
+      <c r="C75" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="E75" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="40"/>
-      <c r="G75" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="H75" s="36"/>
+      <c r="F75" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H75" s="36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="34"/>
@@ -18868,7 +19056,7 @@
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -18885,16 +19073,16 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>63</v>
+      <c r="C78" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F78" s="35"/>
-      <c r="G78" s="42" t="s">
-        <v>64</v>
+      <c r="G78" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="H78" s="36"/>
     </row>
@@ -18905,16 +19093,16 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="42" t="s">
-        <v>65</v>
+      <c r="C79" s="46" t="s">
+        <v>49</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="35"/>
-      <c r="G79" s="42" t="s">
-        <v>66</v>
+      <c r="G79" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="H79" s="36"/>
     </row>
@@ -18925,16 +19113,16 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="42" t="s">
-        <v>67</v>
+      <c r="C80" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F80" s="35"/>
-      <c r="G80" s="42" t="s">
-        <v>68</v>
+      <c r="G80" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="H80" s="36"/>
     </row>
@@ -18945,16 +19133,16 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="42" t="s">
-        <v>69</v>
+      <c r="C81" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="35"/>
-      <c r="G81" s="42" t="s">
-        <v>70</v>
+      <c r="G81" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="H81" s="36"/>
     </row>
@@ -18974,7 +19162,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -18991,16 +19179,16 @@
       <c r="B84" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="42" t="s">
-        <v>72</v>
+      <c r="C84" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F84" s="35"/>
-      <c r="G84" s="42" t="s">
-        <v>73</v>
+      <c r="G84" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -19011,16 +19199,16 @@
       <c r="B85" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="42" t="s">
-        <v>74</v>
+      <c r="C85" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F85" s="35"/>
-      <c r="G85" s="42" t="s">
-        <v>75</v>
+      <c r="G85" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -19040,7 +19228,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -19057,16 +19245,16 @@
       <c r="B88" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="42" t="s">
-        <v>77</v>
+      <c r="C88" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F88" s="35"/>
-      <c r="G88" s="42" t="s">
-        <v>78</v>
+      <c r="G88" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -19086,7 +19274,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -19103,16 +19291,16 @@
       <c r="B91" s="33" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="42" t="s">
-        <v>80</v>
+      <c r="C91" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="35"/>
-      <c r="G91" s="42" t="s">
-        <v>81</v>
+      <c r="G91" s="46" t="s">
+        <v>65</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -19132,7 +19320,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -19150,15 +19338,15 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D94" s="44"/>
+        <v>64</v>
+      </c>
+      <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="44"/>
+      <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -19182,7 +19370,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -19197,16 +19385,16 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M36" activeCellId="0" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.57"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19231,7 +19419,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20711,22 +20899,24 @@
       <c r="B68" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="46" t="n">
+      <c r="D68" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E68" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" s="45" t="s">
+      <c r="F68" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="36"/>
+      <c r="H68" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="32" t="n">
@@ -20735,22 +20925,24 @@
       <c r="B69" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="45" t="s">
+      <c r="C69" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="46" t="n">
+      <c r="D69" s="43" t="n">
         <v>3</v>
       </c>
       <c r="E69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G69" s="45" t="s">
+      <c r="F69" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="36"/>
+      <c r="H69" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="32" t="n">
@@ -20759,22 +20951,24 @@
       <c r="B70" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="45" t="s">
+      <c r="C70" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="46" t="n">
+      <c r="D70" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E70" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="45" t="s">
+      <c r="F70" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H70" s="36"/>
+      <c r="H70" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="32" t="n">
@@ -20783,22 +20977,24 @@
       <c r="B71" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C71" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="46" t="n">
+      <c r="D71" s="43" t="n">
         <v>3</v>
       </c>
       <c r="E71" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="45" t="s">
+      <c r="F71" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="H71" s="36"/>
+      <c r="H71" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="32" t="n">
@@ -20807,22 +21003,24 @@
       <c r="B72" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="45" t="s">
+      <c r="C72" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="46" t="n">
+      <c r="D72" s="43" t="n">
         <v>3</v>
       </c>
       <c r="E72" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" s="45" t="s">
+      <c r="F72" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H72" s="36"/>
+      <c r="H72" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="37" t="n">
@@ -20831,22 +21029,24 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="47" t="s">
+      <c r="C73" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="48" t="n">
+      <c r="D73" s="45" t="n">
         <v>1</v>
       </c>
       <c r="E73" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="47" t="s">
+      <c r="F73" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H73" s="36"/>
+      <c r="H73" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="37" t="n">
@@ -20855,22 +21055,24 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="47" t="s">
+      <c r="C74" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="48" t="n">
+      <c r="D74" s="45" t="n">
         <v>1</v>
       </c>
       <c r="E74" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G74" s="47" t="s">
+      <c r="F74" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="36"/>
+      <c r="H74" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="37" t="n">
@@ -20879,22 +21081,24 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="C75" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="48" t="n">
+      <c r="D75" s="45" t="n">
         <v>2</v>
       </c>
       <c r="E75" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G75" s="47" t="s">
+      <c r="F75" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H75" s="36"/>
+      <c r="H75" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="34"/>
@@ -20912,7 +21116,7 @@
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -20929,16 +21133,16 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>63</v>
+      <c r="C78" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F78" s="35"/>
-      <c r="G78" s="42" t="s">
-        <v>64</v>
+      <c r="G78" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="H78" s="36"/>
     </row>
@@ -20949,16 +21153,16 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="42" t="s">
-        <v>65</v>
+      <c r="C79" s="46" t="s">
+        <v>49</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="35"/>
-      <c r="G79" s="42" t="s">
-        <v>66</v>
+      <c r="G79" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="H79" s="36"/>
     </row>
@@ -20969,16 +21173,16 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="42" t="s">
-        <v>67</v>
+      <c r="C80" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F80" s="35"/>
-      <c r="G80" s="42" t="s">
-        <v>68</v>
+      <c r="G80" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="H80" s="36"/>
     </row>
@@ -20989,16 +21193,16 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="42" t="s">
-        <v>69</v>
+      <c r="C81" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="35"/>
-      <c r="G81" s="42" t="s">
-        <v>70</v>
+      <c r="G81" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="H81" s="36"/>
     </row>
@@ -21018,7 +21222,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -21035,16 +21239,16 @@
       <c r="B84" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="42" t="s">
-        <v>72</v>
+      <c r="C84" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F84" s="35"/>
-      <c r="G84" s="42" t="s">
-        <v>73</v>
+      <c r="G84" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -21055,16 +21259,16 @@
       <c r="B85" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="42" t="s">
-        <v>74</v>
+      <c r="C85" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F85" s="35"/>
-      <c r="G85" s="42" t="s">
-        <v>75</v>
+      <c r="G85" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -21084,7 +21288,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -21101,16 +21305,16 @@
       <c r="B88" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C88" s="42" t="s">
-        <v>77</v>
+      <c r="C88" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F88" s="35"/>
-      <c r="G88" s="42" t="s">
-        <v>78</v>
+      <c r="G88" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -21130,7 +21334,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -21147,16 +21351,16 @@
       <c r="B91" s="33" t="n">
         <v>0.5</v>
       </c>
-      <c r="C91" s="42" t="s">
-        <v>80</v>
+      <c r="C91" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="35"/>
-      <c r="G91" s="42" t="s">
-        <v>81</v>
+      <c r="G91" s="46" t="s">
+        <v>65</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -21176,7 +21380,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -21194,15 +21398,15 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D94" s="44"/>
+        <v>64</v>
+      </c>
+      <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="44"/>
+      <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -21226,7 +21430,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="73">
   <si>
     <t xml:space="preserve">RESULTADOS</t>
   </si>
@@ -232,10 +232,13 @@
     <t xml:space="preserve">PALPITE DO CAMPEÃO</t>
   </si>
   <si>
-    <t xml:space="preserve">França </t>
+    <t xml:space="preserve">Suecia</t>
   </si>
   <si>
     <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">França </t>
   </si>
   <si>
     <t xml:space="preserve">Croacia</t>
@@ -476,7 +479,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="84">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -669,6 +672,54 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
@@ -844,8 +895,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H74" activeCellId="0" sqref="H74"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H56" activeCellId="0" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -878,7 +929,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,7 +2168,9 @@
       <c r="G56" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="36"/>
+      <c r="H56" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="32" t="n">
@@ -2141,7 +2194,9 @@
       <c r="G57" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="36"/>
+      <c r="H57" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="22"/>
@@ -2906,8 +2961,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C43" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R38" activeCellId="0" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2933,7 +2988,7 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4108,19 +4163,19 @@
       <c r="C54" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="70" t="n">
+      <c r="D54" s="82" t="n">
         <v>2</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="70" t="n">
+      <c r="F54" s="82" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="71" t="n">
+      <c r="H54" s="83" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4134,19 +4189,19 @@
       <c r="C55" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="70" t="n">
+      <c r="D55" s="82" t="n">
         <v>2</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="70" t="n">
+      <c r="F55" s="82" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="71" t="n">
+      <c r="H55" s="83" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4172,7 +4227,9 @@
       <c r="G56" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="36"/>
+      <c r="H56" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="32" t="n">
@@ -4196,7 +4253,9 @@
       <c r="G57" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="36"/>
+      <c r="H57" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="22"/>
@@ -4959,8 +5018,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N42" activeCellId="0" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4993,7 +5052,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5845,54 +5904,54 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="32" t="n">
+      <c r="A40" s="11" t="n">
         <v>43278</v>
       </c>
-      <c r="B40" s="33" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C40" s="34" t="s">
+      <c r="B40" s="12" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="35" t="n">
+      <c r="D40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="G40" s="34" t="s">
+      <c r="G40" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="36" t="n">
+      <c r="H40" s="15" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="32" t="n">
+      <c r="A41" s="6" t="n">
         <v>43278</v>
       </c>
-      <c r="B41" s="33" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C41" s="34" t="s">
+      <c r="B41" s="7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="34" t="s">
+      <c r="D41" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="36" t="n">
+      <c r="H41" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6027,54 +6086,54 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="32" t="n">
+      <c r="A48" s="6" t="n">
         <v>43278</v>
       </c>
-      <c r="B48" s="33" t="n">
+      <c r="B48" s="7" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="34" t="s">
+      <c r="D48" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="36" t="n">
+      <c r="H48" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="32" t="n">
+      <c r="A49" s="6" t="n">
         <v>43278</v>
       </c>
-      <c r="B49" s="33" t="n">
+      <c r="B49" s="7" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="35" t="n">
+      <c r="D49" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="G49" s="34" t="s">
+      <c r="G49" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="36" t="n">
+      <c r="H49" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6209,52 +6268,56 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="32" t="n">
+      <c r="A56" s="11" t="n">
         <v>43279</v>
       </c>
-      <c r="B56" s="33" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C56" s="34" t="s">
+      <c r="B56" s="12" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" s="34" t="s">
+      <c r="D56" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="36"/>
+      <c r="H56" s="15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="32" t="n">
+      <c r="A57" s="11" t="n">
         <v>43279</v>
       </c>
-      <c r="B57" s="33" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C57" s="34" t="s">
+      <c r="B57" s="12" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" s="34" t="s">
+      <c r="D57" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="36"/>
+      <c r="H57" s="15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="22"/>
@@ -6335,28 +6398,28 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="32" t="n">
+      <c r="A62" s="6" t="n">
         <v>43275</v>
       </c>
-      <c r="B62" s="33" t="n">
+      <c r="B62" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" s="34" t="s">
+      <c r="D62" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="36" t="n">
+      <c r="H62" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6387,54 +6450,54 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="32" t="n">
+      <c r="A64" s="6" t="n">
         <v>43279</v>
       </c>
-      <c r="B64" s="33" t="n">
+      <c r="B64" s="7" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" s="34" t="s">
+      <c r="D64" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="36" t="n">
+      <c r="H64" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="37" t="n">
+      <c r="A65" s="48" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="38" t="n">
+      <c r="B65" s="49" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="40" t="n">
-        <v>3</v>
-      </c>
-      <c r="G65" s="39" t="s">
+      <c r="D65" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="51" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="36" t="n">
+      <c r="H65" s="15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6465,210 +6528,210 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="32" t="n">
+      <c r="A68" s="6" t="n">
         <v>43281</v>
       </c>
-      <c r="B68" s="33" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C68" s="42" t="s">
+      <c r="B68" s="7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C68" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G68" s="42" t="s">
+      <c r="D68" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="36" t="n">
+      <c r="H68" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="32" t="n">
+      <c r="A69" s="6" t="n">
         <v>43281</v>
       </c>
-      <c r="B69" s="33" t="n">
+      <c r="B69" s="7" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="42" t="s">
+      <c r="C69" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="E69" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G69" s="42" t="s">
+      <c r="D69" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="36" t="n">
+      <c r="H69" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="32" t="n">
+      <c r="A70" s="6" t="n">
         <v>43282</v>
       </c>
-      <c r="B70" s="33" t="n">
+      <c r="B70" s="7" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="42" t="s">
+      <c r="C70" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="43" t="n">
-        <v>3</v>
-      </c>
-      <c r="E70" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="42" t="s">
+      <c r="D70" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H70" s="36" t="n">
+      <c r="H70" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="32" t="n">
+      <c r="A71" s="6" t="n">
         <v>43282</v>
       </c>
-      <c r="B71" s="33" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C71" s="42" t="s">
+      <c r="B71" s="7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C71" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="E71" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="42" t="s">
+      <c r="D71" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H71" s="36" t="n">
+      <c r="H71" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="32" t="n">
+      <c r="A72" s="11" t="n">
         <v>43283</v>
       </c>
-      <c r="B72" s="33" t="n">
+      <c r="B72" s="12" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="42" t="s">
+      <c r="C72" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="E72" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" s="42" t="s">
+      <c r="D72" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="H72" s="36" t="n">
+      <c r="H72" s="15" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="37" t="n">
+      <c r="A73" s="48" t="n">
         <v>43283</v>
       </c>
-      <c r="B73" s="38" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C73" s="44" t="s">
+      <c r="B73" s="49" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="45" t="n">
-        <v>3</v>
-      </c>
-      <c r="E73" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="44" t="s">
+      <c r="D73" s="51" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="H73" s="36" t="n">
+      <c r="H73" s="15" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="37" t="n">
+      <c r="A74" s="48" t="n">
         <v>43284</v>
       </c>
-      <c r="B74" s="38" t="n">
+      <c r="B74" s="49" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="44" t="s">
+      <c r="C74" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="45" t="n">
-        <v>2</v>
-      </c>
-      <c r="E74" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="44" t="s">
+      <c r="D74" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="36" t="n">
+      <c r="H74" s="15" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="37" t="n">
+      <c r="A75" s="55" t="n">
         <v>43284</v>
       </c>
-      <c r="B75" s="38" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C75" s="44" t="s">
+      <c r="B75" s="56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C75" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="45" t="n">
-        <v>2</v>
-      </c>
-      <c r="E75" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="44" t="s">
+      <c r="D75" s="58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E75" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H75" s="36" t="n">
+      <c r="H75" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6705,16 +6768,16 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="35"/>
+      <c r="C78" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="43"/>
       <c r="E78" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="35"/>
-      <c r="G78" s="46" t="s">
-        <v>48</v>
+      <c r="F78" s="43"/>
+      <c r="G78" s="42" t="s">
+        <v>15</v>
       </c>
       <c r="H78" s="36"/>
     </row>
@@ -6725,16 +6788,16 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="35"/>
+      <c r="C79" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="43"/>
       <c r="E79" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F79" s="35"/>
-      <c r="G79" s="46" t="s">
-        <v>50</v>
+      <c r="F79" s="43"/>
+      <c r="G79" s="42" t="s">
+        <v>36</v>
       </c>
       <c r="H79" s="36"/>
     </row>
@@ -6745,16 +6808,16 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D80" s="35"/>
+      <c r="C80" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" s="43"/>
       <c r="E80" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F80" s="35"/>
-      <c r="G80" s="46" t="s">
-        <v>52</v>
+      <c r="F80" s="43"/>
+      <c r="G80" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="H80" s="36"/>
     </row>
@@ -6765,16 +6828,16 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="35"/>
+      <c r="C81" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="43"/>
       <c r="E81" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F81" s="35"/>
-      <c r="G81" s="46" t="s">
-        <v>54</v>
+      <c r="F81" s="43"/>
+      <c r="G81" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="H81" s="36"/>
     </row>
@@ -7020,7 +7083,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H75" activeCellId="0" sqref="H75"/>
+      <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7053,7 +7116,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8292,7 +8355,9 @@
       <c r="G56" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="36"/>
+      <c r="H56" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="32" t="n">
@@ -8316,7 +8381,9 @@
       <c r="G57" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="36"/>
+      <c r="H57" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="22"/>
@@ -9080,8 +9147,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H76" activeCellId="0" sqref="H76"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H56" activeCellId="0" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9114,178 +9181,178 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48" t="s">
+      <c r="A3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="n">
+      <c r="A4" s="61" t="n">
         <v>43265</v>
       </c>
-      <c r="B4" s="50" t="n">
+      <c r="B4" s="62" t="n">
         <v>0.5</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="51" t="s">
+      <c r="D4" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="52" t="n">
+      <c r="H4" s="64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49" t="n">
+      <c r="A5" s="61" t="n">
         <v>43266</v>
       </c>
-      <c r="B5" s="50" t="n">
+      <c r="B5" s="62" t="n">
         <v>0.375</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="51" t="s">
+      <c r="D5" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="52" t="n">
+      <c r="H5" s="64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="53" t="n">
+      <c r="A6" s="65" t="n">
         <v>43270</v>
       </c>
-      <c r="B6" s="54" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="55" t="s">
+      <c r="B6" s="66" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="55" t="s">
+      <c r="D6" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="56" t="n">
+      <c r="H6" s="68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="n">
+      <c r="A7" s="61" t="n">
         <v>43271</v>
       </c>
-      <c r="B7" s="50" t="n">
+      <c r="B7" s="62" t="n">
         <v>0.5</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="52" t="n">
+      <c r="H7" s="64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="49" t="n">
+      <c r="A8" s="61" t="n">
         <v>43276</v>
       </c>
-      <c r="B8" s="50" t="n">
+      <c r="B8" s="62" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="51" t="s">
+      <c r="D8" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="52" t="n">
+      <c r="H8" s="64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="53" t="n">
+      <c r="A9" s="65" t="n">
         <v>43276</v>
       </c>
-      <c r="B9" s="54" t="n">
+      <c r="B9" s="66" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="56" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="55" t="s">
+      <c r="D9" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="56" t="n">
+      <c r="H9" s="68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9316,158 +9383,158 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="53" t="n">
+      <c r="A12" s="65" t="n">
         <v>43266</v>
       </c>
-      <c r="B12" s="54" t="n">
+      <c r="B12" s="66" t="n">
         <v>0.5</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="55" t="s">
+      <c r="D12" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="56" t="n">
+      <c r="H12" s="68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="53" t="n">
+      <c r="A13" s="65" t="n">
         <v>43266</v>
       </c>
-      <c r="B13" s="54" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C13" s="55" t="s">
+      <c r="B13" s="66" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C13" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="55" t="s">
+      <c r="D13" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="56" t="n">
+      <c r="H13" s="68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="49" t="n">
+      <c r="A14" s="61" t="n">
         <v>43271</v>
       </c>
-      <c r="B14" s="50" t="n">
+      <c r="B14" s="62" t="n">
         <v>0.375</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="51" t="s">
+      <c r="D14" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="52" t="n">
+      <c r="H14" s="64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="49" t="n">
+      <c r="A15" s="61" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="50" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="51" t="s">
+      <c r="B15" s="62" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="52" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="51" t="s">
+      <c r="D15" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="52" t="n">
+      <c r="H15" s="64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="53" t="n">
+      <c r="A16" s="65" t="n">
         <v>43276</v>
       </c>
-      <c r="B16" s="54" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C16" s="55" t="s">
+      <c r="B16" s="66" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="55" t="s">
+      <c r="D16" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="56" t="n">
+      <c r="H16" s="68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="53" t="n">
+      <c r="A17" s="65" t="n">
         <v>43276</v>
       </c>
-      <c r="B17" s="54" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C17" s="55" t="s">
+      <c r="B17" s="66" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C17" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="56" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" s="55" t="s">
+      <c r="D17" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="56" t="n">
+      <c r="H17" s="68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9498,158 +9565,158 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="49" t="n">
+      <c r="A20" s="61" t="n">
         <v>43267</v>
       </c>
-      <c r="B20" s="50" t="n">
+      <c r="B20" s="62" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="52" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="51" t="s">
+      <c r="D20" s="64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="52" t="n">
+      <c r="H20" s="64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="53" t="n">
+      <c r="A21" s="65" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="54" t="n">
+      <c r="B21" s="66" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="55" t="s">
+      <c r="D21" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="56" t="n">
+      <c r="H21" s="68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="53" t="n">
+      <c r="A22" s="65" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="54" t="n">
+      <c r="B22" s="66" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="55" t="s">
+      <c r="D22" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="56" t="n">
+      <c r="H22" s="68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="49" t="n">
+      <c r="A23" s="61" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="50" t="n">
+      <c r="B23" s="62" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="52" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="51" t="s">
+      <c r="D23" s="64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="52" t="n">
+      <c r="H23" s="64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="53" t="n">
+      <c r="A24" s="65" t="n">
         <v>43277</v>
       </c>
-      <c r="B24" s="54" t="n">
+      <c r="B24" s="66" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" s="55" t="s">
+      <c r="D24" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="56" t="n">
+      <c r="H24" s="68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="53" t="n">
+      <c r="A25" s="65" t="n">
         <v>43277</v>
       </c>
-      <c r="B25" s="54" t="n">
+      <c r="B25" s="66" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="55" t="s">
+      <c r="D25" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="56" t="n">
+      <c r="H25" s="68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9680,158 +9747,158 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="53" t="n">
+      <c r="A28" s="65" t="n">
         <v>43267</v>
       </c>
-      <c r="B28" s="54" t="n">
+      <c r="B28" s="66" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="56" t="n">
+      <c r="D28" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="E28" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="55" t="s">
+      <c r="E28" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="56" t="n">
+      <c r="H28" s="68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="57" t="n">
+      <c r="A29" s="69" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="58" t="n">
+      <c r="B29" s="70" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="60" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="59" t="s">
+      <c r="D29" s="72" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="60" t="n">
+      <c r="H29" s="72" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="53" t="n">
+      <c r="A30" s="65" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="54" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="55" t="s">
+      <c r="B30" s="66" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="55" t="s">
+      <c r="D30" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="56" t="n">
+      <c r="H30" s="68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="53" t="n">
+      <c r="A31" s="65" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="54" t="n">
+      <c r="B31" s="66" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" s="55" t="s">
+      <c r="D31" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="56" t="n">
+      <c r="H31" s="68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="49" t="n">
+      <c r="A32" s="61" t="n">
         <v>43277</v>
       </c>
-      <c r="B32" s="50" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C32" s="51" t="s">
+      <c r="B32" s="62" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C32" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" s="51" t="s">
+      <c r="D32" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="52" t="n">
+      <c r="H32" s="64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="57" t="n">
+      <c r="A33" s="69" t="n">
         <v>43277</v>
       </c>
-      <c r="B33" s="58" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C33" s="59" t="s">
+      <c r="B33" s="70" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C33" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="60" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" s="59" t="s">
+      <c r="D33" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="72" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="60" t="n">
+      <c r="H33" s="72" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9864,158 +9931,158 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="53" t="n">
+      <c r="A36" s="65" t="n">
         <v>43268</v>
       </c>
-      <c r="B36" s="54" t="n">
+      <c r="B36" s="66" t="n">
         <v>0.375</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="55" t="s">
+      <c r="D36" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="56" t="n">
+      <c r="H36" s="68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="53" t="n">
+      <c r="A37" s="65" t="n">
         <v>43268</v>
       </c>
-      <c r="B37" s="54" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="55" t="s">
+      <c r="B37" s="66" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="56" t="n">
+      <c r="D37" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="E37" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="55" t="s">
+      <c r="E37" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="56" t="n">
+      <c r="H37" s="68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="49" t="n">
+      <c r="A38" s="61" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="50" t="n">
+      <c r="B38" s="62" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="52" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="51" t="s">
+      <c r="D38" s="64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="52" t="n">
+      <c r="H38" s="64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="53" t="n">
+      <c r="A39" s="65" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="54" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="55" t="s">
+      <c r="B39" s="66" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="55" t="s">
+      <c r="D39" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="56" t="n">
+      <c r="H39" s="68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="61" t="n">
+      <c r="A40" s="73" t="n">
         <v>43278</v>
       </c>
-      <c r="B40" s="62" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C40" s="63" t="s">
+      <c r="B40" s="74" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C40" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" s="63" t="s">
+      <c r="D40" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="76" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="64" t="n">
+      <c r="H40" s="76" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="61" t="n">
+      <c r="A41" s="73" t="n">
         <v>43278</v>
       </c>
-      <c r="B41" s="62" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C41" s="63" t="s">
+      <c r="B41" s="74" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C41" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="63" t="s">
+      <c r="D41" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="64" t="n">
+      <c r="H41" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10046,158 +10113,158 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="53" t="n">
+      <c r="A44" s="65" t="n">
         <v>43268</v>
       </c>
-      <c r="B44" s="54" t="n">
+      <c r="B44" s="66" t="n">
         <v>0.5</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="56" t="n">
+      <c r="D44" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="55" t="s">
+      <c r="E44" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="56" t="n">
+      <c r="H44" s="68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="57" t="n">
+      <c r="A45" s="69" t="n">
         <v>43269</v>
       </c>
-      <c r="B45" s="58" t="n">
+      <c r="B45" s="70" t="n">
         <v>0.375</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="59" t="s">
+      <c r="D45" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="60" t="n">
+      <c r="H45" s="72" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="49" t="n">
+      <c r="A46" s="61" t="n">
         <v>43274</v>
       </c>
-      <c r="B46" s="50" t="n">
+      <c r="B46" s="62" t="n">
         <v>0.5</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" s="51" t="s">
+      <c r="D46" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="52" t="n">
+      <c r="H46" s="64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="49" t="n">
+      <c r="A47" s="61" t="n">
         <v>43274</v>
       </c>
-      <c r="B47" s="50" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C47" s="51" t="s">
+      <c r="B47" s="62" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C47" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="51" t="s">
+      <c r="D47" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="52" t="n">
+      <c r="H47" s="64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="61" t="n">
+      <c r="A48" s="73" t="n">
         <v>43278</v>
       </c>
-      <c r="B48" s="62" t="n">
+      <c r="B48" s="74" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="63" t="s">
+      <c r="D48" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="64" t="n">
+      <c r="H48" s="76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="61" t="n">
+      <c r="A49" s="73" t="n">
         <v>43278</v>
       </c>
-      <c r="B49" s="62" t="n">
+      <c r="B49" s="74" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="64" t="n">
-        <v>3</v>
-      </c>
-      <c r="G49" s="63" t="s">
+      <c r="D49" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="64" t="n">
+      <c r="H49" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10228,156 +10295,160 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="49" t="n">
+      <c r="A52" s="61" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="50" t="n">
+      <c r="B52" s="62" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="52" t="n">
+      <c r="D52" s="64" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="51" t="s">
+      <c r="E52" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="52" t="n">
+      <c r="H52" s="64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="49" t="n">
+      <c r="A53" s="61" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="50" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="51" t="s">
+      <c r="B53" s="62" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G53" s="51" t="s">
+      <c r="D53" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="52" t="n">
+      <c r="H53" s="64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="49" t="n">
+      <c r="A54" s="61" t="n">
         <v>43274</v>
       </c>
-      <c r="B54" s="50" t="n">
+      <c r="B54" s="62" t="n">
         <v>0.375</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="51" t="s">
+      <c r="D54" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="52" t="n">
+      <c r="H54" s="64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="49" t="n">
+      <c r="A55" s="61" t="n">
         <v>43275</v>
       </c>
-      <c r="B55" s="50" t="n">
+      <c r="B55" s="62" t="n">
         <v>0.375</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="51" t="s">
+      <c r="D55" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="52" t="n">
+      <c r="H55" s="64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="61" t="n">
+      <c r="A56" s="73" t="n">
         <v>43279</v>
       </c>
-      <c r="B56" s="62" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C56" s="63" t="s">
+      <c r="B56" s="74" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C56" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="64" t="n">
-        <v>2</v>
-      </c>
-      <c r="E56" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" s="63" t="s">
+      <c r="D56" s="76" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="76" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="64"/>
+      <c r="H56" s="76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="61" t="n">
+      <c r="A57" s="73" t="n">
         <v>43279</v>
       </c>
-      <c r="B57" s="62" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C57" s="63" t="s">
+      <c r="B57" s="74" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C57" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" s="63" t="s">
+      <c r="D57" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="76" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="64"/>
+      <c r="H57" s="76" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="22"/>
@@ -10406,158 +10477,158 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="53" t="n">
+      <c r="A60" s="65" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="54" t="n">
+      <c r="B60" s="66" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="55" t="s">
+      <c r="D60" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="56" t="n">
+      <c r="H60" s="68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="53" t="n">
+      <c r="A61" s="65" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="54" t="n">
+      <c r="B61" s="66" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="55" t="s">
+      <c r="D61" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="56" t="n">
+      <c r="H61" s="68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="53" t="n">
+      <c r="A62" s="65" t="n">
         <v>43275</v>
       </c>
-      <c r="B62" s="54" t="n">
+      <c r="B62" s="66" t="n">
         <v>0.5</v>
       </c>
-      <c r="C62" s="55" t="s">
+      <c r="C62" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="55" t="s">
+      <c r="D62" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="56" t="n">
+      <c r="H62" s="68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="49" t="n">
+      <c r="A63" s="61" t="n">
         <v>43275</v>
       </c>
-      <c r="B63" s="50" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C63" s="51" t="s">
+      <c r="B63" s="62" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C63" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" s="51" t="s">
+      <c r="D63" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="52" t="n">
+      <c r="H63" s="64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="61" t="n">
+      <c r="A64" s="73" t="n">
         <v>43279</v>
       </c>
-      <c r="B64" s="62" t="n">
+      <c r="B64" s="74" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C64" s="63" t="s">
+      <c r="C64" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" s="63" t="s">
+      <c r="D64" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="76" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="64" t="n">
+      <c r="H64" s="76" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="61" t="n">
+      <c r="A65" s="73" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="62" t="n">
+      <c r="B65" s="74" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="63" t="s">
+      <c r="C65" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="64" t="n">
-        <v>3</v>
-      </c>
-      <c r="G65" s="63" t="s">
+      <c r="D65" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="64" t="n">
+      <c r="H65" s="76" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11142,7 +11213,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H76" activeCellId="0" sqref="H76"/>
+      <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11175,7 +11246,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12414,7 +12485,9 @@
       <c r="G56" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="36"/>
+      <c r="H56" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="32" t="n">
@@ -12438,7 +12511,9 @@
       <c r="G57" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="36"/>
+      <c r="H57" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="22"/>
@@ -12655,19 +12730,19 @@
       <c r="B68" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" s="65" t="s">
+      <c r="C68" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="77" t="s">
         <v>20</v>
       </c>
       <c r="H68" s="36" t="n">
@@ -12681,19 +12756,19 @@
       <c r="B69" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="65" t="s">
+      <c r="C69" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="E69" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" s="65" t="s">
+      <c r="D69" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="77" t="s">
         <v>12</v>
       </c>
       <c r="H69" s="36" t="n">
@@ -12707,19 +12782,19 @@
       <c r="B70" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="65" t="s">
+      <c r="C70" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="E70" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="65" t="s">
+      <c r="D70" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="77" t="s">
         <v>68</v>
       </c>
       <c r="H70" s="36" t="n">
@@ -12733,19 +12808,19 @@
       <c r="B71" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="E71" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="65" t="s">
+      <c r="C71" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="77" t="s">
         <v>18</v>
       </c>
       <c r="H71" s="36" t="n">
@@ -12759,19 +12834,19 @@
       <c r="B72" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="65" t="s">
+      <c r="C72" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="E72" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="F72" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="65" t="s">
+      <c r="D72" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="F72" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="77" t="s">
         <v>32</v>
       </c>
       <c r="H72" s="36" t="n">
@@ -12785,19 +12860,19 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="65" t="s">
+      <c r="C73" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="66" t="n">
-        <v>3</v>
-      </c>
-      <c r="E73" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="65" t="s">
+      <c r="D73" s="78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="77" t="s">
         <v>42</v>
       </c>
       <c r="H73" s="36" t="n">
@@ -12811,20 +12886,20 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="65" t="s">
+      <c r="C74" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="E74" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="65" t="s">
-        <v>71</v>
+      <c r="D74" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="77" t="s">
+        <v>72</v>
       </c>
       <c r="H74" s="36" t="n">
         <v>6</v>
@@ -12837,19 +12912,19 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="65" t="s">
+      <c r="C75" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="66" t="n">
-        <v>2</v>
-      </c>
-      <c r="G75" s="65" t="s">
+      <c r="D75" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" s="77" t="s">
         <v>39</v>
       </c>
       <c r="H75" s="36" t="n">
@@ -13202,8 +13277,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13889,19 +13964,19 @@
       <c r="C31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="68" t="n">
+      <c r="D31" s="80" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="68" t="n">
+      <c r="F31" s="80" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="69" t="n">
+      <c r="H31" s="81" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14475,7 +14550,9 @@
       <c r="G56" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="36"/>
+      <c r="H56" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="32" t="n">
@@ -14499,7 +14576,9 @@
       <c r="G57" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="36"/>
+      <c r="H57" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="22"/>
@@ -15262,8 +15341,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15296,7 +15375,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16535,7 +16614,9 @@
       <c r="G56" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="36"/>
+      <c r="H56" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="32" t="n">
@@ -16559,7 +16640,9 @@
       <c r="G57" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="36"/>
+      <c r="H57" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="22"/>
@@ -17322,8 +17405,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J75" activeCellId="0" sqref="J75"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -18598,7 +18681,9 @@
       <c r="G56" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="36"/>
+      <c r="H56" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="32" t="n">
@@ -18622,7 +18707,9 @@
       <c r="G57" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="36"/>
+      <c r="H57" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="22"/>
@@ -19386,7 +19473,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M36" activeCellId="0" sqref="M36"/>
+      <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -19419,7 +19506,7 @@
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H4:H77)</f>
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20658,7 +20745,9 @@
       <c r="G56" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="36"/>
+      <c r="H56" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="32" t="n">
@@ -20682,7 +20771,9 @@
       <c r="G57" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="36"/>
+      <c r="H57" s="36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="22"/>

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -479,7 +479,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -720,6 +720,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
@@ -895,7 +899,7 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H56" activeCellId="0" sqref="H56"/>
     </sheetView>
   </sheetViews>
@@ -2961,7 +2965,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R38" activeCellId="0" sqref="R38"/>
     </sheetView>
   </sheetViews>
@@ -4163,19 +4167,19 @@
       <c r="C54" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="82" t="n">
+      <c r="D54" s="83" t="n">
         <v>2</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="82" t="n">
+      <c r="F54" s="83" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="83" t="n">
+      <c r="H54" s="84" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4189,19 +4193,19 @@
       <c r="C55" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="82" t="n">
+      <c r="D55" s="83" t="n">
         <v>2</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="82" t="n">
+      <c r="F55" s="83" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="83" t="n">
+      <c r="H55" s="84" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5018,8 +5022,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N42" activeCellId="0" sqref="N42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C78" activeCellId="0" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6771,15 +6775,19 @@
       <c r="C78" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="43"/>
+      <c r="D78" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E78" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="43"/>
+      <c r="F78" s="43" t="n">
+        <v>3</v>
+      </c>
       <c r="G78" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="36"/>
+      <c r="H78" s="60"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="32" t="n">
@@ -6791,15 +6799,19 @@
       <c r="C79" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="43"/>
+      <c r="D79" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E79" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F79" s="43"/>
+      <c r="F79" s="43" t="n">
+        <v>3</v>
+      </c>
       <c r="G79" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H79" s="36"/>
+      <c r="H79" s="60"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="32" t="n">
@@ -6811,15 +6823,19 @@
       <c r="C80" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D80" s="43"/>
+      <c r="D80" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E80" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F80" s="43"/>
+      <c r="F80" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="G80" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H80" s="36"/>
+      <c r="H80" s="60"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="32" t="n">
@@ -6831,15 +6847,19 @@
       <c r="C81" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D81" s="43"/>
+      <c r="D81" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E81" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F81" s="43"/>
+      <c r="F81" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="G81" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H81" s="36"/>
+      <c r="H81" s="60"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="34"/>
@@ -7082,8 +7102,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D82" activeCellId="0" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8834,16 +8854,20 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="35"/>
+      <c r="C78" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E78" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="35"/>
-      <c r="G78" s="46" t="s">
-        <v>48</v>
+      <c r="F78" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G78" s="42" t="s">
+        <v>15</v>
       </c>
       <c r="H78" s="36"/>
     </row>
@@ -8854,16 +8878,20 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="35"/>
+      <c r="C79" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="43" t="n">
+        <v>3</v>
+      </c>
       <c r="E79" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F79" s="35"/>
-      <c r="G79" s="46" t="s">
-        <v>50</v>
+      <c r="F79" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="42" t="s">
+        <v>36</v>
       </c>
       <c r="H79" s="36"/>
     </row>
@@ -8874,16 +8902,20 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D80" s="35"/>
+      <c r="C80" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E80" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F80" s="35"/>
-      <c r="G80" s="46" t="s">
-        <v>52</v>
+      <c r="F80" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="H80" s="36"/>
     </row>
@@ -8894,16 +8926,20 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="35"/>
+      <c r="C81" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="E81" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F81" s="35"/>
-      <c r="G81" s="46" t="s">
-        <v>54</v>
+      <c r="F81" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="H81" s="36"/>
     </row>
@@ -9147,7 +9183,7 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H56" activeCellId="0" sqref="H56"/>
     </sheetView>
   </sheetViews>
@@ -9185,174 +9221,174 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60" t="s">
+      <c r="A3" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="61" t="n">
+      <c r="A4" s="62" t="n">
         <v>43265</v>
       </c>
-      <c r="B4" s="62" t="n">
+      <c r="B4" s="63" t="n">
         <v>0.5</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="64" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="63" t="s">
+      <c r="D4" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="64" t="n">
+      <c r="H4" s="65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61" t="n">
+      <c r="A5" s="62" t="n">
         <v>43266</v>
       </c>
-      <c r="B5" s="62" t="n">
+      <c r="B5" s="63" t="n">
         <v>0.375</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="63" t="s">
+      <c r="D5" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="64" t="n">
+      <c r="H5" s="65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="65" t="n">
+      <c r="A6" s="66" t="n">
         <v>43270</v>
       </c>
-      <c r="B6" s="66" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="67" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="67" t="s">
+      <c r="D6" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="68" t="n">
+      <c r="H6" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="61" t="n">
+      <c r="A7" s="62" t="n">
         <v>43271</v>
       </c>
-      <c r="B7" s="62" t="n">
+      <c r="B7" s="63" t="n">
         <v>0.5</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="64" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="65" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="64" t="n">
+      <c r="H7" s="65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="61" t="n">
+      <c r="A8" s="62" t="n">
         <v>43276</v>
       </c>
-      <c r="B8" s="62" t="n">
+      <c r="B8" s="63" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="64" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="63" t="s">
+      <c r="D8" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="64" t="n">
+      <c r="H8" s="65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="65" t="n">
+      <c r="A9" s="66" t="n">
         <v>43276</v>
       </c>
-      <c r="B9" s="66" t="n">
+      <c r="B9" s="67" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="68" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="67" t="s">
+      <c r="D9" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="69" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="68" t="n">
+      <c r="H9" s="69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9383,158 +9419,158 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="65" t="n">
+      <c r="A12" s="66" t="n">
         <v>43266</v>
       </c>
-      <c r="B12" s="66" t="n">
+      <c r="B12" s="67" t="n">
         <v>0.5</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="67" t="s">
+      <c r="D12" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="68" t="n">
+      <c r="H12" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="65" t="n">
+      <c r="A13" s="66" t="n">
         <v>43266</v>
       </c>
-      <c r="B13" s="66" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C13" s="67" t="s">
+      <c r="B13" s="67" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C13" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="67" t="s">
+      <c r="D13" s="69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="68" t="n">
+      <c r="H13" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="61" t="n">
+      <c r="A14" s="62" t="n">
         <v>43271</v>
       </c>
-      <c r="B14" s="62" t="n">
+      <c r="B14" s="63" t="n">
         <v>0.375</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="64" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="63" t="s">
+      <c r="D14" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="64" t="n">
+      <c r="H14" s="65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="61" t="n">
+      <c r="A15" s="62" t="n">
         <v>43271</v>
       </c>
-      <c r="B15" s="62" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="63" t="s">
+      <c r="B15" s="63" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="64" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="63" t="s">
+      <c r="D15" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="65" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="64" t="n">
+      <c r="H15" s="65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="65" t="n">
+      <c r="A16" s="66" t="n">
         <v>43276</v>
       </c>
-      <c r="B16" s="66" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C16" s="67" t="s">
+      <c r="B16" s="67" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="67" t="s">
+      <c r="D16" s="69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="68" t="n">
+      <c r="H16" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="65" t="n">
+      <c r="A17" s="66" t="n">
         <v>43276</v>
       </c>
-      <c r="B17" s="66" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C17" s="67" t="s">
+      <c r="B17" s="67" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C17" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="68" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" s="67" t="s">
+      <c r="D17" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="69" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="68" t="n">
+      <c r="H17" s="69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9565,158 +9601,158 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="61" t="n">
+      <c r="A20" s="62" t="n">
         <v>43267</v>
       </c>
-      <c r="B20" s="62" t="n">
+      <c r="B20" s="63" t="n">
         <v>0.291666666666667</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="64" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="63" t="s">
+      <c r="D20" s="65" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="64" t="n">
+      <c r="H20" s="65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="65" t="n">
+      <c r="A21" s="66" t="n">
         <v>43267</v>
       </c>
-      <c r="B21" s="66" t="n">
+      <c r="B21" s="67" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="67" t="s">
+      <c r="D21" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="68" t="n">
+      <c r="H21" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="65" t="n">
+      <c r="A22" s="66" t="n">
         <v>43272</v>
       </c>
-      <c r="B22" s="66" t="n">
+      <c r="B22" s="67" t="n">
         <v>0.375</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="67" t="s">
+      <c r="D22" s="69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="68" t="n">
+      <c r="H22" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="61" t="n">
+      <c r="A23" s="62" t="n">
         <v>43272</v>
       </c>
-      <c r="B23" s="62" t="n">
+      <c r="B23" s="63" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="64" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="63" t="s">
+      <c r="D23" s="65" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="64" t="n">
+      <c r="H23" s="65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="65" t="n">
+      <c r="A24" s="66" t="n">
         <v>43277</v>
       </c>
-      <c r="B24" s="66" t="n">
+      <c r="B24" s="67" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" s="67" t="s">
+      <c r="D24" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="69" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="68" t="n">
+      <c r="H24" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="65" t="n">
+      <c r="A25" s="66" t="n">
         <v>43277</v>
       </c>
-      <c r="B25" s="66" t="n">
+      <c r="B25" s="67" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="67" t="s">
+      <c r="D25" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="68" t="n">
+      <c r="H25" s="69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9747,158 +9783,158 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="65" t="n">
+      <c r="A28" s="66" t="n">
         <v>43267</v>
       </c>
-      <c r="B28" s="66" t="n">
+      <c r="B28" s="67" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="68" t="n">
+      <c r="D28" s="69" t="n">
         <v>4</v>
       </c>
-      <c r="E28" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="67" t="s">
+      <c r="E28" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="68" t="n">
+      <c r="H28" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="69" t="n">
+      <c r="A29" s="70" t="n">
         <v>43267</v>
       </c>
-      <c r="B29" s="70" t="n">
+      <c r="B29" s="71" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="72" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="71" t="s">
+      <c r="D29" s="73" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="72" t="n">
+      <c r="H29" s="73" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="65" t="n">
+      <c r="A30" s="66" t="n">
         <v>43272</v>
       </c>
-      <c r="B30" s="66" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="67" t="s">
+      <c r="B30" s="67" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C30" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="67" t="s">
+      <c r="D30" s="69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="68" t="n">
+      <c r="H30" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="65" t="n">
+      <c r="A31" s="66" t="n">
         <v>43273</v>
       </c>
-      <c r="B31" s="66" t="n">
+      <c r="B31" s="67" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" s="67" t="s">
+      <c r="D31" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="69" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="68" t="n">
+      <c r="H31" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="61" t="n">
+      <c r="A32" s="62" t="n">
         <v>43277</v>
       </c>
-      <c r="B32" s="62" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C32" s="63" t="s">
+      <c r="B32" s="63" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C32" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" s="63" t="s">
+      <c r="D32" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="64" t="n">
+      <c r="H32" s="65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="69" t="n">
+      <c r="A33" s="70" t="n">
         <v>43277</v>
       </c>
-      <c r="B33" s="70" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C33" s="71" t="s">
+      <c r="B33" s="71" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C33" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="72" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" s="71" t="s">
+      <c r="D33" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="73" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="72" t="n">
+      <c r="H33" s="73" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9931,158 +9967,158 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="65" t="n">
+      <c r="A36" s="66" t="n">
         <v>43268</v>
       </c>
-      <c r="B36" s="66" t="n">
+      <c r="B36" s="67" t="n">
         <v>0.375</v>
       </c>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="67" t="s">
+      <c r="D36" s="69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="68" t="n">
+      <c r="H36" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="65" t="n">
+      <c r="A37" s="66" t="n">
         <v>43268</v>
       </c>
-      <c r="B37" s="66" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="67" t="s">
+      <c r="B37" s="67" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="68" t="n">
+      <c r="D37" s="69" t="n">
         <v>4</v>
       </c>
-      <c r="E37" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="67" t="s">
+      <c r="E37" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="68" t="n">
+      <c r="H37" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="61" t="n">
+      <c r="A38" s="62" t="n">
         <v>43273</v>
       </c>
-      <c r="B38" s="62" t="n">
+      <c r="B38" s="63" t="n">
         <v>0.375</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="64" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="63" t="s">
+      <c r="D38" s="65" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="64" t="n">
+      <c r="H38" s="65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="65" t="n">
+      <c r="A39" s="66" t="n">
         <v>43273</v>
       </c>
-      <c r="B39" s="66" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="67" t="s">
+      <c r="B39" s="67" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="67" t="s">
+      <c r="D39" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="68" t="n">
+      <c r="H39" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="73" t="n">
+      <c r="A40" s="74" t="n">
         <v>43278</v>
       </c>
-      <c r="B40" s="74" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C40" s="75" t="s">
+      <c r="B40" s="75" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C40" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="76" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" s="75" t="s">
+      <c r="D40" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="76" t="n">
+      <c r="H40" s="77" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="73" t="n">
+      <c r="A41" s="74" t="n">
         <v>43278</v>
       </c>
-      <c r="B41" s="74" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C41" s="75" t="s">
+      <c r="B41" s="75" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C41" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="75" t="s">
+      <c r="D41" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="76" t="n">
+      <c r="H41" s="77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10113,158 +10149,158 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="65" t="n">
+      <c r="A44" s="66" t="n">
         <v>43268</v>
       </c>
-      <c r="B44" s="66" t="n">
+      <c r="B44" s="67" t="n">
         <v>0.5</v>
       </c>
-      <c r="C44" s="67" t="s">
+      <c r="C44" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="68" t="n">
+      <c r="D44" s="69" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="67" t="s">
+      <c r="E44" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="68" t="n">
+      <c r="H44" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="69" t="n">
+      <c r="A45" s="70" t="n">
         <v>43269</v>
       </c>
-      <c r="B45" s="70" t="n">
+      <c r="B45" s="71" t="n">
         <v>0.375</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="71" t="s">
+      <c r="D45" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="72" t="n">
+      <c r="H45" s="73" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="61" t="n">
+      <c r="A46" s="62" t="n">
         <v>43274</v>
       </c>
-      <c r="B46" s="62" t="n">
+      <c r="B46" s="63" t="n">
         <v>0.5</v>
       </c>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" s="63" t="s">
+      <c r="D46" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="64" t="n">
+      <c r="H46" s="65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="61" t="n">
+      <c r="A47" s="62" t="n">
         <v>43274</v>
       </c>
-      <c r="B47" s="62" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C47" s="63" t="s">
+      <c r="B47" s="63" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C47" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="64" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="63" t="s">
+      <c r="D47" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="64" t="n">
+      <c r="H47" s="65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="73" t="n">
+      <c r="A48" s="74" t="n">
         <v>43278</v>
       </c>
-      <c r="B48" s="74" t="n">
+      <c r="B48" s="75" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C48" s="75" t="s">
+      <c r="C48" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="75" t="s">
+      <c r="D48" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="76" t="n">
+      <c r="H48" s="77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="73" t="n">
+      <c r="A49" s="74" t="n">
         <v>43278</v>
       </c>
-      <c r="B49" s="74" t="n">
+      <c r="B49" s="75" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C49" s="75" t="s">
+      <c r="C49" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="76" t="n">
-        <v>3</v>
-      </c>
-      <c r="G49" s="75" t="s">
+      <c r="D49" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="76" t="n">
+      <c r="H49" s="77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10295,158 +10331,158 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="61" t="n">
+      <c r="A52" s="62" t="n">
         <v>43269</v>
       </c>
-      <c r="B52" s="62" t="n">
+      <c r="B52" s="63" t="n">
         <v>0.5</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="64" t="n">
+      <c r="D52" s="65" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="63" t="s">
+      <c r="E52" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="64" t="n">
+      <c r="H52" s="65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="61" t="n">
+      <c r="A53" s="62" t="n">
         <v>43269</v>
       </c>
-      <c r="B53" s="62" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C53" s="63" t="s">
+      <c r="B53" s="63" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G53" s="63" t="s">
+      <c r="D53" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="64" t="n">
+      <c r="H53" s="65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="61" t="n">
+      <c r="A54" s="62" t="n">
         <v>43274</v>
       </c>
-      <c r="B54" s="62" t="n">
+      <c r="B54" s="63" t="n">
         <v>0.375</v>
       </c>
-      <c r="C54" s="63" t="s">
+      <c r="C54" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="64" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="63" t="s">
+      <c r="D54" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="64" t="n">
+      <c r="H54" s="65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="61" t="n">
+      <c r="A55" s="62" t="n">
         <v>43275</v>
       </c>
-      <c r="B55" s="62" t="n">
+      <c r="B55" s="63" t="n">
         <v>0.375</v>
       </c>
-      <c r="C55" s="63" t="s">
+      <c r="C55" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="63" t="s">
+      <c r="D55" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="64" t="n">
+      <c r="H55" s="65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="73" t="n">
+      <c r="A56" s="74" t="n">
         <v>43279</v>
       </c>
-      <c r="B56" s="74" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C56" s="75" t="s">
+      <c r="B56" s="75" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C56" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="76" t="n">
-        <v>2</v>
-      </c>
-      <c r="E56" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="76" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" s="75" t="s">
+      <c r="D56" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="76" t="n">
+      <c r="H56" s="77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="73" t="n">
+      <c r="A57" s="74" t="n">
         <v>43279</v>
       </c>
-      <c r="B57" s="74" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C57" s="75" t="s">
+      <c r="B57" s="75" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C57" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="76" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" s="75" t="s">
+      <c r="D57" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="76" t="n">
+      <c r="H57" s="77" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10477,158 +10513,158 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="65" t="n">
+      <c r="A60" s="66" t="n">
         <v>43270</v>
       </c>
-      <c r="B60" s="66" t="n">
+      <c r="B60" s="67" t="n">
         <v>0.375</v>
       </c>
-      <c r="C60" s="67" t="s">
+      <c r="C60" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="68" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="67" t="s">
+      <c r="D60" s="69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="68" t="n">
+      <c r="H60" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="65" t="n">
+      <c r="A61" s="66" t="n">
         <v>43270</v>
       </c>
-      <c r="B61" s="66" t="n">
+      <c r="B61" s="67" t="n">
         <v>0.5</v>
       </c>
-      <c r="C61" s="67" t="s">
+      <c r="C61" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="67" t="s">
+      <c r="D61" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="68" t="n">
+      <c r="H61" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="65" t="n">
+      <c r="A62" s="66" t="n">
         <v>43275</v>
       </c>
-      <c r="B62" s="66" t="n">
+      <c r="B62" s="67" t="n">
         <v>0.5</v>
       </c>
-      <c r="C62" s="67" t="s">
+      <c r="C62" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="67" t="s">
+      <c r="D62" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="68" t="n">
+      <c r="H62" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="61" t="n">
+      <c r="A63" s="62" t="n">
         <v>43275</v>
       </c>
-      <c r="B63" s="62" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="C63" s="63" t="s">
+      <c r="B63" s="63" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C63" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" s="63" t="s">
+      <c r="D63" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="64" t="n">
+      <c r="H63" s="65" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="73" t="n">
+      <c r="A64" s="74" t="n">
         <v>43279</v>
       </c>
-      <c r="B64" s="74" t="n">
+      <c r="B64" s="75" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C64" s="75" t="s">
+      <c r="C64" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="76" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" s="75" t="s">
+      <c r="D64" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="76" t="n">
+      <c r="H64" s="77" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="73" t="n">
+      <c r="A65" s="74" t="n">
         <v>43279</v>
       </c>
-      <c r="B65" s="74" t="n">
+      <c r="B65" s="75" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C65" s="75" t="s">
+      <c r="C65" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="76" t="n">
-        <v>3</v>
-      </c>
-      <c r="G65" s="75" t="s">
+      <c r="D65" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="76" t="n">
+      <c r="H65" s="77" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11212,8 +11248,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K75" activeCellId="0" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12730,19 +12766,19 @@
       <c r="B68" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="77" t="s">
+      <c r="C68" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="D68" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" s="77" t="s">
+      <c r="D68" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="78" t="s">
         <v>20</v>
       </c>
       <c r="H68" s="36" t="n">
@@ -12756,19 +12792,19 @@
       <c r="B69" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="77" t="s">
+      <c r="C69" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="78" t="n">
-        <v>2</v>
-      </c>
-      <c r="E69" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" s="77" t="s">
+      <c r="D69" s="79" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="78" t="s">
         <v>12</v>
       </c>
       <c r="H69" s="36" t="n">
@@ -12782,19 +12818,19 @@
       <c r="B70" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="77" t="s">
+      <c r="C70" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="78" t="n">
-        <v>2</v>
-      </c>
-      <c r="E70" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="77" t="s">
+      <c r="D70" s="79" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="78" t="s">
         <v>68</v>
       </c>
       <c r="H70" s="36" t="n">
@@ -12808,19 +12844,19 @@
       <c r="B71" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="77" t="s">
+      <c r="C71" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="D71" s="78" t="n">
-        <v>2</v>
-      </c>
-      <c r="E71" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="77" t="s">
+      <c r="D71" s="79" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="78" t="s">
         <v>18</v>
       </c>
       <c r="H71" s="36" t="n">
@@ -12834,19 +12870,19 @@
       <c r="B72" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="77" t="s">
+      <c r="C72" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="78" t="n">
-        <v>2</v>
-      </c>
-      <c r="E72" s="79" t="s">
+      <c r="D72" s="79" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="F72" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="77" t="s">
+      <c r="F72" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="78" t="s">
         <v>32</v>
       </c>
       <c r="H72" s="36" t="n">
@@ -12860,19 +12896,19 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="77" t="s">
+      <c r="C73" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="78" t="n">
-        <v>3</v>
-      </c>
-      <c r="E73" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="77" t="s">
+      <c r="D73" s="79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="78" t="s">
         <v>42</v>
       </c>
       <c r="H73" s="36" t="n">
@@ -12886,19 +12922,19 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="77" t="s">
+      <c r="C74" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="78" t="n">
-        <v>2</v>
-      </c>
-      <c r="E74" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="77" t="s">
+      <c r="D74" s="79" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="78" t="s">
         <v>72</v>
       </c>
       <c r="H74" s="36" t="n">
@@ -12912,19 +12948,19 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="77" t="s">
+      <c r="C75" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="78" t="n">
-        <v>2</v>
-      </c>
-      <c r="G75" s="77" t="s">
+      <c r="D75" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="79" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" s="78" t="s">
         <v>39</v>
       </c>
       <c r="H75" s="36" t="n">
@@ -12964,16 +13000,20 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="35"/>
+      <c r="C78" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E78" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="35"/>
-      <c r="G78" s="46" t="s">
-        <v>48</v>
+      <c r="F78" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G78" s="42" t="s">
+        <v>15</v>
       </c>
       <c r="H78" s="36"/>
     </row>
@@ -12984,16 +13024,20 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="35"/>
+      <c r="C79" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E79" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F79" s="35"/>
-      <c r="G79" s="46" t="s">
-        <v>50</v>
+      <c r="F79" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="42" t="s">
+        <v>36</v>
       </c>
       <c r="H79" s="36"/>
     </row>
@@ -13004,16 +13048,20 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D80" s="35"/>
+      <c r="C80" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E80" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F80" s="35"/>
-      <c r="G80" s="46" t="s">
-        <v>52</v>
+      <c r="F80" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="H80" s="36"/>
     </row>
@@ -13024,16 +13072,20 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="35"/>
+      <c r="C81" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E81" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F81" s="35"/>
-      <c r="G81" s="46" t="s">
-        <v>54</v>
+      <c r="F81" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="H81" s="36"/>
     </row>
@@ -13277,7 +13329,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
     </sheetView>
   </sheetViews>
@@ -13964,19 +14016,19 @@
       <c r="C31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="80" t="n">
+      <c r="D31" s="81" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="80" t="n">
+      <c r="F31" s="81" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="81" t="n">
+      <c r="H31" s="82" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15341,7 +15393,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
     </sheetView>
   </sheetViews>
@@ -17405,7 +17457,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
     </sheetView>
   </sheetViews>
@@ -19472,7 +19524,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
     </sheetView>
   </sheetViews>

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -259,7 +259,7 @@
     <numFmt numFmtId="165" formatCode="DD/MM"/>
     <numFmt numFmtId="166" formatCode="H:MM;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -331,6 +331,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -479,7 +492,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -792,11 +805,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -811,6 +836,18 @@
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -4167,19 +4204,19 @@
       <c r="C54" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="83" t="n">
+      <c r="D54" s="89" t="n">
         <v>2</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="83" t="n">
+      <c r="F54" s="89" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="84" t="n">
+      <c r="H54" s="90" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4193,19 +4230,19 @@
       <c r="C55" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="83" t="n">
+      <c r="D55" s="89" t="n">
         <v>2</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="83" t="n">
+      <c r="F55" s="89" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="84" t="n">
+      <c r="H55" s="90" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7102,7 +7139,7 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D82" activeCellId="0" sqref="D82"/>
     </sheetView>
   </sheetViews>
@@ -9183,8 +9220,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H56" activeCellId="0" sqref="H56"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C90" activeCellId="0" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10935,16 +10972,20 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="35"/>
-      <c r="E78" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" s="35"/>
-      <c r="G78" s="46" t="s">
-        <v>48</v>
+      <c r="C78" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="79" t="n">
+        <v>2</v>
+      </c>
+      <c r="G78" s="78" t="s">
+        <v>8</v>
       </c>
       <c r="H78" s="36"/>
     </row>
@@ -10955,16 +10996,20 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="35"/>
-      <c r="E79" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" s="35"/>
-      <c r="G79" s="46" t="s">
-        <v>50</v>
+      <c r="C79" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="78" t="s">
+        <v>22</v>
       </c>
       <c r="H79" s="36"/>
     </row>
@@ -10975,16 +11020,20 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D80" s="35"/>
-      <c r="E80" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" s="35"/>
-      <c r="G80" s="46" t="s">
-        <v>52</v>
+      <c r="C80" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E80" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="78" t="s">
+        <v>36</v>
       </c>
       <c r="H80" s="36"/>
     </row>
@@ -10995,16 +11044,20 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="35"/>
-      <c r="E81" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="35"/>
-      <c r="G81" s="46" t="s">
-        <v>54</v>
+      <c r="C81" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="78" t="s">
+        <v>39</v>
       </c>
       <c r="H81" s="36"/>
     </row>
@@ -11248,7 +11301,7 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K75" activeCellId="0" sqref="K75"/>
     </sheetView>
   </sheetViews>
@@ -12766,19 +12819,19 @@
       <c r="B68" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C68" s="78" t="s">
+      <c r="C68" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="D68" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" s="78" t="s">
+      <c r="D68" s="82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="81" t="s">
         <v>20</v>
       </c>
       <c r="H68" s="36" t="n">
@@ -12792,19 +12845,19 @@
       <c r="B69" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C69" s="78" t="s">
+      <c r="C69" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="79" t="n">
-        <v>2</v>
-      </c>
-      <c r="E69" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" s="78" t="s">
+      <c r="D69" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="81" t="s">
         <v>12</v>
       </c>
       <c r="H69" s="36" t="n">
@@ -12818,19 +12871,19 @@
       <c r="B70" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C70" s="78" t="s">
+      <c r="C70" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="79" t="n">
-        <v>2</v>
-      </c>
-      <c r="E70" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="78" t="s">
+      <c r="D70" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="81" t="s">
         <v>68</v>
       </c>
       <c r="H70" s="36" t="n">
@@ -12844,19 +12897,19 @@
       <c r="B71" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C71" s="78" t="s">
+      <c r="C71" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="D71" s="79" t="n">
-        <v>2</v>
-      </c>
-      <c r="E71" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="78" t="s">
+      <c r="D71" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="81" t="s">
         <v>18</v>
       </c>
       <c r="H71" s="36" t="n">
@@ -12870,19 +12923,19 @@
       <c r="B72" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C72" s="78" t="s">
+      <c r="C72" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="79" t="n">
-        <v>2</v>
-      </c>
-      <c r="E72" s="80" t="s">
+      <c r="D72" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="F72" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="78" t="s">
+      <c r="F72" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="81" t="s">
         <v>32</v>
       </c>
       <c r="H72" s="36" t="n">
@@ -12896,19 +12949,19 @@
       <c r="B73" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C73" s="78" t="s">
+      <c r="C73" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="79" t="n">
-        <v>3</v>
-      </c>
-      <c r="E73" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="78" t="s">
+      <c r="D73" s="82" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="81" t="s">
         <v>42</v>
       </c>
       <c r="H73" s="36" t="n">
@@ -12922,19 +12975,19 @@
       <c r="B74" s="38" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C74" s="78" t="s">
+      <c r="C74" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="79" t="n">
-        <v>2</v>
-      </c>
-      <c r="E74" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="78" t="s">
+      <c r="D74" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="81" t="s">
         <v>72</v>
       </c>
       <c r="H74" s="36" t="n">
@@ -12948,19 +13001,19 @@
       <c r="B75" s="38" t="n">
         <v>0.625</v>
       </c>
-      <c r="C75" s="78" t="s">
+      <c r="C75" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="79" t="n">
-        <v>2</v>
-      </c>
-      <c r="G75" s="78" t="s">
+      <c r="D75" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" s="81" t="s">
         <v>39</v>
       </c>
       <c r="H75" s="36" t="n">
@@ -13329,8 +13382,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G72" activeCellId="0" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14016,19 +14069,19 @@
       <c r="C31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="81" t="n">
+      <c r="D31" s="84" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="81" t="n">
+      <c r="F31" s="84" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="82" t="n">
+      <c r="H31" s="85" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15081,16 +15134,20 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="35"/>
-      <c r="E78" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" s="35"/>
-      <c r="G78" s="46" t="s">
-        <v>48</v>
+      <c r="C78" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="79" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="78" t="s">
+        <v>8</v>
       </c>
       <c r="H78" s="36"/>
     </row>
@@ -15101,16 +15158,20 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="35"/>
-      <c r="E79" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" s="35"/>
-      <c r="G79" s="46" t="s">
-        <v>50</v>
+      <c r="C79" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="78" t="s">
+        <v>22</v>
       </c>
       <c r="H79" s="36"/>
     </row>
@@ -15121,16 +15182,20 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D80" s="35"/>
-      <c r="E80" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" s="35"/>
-      <c r="G80" s="46" t="s">
-        <v>52</v>
+      <c r="C80" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="79" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="78" t="s">
+        <v>36</v>
       </c>
       <c r="H80" s="36"/>
     </row>
@@ -15141,16 +15206,20 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="35"/>
-      <c r="E81" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="35"/>
-      <c r="G81" s="46" t="s">
-        <v>54</v>
+      <c r="C81" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="78" t="s">
+        <v>39</v>
       </c>
       <c r="H81" s="36"/>
     </row>
@@ -19524,8 +19593,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D84" activeCellId="0" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -21276,16 +21345,20 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="35"/>
-      <c r="E78" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" s="35"/>
-      <c r="G78" s="46" t="s">
-        <v>48</v>
+      <c r="C78" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="86" t="s">
+        <v>8</v>
       </c>
       <c r="H78" s="36"/>
     </row>
@@ -21296,16 +21369,20 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="35"/>
-      <c r="E79" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" s="35"/>
-      <c r="G79" s="46" t="s">
-        <v>50</v>
+      <c r="C79" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E79" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="86" t="s">
+        <v>36</v>
       </c>
       <c r="H79" s="36"/>
     </row>
@@ -21316,16 +21393,20 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D80" s="35"/>
-      <c r="E80" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" s="35"/>
-      <c r="G80" s="46" t="s">
-        <v>52</v>
+      <c r="C80" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="87" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" s="86" t="s">
+        <v>22</v>
       </c>
       <c r="H80" s="36"/>
     </row>
@@ -21336,16 +21417,20 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="35"/>
-      <c r="E81" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="35"/>
-      <c r="G81" s="46" t="s">
-        <v>54</v>
+      <c r="C81" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="87" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" s="86" t="s">
+        <v>39</v>
       </c>
       <c r="H81" s="36"/>
     </row>

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="65">
   <si>
     <t xml:space="preserve">RESULTADOS</t>
   </si>
@@ -172,28 +172,10 @@
     <t xml:space="preserve">QUARTAS DE FINAL</t>
   </si>
   <si>
-    <t xml:space="preserve">V49</t>
+    <t xml:space="preserve">Suecia</t>
   </si>
   <si>
-    <t xml:space="preserve">V50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V56</t>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">SEMIFINAL</t>
@@ -230,12 +212,6 @@
   </si>
   <si>
     <t xml:space="preserve">PALPITE DO CAMPEÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suecia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">França </t>
@@ -492,7 +468,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="88">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -837,18 +813,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -936,8 +900,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H56" activeCellId="0" sqref="H56"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -969,8 +933,8 @@
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
-        <f aca="false">SUM(H4:H77)</f>
-        <v>90</v>
+        <f aca="false">SUM(H4:H177)</f>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,18 +2652,24 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="35"/>
+      <c r="C78" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="43" t="n">
+        <v>4</v>
+      </c>
       <c r="E78" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="35"/>
-      <c r="G78" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H78" s="36"/>
+      <c r="F78" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G78" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="32" t="n">
@@ -2708,18 +2678,24 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="35"/>
+      <c r="C79" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="43" t="n">
+        <v>3</v>
+      </c>
       <c r="E79" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F79" s="35"/>
-      <c r="G79" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="H79" s="36"/>
+      <c r="F79" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="32" t="n">
@@ -2728,18 +2704,24 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D80" s="35"/>
+      <c r="C80" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E80" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F80" s="35"/>
-      <c r="G80" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="H80" s="36"/>
+      <c r="F80" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G80" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H80" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="32" t="n">
@@ -2748,18 +2730,24 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="35"/>
+      <c r="C81" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" s="43" t="n">
+        <v>3</v>
+      </c>
       <c r="E81" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F81" s="35"/>
-      <c r="G81" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H81" s="36"/>
+      <c r="F81" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="34"/>
@@ -2777,7 +2765,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -2795,7 +2783,7 @@
         <v>0.625</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
@@ -2803,7 +2791,7 @@
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -2815,7 +2803,7 @@
         <v>0.625</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
@@ -2823,7 +2811,7 @@
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="46" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -2843,7 +2831,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -2861,7 +2849,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -2869,7 +2857,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -2889,7 +2877,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -2907,7 +2895,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -2915,7 +2903,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -2935,7 +2923,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -2953,7 +2941,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -2961,7 +2949,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -3002,8 +2990,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R38" activeCellId="0" sqref="R38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3028,8 +3016,8 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="3" t="n">
-        <f aca="false">SUM(H4:H77)</f>
-        <v>105</v>
+        <f aca="false">SUM(H4:H100)</f>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4204,19 +4192,19 @@
       <c r="C54" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="89" t="n">
+      <c r="D54" s="86" t="n">
         <v>2</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="89" t="n">
+      <c r="F54" s="86" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="90" t="n">
+      <c r="H54" s="87" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4230,19 +4218,19 @@
       <c r="C55" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="89" t="n">
+      <c r="D55" s="86" t="n">
         <v>2</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="89" t="n">
+      <c r="F55" s="86" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="90" t="n">
+      <c r="H55" s="87" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4747,18 +4735,24 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="35"/>
+      <c r="C78" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E78" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="35"/>
-      <c r="G78" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H78" s="36"/>
+      <c r="F78" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G78" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="32" t="n">
@@ -4767,18 +4761,24 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="35"/>
+      <c r="C79" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E79" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F79" s="35"/>
-      <c r="G79" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="H79" s="36"/>
+      <c r="F79" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="32" t="n">
@@ -4787,18 +4787,24 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D80" s="35"/>
+      <c r="C80" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="E80" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F80" s="35"/>
-      <c r="G80" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="H80" s="36"/>
+      <c r="F80" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H80" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="32" t="n">
@@ -4807,18 +4813,24 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="35"/>
+      <c r="C81" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E81" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F81" s="35"/>
-      <c r="G81" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H81" s="36"/>
+      <c r="F81" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H81" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="34"/>
@@ -4836,7 +4848,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -4854,7 +4866,7 @@
         <v>0.625</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
@@ -4862,7 +4874,7 @@
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -4874,7 +4886,7 @@
         <v>0.625</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
@@ -4882,7 +4894,7 @@
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="46" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -4902,7 +4914,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -4920,7 +4932,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -4928,7 +4940,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -4948,7 +4960,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -4966,7 +4978,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -4974,7 +4986,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -4994,7 +5006,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -5012,7 +5024,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -5020,7 +5032,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -5059,8 +5071,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C78" activeCellId="0" sqref="C78"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5092,8 +5104,8 @@
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
-        <f aca="false">SUM(H4:H77)</f>
-        <v>93</v>
+        <f aca="false">SUM(H4:H177)</f>
+        <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6824,7 +6836,9 @@
       <c r="G78" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="60"/>
+      <c r="H78" s="60" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="32" t="n">
@@ -6848,7 +6862,9 @@
       <c r="G79" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H79" s="60"/>
+      <c r="H79" s="60" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="32" t="n">
@@ -6858,7 +6874,7 @@
         <v>0.625</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D80" s="43" t="n">
         <v>1</v>
@@ -6872,7 +6888,9 @@
       <c r="G80" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H80" s="60"/>
+      <c r="H80" s="60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="32" t="n">
@@ -6882,7 +6900,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D81" s="43" t="n">
         <v>2</v>
@@ -6896,7 +6914,9 @@
       <c r="G81" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H81" s="60"/>
+      <c r="H81" s="60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="34"/>
@@ -6914,7 +6934,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -6932,7 +6952,7 @@
         <v>0.625</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
@@ -6940,7 +6960,7 @@
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -6952,7 +6972,7 @@
         <v>0.625</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
@@ -6960,7 +6980,7 @@
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="46" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -6980,7 +7000,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -6998,7 +7018,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -7006,7 +7026,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -7026,7 +7046,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -7044,7 +7064,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -7052,7 +7072,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -7072,7 +7092,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -7090,7 +7110,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -7098,7 +7118,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -7139,8 +7159,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D82" activeCellId="0" sqref="D82"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H82" activeCellId="0" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7172,8 +7192,8 @@
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
-        <f aca="false">SUM(H4:H77)</f>
-        <v>101</v>
+        <f aca="false">SUM(H4:H177)</f>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8906,7 +8926,9 @@
       <c r="G78" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="36"/>
+      <c r="H78" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="32" t="n">
@@ -8930,7 +8952,9 @@
       <c r="G79" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H79" s="36"/>
+      <c r="H79" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="32" t="n">
@@ -8940,7 +8964,7 @@
         <v>0.625</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D80" s="43" t="n">
         <v>1</v>
@@ -8954,7 +8978,9 @@
       <c r="G80" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H80" s="36"/>
+      <c r="H80" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="32" t="n">
@@ -8964,7 +8990,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D81" s="43" t="n">
         <v>0</v>
@@ -8978,7 +9004,9 @@
       <c r="G81" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H81" s="36"/>
+      <c r="H81" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="34"/>
@@ -8996,7 +9024,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -9014,7 +9042,7 @@
         <v>0.625</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
@@ -9022,7 +9050,7 @@
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -9034,7 +9062,7 @@
         <v>0.625</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
@@ -9042,7 +9070,7 @@
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="46" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -9062,7 +9090,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -9080,7 +9108,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -9088,7 +9116,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -9108,7 +9136,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -9126,7 +9154,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -9134,7 +9162,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -9154,7 +9182,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -9172,7 +9200,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -9180,7 +9208,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -9220,8 +9248,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C90" activeCellId="0" sqref="C90"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9253,8 +9281,8 @@
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
-        <f aca="false">SUM(H4:H77)</f>
-        <v>106</v>
+        <f aca="false">SUM(H4:H100)</f>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10987,7 +11015,9 @@
       <c r="G78" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H78" s="36"/>
+      <c r="H78" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="32" t="n">
@@ -11011,7 +11041,9 @@
       <c r="G79" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="H79" s="36"/>
+      <c r="H79" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="32" t="n">
@@ -11035,7 +11067,9 @@
       <c r="G80" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="H80" s="36"/>
+      <c r="H80" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="32" t="n">
@@ -11059,7 +11093,9 @@
       <c r="G81" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="H81" s="36"/>
+      <c r="H81" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="34"/>
@@ -11077,7 +11113,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -11095,7 +11131,7 @@
         <v>0.625</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
@@ -11103,7 +11139,7 @@
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -11115,7 +11151,7 @@
         <v>0.625</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
@@ -11123,7 +11159,7 @@
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="46" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -11143,7 +11179,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -11161,7 +11197,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -11169,7 +11205,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -11189,7 +11225,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -11207,7 +11243,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -11215,7 +11251,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -11235,7 +11271,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -11253,7 +11289,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -11261,7 +11297,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -11301,8 +11337,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K75" activeCellId="0" sqref="K75"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H78" activeCellId="0" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11334,8 +11370,8 @@
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
-        <f aca="false">SUM(H4:H77)</f>
-        <v>112</v>
+        <f aca="false">SUM(H4:H100)</f>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12820,7 +12856,7 @@
         <v>0.625</v>
       </c>
       <c r="C68" s="81" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D68" s="82" t="n">
         <v>1</v>
@@ -12884,7 +12920,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="81" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="H70" s="36" t="n">
         <v>0</v>
@@ -12898,7 +12934,7 @@
         <v>0.625</v>
       </c>
       <c r="C71" s="81" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D71" s="82" t="n">
         <v>2</v>
@@ -12930,7 +12966,7 @@
         <v>2</v>
       </c>
       <c r="E72" s="83" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F72" s="82" t="n">
         <v>0</v>
@@ -12988,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="81" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H74" s="36" t="n">
         <v>6</v>
@@ -13068,7 +13104,9 @@
       <c r="G78" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="36"/>
+      <c r="H78" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="32" t="n">
@@ -13092,7 +13130,9 @@
       <c r="G79" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H79" s="36"/>
+      <c r="H79" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="32" t="n">
@@ -13102,7 +13142,7 @@
         <v>0.625</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D80" s="43" t="n">
         <v>1</v>
@@ -13116,7 +13156,9 @@
       <c r="G80" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H80" s="36"/>
+      <c r="H80" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="32" t="n">
@@ -13126,7 +13168,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D81" s="43" t="n">
         <v>1</v>
@@ -13140,7 +13182,9 @@
       <c r="G81" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H81" s="36"/>
+      <c r="H81" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="34"/>
@@ -13158,7 +13202,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -13176,7 +13220,7 @@
         <v>0.625</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
@@ -13184,7 +13228,7 @@
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -13196,7 +13240,7 @@
         <v>0.625</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
@@ -13204,7 +13248,7 @@
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="46" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -13224,7 +13268,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -13242,7 +13286,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -13250,7 +13294,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -13270,7 +13314,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -13288,7 +13332,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -13296,7 +13340,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -13316,7 +13360,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -13334,7 +13378,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -13342,7 +13386,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -13382,8 +13426,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G72" activeCellId="0" sqref="G72"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H82" activeCellId="0" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13415,8 +13459,8 @@
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
-        <f aca="false">SUM(H4:H77)</f>
-        <v>144</v>
+        <f aca="false">SUM(H4:H100)</f>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15149,7 +15193,9 @@
       <c r="G78" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H78" s="36"/>
+      <c r="H78" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="32" t="n">
@@ -15173,7 +15219,9 @@
       <c r="G79" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="H79" s="36"/>
+      <c r="H79" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="32" t="n">
@@ -15197,7 +15245,9 @@
       <c r="G80" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="H80" s="36"/>
+      <c r="H80" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="32" t="n">
@@ -15221,7 +15271,9 @@
       <c r="G81" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="H81" s="36"/>
+      <c r="H81" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="34"/>
@@ -15239,7 +15291,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -15257,7 +15309,7 @@
         <v>0.625</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
@@ -15265,7 +15317,7 @@
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -15277,7 +15329,7 @@
         <v>0.625</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
@@ -15285,7 +15337,7 @@
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="46" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -15305,7 +15357,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -15323,7 +15375,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -15331,7 +15383,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -15351,7 +15403,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -15369,7 +15421,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -15377,7 +15429,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -15397,7 +15449,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -15415,7 +15467,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -15423,7 +15475,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -15463,7 +15515,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
+      <selection pane="topLeft" activeCell="H82" activeCellId="0" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15495,8 +15547,8 @@
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
-        <f aca="false">SUM(H4:H77)</f>
-        <v>113</v>
+        <f aca="false">SUM(H4:H100)</f>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17214,18 +17266,24 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="35"/>
+      <c r="C78" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="E78" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="35"/>
-      <c r="G78" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H78" s="36"/>
+      <c r="F78" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="32" t="n">
@@ -17234,18 +17292,24 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="35"/>
+      <c r="C79" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E79" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F79" s="35"/>
-      <c r="G79" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="H79" s="36"/>
+      <c r="F79" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G79" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" s="36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="32" t="n">
@@ -17254,18 +17318,24 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D80" s="35"/>
+      <c r="C80" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E80" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F80" s="35"/>
-      <c r="G80" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="H80" s="36"/>
+      <c r="F80" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H80" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="32" t="n">
@@ -17274,18 +17344,24 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="35"/>
+      <c r="C81" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="E81" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F81" s="35"/>
-      <c r="G81" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H81" s="36"/>
+      <c r="F81" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="34"/>
@@ -17303,7 +17379,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -17321,7 +17397,7 @@
         <v>0.625</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
@@ -17329,7 +17405,7 @@
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -17341,7 +17417,7 @@
         <v>0.625</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
@@ -17349,7 +17425,7 @@
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="46" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -17369,7 +17445,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -17387,7 +17463,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -17395,7 +17471,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -17415,7 +17491,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -17433,7 +17509,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -17441,7 +17517,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -17461,7 +17537,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -17479,7 +17555,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -17487,7 +17563,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -17526,8 +17602,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -17562,8 +17638,8 @@
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
-        <f aca="false">SUM(H4:H77)</f>
-        <v>119</v>
+        <f aca="false">SUM(H4:H100)</f>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19281,18 +19357,24 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="35"/>
+      <c r="C78" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E78" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F78" s="35"/>
-      <c r="G78" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H78" s="36"/>
+      <c r="F78" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="32" t="n">
@@ -19301,18 +19383,24 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="35"/>
+      <c r="C79" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E79" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F79" s="35"/>
-      <c r="G79" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="H79" s="36"/>
+      <c r="F79" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="32" t="n">
@@ -19321,18 +19409,24 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D80" s="35"/>
+      <c r="C80" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="E80" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F80" s="35"/>
-      <c r="G80" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="H80" s="36"/>
+      <c r="F80" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H80" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="32" t="n">
@@ -19341,18 +19435,24 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="35"/>
+      <c r="C81" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E81" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F81" s="35"/>
-      <c r="G81" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H81" s="36"/>
+      <c r="F81" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="34"/>
@@ -19370,7 +19470,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -19388,7 +19488,7 @@
         <v>0.625</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
@@ -19396,7 +19496,7 @@
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -19408,7 +19508,7 @@
         <v>0.625</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
@@ -19416,7 +19516,7 @@
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="46" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -19436,7 +19536,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -19454,7 +19554,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -19462,7 +19562,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -19482,7 +19582,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -19500,7 +19600,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -19508,7 +19608,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -19528,7 +19628,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -19546,7 +19646,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -19554,7 +19654,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -19593,8 +19693,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D84" activeCellId="0" sqref="D84"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -19626,8 +19726,8 @@
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="3" t="n">
-        <f aca="false">SUM(H4:H77)</f>
-        <v>122</v>
+        <f aca="false">SUM(H4:H100)</f>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21345,22 +21445,24 @@
       <c r="B78" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C78" s="86" t="s">
+      <c r="C78" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" s="86" t="s">
+      <c r="D78" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="H78" s="36"/>
+      <c r="H78" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="32" t="n">
@@ -21369,22 +21471,24 @@
       <c r="B79" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C79" s="86" t="s">
+      <c r="C79" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="87" t="n">
-        <v>2</v>
-      </c>
-      <c r="E79" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" s="86" t="s">
+      <c r="D79" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H79" s="36"/>
+      <c r="H79" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="32" t="n">
@@ -21393,22 +21497,24 @@
       <c r="B80" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C80" s="86" t="s">
+      <c r="C80" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" s="87" t="n">
-        <v>2</v>
-      </c>
-      <c r="G80" s="86" t="s">
+      <c r="D80" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H80" s="36"/>
+      <c r="H80" s="36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="32" t="n">
@@ -21417,22 +21523,24 @@
       <c r="B81" s="33" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C81" s="86" t="s">
+      <c r="C81" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D81" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="87" t="n">
-        <v>2</v>
-      </c>
-      <c r="G81" s="86" t="s">
+      <c r="D81" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H81" s="36"/>
+      <c r="H81" s="36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="34"/>
@@ -21450,7 +21558,7 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -21468,7 +21576,7 @@
         <v>0.625</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
@@ -21476,7 +21584,7 @@
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -21488,7 +21596,7 @@
         <v>0.625</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
@@ -21496,7 +21604,7 @@
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="46" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -21516,7 +21624,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -21534,7 +21642,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -21542,7 +21650,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -21562,7 +21670,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -21580,7 +21688,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -21588,7 +21696,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -21608,7 +21716,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -21626,7 +21734,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -21634,7 +21742,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H94" s="36"/>
     </row>

--- a/bolão final 1 rodada.xlsx
+++ b/bolão final 1 rodada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Victor" sheetId="1" state="visible" r:id="rId2"/>
@@ -181,18 +181,6 @@
     <t xml:space="preserve">SEMIFINAL</t>
   </si>
   <si>
-    <t xml:space="preserve">V57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V60</t>
-  </si>
-  <si>
     <t xml:space="preserve">DECISÃO DO 3º LUGAR</t>
   </si>
   <si>
@@ -212,6 +200,18 @@
   </si>
   <si>
     <t xml:space="preserve">PALPITE DO CAMPEÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V60</t>
   </si>
   <si>
     <t xml:space="preserve">França </t>
@@ -900,8 +900,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F86" activeCellId="0" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2782,16 +2782,20 @@
       <c r="B84" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84" s="35"/>
+      <c r="C84" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="43" t="n">
+        <v>5</v>
+      </c>
       <c r="E84" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F84" s="35"/>
-      <c r="G84" s="46" t="s">
-        <v>51</v>
+      <c r="F84" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G84" s="42" t="s">
+        <v>36</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -2802,16 +2806,20 @@
       <c r="B85" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D85" s="35"/>
+      <c r="C85" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="43" t="n">
+        <v>5</v>
+      </c>
       <c r="E85" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="35"/>
-      <c r="G85" s="46" t="s">
-        <v>53</v>
+      <c r="F85" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -2831,7 +2839,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -2849,7 +2857,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -2857,7 +2865,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -2877,7 +2885,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -2895,7 +2903,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -2903,7 +2911,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -2923,7 +2931,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -2941,7 +2949,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -2949,7 +2957,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -2990,8 +2998,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C84" activeCellId="0" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4865,16 +4873,20 @@
       <c r="B84" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84" s="35"/>
+      <c r="C84" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E84" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F84" s="35"/>
-      <c r="G84" s="46" t="s">
-        <v>51</v>
+      <c r="F84" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" s="42" t="s">
+        <v>36</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -4885,16 +4897,20 @@
       <c r="B85" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D85" s="35"/>
+      <c r="C85" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E85" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="35"/>
-      <c r="G85" s="46" t="s">
-        <v>53</v>
+      <c r="F85" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -4914,7 +4930,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -4932,7 +4948,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -4940,7 +4956,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -4960,7 +4976,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -4978,7 +4994,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -4986,7 +5002,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -5006,7 +5022,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -5024,7 +5040,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -5032,7 +5048,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -5071,8 +5087,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F85" activeCellId="0" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6951,16 +6967,20 @@
       <c r="B84" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84" s="35"/>
+      <c r="C84" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="43" t="n">
+        <v>3</v>
+      </c>
       <c r="E84" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F84" s="35"/>
-      <c r="G84" s="46" t="s">
-        <v>51</v>
+      <c r="F84" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G84" s="42" t="s">
+        <v>36</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -6971,16 +6991,20 @@
       <c r="B85" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D85" s="35"/>
+      <c r="C85" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E85" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="35"/>
-      <c r="G85" s="46" t="s">
-        <v>53</v>
+      <c r="F85" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -7000,7 +7024,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -7018,7 +7042,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -7026,7 +7050,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -7046,7 +7070,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -7064,7 +7088,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -7072,7 +7096,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -7092,7 +7116,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -7110,7 +7134,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -7118,7 +7142,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -7159,8 +7183,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H82" activeCellId="0" sqref="H82"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D85" activeCellId="0" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9041,16 +9065,20 @@
       <c r="B84" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84" s="35"/>
+      <c r="C84" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="43" t="n">
+        <v>3</v>
+      </c>
       <c r="E84" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F84" s="35"/>
-      <c r="G84" s="46" t="s">
-        <v>51</v>
+      <c r="F84" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" s="42" t="s">
+        <v>36</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -9061,16 +9089,20 @@
       <c r="B85" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D85" s="35"/>
+      <c r="C85" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E85" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="35"/>
-      <c r="G85" s="46" t="s">
-        <v>53</v>
+      <c r="F85" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -9090,7 +9122,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -9108,7 +9140,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -9116,7 +9148,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -9136,7 +9168,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -9154,7 +9186,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -9162,7 +9194,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -9182,7 +9214,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -9200,7 +9232,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -9208,7 +9240,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -11131,7 +11163,7 @@
         <v>0.625</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
@@ -11139,7 +11171,7 @@
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="46" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -11151,7 +11183,7 @@
         <v>0.625</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
@@ -11159,7 +11191,7 @@
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="46" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -11179,7 +11211,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -11197,7 +11229,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -11205,7 +11237,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -11225,7 +11257,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -11243,7 +11275,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -11251,7 +11283,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -11271,7 +11303,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -11289,7 +11321,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -11297,7 +11329,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -11338,7 +11370,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H78" activeCellId="0" sqref="H78"/>
+      <selection pane="topLeft" activeCell="F86" activeCellId="0" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13219,16 +13251,20 @@
       <c r="B84" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84" s="35"/>
+      <c r="C84" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="43" t="n">
+        <v>3</v>
+      </c>
       <c r="E84" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F84" s="35"/>
-      <c r="G84" s="46" t="s">
-        <v>51</v>
+      <c r="F84" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="42" t="s">
+        <v>36</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -13239,16 +13275,20 @@
       <c r="B85" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D85" s="35"/>
+      <c r="C85" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E85" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="35"/>
-      <c r="G85" s="46" t="s">
-        <v>53</v>
+      <c r="F85" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -13268,7 +13308,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -13286,7 +13326,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -13294,7 +13334,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -13314,7 +13354,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -13332,7 +13372,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -13340,7 +13380,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -13360,7 +13400,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -13378,7 +13418,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -13386,7 +13426,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -13426,8 +13466,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H82" activeCellId="0" sqref="H82"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F85" activeCellId="0" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15308,16 +15348,20 @@
       <c r="B84" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84" s="35"/>
+      <c r="C84" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E84" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F84" s="35"/>
-      <c r="G84" s="46" t="s">
-        <v>51</v>
+      <c r="F84" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" s="42" t="s">
+        <v>36</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -15328,16 +15372,20 @@
       <c r="B85" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D85" s="35"/>
+      <c r="C85" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="43" t="n">
+        <v>1</v>
+      </c>
       <c r="E85" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="35"/>
-      <c r="G85" s="46" t="s">
-        <v>53</v>
+      <c r="F85" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -15357,7 +15405,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -15375,7 +15423,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -15383,7 +15431,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -15403,7 +15451,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -15421,7 +15469,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -15429,7 +15477,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -15449,7 +15497,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -15467,7 +15515,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -15475,7 +15523,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -17397,7 +17445,7 @@
         <v>0.625</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
@@ -17405,7 +17453,7 @@
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="46" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -17417,7 +17465,7 @@
         <v>0.625</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
@@ -17425,7 +17473,7 @@
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="46" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -17445,7 +17493,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -17463,7 +17511,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -17471,7 +17519,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -17491,7 +17539,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -17509,7 +17557,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -17517,7 +17565,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -17537,7 +17585,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -17555,7 +17603,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -17563,7 +17611,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -17602,8 +17650,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F85" activeCellId="0" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -19487,16 +19535,20 @@
       <c r="B84" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C84" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84" s="35"/>
+      <c r="C84" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E84" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F84" s="35"/>
-      <c r="G84" s="46" t="s">
-        <v>51</v>
+      <c r="F84" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="42" t="s">
+        <v>36</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -19507,16 +19559,20 @@
       <c r="B85" s="33" t="n">
         <v>0.625</v>
       </c>
-      <c r="C85" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D85" s="35"/>
+      <c r="C85" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="43" t="n">
+        <v>2</v>
+      </c>
       <c r="E85" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="35"/>
-      <c r="G85" s="46" t="s">
-        <v>53</v>
+      <c r="F85" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -19536,7 +19592,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -19554,7 +19610,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -19562,7 +19618,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -19582,7 +19638,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -19600,7 +19656,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -19608,7 +19664,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -19628,7 +19684,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -19646,7 +19702,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -19654,7 +19710,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H94" s="36"/>
     </row>
@@ -21576,7 +21632,7 @@
         <v>0.625</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="34" t="s">
@@ -21584,7 +21640,7 @@
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="46" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H84" s="36"/>
     </row>
@@ -21596,7 +21652,7 @@
         <v>0.625</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="34" t="s">
@@ -21604,7 +21660,7 @@
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="46" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H85" s="36"/>
     </row>
@@ -21624,7 +21680,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -21642,7 +21698,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="34" t="s">
@@ -21650,7 +21706,7 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H88" s="36"/>
     </row>
@@ -21670,7 +21726,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -21688,7 +21744,7 @@
         <v>0.5</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="34" t="s">
@@ -21696,7 +21752,7 @@
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -21716,7 +21772,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -21734,7 +21790,7 @@
         <v>0.5</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="39" t="s">
@@ -21742,7 +21798,7 @@
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H94" s="36"/>
     </row>
